--- a/public/data/Master App Timesheet.xlsx
+++ b/public/data/Master App Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgelD\timesheet-app\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56F6D55-9E7A-4264-B4DB-1E0256167DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03989A7-30A1-494C-BD18-814BE3503E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vendor Entry Sheet" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2891" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2896" uniqueCount="662">
   <si>
     <t xml:space="preserve">Date
 </t>
@@ -2093,7 +2093,7 @@
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="165" formatCode="0000"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2293,17 +2293,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2763,7 +2752,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2935,12 +2924,6 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2952,9 +2935,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2982,24 +2962,6 @@
     <xf numFmtId="0" fontId="26" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -3522,14 +3484,14 @@
     <row r="1" spans="1:15" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
       <c r="G1" s="49"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
       <c r="K1" s="13"/>
       <c r="M1" s="45"/>
       <c r="N1" s="46"/>
@@ -3613,14 +3575,14 @@
       <c r="A4" s="51"/>
       <c r="B4" s="32"/>
       <c r="C4" s="33"/>
-      <c r="D4" s="58"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="34"/>
       <c r="F4" s="36"/>
       <c r="G4" s="33"/>
       <c r="H4" s="37"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="60"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
@@ -3629,7 +3591,7 @@
         <f>IFERROR(VLOOKUP(B5,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D5" s="58" t="str">
+      <c r="D5" s="56" t="str">
         <f>IFERROR(VLOOKUP(B5,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -3637,15 +3599,15 @@
       <c r="F5" s="36"/>
       <c r="G5" s="33"/>
       <c r="H5" s="37"/>
-      <c r="I5" s="59" t="str">
+      <c r="I5" s="57" t="str">
         <f>IF(B5="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J5" s="59" t="str">
+      <c r="J5" s="57" t="str">
         <f>IF(B5="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K5" s="60" t="str">
+      <c r="K5" s="58" t="str">
         <f>IFERROR(VLOOKUP(B5,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -3657,7 +3619,7 @@
         <f>IFERROR(VLOOKUP(B6,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D6" s="58" t="str">
+      <c r="D6" s="56" t="str">
         <f>IFERROR(VLOOKUP(B6,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -3665,15 +3627,15 @@
       <c r="F6" s="36"/>
       <c r="G6" s="33"/>
       <c r="H6" s="37"/>
-      <c r="I6" s="59" t="str">
+      <c r="I6" s="57" t="str">
         <f>IF(B6="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J6" s="59" t="str">
+      <c r="J6" s="57" t="str">
         <f>IF(B6="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K6" s="60" t="str">
+      <c r="K6" s="58" t="str">
         <f>IFERROR(VLOOKUP(B6,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -3685,7 +3647,7 @@
         <f>IFERROR(VLOOKUP(B7,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D7" s="58" t="str">
+      <c r="D7" s="56" t="str">
         <f>IFERROR(VLOOKUP(B7,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -3693,15 +3655,15 @@
       <c r="F7" s="36"/>
       <c r="G7" s="33"/>
       <c r="H7" s="37"/>
-      <c r="I7" s="59" t="str">
+      <c r="I7" s="57" t="str">
         <f>IF(B7="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J7" s="59" t="str">
+      <c r="J7" s="57" t="str">
         <f>IF(B7="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K7" s="60" t="str">
+      <c r="K7" s="58" t="str">
         <f>IFERROR(VLOOKUP(B7,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -3713,7 +3675,7 @@
         <f>IFERROR(VLOOKUP(B8,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D8" s="58" t="str">
+      <c r="D8" s="56" t="str">
         <f>IFERROR(VLOOKUP(B8,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -3721,15 +3683,15 @@
       <c r="F8" s="36"/>
       <c r="G8" s="33"/>
       <c r="H8" s="37"/>
-      <c r="I8" s="59" t="str">
+      <c r="I8" s="57" t="str">
         <f>IF(B8="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J8" s="59" t="str">
+      <c r="J8" s="57" t="str">
         <f>IF(B8="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K8" s="60" t="str">
+      <c r="K8" s="58" t="str">
         <f>IFERROR(VLOOKUP(B8,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -3741,7 +3703,7 @@
         <f>IFERROR(VLOOKUP(B9,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D9" s="58" t="str">
+      <c r="D9" s="56" t="str">
         <f>IFERROR(VLOOKUP(B9,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -3749,15 +3711,15 @@
       <c r="F9" s="36"/>
       <c r="G9" s="33"/>
       <c r="H9" s="37"/>
-      <c r="I9" s="59" t="str">
+      <c r="I9" s="57" t="str">
         <f>IF(B9="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J9" s="59" t="str">
+      <c r="J9" s="57" t="str">
         <f>IF(B9="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K9" s="60" t="str">
+      <c r="K9" s="58" t="str">
         <f>IFERROR(VLOOKUP(B9,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -3769,7 +3731,7 @@
         <f>IFERROR(VLOOKUP(B10,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D10" s="58" t="str">
+      <c r="D10" s="56" t="str">
         <f>IFERROR(VLOOKUP(B10,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -3777,15 +3739,15 @@
       <c r="F10" s="36"/>
       <c r="G10" s="33"/>
       <c r="H10" s="37"/>
-      <c r="I10" s="59" t="str">
+      <c r="I10" s="57" t="str">
         <f>IF(B10="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J10" s="59" t="str">
+      <c r="J10" s="57" t="str">
         <f>IF(B10="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K10" s="60" t="str">
+      <c r="K10" s="58" t="str">
         <f>IFERROR(VLOOKUP(B10,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -3797,7 +3759,7 @@
         <f>IFERROR(VLOOKUP(B11,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D11" s="58" t="str">
+      <c r="D11" s="56" t="str">
         <f>IFERROR(VLOOKUP(B11,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -3805,15 +3767,15 @@
       <c r="F11" s="36"/>
       <c r="G11" s="33"/>
       <c r="H11" s="37"/>
-      <c r="I11" s="59" t="str">
+      <c r="I11" s="57" t="str">
         <f>IF(B11="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J11" s="59" t="str">
+      <c r="J11" s="57" t="str">
         <f>IF(B11="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K11" s="60" t="str">
+      <c r="K11" s="58" t="str">
         <f>IFERROR(VLOOKUP(B11,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -3825,7 +3787,7 @@
         <f>IFERROR(VLOOKUP(B12,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D12" s="58" t="str">
+      <c r="D12" s="56" t="str">
         <f>IFERROR(VLOOKUP(B12,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -3833,15 +3795,15 @@
       <c r="F12" s="36"/>
       <c r="G12" s="33"/>
       <c r="H12" s="37"/>
-      <c r="I12" s="59" t="str">
+      <c r="I12" s="57" t="str">
         <f>IF(B12="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J12" s="59" t="str">
+      <c r="J12" s="57" t="str">
         <f>IF(B12="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K12" s="60" t="str">
+      <c r="K12" s="58" t="str">
         <f>IFERROR(VLOOKUP(B12,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -3853,7 +3815,7 @@
         <f>IFERROR(VLOOKUP(B13,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D13" s="58" t="str">
+      <c r="D13" s="56" t="str">
         <f>IFERROR(VLOOKUP(B13,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -3861,15 +3823,15 @@
       <c r="F13" s="36"/>
       <c r="G13" s="33"/>
       <c r="H13" s="37"/>
-      <c r="I13" s="59" t="str">
+      <c r="I13" s="57" t="str">
         <f>IF(B13="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J13" s="59" t="str">
+      <c r="J13" s="57" t="str">
         <f>IF(B13="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K13" s="60" t="str">
+      <c r="K13" s="58" t="str">
         <f>IFERROR(VLOOKUP(B13,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -3881,7 +3843,7 @@
         <f>IFERROR(VLOOKUP(B14,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D14" s="58" t="str">
+      <c r="D14" s="56" t="str">
         <f>IFERROR(VLOOKUP(B14,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -3889,15 +3851,15 @@
       <c r="F14" s="36"/>
       <c r="G14" s="33"/>
       <c r="H14" s="37"/>
-      <c r="I14" s="59" t="str">
+      <c r="I14" s="57" t="str">
         <f>IF(B14="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J14" s="59" t="str">
+      <c r="J14" s="57" t="str">
         <f>IF(B14="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K14" s="60" t="str">
+      <c r="K14" s="58" t="str">
         <f>IFERROR(VLOOKUP(B14,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -3909,7 +3871,7 @@
         <f>IFERROR(VLOOKUP(B15,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D15" s="58" t="str">
+      <c r="D15" s="56" t="str">
         <f>IFERROR(VLOOKUP(B15,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -3917,15 +3879,15 @@
       <c r="F15" s="36"/>
       <c r="G15" s="33"/>
       <c r="H15" s="37"/>
-      <c r="I15" s="59" t="str">
+      <c r="I15" s="57" t="str">
         <f>IF(B15="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J15" s="59" t="str">
+      <c r="J15" s="57" t="str">
         <f>IF(B15="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K15" s="60" t="str">
+      <c r="K15" s="58" t="str">
         <f>IFERROR(VLOOKUP(B15,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -3937,7 +3899,7 @@
         <f>IFERROR(VLOOKUP(B16,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D16" s="58" t="str">
+      <c r="D16" s="56" t="str">
         <f>IFERROR(VLOOKUP(B16,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -3945,15 +3907,15 @@
       <c r="F16" s="36"/>
       <c r="G16" s="33"/>
       <c r="H16" s="37"/>
-      <c r="I16" s="59" t="str">
+      <c r="I16" s="57" t="str">
         <f>IF(B16="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J16" s="59" t="str">
+      <c r="J16" s="57" t="str">
         <f>IF(B16="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K16" s="60" t="str">
+      <c r="K16" s="58" t="str">
         <f>IFERROR(VLOOKUP(B16,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -3965,7 +3927,7 @@
         <f>IFERROR(VLOOKUP(B17,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D17" s="58" t="str">
+      <c r="D17" s="56" t="str">
         <f>IFERROR(VLOOKUP(B17,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -3973,15 +3935,15 @@
       <c r="F17" s="36"/>
       <c r="G17" s="33"/>
       <c r="H17" s="37"/>
-      <c r="I17" s="59" t="str">
+      <c r="I17" s="57" t="str">
         <f>IF(B17="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J17" s="59" t="str">
+      <c r="J17" s="57" t="str">
         <f>IF(B17="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K17" s="60" t="str">
+      <c r="K17" s="58" t="str">
         <f>IFERROR(VLOOKUP(B17,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -3993,7 +3955,7 @@
         <f>IFERROR(VLOOKUP(B18,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D18" s="58" t="str">
+      <c r="D18" s="56" t="str">
         <f>IFERROR(VLOOKUP(B18,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4001,15 +3963,15 @@
       <c r="F18" s="36"/>
       <c r="G18" s="33"/>
       <c r="H18" s="37"/>
-      <c r="I18" s="59" t="str">
+      <c r="I18" s="57" t="str">
         <f>IF(B18="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J18" s="59" t="str">
+      <c r="J18" s="57" t="str">
         <f>IF(B18="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K18" s="60" t="str">
+      <c r="K18" s="58" t="str">
         <f>IFERROR(VLOOKUP(B18,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4021,7 +3983,7 @@
         <f>IFERROR(VLOOKUP(B19,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D19" s="58" t="str">
+      <c r="D19" s="56" t="str">
         <f>IFERROR(VLOOKUP(B19,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4029,15 +3991,15 @@
       <c r="F19" s="36"/>
       <c r="G19" s="33"/>
       <c r="H19" s="37"/>
-      <c r="I19" s="59" t="str">
+      <c r="I19" s="57" t="str">
         <f>IF(B19="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J19" s="59" t="str">
+      <c r="J19" s="57" t="str">
         <f>IF(B19="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K19" s="60" t="str">
+      <c r="K19" s="58" t="str">
         <f>IFERROR(VLOOKUP(B19,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4049,7 +4011,7 @@
         <f>IFERROR(VLOOKUP(B20,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D20" s="58" t="str">
+      <c r="D20" s="56" t="str">
         <f>IFERROR(VLOOKUP(B20,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4057,15 +4019,15 @@
       <c r="F20" s="36"/>
       <c r="G20" s="33"/>
       <c r="H20" s="37"/>
-      <c r="I20" s="59" t="str">
+      <c r="I20" s="57" t="str">
         <f>IF(B20="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J20" s="59" t="str">
+      <c r="J20" s="57" t="str">
         <f>IF(B20="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K20" s="60" t="str">
+      <c r="K20" s="58" t="str">
         <f>IFERROR(VLOOKUP(B20,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4077,7 +4039,7 @@
         <f>IFERROR(VLOOKUP(B21,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D21" s="58" t="str">
+      <c r="D21" s="56" t="str">
         <f>IFERROR(VLOOKUP(B21,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4085,15 +4047,15 @@
       <c r="F21" s="36"/>
       <c r="G21" s="33"/>
       <c r="H21" s="37"/>
-      <c r="I21" s="59" t="str">
+      <c r="I21" s="57" t="str">
         <f>IF(B21="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J21" s="59" t="str">
+      <c r="J21" s="57" t="str">
         <f>IF(B21="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K21" s="60" t="str">
+      <c r="K21" s="58" t="str">
         <f>IFERROR(VLOOKUP(B21,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4105,7 +4067,7 @@
         <f>IFERROR(VLOOKUP(B22,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D22" s="58" t="str">
+      <c r="D22" s="56" t="str">
         <f>IFERROR(VLOOKUP(B22,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4113,15 +4075,15 @@
       <c r="F22" s="36"/>
       <c r="G22" s="33"/>
       <c r="H22" s="37"/>
-      <c r="I22" s="59" t="str">
+      <c r="I22" s="57" t="str">
         <f>IF(B22="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J22" s="59" t="str">
+      <c r="J22" s="57" t="str">
         <f>IF(B22="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K22" s="60" t="str">
+      <c r="K22" s="58" t="str">
         <f>IFERROR(VLOOKUP(B22,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4133,7 +4095,7 @@
         <f>IFERROR(VLOOKUP(B23,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D23" s="58" t="str">
+      <c r="D23" s="56" t="str">
         <f>IFERROR(VLOOKUP(B23,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4141,15 +4103,15 @@
       <c r="F23" s="36"/>
       <c r="G23" s="33"/>
       <c r="H23" s="37"/>
-      <c r="I23" s="59" t="str">
+      <c r="I23" s="57" t="str">
         <f>IF(B23="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J23" s="59" t="str">
+      <c r="J23" s="57" t="str">
         <f>IF(B23="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K23" s="60" t="str">
+      <c r="K23" s="58" t="str">
         <f>IFERROR(VLOOKUP(B23,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4161,7 +4123,7 @@
         <f>IFERROR(VLOOKUP(B24,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D24" s="58" t="str">
+      <c r="D24" s="56" t="str">
         <f>IFERROR(VLOOKUP(B24,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4169,15 +4131,15 @@
       <c r="F24" s="36"/>
       <c r="G24" s="33"/>
       <c r="H24" s="37"/>
-      <c r="I24" s="59" t="str">
+      <c r="I24" s="57" t="str">
         <f>IF(B24="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J24" s="59" t="str">
+      <c r="J24" s="57" t="str">
         <f>IF(B24="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K24" s="60" t="str">
+      <c r="K24" s="58" t="str">
         <f>IFERROR(VLOOKUP(B24,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4189,7 +4151,7 @@
         <f>IFERROR(VLOOKUP(B25,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D25" s="58" t="str">
+      <c r="D25" s="56" t="str">
         <f>IFERROR(VLOOKUP(B25,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4197,15 +4159,15 @@
       <c r="F25" s="36"/>
       <c r="G25" s="33"/>
       <c r="H25" s="37"/>
-      <c r="I25" s="59" t="str">
+      <c r="I25" s="57" t="str">
         <f>IF(B25="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J25" s="59" t="str">
+      <c r="J25" s="57" t="str">
         <f>IF(B25="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K25" s="60" t="str">
+      <c r="K25" s="58" t="str">
         <f>IFERROR(VLOOKUP(B25,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4217,7 +4179,7 @@
         <f>IFERROR(VLOOKUP(B26,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D26" s="58" t="str">
+      <c r="D26" s="56" t="str">
         <f>IFERROR(VLOOKUP(B26,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4225,15 +4187,15 @@
       <c r="F26" s="36"/>
       <c r="G26" s="33"/>
       <c r="H26" s="37"/>
-      <c r="I26" s="59" t="str">
+      <c r="I26" s="57" t="str">
         <f>IF(B26="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J26" s="59" t="str">
+      <c r="J26" s="57" t="str">
         <f>IF(B26="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K26" s="60" t="str">
+      <c r="K26" s="58" t="str">
         <f>IFERROR(VLOOKUP(B26,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4245,7 +4207,7 @@
         <f>IFERROR(VLOOKUP(B27,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D27" s="58" t="str">
+      <c r="D27" s="56" t="str">
         <f>IFERROR(VLOOKUP(B27,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4253,15 +4215,15 @@
       <c r="F27" s="36"/>
       <c r="G27" s="33"/>
       <c r="H27" s="37"/>
-      <c r="I27" s="59" t="str">
+      <c r="I27" s="57" t="str">
         <f>IF(B27="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J27" s="59" t="str">
+      <c r="J27" s="57" t="str">
         <f>IF(B27="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K27" s="60" t="str">
+      <c r="K27" s="58" t="str">
         <f>IFERROR(VLOOKUP(B27,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4273,7 +4235,7 @@
         <f>IFERROR(VLOOKUP(B28,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D28" s="58" t="str">
+      <c r="D28" s="56" t="str">
         <f>IFERROR(VLOOKUP(B28,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4281,15 +4243,15 @@
       <c r="F28" s="36"/>
       <c r="G28" s="33"/>
       <c r="H28" s="37"/>
-      <c r="I28" s="59" t="str">
+      <c r="I28" s="57" t="str">
         <f>IF(B28="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J28" s="59" t="str">
+      <c r="J28" s="57" t="str">
         <f>IF(B28="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K28" s="60" t="str">
+      <c r="K28" s="58" t="str">
         <f>IFERROR(VLOOKUP(B28,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4301,7 +4263,7 @@
         <f>IFERROR(VLOOKUP(B29,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D29" s="58" t="str">
+      <c r="D29" s="56" t="str">
         <f>IFERROR(VLOOKUP(B29,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4309,15 +4271,15 @@
       <c r="F29" s="36"/>
       <c r="G29" s="33"/>
       <c r="H29" s="37"/>
-      <c r="I29" s="59" t="str">
+      <c r="I29" s="57" t="str">
         <f>IF(B29="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J29" s="59" t="str">
+      <c r="J29" s="57" t="str">
         <f>IF(B29="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K29" s="60" t="str">
+      <c r="K29" s="58" t="str">
         <f>IFERROR(VLOOKUP(B29,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4329,7 +4291,7 @@
         <f>IFERROR(VLOOKUP(B30,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D30" s="58" t="str">
+      <c r="D30" s="56" t="str">
         <f>IFERROR(VLOOKUP(B30,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4337,15 +4299,15 @@
       <c r="F30" s="36"/>
       <c r="G30" s="33"/>
       <c r="H30" s="37"/>
-      <c r="I30" s="59" t="str">
+      <c r="I30" s="57" t="str">
         <f>IF(B30="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J30" s="59" t="str">
+      <c r="J30" s="57" t="str">
         <f>IF(B30="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K30" s="60" t="str">
+      <c r="K30" s="58" t="str">
         <f>IFERROR(VLOOKUP(B30,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4357,7 +4319,7 @@
         <f>IFERROR(VLOOKUP(B31,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D31" s="58" t="str">
+      <c r="D31" s="56" t="str">
         <f>IFERROR(VLOOKUP(B31,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4365,15 +4327,15 @@
       <c r="F31" s="36"/>
       <c r="G31" s="33"/>
       <c r="H31" s="37"/>
-      <c r="I31" s="59" t="str">
+      <c r="I31" s="57" t="str">
         <f>IF(B31="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J31" s="59" t="str">
+      <c r="J31" s="57" t="str">
         <f>IF(B31="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K31" s="60" t="str">
+      <c r="K31" s="58" t="str">
         <f>IFERROR(VLOOKUP(B31,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4385,7 +4347,7 @@
         <f>IFERROR(VLOOKUP(B32,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D32" s="58" t="str">
+      <c r="D32" s="56" t="str">
         <f>IFERROR(VLOOKUP(B32,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4393,15 +4355,15 @@
       <c r="F32" s="36"/>
       <c r="G32" s="33"/>
       <c r="H32" s="37"/>
-      <c r="I32" s="59" t="str">
+      <c r="I32" s="57" t="str">
         <f>IF(B32="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J32" s="59" t="str">
+      <c r="J32" s="57" t="str">
         <f>IF(B32="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K32" s="60" t="str">
+      <c r="K32" s="58" t="str">
         <f>IFERROR(VLOOKUP(B32,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4413,7 +4375,7 @@
         <f>IFERROR(VLOOKUP(B33,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D33" s="58" t="str">
+      <c r="D33" s="56" t="str">
         <f>IFERROR(VLOOKUP(B33,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4421,15 +4383,15 @@
       <c r="F33" s="36"/>
       <c r="G33" s="33"/>
       <c r="H33" s="37"/>
-      <c r="I33" s="59" t="str">
+      <c r="I33" s="57" t="str">
         <f>IF(B33="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J33" s="59" t="str">
+      <c r="J33" s="57" t="str">
         <f>IF(B33="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K33" s="60" t="str">
+      <c r="K33" s="58" t="str">
         <f>IFERROR(VLOOKUP(B33,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4441,7 +4403,7 @@
         <f>IFERROR(VLOOKUP(B34,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D34" s="58" t="str">
+      <c r="D34" s="56" t="str">
         <f>IFERROR(VLOOKUP(B34,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4449,15 +4411,15 @@
       <c r="F34" s="36"/>
       <c r="G34" s="33"/>
       <c r="H34" s="37"/>
-      <c r="I34" s="59" t="str">
+      <c r="I34" s="57" t="str">
         <f>IF(B34="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J34" s="59" t="str">
+      <c r="J34" s="57" t="str">
         <f>IF(B34="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K34" s="60" t="str">
+      <c r="K34" s="58" t="str">
         <f>IFERROR(VLOOKUP(B34,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4469,7 +4431,7 @@
         <f>IFERROR(VLOOKUP(B35,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D35" s="58" t="str">
+      <c r="D35" s="56" t="str">
         <f>IFERROR(VLOOKUP(B35,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4477,15 +4439,15 @@
       <c r="F35" s="36"/>
       <c r="G35" s="33"/>
       <c r="H35" s="37"/>
-      <c r="I35" s="59" t="str">
+      <c r="I35" s="57" t="str">
         <f>IF(B35="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J35" s="59" t="str">
+      <c r="J35" s="57" t="str">
         <f>IF(B35="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K35" s="60" t="str">
+      <c r="K35" s="58" t="str">
         <f>IFERROR(VLOOKUP(B35,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4497,7 +4459,7 @@
         <f>IFERROR(VLOOKUP(B36,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D36" s="58" t="str">
+      <c r="D36" s="56" t="str">
         <f>IFERROR(VLOOKUP(B36,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4505,15 +4467,15 @@
       <c r="F36" s="36"/>
       <c r="G36" s="33"/>
       <c r="H36" s="37"/>
-      <c r="I36" s="59" t="str">
+      <c r="I36" s="57" t="str">
         <f>IF(B36="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J36" s="59" t="str">
+      <c r="J36" s="57" t="str">
         <f>IF(B36="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K36" s="60" t="str">
+      <c r="K36" s="58" t="str">
         <f>IFERROR(VLOOKUP(B36,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4525,7 +4487,7 @@
         <f>IFERROR(VLOOKUP(B37,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D37" s="58" t="str">
+      <c r="D37" s="56" t="str">
         <f>IFERROR(VLOOKUP(B37,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4533,15 +4495,15 @@
       <c r="F37" s="36"/>
       <c r="G37" s="33"/>
       <c r="H37" s="37"/>
-      <c r="I37" s="59" t="str">
+      <c r="I37" s="57" t="str">
         <f>IF(B37="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J37" s="59" t="str">
+      <c r="J37" s="57" t="str">
         <f>IF(B37="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K37" s="60" t="str">
+      <c r="K37" s="58" t="str">
         <f>IFERROR(VLOOKUP(B37,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4553,7 +4515,7 @@
         <f>IFERROR(VLOOKUP(B38,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D38" s="58" t="str">
+      <c r="D38" s="56" t="str">
         <f>IFERROR(VLOOKUP(B38,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4561,15 +4523,15 @@
       <c r="F38" s="36"/>
       <c r="G38" s="33"/>
       <c r="H38" s="37"/>
-      <c r="I38" s="59" t="str">
+      <c r="I38" s="57" t="str">
         <f>IF(B38="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J38" s="59" t="str">
+      <c r="J38" s="57" t="str">
         <f>IF(B38="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K38" s="60" t="str">
+      <c r="K38" s="58" t="str">
         <f>IFERROR(VLOOKUP(B38,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4581,7 +4543,7 @@
         <f>IFERROR(VLOOKUP(B39,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D39" s="58" t="str">
+      <c r="D39" s="56" t="str">
         <f>IFERROR(VLOOKUP(B39,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4589,15 +4551,15 @@
       <c r="F39" s="36"/>
       <c r="G39" s="33"/>
       <c r="H39" s="37"/>
-      <c r="I39" s="59" t="str">
+      <c r="I39" s="57" t="str">
         <f>IF(B39="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J39" s="59" t="str">
+      <c r="J39" s="57" t="str">
         <f>IF(B39="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K39" s="60" t="str">
+      <c r="K39" s="58" t="str">
         <f>IFERROR(VLOOKUP(B39,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4609,7 +4571,7 @@
         <f>IFERROR(VLOOKUP(B40,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D40" s="58" t="str">
+      <c r="D40" s="56" t="str">
         <f>IFERROR(VLOOKUP(B40,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4617,15 +4579,15 @@
       <c r="F40" s="36"/>
       <c r="G40" s="33"/>
       <c r="H40" s="37"/>
-      <c r="I40" s="59" t="str">
+      <c r="I40" s="57" t="str">
         <f>IF(B40="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J40" s="59" t="str">
+      <c r="J40" s="57" t="str">
         <f>IF(B40="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K40" s="60" t="str">
+      <c r="K40" s="58" t="str">
         <f>IFERROR(VLOOKUP(B40,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4637,7 +4599,7 @@
         <f>IFERROR(VLOOKUP(B41,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D41" s="58" t="str">
+      <c r="D41" s="56" t="str">
         <f>IFERROR(VLOOKUP(B41,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4645,15 +4607,15 @@
       <c r="F41" s="36"/>
       <c r="G41" s="33"/>
       <c r="H41" s="37"/>
-      <c r="I41" s="59" t="str">
+      <c r="I41" s="57" t="str">
         <f>IF(B41="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J41" s="59" t="str">
+      <c r="J41" s="57" t="str">
         <f>IF(B41="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K41" s="60" t="str">
+      <c r="K41" s="58" t="str">
         <f>IFERROR(VLOOKUP(B41,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4665,7 +4627,7 @@
         <f>IFERROR(VLOOKUP(B42,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D42" s="58" t="str">
+      <c r="D42" s="56" t="str">
         <f>IFERROR(VLOOKUP(B42,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4673,15 +4635,15 @@
       <c r="F42" s="36"/>
       <c r="G42" s="33"/>
       <c r="H42" s="37"/>
-      <c r="I42" s="59" t="str">
+      <c r="I42" s="57" t="str">
         <f>IF(B42="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J42" s="59" t="str">
+      <c r="J42" s="57" t="str">
         <f>IF(B42="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K42" s="60" t="str">
+      <c r="K42" s="58" t="str">
         <f>IFERROR(VLOOKUP(B42,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4693,7 +4655,7 @@
         <f>IFERROR(VLOOKUP(B43,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D43" s="58" t="str">
+      <c r="D43" s="56" t="str">
         <f>IFERROR(VLOOKUP(B43,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4701,15 +4663,15 @@
       <c r="F43" s="36"/>
       <c r="G43" s="33"/>
       <c r="H43" s="37"/>
-      <c r="I43" s="59" t="str">
+      <c r="I43" s="57" t="str">
         <f>IF(B43="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J43" s="59" t="str">
+      <c r="J43" s="57" t="str">
         <f>IF(B43="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K43" s="60" t="str">
+      <c r="K43" s="58" t="str">
         <f>IFERROR(VLOOKUP(B43,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4721,7 +4683,7 @@
         <f>IFERROR(VLOOKUP(B44,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D44" s="58" t="str">
+      <c r="D44" s="56" t="str">
         <f>IFERROR(VLOOKUP(B44,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4729,15 +4691,15 @@
       <c r="F44" s="36"/>
       <c r="G44" s="33"/>
       <c r="H44" s="37"/>
-      <c r="I44" s="59" t="str">
+      <c r="I44" s="57" t="str">
         <f>IF(B44="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J44" s="59" t="str">
+      <c r="J44" s="57" t="str">
         <f>IF(B44="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K44" s="60" t="str">
+      <c r="K44" s="58" t="str">
         <f>IFERROR(VLOOKUP(B44,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4749,7 +4711,7 @@
         <f>IFERROR(VLOOKUP(B45,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D45" s="58" t="str">
+      <c r="D45" s="56" t="str">
         <f>IFERROR(VLOOKUP(B45,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4757,15 +4719,15 @@
       <c r="F45" s="36"/>
       <c r="G45" s="33"/>
       <c r="H45" s="37"/>
-      <c r="I45" s="59" t="str">
+      <c r="I45" s="57" t="str">
         <f>IF(B45="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J45" s="59" t="str">
+      <c r="J45" s="57" t="str">
         <f>IF(B45="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K45" s="60" t="str">
+      <c r="K45" s="58" t="str">
         <f>IFERROR(VLOOKUP(B45,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4777,7 +4739,7 @@
         <f>IFERROR(VLOOKUP(B46,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D46" s="58" t="str">
+      <c r="D46" s="56" t="str">
         <f>IFERROR(VLOOKUP(B46,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4785,15 +4747,15 @@
       <c r="F46" s="36"/>
       <c r="G46" s="33"/>
       <c r="H46" s="37"/>
-      <c r="I46" s="59" t="str">
+      <c r="I46" s="57" t="str">
         <f>IF(B46="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J46" s="59" t="str">
+      <c r="J46" s="57" t="str">
         <f>IF(B46="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K46" s="60" t="str">
+      <c r="K46" s="58" t="str">
         <f>IFERROR(VLOOKUP(B46,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4805,7 +4767,7 @@
         <f>IFERROR(VLOOKUP(B47,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D47" s="58" t="str">
+      <c r="D47" s="56" t="str">
         <f>IFERROR(VLOOKUP(B47,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4813,15 +4775,15 @@
       <c r="F47" s="36"/>
       <c r="G47" s="33"/>
       <c r="H47" s="37"/>
-      <c r="I47" s="59" t="str">
+      <c r="I47" s="57" t="str">
         <f>IF(B47="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J47" s="59" t="str">
+      <c r="J47" s="57" t="str">
         <f>IF(B47="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K47" s="60" t="str">
+      <c r="K47" s="58" t="str">
         <f>IFERROR(VLOOKUP(B47,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4833,7 +4795,7 @@
         <f>IFERROR(VLOOKUP(B48,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D48" s="58" t="str">
+      <c r="D48" s="56" t="str">
         <f>IFERROR(VLOOKUP(B48,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4841,15 +4803,15 @@
       <c r="F48" s="36"/>
       <c r="G48" s="33"/>
       <c r="H48" s="37"/>
-      <c r="I48" s="59" t="str">
+      <c r="I48" s="57" t="str">
         <f>IF(B48="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J48" s="59" t="str">
+      <c r="J48" s="57" t="str">
         <f>IF(B48="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K48" s="60" t="str">
+      <c r="K48" s="58" t="str">
         <f>IFERROR(VLOOKUP(B48,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4861,7 +4823,7 @@
         <f>IFERROR(VLOOKUP(B49,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D49" s="58" t="str">
+      <c r="D49" s="56" t="str">
         <f>IFERROR(VLOOKUP(B49,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4869,15 +4831,15 @@
       <c r="F49" s="36"/>
       <c r="G49" s="33"/>
       <c r="H49" s="37"/>
-      <c r="I49" s="59" t="str">
+      <c r="I49" s="57" t="str">
         <f>IF(B49="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J49" s="59" t="str">
+      <c r="J49" s="57" t="str">
         <f>IF(B49="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K49" s="60" t="str">
+      <c r="K49" s="58" t="str">
         <f>IFERROR(VLOOKUP(B49,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4889,7 +4851,7 @@
         <f>IFERROR(VLOOKUP(B50,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D50" s="58" t="str">
+      <c r="D50" s="56" t="str">
         <f>IFERROR(VLOOKUP(B50,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4897,15 +4859,15 @@
       <c r="F50" s="36"/>
       <c r="G50" s="33"/>
       <c r="H50" s="37"/>
-      <c r="I50" s="59" t="str">
+      <c r="I50" s="57" t="str">
         <f>IF(B50="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J50" s="59" t="str">
+      <c r="J50" s="57" t="str">
         <f>IF(B50="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K50" s="60" t="str">
+      <c r="K50" s="58" t="str">
         <f>IFERROR(VLOOKUP(B50,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4917,7 +4879,7 @@
         <f>IFERROR(VLOOKUP(B51,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D51" s="58" t="str">
+      <c r="D51" s="56" t="str">
         <f>IFERROR(VLOOKUP(B51,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4925,15 +4887,15 @@
       <c r="F51" s="36"/>
       <c r="G51" s="33"/>
       <c r="H51" s="37"/>
-      <c r="I51" s="59" t="str">
+      <c r="I51" s="57" t="str">
         <f>IF(B51="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J51" s="59" t="str">
+      <c r="J51" s="57" t="str">
         <f>IF(B51="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K51" s="60" t="str">
+      <c r="K51" s="58" t="str">
         <f>IFERROR(VLOOKUP(B51,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4945,7 +4907,7 @@
         <f>IFERROR(VLOOKUP(B52,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D52" s="58" t="str">
+      <c r="D52" s="56" t="str">
         <f>IFERROR(VLOOKUP(B52,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4953,15 +4915,15 @@
       <c r="F52" s="36"/>
       <c r="G52" s="33"/>
       <c r="H52" s="37"/>
-      <c r="I52" s="59" t="str">
+      <c r="I52" s="57" t="str">
         <f>IF(B52="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J52" s="59" t="str">
+      <c r="J52" s="57" t="str">
         <f>IF(B52="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K52" s="60" t="str">
+      <c r="K52" s="58" t="str">
         <f>IFERROR(VLOOKUP(B52,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4973,7 +4935,7 @@
         <f>IFERROR(VLOOKUP(B53,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D53" s="58" t="str">
+      <c r="D53" s="56" t="str">
         <f>IFERROR(VLOOKUP(B53,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4981,15 +4943,15 @@
       <c r="F53" s="36"/>
       <c r="G53" s="33"/>
       <c r="H53" s="37"/>
-      <c r="I53" s="59" t="str">
+      <c r="I53" s="57" t="str">
         <f>IF(B53="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J53" s="59" t="str">
+      <c r="J53" s="57" t="str">
         <f>IF(B53="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K53" s="60" t="str">
+      <c r="K53" s="58" t="str">
         <f>IFERROR(VLOOKUP(B53,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5001,7 +4963,7 @@
         <f>IFERROR(VLOOKUP(B54,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D54" s="58" t="str">
+      <c r="D54" s="56" t="str">
         <f>IFERROR(VLOOKUP(B54,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5009,15 +4971,15 @@
       <c r="F54" s="36"/>
       <c r="G54" s="33"/>
       <c r="H54" s="37"/>
-      <c r="I54" s="59" t="str">
+      <c r="I54" s="57" t="str">
         <f>IF(B54="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J54" s="59" t="str">
+      <c r="J54" s="57" t="str">
         <f>IF(B54="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K54" s="60" t="str">
+      <c r="K54" s="58" t="str">
         <f>IFERROR(VLOOKUP(B54,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5029,7 +4991,7 @@
         <f>IFERROR(VLOOKUP(B55,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D55" s="58" t="str">
+      <c r="D55" s="56" t="str">
         <f>IFERROR(VLOOKUP(B55,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5037,15 +4999,15 @@
       <c r="F55" s="36"/>
       <c r="G55" s="33"/>
       <c r="H55" s="37"/>
-      <c r="I55" s="59" t="str">
+      <c r="I55" s="57" t="str">
         <f>IF(B55="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J55" s="59" t="str">
+      <c r="J55" s="57" t="str">
         <f>IF(B55="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K55" s="60" t="str">
+      <c r="K55" s="58" t="str">
         <f>IFERROR(VLOOKUP(B55,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5057,7 +5019,7 @@
         <f>IFERROR(VLOOKUP(B56,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D56" s="58" t="str">
+      <c r="D56" s="56" t="str">
         <f>IFERROR(VLOOKUP(B56,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5065,15 +5027,15 @@
       <c r="F56" s="36"/>
       <c r="G56" s="33"/>
       <c r="H56" s="37"/>
-      <c r="I56" s="59" t="str">
+      <c r="I56" s="57" t="str">
         <f>IF(B56="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J56" s="59" t="str">
+      <c r="J56" s="57" t="str">
         <f>IF(B56="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K56" s="60" t="str">
+      <c r="K56" s="58" t="str">
         <f>IFERROR(VLOOKUP(B56,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5085,7 +5047,7 @@
         <f>IFERROR(VLOOKUP(B57,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D57" s="58" t="str">
+      <c r="D57" s="56" t="str">
         <f>IFERROR(VLOOKUP(B57,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5093,15 +5055,15 @@
       <c r="F57" s="36"/>
       <c r="G57" s="33"/>
       <c r="H57" s="37"/>
-      <c r="I57" s="59" t="str">
+      <c r="I57" s="57" t="str">
         <f>IF(B57="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J57" s="59" t="str">
+      <c r="J57" s="57" t="str">
         <f>IF(B57="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K57" s="60" t="str">
+      <c r="K57" s="58" t="str">
         <f>IFERROR(VLOOKUP(B57,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5113,7 +5075,7 @@
         <f>IFERROR(VLOOKUP(B58,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D58" s="58" t="str">
+      <c r="D58" s="56" t="str">
         <f>IFERROR(VLOOKUP(B58,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5121,15 +5083,15 @@
       <c r="F58" s="36"/>
       <c r="G58" s="33"/>
       <c r="H58" s="37"/>
-      <c r="I58" s="59" t="str">
+      <c r="I58" s="57" t="str">
         <f>IF(B58="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J58" s="59" t="str">
+      <c r="J58" s="57" t="str">
         <f>IF(B58="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K58" s="60" t="str">
+      <c r="K58" s="58" t="str">
         <f>IFERROR(VLOOKUP(B58,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5141,7 +5103,7 @@
         <f>IFERROR(VLOOKUP(B59,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D59" s="58" t="str">
+      <c r="D59" s="56" t="str">
         <f>IFERROR(VLOOKUP(B59,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5149,15 +5111,15 @@
       <c r="F59" s="36"/>
       <c r="G59" s="33"/>
       <c r="H59" s="37"/>
-      <c r="I59" s="59" t="str">
+      <c r="I59" s="57" t="str">
         <f>IF(B59="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J59" s="59" t="str">
+      <c r="J59" s="57" t="str">
         <f>IF(B59="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K59" s="60" t="str">
+      <c r="K59" s="58" t="str">
         <f>IFERROR(VLOOKUP(B59,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5169,7 +5131,7 @@
         <f>IFERROR(VLOOKUP(B60,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D60" s="58" t="str">
+      <c r="D60" s="56" t="str">
         <f>IFERROR(VLOOKUP(B60,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5177,15 +5139,15 @@
       <c r="F60" s="36"/>
       <c r="G60" s="33"/>
       <c r="H60" s="37"/>
-      <c r="I60" s="59" t="str">
+      <c r="I60" s="57" t="str">
         <f>IF(B60="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J60" s="59" t="str">
+      <c r="J60" s="57" t="str">
         <f>IF(B60="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K60" s="60" t="str">
+      <c r="K60" s="58" t="str">
         <f>IFERROR(VLOOKUP(B60,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5197,7 +5159,7 @@
         <f>IFERROR(VLOOKUP(B61,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D61" s="58" t="str">
+      <c r="D61" s="56" t="str">
         <f>IFERROR(VLOOKUP(B61,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5205,15 +5167,15 @@
       <c r="F61" s="36"/>
       <c r="G61" s="33"/>
       <c r="H61" s="37"/>
-      <c r="I61" s="59" t="str">
+      <c r="I61" s="57" t="str">
         <f>IF(B61="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J61" s="59" t="str">
+      <c r="J61" s="57" t="str">
         <f>IF(B61="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K61" s="60" t="str">
+      <c r="K61" s="58" t="str">
         <f>IFERROR(VLOOKUP(B61,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5225,7 +5187,7 @@
         <f>IFERROR(VLOOKUP(B62,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D62" s="58" t="str">
+      <c r="D62" s="56" t="str">
         <f>IFERROR(VLOOKUP(B62,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5233,15 +5195,15 @@
       <c r="F62" s="36"/>
       <c r="G62" s="33"/>
       <c r="H62" s="37"/>
-      <c r="I62" s="59" t="str">
+      <c r="I62" s="57" t="str">
         <f>IF(B62="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J62" s="59" t="str">
+      <c r="J62" s="57" t="str">
         <f>IF(B62="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K62" s="60" t="str">
+      <c r="K62" s="58" t="str">
         <f>IFERROR(VLOOKUP(B62,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5253,7 +5215,7 @@
         <f>IFERROR(VLOOKUP(B63,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D63" s="58" t="str">
+      <c r="D63" s="56" t="str">
         <f>IFERROR(VLOOKUP(B63,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5261,15 +5223,15 @@
       <c r="F63" s="36"/>
       <c r="G63" s="33"/>
       <c r="H63" s="37"/>
-      <c r="I63" s="59" t="str">
+      <c r="I63" s="57" t="str">
         <f>IF(B63="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J63" s="59" t="str">
+      <c r="J63" s="57" t="str">
         <f>IF(B63="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K63" s="60" t="str">
+      <c r="K63" s="58" t="str">
         <f>IFERROR(VLOOKUP(B63,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5281,7 +5243,7 @@
         <f>IFERROR(VLOOKUP(B64,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D64" s="58" t="str">
+      <c r="D64" s="56" t="str">
         <f>IFERROR(VLOOKUP(B64,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5289,15 +5251,15 @@
       <c r="F64" s="36"/>
       <c r="G64" s="33"/>
       <c r="H64" s="37"/>
-      <c r="I64" s="59" t="str">
+      <c r="I64" s="57" t="str">
         <f>IF(B64="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J64" s="59" t="str">
+      <c r="J64" s="57" t="str">
         <f>IF(B64="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K64" s="60" t="str">
+      <c r="K64" s="58" t="str">
         <f>IFERROR(VLOOKUP(B64,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5309,7 +5271,7 @@
         <f>IFERROR(VLOOKUP(B65,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D65" s="58" t="str">
+      <c r="D65" s="56" t="str">
         <f>IFERROR(VLOOKUP(B65,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5317,15 +5279,15 @@
       <c r="F65" s="36"/>
       <c r="G65" s="33"/>
       <c r="H65" s="37"/>
-      <c r="I65" s="59" t="str">
+      <c r="I65" s="57" t="str">
         <f>IF(B65="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J65" s="59" t="str">
+      <c r="J65" s="57" t="str">
         <f>IF(B65="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K65" s="60" t="str">
+      <c r="K65" s="58" t="str">
         <f>IFERROR(VLOOKUP(B65,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5337,7 +5299,7 @@
         <f>IFERROR(VLOOKUP(B66,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D66" s="58" t="str">
+      <c r="D66" s="56" t="str">
         <f>IFERROR(VLOOKUP(B66,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5345,15 +5307,15 @@
       <c r="F66" s="36"/>
       <c r="G66" s="33"/>
       <c r="H66" s="37"/>
-      <c r="I66" s="59" t="str">
+      <c r="I66" s="57" t="str">
         <f>IF(B66="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J66" s="59" t="str">
+      <c r="J66" s="57" t="str">
         <f>IF(B66="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K66" s="60" t="str">
+      <c r="K66" s="58" t="str">
         <f>IFERROR(VLOOKUP(B66,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5365,7 +5327,7 @@
         <f>IFERROR(VLOOKUP(B67,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D67" s="58" t="str">
+      <c r="D67" s="56" t="str">
         <f>IFERROR(VLOOKUP(B67,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5373,15 +5335,15 @@
       <c r="F67" s="36"/>
       <c r="G67" s="33"/>
       <c r="H67" s="37"/>
-      <c r="I67" s="59" t="str">
+      <c r="I67" s="57" t="str">
         <f>IF(B67="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J67" s="59" t="str">
+      <c r="J67" s="57" t="str">
         <f>IF(B67="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K67" s="60" t="str">
+      <c r="K67" s="58" t="str">
         <f>IFERROR(VLOOKUP(B67,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5393,7 +5355,7 @@
         <f>IFERROR(VLOOKUP(B68,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D68" s="58" t="str">
+      <c r="D68" s="56" t="str">
         <f>IFERROR(VLOOKUP(B68,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5401,15 +5363,15 @@
       <c r="F68" s="36"/>
       <c r="G68" s="33"/>
       <c r="H68" s="37"/>
-      <c r="I68" s="59" t="str">
+      <c r="I68" s="57" t="str">
         <f>IF(B68="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J68" s="59" t="str">
+      <c r="J68" s="57" t="str">
         <f>IF(B68="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K68" s="60" t="str">
+      <c r="K68" s="58" t="str">
         <f>IFERROR(VLOOKUP(B68,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5421,7 +5383,7 @@
         <f>IFERROR(VLOOKUP(B69,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D69" s="58" t="str">
+      <c r="D69" s="56" t="str">
         <f>IFERROR(VLOOKUP(B69,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5429,15 +5391,15 @@
       <c r="F69" s="36"/>
       <c r="G69" s="33"/>
       <c r="H69" s="37"/>
-      <c r="I69" s="59" t="str">
+      <c r="I69" s="57" t="str">
         <f>IF(B69="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J69" s="59" t="str">
+      <c r="J69" s="57" t="str">
         <f>IF(B69="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K69" s="60" t="str">
+      <c r="K69" s="58" t="str">
         <f>IFERROR(VLOOKUP(B69,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5449,7 +5411,7 @@
         <f>IFERROR(VLOOKUP(B70,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D70" s="58" t="str">
+      <c r="D70" s="56" t="str">
         <f>IFERROR(VLOOKUP(B70,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5457,15 +5419,15 @@
       <c r="F70" s="36"/>
       <c r="G70" s="33"/>
       <c r="H70" s="37"/>
-      <c r="I70" s="59" t="str">
+      <c r="I70" s="57" t="str">
         <f>IF(B70="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J70" s="59" t="str">
+      <c r="J70" s="57" t="str">
         <f>IF(B70="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K70" s="60" t="str">
+      <c r="K70" s="58" t="str">
         <f>IFERROR(VLOOKUP(B70,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5477,7 +5439,7 @@
         <f>IFERROR(VLOOKUP(B71,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D71" s="58" t="str">
+      <c r="D71" s="56" t="str">
         <f>IFERROR(VLOOKUP(B71,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5485,15 +5447,15 @@
       <c r="F71" s="36"/>
       <c r="G71" s="33"/>
       <c r="H71" s="37"/>
-      <c r="I71" s="59" t="str">
+      <c r="I71" s="57" t="str">
         <f>IF(B71="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J71" s="59" t="str">
+      <c r="J71" s="57" t="str">
         <f>IF(B71="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K71" s="60" t="str">
+      <c r="K71" s="58" t="str">
         <f>IFERROR(VLOOKUP(B71,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5505,7 +5467,7 @@
         <f>IFERROR(VLOOKUP(B72,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D72" s="58" t="str">
+      <c r="D72" s="56" t="str">
         <f>IFERROR(VLOOKUP(B72,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5513,15 +5475,15 @@
       <c r="F72" s="36"/>
       <c r="G72" s="33"/>
       <c r="H72" s="37"/>
-      <c r="I72" s="59" t="str">
+      <c r="I72" s="57" t="str">
         <f>IF(B72="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J72" s="59" t="str">
+      <c r="J72" s="57" t="str">
         <f>IF(B72="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K72" s="60" t="str">
+      <c r="K72" s="58" t="str">
         <f>IFERROR(VLOOKUP(B72,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5533,7 +5495,7 @@
         <f>IFERROR(VLOOKUP(B73,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D73" s="58" t="str">
+      <c r="D73" s="56" t="str">
         <f>IFERROR(VLOOKUP(B73,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5541,15 +5503,15 @@
       <c r="F73" s="36"/>
       <c r="G73" s="33"/>
       <c r="H73" s="37"/>
-      <c r="I73" s="59" t="str">
+      <c r="I73" s="57" t="str">
         <f>IF(B73="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J73" s="59" t="str">
+      <c r="J73" s="57" t="str">
         <f>IF(B73="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K73" s="60" t="str">
+      <c r="K73" s="58" t="str">
         <f>IFERROR(VLOOKUP(B73,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5561,7 +5523,7 @@
         <f>IFERROR(VLOOKUP(B74,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D74" s="58" t="str">
+      <c r="D74" s="56" t="str">
         <f>IFERROR(VLOOKUP(B74,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5569,15 +5531,15 @@
       <c r="F74" s="36"/>
       <c r="G74" s="33"/>
       <c r="H74" s="37"/>
-      <c r="I74" s="59" t="str">
+      <c r="I74" s="57" t="str">
         <f>IF(B74="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J74" s="59" t="str">
+      <c r="J74" s="57" t="str">
         <f>IF(B74="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K74" s="60" t="str">
+      <c r="K74" s="58" t="str">
         <f>IFERROR(VLOOKUP(B74,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5589,7 +5551,7 @@
         <f>IFERROR(VLOOKUP(B75,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D75" s="58" t="str">
+      <c r="D75" s="56" t="str">
         <f>IFERROR(VLOOKUP(B75,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5597,15 +5559,15 @@
       <c r="F75" s="36"/>
       <c r="G75" s="33"/>
       <c r="H75" s="37"/>
-      <c r="I75" s="59" t="str">
+      <c r="I75" s="57" t="str">
         <f>IF(B75="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J75" s="59" t="str">
+      <c r="J75" s="57" t="str">
         <f>IF(B75="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K75" s="60" t="str">
+      <c r="K75" s="58" t="str">
         <f>IFERROR(VLOOKUP(B75,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5617,7 +5579,7 @@
         <f>IFERROR(VLOOKUP(B76,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D76" s="58" t="str">
+      <c r="D76" s="56" t="str">
         <f>IFERROR(VLOOKUP(B76,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5625,15 +5587,15 @@
       <c r="F76" s="36"/>
       <c r="G76" s="33"/>
       <c r="H76" s="37"/>
-      <c r="I76" s="59" t="str">
+      <c r="I76" s="57" t="str">
         <f>IF(B76="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J76" s="59" t="str">
+      <c r="J76" s="57" t="str">
         <f>IF(B76="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K76" s="60" t="str">
+      <c r="K76" s="58" t="str">
         <f>IFERROR(VLOOKUP(B76,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5645,7 +5607,7 @@
         <f>IFERROR(VLOOKUP(B77,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D77" s="58" t="str">
+      <c r="D77" s="56" t="str">
         <f>IFERROR(VLOOKUP(B77,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5653,15 +5615,15 @@
       <c r="F77" s="36"/>
       <c r="G77" s="33"/>
       <c r="H77" s="37"/>
-      <c r="I77" s="59" t="str">
+      <c r="I77" s="57" t="str">
         <f>IF(B77="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J77" s="59" t="str">
+      <c r="J77" s="57" t="str">
         <f>IF(B77="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K77" s="60" t="str">
+      <c r="K77" s="58" t="str">
         <f>IFERROR(VLOOKUP(B77,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5673,7 +5635,7 @@
         <f>IFERROR(VLOOKUP(B78,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D78" s="58" t="str">
+      <c r="D78" s="56" t="str">
         <f>IFERROR(VLOOKUP(B78,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5681,15 +5643,15 @@
       <c r="F78" s="36"/>
       <c r="G78" s="33"/>
       <c r="H78" s="37"/>
-      <c r="I78" s="59" t="str">
+      <c r="I78" s="57" t="str">
         <f>IF(B78="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J78" s="59" t="str">
+      <c r="J78" s="57" t="str">
         <f>IF(B78="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K78" s="60" t="str">
+      <c r="K78" s="58" t="str">
         <f>IFERROR(VLOOKUP(B78,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5701,7 +5663,7 @@
         <f>IFERROR(VLOOKUP(B79,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D79" s="58" t="str">
+      <c r="D79" s="56" t="str">
         <f>IFERROR(VLOOKUP(B79,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5709,15 +5671,15 @@
       <c r="F79" s="36"/>
       <c r="G79" s="33"/>
       <c r="H79" s="37"/>
-      <c r="I79" s="59" t="str">
+      <c r="I79" s="57" t="str">
         <f>IF(B79="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J79" s="59" t="str">
+      <c r="J79" s="57" t="str">
         <f>IF(B79="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K79" s="60" t="str">
+      <c r="K79" s="58" t="str">
         <f>IFERROR(VLOOKUP(B79,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5729,7 +5691,7 @@
         <f>IFERROR(VLOOKUP(B80,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D80" s="58" t="str">
+      <c r="D80" s="56" t="str">
         <f>IFERROR(VLOOKUP(B80,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5737,15 +5699,15 @@
       <c r="F80" s="36"/>
       <c r="G80" s="33"/>
       <c r="H80" s="37"/>
-      <c r="I80" s="59" t="str">
+      <c r="I80" s="57" t="str">
         <f>IF(B80="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J80" s="59" t="str">
+      <c r="J80" s="57" t="str">
         <f>IF(B80="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K80" s="60" t="str">
+      <c r="K80" s="58" t="str">
         <f>IFERROR(VLOOKUP(B80,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5757,7 +5719,7 @@
         <f>IFERROR(VLOOKUP(B81,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D81" s="58" t="str">
+      <c r="D81" s="56" t="str">
         <f>IFERROR(VLOOKUP(B81,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5765,15 +5727,15 @@
       <c r="F81" s="36"/>
       <c r="G81" s="33"/>
       <c r="H81" s="37"/>
-      <c r="I81" s="59" t="str">
+      <c r="I81" s="57" t="str">
         <f>IF(B81="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J81" s="59" t="str">
+      <c r="J81" s="57" t="str">
         <f>IF(B81="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K81" s="60" t="str">
+      <c r="K81" s="58" t="str">
         <f>IFERROR(VLOOKUP(B81,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5785,7 +5747,7 @@
         <f>IFERROR(VLOOKUP(B82,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D82" s="58" t="str">
+      <c r="D82" s="56" t="str">
         <f>IFERROR(VLOOKUP(B82,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5793,15 +5755,15 @@
       <c r="F82" s="36"/>
       <c r="G82" s="33"/>
       <c r="H82" s="37"/>
-      <c r="I82" s="59" t="str">
+      <c r="I82" s="57" t="str">
         <f>IF(B82="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J82" s="59" t="str">
+      <c r="J82" s="57" t="str">
         <f>IF(B82="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K82" s="60" t="str">
+      <c r="K82" s="58" t="str">
         <f>IFERROR(VLOOKUP(B82,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5813,7 +5775,7 @@
         <f>IFERROR(VLOOKUP(B83,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D83" s="58" t="str">
+      <c r="D83" s="56" t="str">
         <f>IFERROR(VLOOKUP(B83,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5821,15 +5783,15 @@
       <c r="F83" s="36"/>
       <c r="G83" s="33"/>
       <c r="H83" s="37"/>
-      <c r="I83" s="59" t="str">
+      <c r="I83" s="57" t="str">
         <f>IF(B83="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J83" s="59" t="str">
+      <c r="J83" s="57" t="str">
         <f>IF(B83="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K83" s="60" t="str">
+      <c r="K83" s="58" t="str">
         <f>IFERROR(VLOOKUP(B83,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5841,7 +5803,7 @@
         <f>IFERROR(VLOOKUP(B84,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D84" s="58" t="str">
+      <c r="D84" s="56" t="str">
         <f>IFERROR(VLOOKUP(B84,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5849,15 +5811,15 @@
       <c r="F84" s="36"/>
       <c r="G84" s="33"/>
       <c r="H84" s="37"/>
-      <c r="I84" s="59" t="str">
+      <c r="I84" s="57" t="str">
         <f>IF(B84="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J84" s="59" t="str">
+      <c r="J84" s="57" t="str">
         <f>IF(B84="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K84" s="60" t="str">
+      <c r="K84" s="58" t="str">
         <f>IFERROR(VLOOKUP(B84,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5869,7 +5831,7 @@
         <f>IFERROR(VLOOKUP(B85,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D85" s="58" t="str">
+      <c r="D85" s="56" t="str">
         <f>IFERROR(VLOOKUP(B85,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5877,15 +5839,15 @@
       <c r="F85" s="36"/>
       <c r="G85" s="33"/>
       <c r="H85" s="37"/>
-      <c r="I85" s="59" t="str">
+      <c r="I85" s="57" t="str">
         <f>IF(B85="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J85" s="59" t="str">
+      <c r="J85" s="57" t="str">
         <f>IF(B85="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K85" s="60" t="str">
+      <c r="K85" s="58" t="str">
         <f>IFERROR(VLOOKUP(B85,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5897,7 +5859,7 @@
         <f>IFERROR(VLOOKUP(B86,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D86" s="58" t="str">
+      <c r="D86" s="56" t="str">
         <f>IFERROR(VLOOKUP(B86,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5905,15 +5867,15 @@
       <c r="F86" s="36"/>
       <c r="G86" s="33"/>
       <c r="H86" s="37"/>
-      <c r="I86" s="59" t="str">
+      <c r="I86" s="57" t="str">
         <f>IF(B86="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J86" s="59" t="str">
+      <c r="J86" s="57" t="str">
         <f>IF(B86="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K86" s="60" t="str">
+      <c r="K86" s="58" t="str">
         <f>IFERROR(VLOOKUP(B86,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5925,7 +5887,7 @@
         <f>IFERROR(VLOOKUP(B87,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D87" s="58" t="str">
+      <c r="D87" s="56" t="str">
         <f>IFERROR(VLOOKUP(B87,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5933,15 +5895,15 @@
       <c r="F87" s="36"/>
       <c r="G87" s="33"/>
       <c r="H87" s="37"/>
-      <c r="I87" s="59" t="str">
+      <c r="I87" s="57" t="str">
         <f>IF(B87="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J87" s="59" t="str">
+      <c r="J87" s="57" t="str">
         <f>IF(B87="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K87" s="60" t="str">
+      <c r="K87" s="58" t="str">
         <f>IFERROR(VLOOKUP(B87,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5953,7 +5915,7 @@
         <f>IFERROR(VLOOKUP(B88,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D88" s="58" t="str">
+      <c r="D88" s="56" t="str">
         <f>IFERROR(VLOOKUP(B88,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5961,15 +5923,15 @@
       <c r="F88" s="36"/>
       <c r="G88" s="33"/>
       <c r="H88" s="37"/>
-      <c r="I88" s="59" t="str">
+      <c r="I88" s="57" t="str">
         <f>IF(B88="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J88" s="59" t="str">
+      <c r="J88" s="57" t="str">
         <f>IF(B88="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K88" s="60" t="str">
+      <c r="K88" s="58" t="str">
         <f>IFERROR(VLOOKUP(B88,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5981,7 +5943,7 @@
         <f>IFERROR(VLOOKUP(B89,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D89" s="58" t="str">
+      <c r="D89" s="56" t="str">
         <f>IFERROR(VLOOKUP(B89,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5989,15 +5951,15 @@
       <c r="F89" s="36"/>
       <c r="G89" s="33"/>
       <c r="H89" s="37"/>
-      <c r="I89" s="59" t="str">
+      <c r="I89" s="57" t="str">
         <f>IF(B89="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J89" s="59" t="str">
+      <c r="J89" s="57" t="str">
         <f>IF(B89="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K89" s="60" t="str">
+      <c r="K89" s="58" t="str">
         <f>IFERROR(VLOOKUP(B89,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -6009,7 +5971,7 @@
         <f>IFERROR(VLOOKUP(B90,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D90" s="58" t="str">
+      <c r="D90" s="56" t="str">
         <f>IFERROR(VLOOKUP(B90,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -6017,15 +5979,15 @@
       <c r="F90" s="36"/>
       <c r="G90" s="33"/>
       <c r="H90" s="37"/>
-      <c r="I90" s="59" t="str">
+      <c r="I90" s="57" t="str">
         <f>IF(B90="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J90" s="59" t="str">
+      <c r="J90" s="57" t="str">
         <f>IF(B90="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K90" s="60" t="str">
+      <c r="K90" s="58" t="str">
         <f>IFERROR(VLOOKUP(B90,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -6037,7 +5999,7 @@
         <f>IFERROR(VLOOKUP(B91,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D91" s="58" t="str">
+      <c r="D91" s="56" t="str">
         <f>IFERROR(VLOOKUP(B91,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -6045,15 +6007,15 @@
       <c r="F91" s="36"/>
       <c r="G91" s="33"/>
       <c r="H91" s="37"/>
-      <c r="I91" s="59" t="str">
+      <c r="I91" s="57" t="str">
         <f>IF(B91="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J91" s="59" t="str">
+      <c r="J91" s="57" t="str">
         <f>IF(B91="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K91" s="60" t="str">
+      <c r="K91" s="58" t="str">
         <f>IFERROR(VLOOKUP(B91,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -6065,7 +6027,7 @@
         <f>IFERROR(VLOOKUP(B92,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D92" s="58" t="str">
+      <c r="D92" s="56" t="str">
         <f>IFERROR(VLOOKUP(B92,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -6073,15 +6035,15 @@
       <c r="F92" s="36"/>
       <c r="G92" s="33"/>
       <c r="H92" s="37"/>
-      <c r="I92" s="59" t="str">
+      <c r="I92" s="57" t="str">
         <f>IF(B92="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J92" s="59" t="str">
+      <c r="J92" s="57" t="str">
         <f>IF(B92="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K92" s="60" t="str">
+      <c r="K92" s="58" t="str">
         <f>IFERROR(VLOOKUP(B92,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -6093,7 +6055,7 @@
         <f>IFERROR(VLOOKUP(B93,Names!$B$1:$E$262,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D93" s="58" t="str">
+      <c r="D93" s="56" t="str">
         <f>IFERROR(VLOOKUP(B93,Names!$B$1:$E$262,4,FALSE),"")</f>
         <v/>
       </c>
@@ -6101,15 +6063,15 @@
       <c r="F93" s="36"/>
       <c r="G93" s="33"/>
       <c r="H93" s="37"/>
-      <c r="I93" s="59" t="str">
+      <c r="I93" s="57" t="str">
         <f>IF(B93="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J93" s="59" t="str">
+      <c r="J93" s="57" t="str">
         <f>IF(B93="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K93" s="60" t="str">
+      <c r="K93" s="58" t="str">
         <f>IFERROR(VLOOKUP(B93,Names!$B$1:$E$262,3,FALSE),"")</f>
         <v/>
       </c>
@@ -7232,17 +7194,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{55BFFC22-05E2-40B1-AB09-90A4B23CFDFD}">
+          <x14:formula1>
+            <xm:f>'Work Orders'!$B$2:$B$247</xm:f>
+          </x14:formula1>
+          <xm:sqref>F4:F159</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{57A703F9-7B94-4635-916E-38ABBFB89177}">
           <x14:formula1>
             <xm:f>Names!$B$2:$B$262</xm:f>
           </x14:formula1>
           <xm:sqref>B4:B136</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{55BFFC22-05E2-40B1-AB09-90A4B23CFDFD}">
-          <x14:formula1>
-            <xm:f>'Work Orders'!$B$2:$B$247</xm:f>
-          </x14:formula1>
-          <xm:sqref>F4:F159</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7361,7 +7323,7 @@
         <f>'Vendor Entry Sheet'!E4</f>
         <v>0</v>
       </c>
-      <c r="H2" s="68"/>
+      <c r="H2" s="65"/>
       <c r="I2">
         <f>'Vendor Entry Sheet'!G4</f>
         <v>0</v>
@@ -21226,8 +21188,8 @@
   </sheetPr>
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21282,14 +21244,14 @@
       </c>
       <c r="B2" s="54"/>
       <c r="C2" s="55"/>
-      <c r="D2" s="54" t="s">
+      <c r="D2" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="G2" s="62" t="s">
+      <c r="E2" s="59"/>
+      <c r="G2" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="66">
+      <c r="H2" s="63">
         <v>3014806</v>
       </c>
       <c r="J2" t="s">
@@ -21307,15 +21269,15 @@
         <v>573</v>
       </c>
       <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="54" t="s">
+      <c r="C3"/>
+      <c r="D3" t="s">
         <v>574</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="G3" s="67" t="s">
+      <c r="E3" s="59"/>
+      <c r="G3" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="66">
+      <c r="H3" s="63">
         <v>3001580</v>
       </c>
       <c r="J3" t="s">
@@ -21333,16 +21295,19 @@
         <v>573</v>
       </c>
       <c r="B4" s="54"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="54" t="s">
+      <c r="C4"/>
+      <c r="D4" t="s">
         <v>574</v>
       </c>
-      <c r="E4" s="61"/>
-      <c r="G4" s="67" t="s">
+      <c r="E4" s="59"/>
+      <c r="G4" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="67">
+      <c r="H4" s="64">
         <v>3001667</v>
+      </c>
+      <c r="J4" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -21350,117 +21315,129 @@
         <v>573</v>
       </c>
       <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="54" t="s">
+      <c r="C5"/>
+      <c r="D5" t="s">
         <v>574</v>
       </c>
-      <c r="E5" s="61"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
+      <c r="E5" s="59"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="J5" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
         <v>573</v>
       </c>
       <c r="B6" s="54"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="54" t="s">
+      <c r="C6"/>
+      <c r="D6" t="s">
         <v>574</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
+      <c r="E6" s="59"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="J6" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
         <v>573</v>
       </c>
       <c r="B7" s="54"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="54" t="s">
+      <c r="C7"/>
+      <c r="D7" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="61"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
+      <c r="E7" s="59"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="J7" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
         <v>573</v>
       </c>
       <c r="B8" s="54"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="54" t="s">
+      <c r="C8"/>
+      <c r="D8" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
+      <c r="E8" s="59"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="J8" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
         <v>573</v>
       </c>
       <c r="B9" s="54"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="54" t="s">
+      <c r="C9"/>
+      <c r="D9" t="s">
         <v>574</v>
       </c>
-      <c r="E9" s="61"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
+      <c r="E9" s="59"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>573</v>
       </c>
       <c r="B10" s="54"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="54" t="s">
+      <c r="C10"/>
+      <c r="D10" t="s">
         <v>574</v>
       </c>
-      <c r="E10" s="61"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
+      <c r="E10" s="59"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
         <v>573</v>
       </c>
       <c r="B11" s="54"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="54" t="s">
+      <c r="C11"/>
+      <c r="D11" t="s">
         <v>574</v>
       </c>
-      <c r="E11" s="61"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
+      <c r="E11" s="59"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
         <v>573</v>
       </c>
       <c r="B12" s="54"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="54" t="s">
+      <c r="C12"/>
+      <c r="D12" t="s">
         <v>574</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
+      <c r="E12" s="59"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="60" t="s">
         <v>573</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="62" t="s">
+      <c r="B13" s="60"/>
+      <c r="C13"/>
+      <c r="D13" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="61"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
+      <c r="E13" s="59"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
@@ -21469,15 +21446,15 @@
       <c r="B14" t="s">
         <v>578</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14">
         <v>90140920</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="61"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
+      <c r="E14" s="59"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
@@ -21486,13 +21463,13 @@
       <c r="B15" t="s">
         <v>579</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54" t="s">
+      <c r="C15"/>
+      <c r="D15" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="61"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
+      <c r="E15" s="59"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
@@ -21501,15 +21478,15 @@
       <c r="B16" t="s">
         <v>580</v>
       </c>
-      <c r="C16" s="54">
+      <c r="C16">
         <v>90302509</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" t="s">
         <v>575</v>
       </c>
-      <c r="E16" s="61"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
+      <c r="E16" s="59"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="s">
@@ -21518,15 +21495,15 @@
       <c r="B17" t="s">
         <v>581</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17">
         <v>90300849</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="61"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
+      <c r="E17" s="59"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="54" t="s">
@@ -21535,15 +21512,15 @@
       <c r="B18" t="s">
         <v>582</v>
       </c>
-      <c r="C18" s="54">
+      <c r="C18">
         <v>90302510</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="D18" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="61"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
+      <c r="E18" s="59"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="54" t="s">
@@ -21552,13 +21529,13 @@
       <c r="B19" t="s">
         <v>583</v>
       </c>
-      <c r="C19" s="54">
+      <c r="C19">
         <v>90302511</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" t="s">
         <v>576</v>
       </c>
-      <c r="E19" s="61"/>
+      <c r="E19" s="59"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
@@ -21567,13 +21544,13 @@
       <c r="B20" t="s">
         <v>584</v>
       </c>
-      <c r="C20" s="54">
+      <c r="C20">
         <v>90300016</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="61"/>
+      <c r="E20" s="59"/>
       <c r="G20"/>
       <c r="H20"/>
     </row>
@@ -21584,13 +21561,13 @@
       <c r="B21" t="s">
         <v>585</v>
       </c>
-      <c r="C21" s="54">
+      <c r="C21">
         <v>90301850</v>
       </c>
-      <c r="D21" s="54" t="s">
+      <c r="D21" t="s">
         <v>577</v>
       </c>
-      <c r="E21" s="61"/>
+      <c r="E21" s="59"/>
       <c r="G21"/>
       <c r="H21"/>
     </row>
@@ -21601,13 +21578,13 @@
       <c r="B22" t="s">
         <v>586</v>
       </c>
-      <c r="C22" s="54">
+      <c r="C22">
         <v>90302512</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="D22" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="61"/>
+      <c r="E22" s="59"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
@@ -21616,13 +21593,13 @@
       <c r="B23" t="s">
         <v>587</v>
       </c>
-      <c r="C23" s="54">
+      <c r="C23">
         <v>90137237</v>
       </c>
-      <c r="D23" s="54" t="s">
+      <c r="D23" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="61"/>
+      <c r="E23" s="59"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
@@ -21631,13 +21608,13 @@
       <c r="B24" t="s">
         <v>588</v>
       </c>
-      <c r="C24" s="74">
+      <c r="C24">
         <v>90300199</v>
       </c>
-      <c r="D24" s="54" t="s">
+      <c r="D24" t="s">
         <v>575</v>
       </c>
-      <c r="E24" s="61"/>
+      <c r="E24" s="59"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="54" t="s">
@@ -21646,13 +21623,13 @@
       <c r="B25" t="s">
         <v>589</v>
       </c>
-      <c r="C25" s="54">
+      <c r="C25">
         <v>90300019</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="61"/>
+      <c r="E25" s="59"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="s">
@@ -21661,13 +21638,13 @@
       <c r="B26" t="s">
         <v>590</v>
       </c>
-      <c r="C26" s="54">
+      <c r="C26">
         <v>90301314</v>
       </c>
-      <c r="D26" s="54" t="s">
+      <c r="D26" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="61"/>
+      <c r="E26" s="59"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="54" t="s">
@@ -21676,13 +21653,13 @@
       <c r="B27" t="s">
         <v>591</v>
       </c>
-      <c r="C27" s="54">
+      <c r="C27">
         <v>90302329</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="D27" t="s">
         <v>576</v>
       </c>
-      <c r="E27" s="61"/>
+      <c r="E27" s="59"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="54" t="s">
@@ -21691,13 +21668,13 @@
       <c r="B28" t="s">
         <v>592</v>
       </c>
-      <c r="C28" s="74">
+      <c r="C28">
         <v>90300213</v>
       </c>
-      <c r="D28" s="54" t="s">
+      <c r="D28" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="61"/>
+      <c r="E28" s="59"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="s">
@@ -21706,28 +21683,28 @@
       <c r="B29" t="s">
         <v>593</v>
       </c>
-      <c r="C29" s="74">
+      <c r="C29">
         <v>90301259</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" t="s">
         <v>577</v>
       </c>
-      <c r="E29" s="61"/>
+      <c r="E29" s="59"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="60" t="s">
         <v>52</v>
       </c>
       <c r="B30" t="s">
         <v>594</v>
       </c>
-      <c r="C30" s="75">
+      <c r="C30">
         <v>90300214</v>
       </c>
-      <c r="D30" s="62" t="s">
+      <c r="D30" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="61"/>
+      <c r="E30" s="59"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="54" t="s">
@@ -21736,13 +21713,13 @@
       <c r="B31" t="s">
         <v>596</v>
       </c>
-      <c r="C31" s="76">
+      <c r="C31">
         <v>90300712</v>
       </c>
-      <c r="D31" s="54" t="s">
+      <c r="D31" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="61"/>
+      <c r="E31" s="59"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="54" t="s">
@@ -21751,13 +21728,13 @@
       <c r="B32" t="s">
         <v>597</v>
       </c>
-      <c r="C32" s="54">
+      <c r="C32">
         <v>90302495</v>
       </c>
-      <c r="D32" s="54" t="s">
+      <c r="D32" t="s">
         <v>606</v>
       </c>
-      <c r="E32" s="61" t="str">
+      <c r="E32" s="59" t="str">
         <f t="shared" ref="E32:E33" si="0">IFERROR(VLOOKUP(D32,$G$2:$H$18,2,FALSE),"")</f>
         <v/>
       </c>
@@ -21769,13 +21746,13 @@
       <c r="B33" t="s">
         <v>598</v>
       </c>
-      <c r="C33" s="54">
+      <c r="C33">
         <v>90302496</v>
       </c>
-      <c r="D33" s="54" t="s">
+      <c r="D33" t="s">
         <v>606</v>
       </c>
-      <c r="E33" s="61" t="str">
+      <c r="E33" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -21787,14 +21764,14 @@
       <c r="B34" t="s">
         <v>599</v>
       </c>
-      <c r="C34" s="54">
+      <c r="C34">
         <v>90300003</v>
       </c>
-      <c r="D34" s="54" t="s">
+      <c r="D34" t="s">
         <v>607</v>
       </c>
-      <c r="E34" s="61" t="str">
-        <f t="shared" ref="E34:E65" si="1">IFERROR(VLOOKUP(D34,$G$2:$H$18,2,FALSE),"")</f>
+      <c r="E34" s="59" t="str">
+        <f t="shared" ref="E34:E54" si="1">IFERROR(VLOOKUP(D34,$G$2:$H$18,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
@@ -21805,11 +21782,11 @@
       <c r="B35" t="s">
         <v>600</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54" t="s">
+      <c r="C35"/>
+      <c r="D35" t="s">
         <v>607</v>
       </c>
-      <c r="E35" s="61" t="str">
+      <c r="E35" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -21821,13 +21798,13 @@
       <c r="B36" t="s">
         <v>601</v>
       </c>
-      <c r="C36" s="76">
+      <c r="C36">
         <v>90300039</v>
       </c>
-      <c r="D36" s="54" t="s">
+      <c r="D36" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="61"/>
+      <c r="E36" s="59"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="54" t="s">
@@ -21836,13 +21813,13 @@
       <c r="B37" t="s">
         <v>602</v>
       </c>
-      <c r="C37" s="54">
+      <c r="C37">
         <v>90144128</v>
       </c>
-      <c r="D37" s="54" t="s">
+      <c r="D37" t="s">
         <v>606</v>
       </c>
-      <c r="E37" s="61" t="str">
+      <c r="E37" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -21854,13 +21831,13 @@
       <c r="B38" t="s">
         <v>603</v>
       </c>
-      <c r="C38" s="54">
+      <c r="C38">
         <v>90302497</v>
       </c>
-      <c r="D38" s="54" t="s">
+      <c r="D38" t="s">
         <v>606</v>
       </c>
-      <c r="E38" s="61" t="str">
+      <c r="E38" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -21872,31 +21849,31 @@
       <c r="B39" t="s">
         <v>604</v>
       </c>
-      <c r="C39" s="54">
+      <c r="C39">
         <v>90301392</v>
       </c>
-      <c r="D39" s="54" t="s">
+      <c r="D39" t="s">
         <v>607</v>
       </c>
-      <c r="E39" s="61" t="str">
+      <c r="E39" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="62" t="s">
+      <c r="A40" s="60" t="s">
         <v>595</v>
       </c>
       <c r="B40" t="s">
         <v>605</v>
       </c>
-      <c r="C40" s="62">
+      <c r="C40">
         <v>90302498</v>
       </c>
-      <c r="D40" s="62" t="s">
+      <c r="D40" t="s">
         <v>607</v>
       </c>
-      <c r="E40" s="61" t="str">
+      <c r="E40" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -21905,111 +21882,111 @@
       <c r="A41" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="64"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="54" t="s">
+      <c r="B41" s="61"/>
+      <c r="C41"/>
+      <c r="D41" t="s">
         <v>49</v>
       </c>
-      <c r="E41" s="61"/>
+      <c r="E41" s="59"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="64"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="54" t="s">
+      <c r="B42" s="61"/>
+      <c r="C42"/>
+      <c r="D42" t="s">
         <v>606</v>
       </c>
-      <c r="E42" s="61"/>
+      <c r="E42" s="59"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="64"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="54" t="s">
+      <c r="B43" s="61"/>
+      <c r="C43"/>
+      <c r="D43" t="s">
         <v>606</v>
       </c>
-      <c r="E43" s="61"/>
+      <c r="E43" s="59"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="64"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="54" t="s">
+      <c r="B44" s="61"/>
+      <c r="C44"/>
+      <c r="D44" t="s">
         <v>607</v>
       </c>
-      <c r="E44" s="61"/>
+      <c r="E44" s="59"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="64"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="54" t="s">
+      <c r="B45" s="61"/>
+      <c r="C45"/>
+      <c r="D45" t="s">
         <v>606</v>
       </c>
-      <c r="E45" s="61"/>
+      <c r="E45" s="59"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="64"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="54" t="s">
+      <c r="B46" s="61"/>
+      <c r="C46"/>
+      <c r="D46" t="s">
         <v>606</v>
       </c>
-      <c r="E46" s="61"/>
+      <c r="E46" s="59"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="64"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="54" t="s">
+      <c r="B47" s="61"/>
+      <c r="C47"/>
+      <c r="D47" t="s">
         <v>607</v>
       </c>
-      <c r="E47" s="61"/>
+      <c r="E47" s="59"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="64"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="54" t="s">
+      <c r="B48" s="61"/>
+      <c r="C48"/>
+      <c r="D48" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="61"/>
+      <c r="E48" s="59"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="64"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="54" t="s">
+      <c r="B49" s="61"/>
+      <c r="C49"/>
+      <c r="D49" t="s">
         <v>606</v>
       </c>
-      <c r="E49" s="61"/>
+      <c r="E49" s="59"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="64"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="54" t="s">
+      <c r="B50" s="61"/>
+      <c r="C50"/>
+      <c r="D50" t="s">
         <v>606</v>
       </c>
-      <c r="E50" s="61" t="str">
+      <c r="E50" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -22018,12 +21995,12 @@
       <c r="A51" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="64"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="54" t="s">
+      <c r="B51" s="61"/>
+      <c r="C51"/>
+      <c r="D51" t="s">
         <v>607</v>
       </c>
-      <c r="E51" s="61" t="str">
+      <c r="E51" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -22032,12 +22009,12 @@
       <c r="A52" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="64"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="54" t="s">
+      <c r="B52" s="61"/>
+      <c r="C52"/>
+      <c r="D52" t="s">
         <v>606</v>
       </c>
-      <c r="E52" s="61" t="str">
+      <c r="E52" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -22046,26 +22023,26 @@
       <c r="A53" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="64"/>
-      <c r="C53" s="65"/>
-      <c r="D53" s="54" t="s">
+      <c r="B53" s="61"/>
+      <c r="C53"/>
+      <c r="D53" t="s">
         <v>606</v>
       </c>
-      <c r="E53" s="61" t="str">
+      <c r="E53" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="62" t="s">
+      <c r="A54" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="64"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="62" t="s">
+      <c r="B54" s="61"/>
+      <c r="C54"/>
+      <c r="D54" t="s">
         <v>607</v>
       </c>
-      <c r="E54" s="61" t="str">
+      <c r="E54" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -22074,12 +22051,12 @@
       <c r="A55" s="54" t="s">
         <v>570</v>
       </c>
-      <c r="B55" s="64"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="54" t="s">
+      <c r="B55" s="61"/>
+      <c r="C55"/>
+      <c r="D55" t="s">
         <v>49</v>
       </c>
-      <c r="E55" s="61"/>
+      <c r="E55" s="59"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="54" t="s">
@@ -22088,13 +22065,13 @@
       <c r="B56" t="s">
         <v>608</v>
       </c>
-      <c r="C56" s="54">
+      <c r="C56">
         <v>90300462</v>
       </c>
-      <c r="D56" s="54" t="s">
+      <c r="D56" t="s">
         <v>606</v>
       </c>
-      <c r="E56" s="61"/>
+      <c r="E56" s="59"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="54" t="s">
@@ -22103,13 +22080,13 @@
       <c r="B57" t="s">
         <v>609</v>
       </c>
-      <c r="C57" s="54">
+      <c r="C57">
         <v>90302117</v>
       </c>
-      <c r="D57" s="54" t="s">
+      <c r="D57" t="s">
         <v>607</v>
       </c>
-      <c r="E57" s="61"/>
+      <c r="E57" s="59"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="54" t="s">
@@ -22118,11 +22095,11 @@
       <c r="B58" t="s">
         <v>610</v>
       </c>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54" t="s">
+      <c r="C58"/>
+      <c r="D58" t="s">
         <v>48</v>
       </c>
-      <c r="E58" s="61"/>
+      <c r="E58" s="59"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="54" t="s">
@@ -22131,13 +22108,13 @@
       <c r="B59" t="s">
         <v>611</v>
       </c>
-      <c r="C59" s="54">
+      <c r="C59">
         <v>90300586</v>
       </c>
-      <c r="D59" s="54" t="s">
+      <c r="D59" t="s">
         <v>606</v>
       </c>
-      <c r="E59" s="61"/>
+      <c r="E59" s="59"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="54" t="s">
@@ -22146,13 +22123,13 @@
       <c r="B60" t="s">
         <v>612</v>
       </c>
-      <c r="C60" s="54">
+      <c r="C60">
         <v>90302487</v>
       </c>
-      <c r="D60" s="54" t="s">
+      <c r="D60" t="s">
         <v>607</v>
       </c>
-      <c r="E60" s="61"/>
+      <c r="E60" s="59"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="54" t="s">
@@ -22161,13 +22138,13 @@
       <c r="B61" t="s">
         <v>613</v>
       </c>
-      <c r="C61" s="54">
+      <c r="C61">
         <v>90302465</v>
       </c>
-      <c r="D61" s="54" t="s">
+      <c r="D61" t="s">
         <v>48</v>
       </c>
-      <c r="E61" s="61"/>
+      <c r="E61" s="59"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="54" t="s">
@@ -22176,13 +22153,13 @@
       <c r="B62" t="s">
         <v>614</v>
       </c>
-      <c r="C62" s="54">
+      <c r="C62">
         <v>90117360</v>
       </c>
-      <c r="D62" s="54" t="s">
+      <c r="D62" t="s">
         <v>49</v>
       </c>
-      <c r="E62" s="61"/>
+      <c r="E62" s="59"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="54" t="s">
@@ -22191,13 +22168,13 @@
       <c r="B63" t="s">
         <v>615</v>
       </c>
-      <c r="C63" s="54">
+      <c r="C63">
         <v>90302118</v>
       </c>
-      <c r="D63" s="54" t="s">
+      <c r="D63" t="s">
         <v>606</v>
       </c>
-      <c r="E63" s="61"/>
+      <c r="E63" s="59"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="54" t="s">
@@ -22206,13 +22183,13 @@
       <c r="B64" t="s">
         <v>616</v>
       </c>
-      <c r="C64" s="76">
+      <c r="C64">
         <v>90144804</v>
       </c>
-      <c r="D64" s="54" t="s">
+      <c r="D64" t="s">
         <v>607</v>
       </c>
-      <c r="E64" s="61"/>
+      <c r="E64" s="59"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="54" t="s">
@@ -22221,13 +22198,13 @@
       <c r="B65" t="s">
         <v>617</v>
       </c>
-      <c r="C65" s="76">
+      <c r="C65">
         <v>90302398</v>
       </c>
-      <c r="D65" s="54" t="s">
+      <c r="D65" t="s">
         <v>48</v>
       </c>
-      <c r="E65" s="61"/>
+      <c r="E65" s="59"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="54" t="s">
@@ -22236,13 +22213,13 @@
       <c r="B66" t="s">
         <v>618</v>
       </c>
-      <c r="C66" s="54">
+      <c r="C66">
         <v>90302503</v>
       </c>
-      <c r="D66" s="54" t="s">
+      <c r="D66" t="s">
         <v>606</v>
       </c>
-      <c r="E66" s="61"/>
+      <c r="E66" s="59"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="54" t="s">
@@ -22251,377 +22228,377 @@
       <c r="B67" t="s">
         <v>619</v>
       </c>
-      <c r="C67" s="76">
+      <c r="C67">
         <v>90302504</v>
       </c>
-      <c r="D67" s="54" t="s">
+      <c r="D67" t="s">
         <v>607</v>
       </c>
-      <c r="E67" s="61"/>
+      <c r="E67" s="59"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="62" t="s">
+      <c r="A68" s="60" t="s">
         <v>570</v>
       </c>
       <c r="B68" t="s">
         <v>620</v>
       </c>
-      <c r="C68" s="63"/>
-      <c r="D68" s="62" t="s">
+      <c r="C68"/>
+      <c r="D68" t="s">
         <v>48</v>
       </c>
-      <c r="E68" s="65"/>
+      <c r="E68" s="62"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="62" t="s">
+      <c r="A69" s="60" t="s">
         <v>621</v>
       </c>
       <c r="B69" t="s">
         <v>623</v>
       </c>
-      <c r="C69" s="74">
+      <c r="C69">
         <v>90290068</v>
       </c>
-      <c r="D69" s="54" t="s">
+      <c r="D69" t="s">
         <v>49</v>
       </c>
-      <c r="E69" s="65" t="str">
+      <c r="E69" s="62" t="str">
         <f>IFERROR(VLOOKUP(#REF!,$G$2:$H$18,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="62" t="s">
+      <c r="A70" s="60" t="s">
         <v>621</v>
       </c>
       <c r="B70" t="s">
         <v>624</v>
       </c>
-      <c r="C70" s="74">
+      <c r="C70">
         <v>90302469</v>
       </c>
-      <c r="D70" s="54" t="s">
+      <c r="D70" t="s">
         <v>606</v>
       </c>
-      <c r="E70" s="65" t="str">
+      <c r="E70" s="62" t="str">
         <f>IFERROR(VLOOKUP(#REF!,$G$2:$H$18,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="62" t="s">
+      <c r="A71" s="60" t="s">
         <v>621</v>
       </c>
       <c r="B71" t="s">
         <v>625</v>
       </c>
-      <c r="C71" s="74">
+      <c r="C71">
         <v>90302453</v>
       </c>
-      <c r="D71" s="54" t="s">
+      <c r="D71" t="s">
         <v>606</v>
       </c>
-      <c r="E71" s="65" t="str">
+      <c r="E71" s="62" t="str">
         <f>IFERROR(VLOOKUP(#REF!,$G$2:$H$18,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="62" t="s">
+      <c r="A72" s="60" t="s">
         <v>621</v>
       </c>
       <c r="B72" t="s">
         <v>626</v>
       </c>
-      <c r="C72" s="76">
+      <c r="C72">
         <v>90301928</v>
       </c>
-      <c r="D72" s="54" t="s">
+      <c r="D72" t="s">
         <v>607</v>
       </c>
-      <c r="E72" s="65" t="str">
+      <c r="E72" s="62" t="str">
         <f>IFERROR(VLOOKUP(#REF!,$G$2:$H$18,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="62" t="s">
+      <c r="A73" s="60" t="s">
         <v>621</v>
       </c>
       <c r="B73" t="s">
         <v>627</v>
       </c>
-      <c r="C73" s="74">
+      <c r="C73">
         <v>90302455</v>
       </c>
-      <c r="D73" s="54" t="s">
+      <c r="D73" t="s">
         <v>622</v>
       </c>
-      <c r="E73" s="65" t="str">
+      <c r="E73" s="62" t="str">
         <f>IFERROR(VLOOKUP(#REF!,$G$2:$H$18,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="62" t="s">
+      <c r="A74" s="60" t="s">
         <v>621</v>
       </c>
       <c r="B74" t="s">
         <v>628</v>
       </c>
-      <c r="C74" s="76">
+      <c r="C74">
         <v>90302470</v>
       </c>
-      <c r="D74" s="54" t="s">
+      <c r="D74" t="s">
         <v>48</v>
       </c>
-      <c r="E74" s="65" t="str">
+      <c r="E74" s="62" t="str">
         <f>IFERROR(VLOOKUP(#REF!,$G$2:$H$18,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="62" t="s">
+      <c r="A75" s="60" t="s">
         <v>621</v>
       </c>
       <c r="B75" t="s">
         <v>629</v>
       </c>
-      <c r="C75" s="74">
+      <c r="C75">
         <v>90302471</v>
       </c>
-      <c r="D75" s="54" t="s">
+      <c r="D75" t="s">
         <v>48</v>
       </c>
-      <c r="E75" s="65" t="str">
+      <c r="E75" s="62" t="str">
         <f>IFERROR(VLOOKUP(#REF!,$G$2:$H$18,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="62" t="s">
+      <c r="A76" s="60" t="s">
         <v>621</v>
       </c>
       <c r="B76" t="s">
         <v>630</v>
       </c>
-      <c r="C76" s="74">
+      <c r="C76">
         <v>90302457</v>
       </c>
-      <c r="D76" s="54" t="s">
+      <c r="D76" t="s">
         <v>606</v>
       </c>
-      <c r="E76" s="65" t="str">
+      <c r="E76" s="62" t="str">
         <f>IFERROR(VLOOKUP(#REF!,$G$2:$H$18,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="62" t="s">
+      <c r="A77" s="60" t="s">
         <v>621</v>
       </c>
       <c r="B77" t="s">
         <v>600</v>
       </c>
-      <c r="C77" s="65"/>
-      <c r="D77" s="54" t="s">
+      <c r="C77"/>
+      <c r="D77" t="s">
         <v>606</v>
       </c>
-      <c r="E77" s="65" t="str">
+      <c r="E77" s="62" t="str">
         <f>IFERROR(VLOOKUP(#REF!,$G$2:$H$18,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="62" t="s">
+      <c r="A78" s="60" t="s">
         <v>621</v>
       </c>
       <c r="B78" t="s">
         <v>631</v>
       </c>
-      <c r="C78" s="74">
+      <c r="C78">
         <v>90290075</v>
       </c>
-      <c r="D78" s="54" t="s">
+      <c r="D78" t="s">
         <v>607</v>
       </c>
-      <c r="E78" s="65" t="str">
+      <c r="E78" s="62" t="str">
         <f>IFERROR(VLOOKUP(#REF!,$G$2:$H$18,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="62" t="s">
+      <c r="A79" s="60" t="s">
         <v>621</v>
       </c>
       <c r="B79" t="s">
         <v>632</v>
       </c>
-      <c r="C79" s="54">
+      <c r="C79">
         <v>90302218</v>
       </c>
-      <c r="D79" s="54" t="s">
+      <c r="D79" t="s">
         <v>622</v>
       </c>
-      <c r="E79" s="65" t="str">
+      <c r="E79" s="62" t="str">
         <f>IFERROR(VLOOKUP(#REF!,$G$2:$H$18,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="62" t="s">
+      <c r="A80" s="60" t="s">
         <v>621</v>
       </c>
       <c r="B80" t="s">
         <v>633</v>
       </c>
-      <c r="C80" s="77">
+      <c r="C80">
         <v>90290074</v>
       </c>
-      <c r="D80" s="62" t="s">
+      <c r="D80" t="s">
         <v>49</v>
       </c>
-      <c r="E80" s="65" t="str">
+      <c r="E80" s="62" t="str">
         <f>IFERROR(VLOOKUP(#REF!,$G$2:$H$18,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="62" t="s">
+      <c r="A81" s="60" t="s">
         <v>621</v>
       </c>
       <c r="B81" t="s">
         <v>635</v>
       </c>
-      <c r="C81" s="77">
+      <c r="C81">
         <v>90301453</v>
       </c>
-      <c r="D81" s="62" t="s">
+      <c r="D81" t="s">
         <v>49</v>
       </c>
-      <c r="E81" s="65"/>
+      <c r="E81" s="62"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="62" t="s">
+      <c r="A82" s="60" t="s">
         <v>621</v>
       </c>
       <c r="B82" t="s">
         <v>636</v>
       </c>
-      <c r="C82" s="75">
+      <c r="C82">
         <v>90300620</v>
       </c>
-      <c r="D82" s="62" t="s">
+      <c r="D82" t="s">
         <v>634</v>
       </c>
-      <c r="E82" s="65"/>
+      <c r="E82" s="62"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="62" t="s">
+      <c r="A83" s="60" t="s">
         <v>621</v>
       </c>
       <c r="B83" t="s">
         <v>637</v>
       </c>
-      <c r="C83" s="75">
+      <c r="C83">
         <v>90290069</v>
       </c>
-      <c r="D83" s="62" t="s">
+      <c r="D83" t="s">
         <v>634</v>
       </c>
-      <c r="E83" s="65"/>
+      <c r="E83" s="62"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="62" t="s">
+      <c r="A84" s="60" t="s">
         <v>621</v>
       </c>
       <c r="B84" t="s">
         <v>638</v>
       </c>
-      <c r="C84" s="75">
+      <c r="C84">
         <v>90290077</v>
       </c>
-      <c r="D84" s="62" t="s">
+      <c r="D84" t="s">
         <v>634</v>
       </c>
-      <c r="E84" s="65"/>
+      <c r="E84" s="62"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="62" t="s">
+      <c r="A85" s="60" t="s">
         <v>621</v>
       </c>
       <c r="B85" t="s">
         <v>639</v>
       </c>
-      <c r="C85" s="77">
+      <c r="C85">
         <v>90301388</v>
       </c>
-      <c r="D85" s="62" t="s">
+      <c r="D85" t="s">
         <v>49</v>
       </c>
-      <c r="E85" s="65"/>
+      <c r="E85" s="62"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="62" t="s">
+      <c r="A86" s="60" t="s">
         <v>621</v>
       </c>
       <c r="B86" t="s">
         <v>640</v>
       </c>
-      <c r="C86" s="62">
+      <c r="C86">
         <v>90302500</v>
       </c>
-      <c r="D86" s="62" t="s">
+      <c r="D86" t="s">
         <v>634</v>
       </c>
-      <c r="E86" s="65"/>
+      <c r="E86" s="62"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="62" t="s">
+      <c r="A87" s="60" t="s">
         <v>621</v>
       </c>
       <c r="B87" t="s">
         <v>641</v>
       </c>
-      <c r="C87" s="77">
+      <c r="C87">
         <v>90302088</v>
       </c>
-      <c r="D87" s="62" t="s">
+      <c r="D87" t="s">
         <v>634</v>
       </c>
-      <c r="E87" s="65" t="str">
-        <f t="shared" ref="E66:E97" si="2">IFERROR(VLOOKUP(D87,$G$2:$H$18,2,FALSE),"")</f>
+      <c r="E87" s="62" t="str">
+        <f t="shared" ref="E87:E89" si="2">IFERROR(VLOOKUP(D87,$G$2:$H$18,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="62" t="s">
+      <c r="A88" s="60" t="s">
         <v>621</v>
       </c>
       <c r="B88" t="s">
         <v>642</v>
       </c>
-      <c r="C88" s="77">
+      <c r="C88">
         <v>90302447</v>
       </c>
-      <c r="D88" s="62" t="s">
+      <c r="D88" t="s">
         <v>634</v>
       </c>
-      <c r="E88" s="65" t="str">
+      <c r="E88" s="62" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="62" t="s">
+      <c r="A89" s="60" t="s">
         <v>643</v>
       </c>
-      <c r="B89" s="64"/>
-      <c r="C89" s="65"/>
-      <c r="D89" s="62" t="s">
+      <c r="B89" s="61"/>
+      <c r="C89"/>
+      <c r="D89" t="s">
         <v>644</v>
       </c>
-      <c r="E89" s="65" t="str">
+      <c r="E89" s="62" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -22630,209 +22607,201 @@
       <c r="A90" s="54" t="s">
         <v>645</v>
       </c>
-      <c r="B90" s="64"/>
-      <c r="C90" s="54">
+      <c r="B90" t="s">
+        <v>648</v>
+      </c>
+      <c r="C90">
         <v>90101732</v>
       </c>
-      <c r="D90" s="54" t="s">
+      <c r="D90" t="s">
         <v>49</v>
-      </c>
-      <c r="E90" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="54" t="s">
         <v>645</v>
       </c>
-      <c r="B91" s="64"/>
-      <c r="C91" s="54">
+      <c r="B91" t="s">
+        <v>649</v>
+      </c>
+      <c r="C91">
         <v>90302038</v>
       </c>
-      <c r="D91" s="54" t="s">
+      <c r="D91" t="s">
         <v>646</v>
-      </c>
-      <c r="E91" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="54" t="s">
         <v>645</v>
       </c>
-      <c r="B92" s="64"/>
-      <c r="C92" s="54">
+      <c r="B92" t="s">
+        <v>650</v>
+      </c>
+      <c r="C92">
         <v>90301852</v>
       </c>
-      <c r="D92" s="54" t="s">
+      <c r="D92" t="s">
         <v>646</v>
-      </c>
-      <c r="E92" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="54" t="s">
         <v>645</v>
       </c>
-      <c r="B93" s="64"/>
-      <c r="C93" s="54">
+      <c r="B93" t="s">
+        <v>651</v>
+      </c>
+      <c r="C93">
         <v>90128100</v>
       </c>
-      <c r="D93" s="54" t="s">
+      <c r="D93" t="s">
         <v>49</v>
-      </c>
-      <c r="E93" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="54" t="s">
         <v>645</v>
       </c>
-      <c r="B94" s="64"/>
-      <c r="C94" s="76">
+      <c r="B94" t="s">
+        <v>652</v>
+      </c>
+      <c r="C94">
         <v>90290053</v>
       </c>
-      <c r="D94" s="54" t="s">
+      <c r="D94" t="s">
         <v>646</v>
-      </c>
-      <c r="E94" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="54" t="s">
         <v>645</v>
       </c>
-      <c r="B95" s="64"/>
-      <c r="C95" s="54">
+      <c r="B95" t="s">
+        <v>653</v>
+      </c>
+      <c r="C95">
         <v>90300229</v>
       </c>
-      <c r="D95" s="54" t="s">
+      <c r="D95" t="s">
         <v>646</v>
-      </c>
-      <c r="E95" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="54" t="s">
         <v>645</v>
       </c>
-      <c r="B96" s="64"/>
-      <c r="C96" s="76">
+      <c r="B96" t="s">
+        <v>654</v>
+      </c>
+      <c r="C96">
         <v>90301651</v>
       </c>
-      <c r="D96" s="54" t="s">
+      <c r="D96" t="s">
         <v>647</v>
-      </c>
-      <c r="E96" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="54" t="s">
         <v>645</v>
       </c>
-      <c r="C97" s="76">
+      <c r="B97" t="s">
+        <v>655</v>
+      </c>
+      <c r="C97">
         <v>90302044</v>
       </c>
-      <c r="D97" s="54" t="s">
+      <c r="D97" t="s">
         <v>647</v>
-      </c>
-      <c r="E97" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="54" t="s">
         <v>645</v>
       </c>
-      <c r="C98" s="76">
+      <c r="B98" t="s">
+        <v>656</v>
+      </c>
+      <c r="C98">
         <v>90300312</v>
       </c>
-      <c r="D98" s="54" t="s">
+      <c r="D98" t="s">
         <v>647</v>
-      </c>
-      <c r="E98" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="54" t="s">
         <v>645</v>
       </c>
-      <c r="C99" s="76">
+      <c r="B99" t="s">
+        <v>657</v>
+      </c>
+      <c r="C99">
         <v>90300287</v>
       </c>
-      <c r="D99" s="54" t="s">
+      <c r="D99" t="s">
         <v>647</v>
-      </c>
-      <c r="E99" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="54" t="s">
         <v>645</v>
       </c>
-      <c r="C100" s="76">
+      <c r="B100" t="s">
+        <v>658</v>
+      </c>
+      <c r="C100">
         <v>90300546</v>
       </c>
-      <c r="D100" s="54" t="s">
+      <c r="D100" t="s">
         <v>647</v>
-      </c>
-      <c r="E100" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="54" t="s">
         <v>645</v>
       </c>
-      <c r="C101" s="76">
+      <c r="B101" t="s">
+        <v>659</v>
+      </c>
+      <c r="C101">
         <v>90300274</v>
       </c>
-      <c r="D101" s="54" t="s">
+      <c r="D101" t="s">
         <v>647</v>
-      </c>
-      <c r="E101" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="54" t="s">
         <v>645</v>
       </c>
-      <c r="C102" s="76">
+      <c r="B102" t="s">
+        <v>660</v>
+      </c>
+      <c r="C102">
         <v>90300281</v>
       </c>
-      <c r="D102" s="54" t="s">
+      <c r="D102" t="s">
         <v>647</v>
       </c>
-      <c r="E102" t="s">
-        <v>660</v>
-      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="62" t="s">
+      <c r="A103" s="60" t="s">
         <v>645</v>
       </c>
-      <c r="B103" s="64"/>
-      <c r="C103" s="78">
+      <c r="B103" t="s">
+        <v>661</v>
+      </c>
+      <c r="C103">
         <v>90302337</v>
       </c>
-      <c r="D103" s="62" t="s">
+      <c r="D103" t="s">
         <v>647</v>
-      </c>
-      <c r="E103" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E104" s="11" t="str">
-        <f t="shared" ref="E98:E110" si="3">IFERROR(VLOOKUP(D104,$G$2:$H$18,2,FALSE),"")</f>
+        <f t="shared" ref="E104:E110" si="3">IFERROR(VLOOKUP(D104,$G$2:$H$18,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
@@ -22885,7 +22854,7 @@
   </sheetPr>
   <dimension ref="A1:F397"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
@@ -22899,22 +22868,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="66" t="s">
         <v>53</v>
       </c>
     </row>
@@ -30381,17 +30350,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a1bbf4fc-2070-4842-8cf2-c42346818ea9" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d41b7399-51ed-4fce-9e89-79a41c55ed41">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004A5BF6C7F67B434096FAC9443A83D821" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1347de4a6797875f8d6b1ac5dc93737c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d41b7399-51ed-4fce-9e89-79a41c55ed41" xmlns:ns3="a1bbf4fc-2070-4842-8cf2-c42346818ea9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67ec082bb3101a8db1bb88f037f675cb" ns2:_="" ns3:_="">
     <xsd:import namespace="d41b7399-51ed-4fce-9e89-79a41c55ed41"/>
@@ -30634,6 +30592,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a1bbf4fc-2070-4842-8cf2-c42346818ea9" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d41b7399-51ed-4fce-9e89-79a41c55ed41">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71C3BF75-E265-495B-A1EF-9F0F8014FF62}">
   <ds:schemaRefs>
@@ -30643,17 +30612,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C286B8F-44DD-46A1-8664-5B3AFC40D364}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a1bbf4fc-2070-4842-8cf2-c42346818ea9"/>
-    <ds:schemaRef ds:uri="d41b7399-51ed-4fce-9e89-79a41c55ed41"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F00606B-6B80-42B0-B0DE-C79F0839CF7D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30670,4 +30628,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C286B8F-44DD-46A1-8664-5B3AFC40D364}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a1bbf4fc-2070-4842-8cf2-c42346818ea9"/>
+    <ds:schemaRef ds:uri="d41b7399-51ed-4fce-9e89-79a41c55ed41"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/public/data/Master App Timesheet.xlsx
+++ b/public/data/Master App Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgelD\timesheet-app\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03989A7-30A1-494C-BD18-814BE3503E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F91DB55-F499-47BC-8C11-D34953F2425E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vendor Entry Sheet" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2896" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2896" uniqueCount="661">
   <si>
     <t xml:space="preserve">Date
 </t>
@@ -1810,9 +1810,6 @@
   </si>
   <si>
     <t>Minprovise</t>
-  </si>
-  <si>
-    <t>SMS</t>
   </si>
   <si>
     <t>Kings</t>
@@ -21188,7 +21185,7 @@
   </sheetPr>
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
@@ -21240,7 +21237,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B2" s="54"/>
       <c r="C2" s="55"/>
@@ -21266,12 +21263,12 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B3" s="54"/>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E3" s="59"/>
       <c r="G3" s="64" t="s">
@@ -21292,12 +21289,12 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B4" s="54"/>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E4" s="59"/>
       <c r="G4" s="64" t="s">
@@ -21307,44 +21304,44 @@
         <v>3001667</v>
       </c>
       <c r="J4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B5" s="54"/>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E5" s="59"/>
       <c r="G5" s="64"/>
       <c r="H5" s="64"/>
       <c r="J5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B6" s="54"/>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E6" s="59"/>
       <c r="G6" s="64"/>
       <c r="H6" s="64"/>
       <c r="J6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B7" s="54"/>
       <c r="C7"/>
@@ -21360,7 +21357,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B8" s="54"/>
       <c r="C8"/>
@@ -21371,17 +21368,17 @@
       <c r="G8" s="64"/>
       <c r="H8" s="64"/>
       <c r="J8" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B9" s="54"/>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E9" s="59"/>
       <c r="G9" s="64"/>
@@ -21389,12 +21386,12 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B10" s="54"/>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E10" s="59"/>
       <c r="G10" s="64"/>
@@ -21402,12 +21399,12 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B11" s="54"/>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E11" s="59"/>
       <c r="G11" s="64"/>
@@ -21415,12 +21412,12 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B12" s="54"/>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E12" s="59"/>
       <c r="G12" s="64"/>
@@ -21428,7 +21425,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="60" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B13" s="60"/>
       <c r="C13"/>
@@ -21444,7 +21441,7 @@
         <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C14">
         <v>90140920</v>
@@ -21461,7 +21458,7 @@
         <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
@@ -21476,13 +21473,13 @@
         <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C16">
         <v>90302509</v>
       </c>
       <c r="D16" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E16" s="59"/>
       <c r="G16" s="64"/>
@@ -21493,7 +21490,7 @@
         <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C17">
         <v>90300849</v>
@@ -21510,7 +21507,7 @@
         <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C18">
         <v>90302510</v>
@@ -21527,13 +21524,13 @@
         <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C19">
         <v>90302511</v>
       </c>
       <c r="D19" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E19" s="59"/>
     </row>
@@ -21542,7 +21539,7 @@
         <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C20">
         <v>90300016</v>
@@ -21559,13 +21556,13 @@
         <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C21">
         <v>90301850</v>
       </c>
       <c r="D21" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E21" s="59"/>
       <c r="G21"/>
@@ -21576,7 +21573,7 @@
         <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C22">
         <v>90302512</v>
@@ -21591,7 +21588,7 @@
         <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C23">
         <v>90137237</v>
@@ -21606,13 +21603,13 @@
         <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C24">
         <v>90300199</v>
       </c>
       <c r="D24" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E24" s="59"/>
     </row>
@@ -21621,7 +21618,7 @@
         <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C25">
         <v>90300019</v>
@@ -21636,7 +21633,7 @@
         <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C26">
         <v>90301314</v>
@@ -21651,13 +21648,13 @@
         <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C27">
         <v>90302329</v>
       </c>
       <c r="D27" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E27" s="59"/>
     </row>
@@ -21666,7 +21663,7 @@
         <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C28">
         <v>90300213</v>
@@ -21681,13 +21678,13 @@
         <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C29">
         <v>90301259</v>
       </c>
       <c r="D29" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E29" s="59"/>
     </row>
@@ -21696,7 +21693,7 @@
         <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C30">
         <v>90300214</v>
@@ -21708,10 +21705,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="54" t="s">
+        <v>594</v>
+      </c>
+      <c r="B31" t="s">
         <v>595</v>
-      </c>
-      <c r="B31" t="s">
-        <v>596</v>
       </c>
       <c r="C31">
         <v>90300712</v>
@@ -21723,16 +21720,16 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="54" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B32" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C32">
         <v>90302495</v>
       </c>
       <c r="D32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E32" s="59" t="str">
         <f t="shared" ref="E32:E33" si="0">IFERROR(VLOOKUP(D32,$G$2:$H$18,2,FALSE),"")</f>
@@ -21741,16 +21738,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="54" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B33" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C33">
         <v>90302496</v>
       </c>
       <c r="D33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E33" s="59" t="str">
         <f t="shared" si="0"/>
@@ -21759,16 +21756,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="54" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B34" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C34">
         <v>90300003</v>
       </c>
       <c r="D34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E34" s="59" t="str">
         <f t="shared" ref="E34:E54" si="1">IFERROR(VLOOKUP(D34,$G$2:$H$18,2,FALSE),"")</f>
@@ -21777,14 +21774,14 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="54" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B35" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C35"/>
       <c r="D35" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E35" s="59" t="str">
         <f t="shared" si="1"/>
@@ -21793,10 +21790,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="54" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B36" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C36">
         <v>90300039</v>
@@ -21808,16 +21805,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="54" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B37" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C37">
         <v>90144128</v>
       </c>
       <c r="D37" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E37" s="59" t="str">
         <f t="shared" si="1"/>
@@ -21826,16 +21823,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="54" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B38" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C38">
         <v>90302497</v>
       </c>
       <c r="D38" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E38" s="59" t="str">
         <f t="shared" si="1"/>
@@ -21844,16 +21841,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="54" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B39" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C39">
         <v>90301392</v>
       </c>
       <c r="D39" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E39" s="59" t="str">
         <f t="shared" si="1"/>
@@ -21862,16 +21859,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="60" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B40" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C40">
         <v>90302498</v>
       </c>
       <c r="D40" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E40" s="59" t="str">
         <f t="shared" si="1"/>
@@ -21896,7 +21893,7 @@
       <c r="B42" s="61"/>
       <c r="C42"/>
       <c r="D42" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E42" s="59"/>
     </row>
@@ -21907,7 +21904,7 @@
       <c r="B43" s="61"/>
       <c r="C43"/>
       <c r="D43" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E43" s="59"/>
     </row>
@@ -21918,7 +21915,7 @@
       <c r="B44" s="61"/>
       <c r="C44"/>
       <c r="D44" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E44" s="59"/>
     </row>
@@ -21929,7 +21926,7 @@
       <c r="B45" s="61"/>
       <c r="C45"/>
       <c r="D45" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E45" s="59"/>
     </row>
@@ -21940,7 +21937,7 @@
       <c r="B46" s="61"/>
       <c r="C46"/>
       <c r="D46" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E46" s="59"/>
     </row>
@@ -21951,7 +21948,7 @@
       <c r="B47" s="61"/>
       <c r="C47"/>
       <c r="D47" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E47" s="59"/>
     </row>
@@ -21973,7 +21970,7 @@
       <c r="B49" s="61"/>
       <c r="C49"/>
       <c r="D49" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E49" s="59"/>
     </row>
@@ -21984,7 +21981,7 @@
       <c r="B50" s="61"/>
       <c r="C50"/>
       <c r="D50" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E50" s="59" t="str">
         <f t="shared" si="1"/>
@@ -21998,7 +21995,7 @@
       <c r="B51" s="61"/>
       <c r="C51"/>
       <c r="D51" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E51" s="59" t="str">
         <f t="shared" si="1"/>
@@ -22012,7 +22009,7 @@
       <c r="B52" s="61"/>
       <c r="C52"/>
       <c r="D52" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E52" s="59" t="str">
         <f t="shared" si="1"/>
@@ -22026,7 +22023,7 @@
       <c r="B53" s="61"/>
       <c r="C53"/>
       <c r="D53" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E53" s="59" t="str">
         <f t="shared" si="1"/>
@@ -22040,7 +22037,7 @@
       <c r="B54" s="61"/>
       <c r="C54"/>
       <c r="D54" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E54" s="59" t="str">
         <f t="shared" si="1"/>
@@ -22063,13 +22060,13 @@
         <v>570</v>
       </c>
       <c r="B56" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C56">
         <v>90300462</v>
       </c>
       <c r="D56" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E56" s="59"/>
     </row>
@@ -22078,13 +22075,13 @@
         <v>570</v>
       </c>
       <c r="B57" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C57">
         <v>90302117</v>
       </c>
       <c r="D57" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E57" s="59"/>
     </row>
@@ -22093,7 +22090,7 @@
         <v>570</v>
       </c>
       <c r="B58" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C58"/>
       <c r="D58" t="s">
@@ -22106,13 +22103,13 @@
         <v>570</v>
       </c>
       <c r="B59" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C59">
         <v>90300586</v>
       </c>
       <c r="D59" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E59" s="59"/>
     </row>
@@ -22121,13 +22118,13 @@
         <v>570</v>
       </c>
       <c r="B60" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C60">
         <v>90302487</v>
       </c>
       <c r="D60" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E60" s="59"/>
     </row>
@@ -22136,7 +22133,7 @@
         <v>570</v>
       </c>
       <c r="B61" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C61">
         <v>90302465</v>
@@ -22151,7 +22148,7 @@
         <v>570</v>
       </c>
       <c r="B62" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C62">
         <v>90117360</v>
@@ -22166,13 +22163,13 @@
         <v>570</v>
       </c>
       <c r="B63" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C63">
         <v>90302118</v>
       </c>
       <c r="D63" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E63" s="59"/>
     </row>
@@ -22181,13 +22178,13 @@
         <v>570</v>
       </c>
       <c r="B64" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C64">
         <v>90144804</v>
       </c>
       <c r="D64" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E64" s="59"/>
     </row>
@@ -22196,7 +22193,7 @@
         <v>570</v>
       </c>
       <c r="B65" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C65">
         <v>90302398</v>
@@ -22211,13 +22208,13 @@
         <v>570</v>
       </c>
       <c r="B66" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C66">
         <v>90302503</v>
       </c>
       <c r="D66" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E66" s="59"/>
     </row>
@@ -22226,13 +22223,13 @@
         <v>570</v>
       </c>
       <c r="B67" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C67">
         <v>90302504</v>
       </c>
       <c r="D67" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E67" s="59"/>
     </row>
@@ -22241,7 +22238,7 @@
         <v>570</v>
       </c>
       <c r="B68" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C68"/>
       <c r="D68" t="s">
@@ -22251,10 +22248,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="60" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B69" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C69">
         <v>90290068</v>
@@ -22269,16 +22266,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="60" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B70" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C70">
         <v>90302469</v>
       </c>
       <c r="D70" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E70" s="62" t="str">
         <f>IFERROR(VLOOKUP(#REF!,$G$2:$H$18,2,FALSE),"")</f>
@@ -22287,16 +22284,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="60" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B71" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C71">
         <v>90302453</v>
       </c>
       <c r="D71" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E71" s="62" t="str">
         <f>IFERROR(VLOOKUP(#REF!,$G$2:$H$18,2,FALSE),"")</f>
@@ -22305,16 +22302,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="60" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B72" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C72">
         <v>90301928</v>
       </c>
       <c r="D72" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E72" s="62" t="str">
         <f>IFERROR(VLOOKUP(#REF!,$G$2:$H$18,2,FALSE),"")</f>
@@ -22323,16 +22320,16 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="60" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B73" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C73">
         <v>90302455</v>
       </c>
       <c r="D73" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E73" s="62" t="str">
         <f>IFERROR(VLOOKUP(#REF!,$G$2:$H$18,2,FALSE),"")</f>
@@ -22341,10 +22338,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="60" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B74" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C74">
         <v>90302470</v>
@@ -22359,10 +22356,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="60" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B75" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C75">
         <v>90302471</v>
@@ -22377,16 +22374,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="60" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B76" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C76">
         <v>90302457</v>
       </c>
       <c r="D76" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E76" s="62" t="str">
         <f>IFERROR(VLOOKUP(#REF!,$G$2:$H$18,2,FALSE),"")</f>
@@ -22395,14 +22392,14 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="60" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B77" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C77"/>
       <c r="D77" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E77" s="62" t="str">
         <f>IFERROR(VLOOKUP(#REF!,$G$2:$H$18,2,FALSE),"")</f>
@@ -22411,16 +22408,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="60" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B78" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C78">
         <v>90290075</v>
       </c>
       <c r="D78" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E78" s="62" t="str">
         <f>IFERROR(VLOOKUP(#REF!,$G$2:$H$18,2,FALSE),"")</f>
@@ -22429,16 +22426,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="60" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B79" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C79">
         <v>90302218</v>
       </c>
       <c r="D79" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E79" s="62" t="str">
         <f>IFERROR(VLOOKUP(#REF!,$G$2:$H$18,2,FALSE),"")</f>
@@ -22447,10 +22444,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="60" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B80" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C80">
         <v>90290074</v>
@@ -22465,10 +22462,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="60" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B81" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C81">
         <v>90301453</v>
@@ -22480,55 +22477,55 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="60" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B82" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C82">
         <v>90300620</v>
       </c>
       <c r="D82" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E82" s="62"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="60" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B83" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C83">
         <v>90290069</v>
       </c>
       <c r="D83" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E83" s="62"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="60" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B84" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C84">
         <v>90290077</v>
       </c>
       <c r="D84" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E84" s="62"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="60" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B85" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C85">
         <v>90301388</v>
@@ -22540,31 +22537,31 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="60" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B86" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C86">
         <v>90302500</v>
       </c>
       <c r="D86" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E86" s="62"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="60" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B87" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C87">
         <v>90302088</v>
       </c>
       <c r="D87" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E87" s="62" t="str">
         <f t="shared" ref="E87:E89" si="2">IFERROR(VLOOKUP(D87,$G$2:$H$18,2,FALSE),"")</f>
@@ -22573,16 +22570,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="60" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B88" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C88">
         <v>90302447</v>
       </c>
       <c r="D88" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E88" s="62" t="str">
         <f t="shared" si="2"/>
@@ -22591,12 +22588,12 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="60" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B89" s="61"/>
       <c r="C89"/>
       <c r="D89" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E89" s="62" t="str">
         <f t="shared" si="2"/>
@@ -22605,10 +22602,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="54" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B90" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C90">
         <v>90101732</v>
@@ -22619,38 +22616,38 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="54" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B91" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C91">
         <v>90302038</v>
       </c>
       <c r="D91" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="54" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B92" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C92">
         <v>90301852</v>
       </c>
       <c r="D92" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="54" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B93" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C93">
         <v>90128100</v>
@@ -22661,142 +22658,142 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="54" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B94" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C94">
         <v>90290053</v>
       </c>
       <c r="D94" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="54" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B95" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C95">
         <v>90300229</v>
       </c>
       <c r="D95" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="54" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B96" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C96">
         <v>90301651</v>
       </c>
       <c r="D96" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="54" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B97" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C97">
         <v>90302044</v>
       </c>
       <c r="D97" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="54" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B98" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C98">
         <v>90300312</v>
       </c>
       <c r="D98" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="54" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B99" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C99">
         <v>90300287</v>
       </c>
       <c r="D99" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="54" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B100" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C100">
         <v>90300546</v>
       </c>
       <c r="D100" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="54" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B101" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C101">
         <v>90300274</v>
       </c>
       <c r="D101" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="54" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B102" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C102">
         <v>90300281</v>
       </c>
       <c r="D102" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="60" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B103" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C103">
         <v>90302337</v>
       </c>
       <c r="D103" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -22854,8 +22851,8 @@
   </sheetPr>
   <dimension ref="A1:F397"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="G314" sqref="G314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22925,7 +22922,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>124</v>
       </c>
@@ -22942,7 +22939,7 @@
         <v>540</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -23023,7 +23020,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>124</v>
       </c>
@@ -23040,10 +23037,10 @@
         <v>540</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>125</v>
       </c>
@@ -23060,7 +23057,7 @@
         <v>540</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -23083,7 +23080,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>125</v>
       </c>
@@ -23100,10 +23097,10 @@
         <v>540</v>
       </c>
       <c r="F12" s="52" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>126</v>
       </c>
@@ -23120,7 +23117,7 @@
         <v>540</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -23183,7 +23180,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>126</v>
       </c>
@@ -23200,7 +23197,7 @@
         <v>540</v>
       </c>
       <c r="F17" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -23449,7 +23446,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>131</v>
       </c>
@@ -23466,7 +23463,7 @@
         <v>540</v>
       </c>
       <c r="F31" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -23509,7 +23506,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>131</v>
       </c>
@@ -23526,7 +23523,7 @@
         <v>540</v>
       </c>
       <c r="F34" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -23563,7 +23560,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>132</v>
       </c>
@@ -23580,7 +23577,7 @@
         <v>550</v>
       </c>
       <c r="F37" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -23617,7 +23614,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>134</v>
       </c>
@@ -23634,7 +23631,7 @@
         <v>550</v>
       </c>
       <c r="F40" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -23745,7 +23742,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>139</v>
       </c>
@@ -23762,7 +23759,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>139</v>
       </c>
@@ -23779,7 +23776,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>139</v>
       </c>
@@ -23796,7 +23793,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>139</v>
       </c>
@@ -23813,7 +23810,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>139</v>
       </c>
@@ -23830,7 +23827,7 @@
         <v>540</v>
       </c>
       <c r="F51" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -23927,7 +23924,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>139</v>
       </c>
@@ -23944,7 +23941,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>139</v>
       </c>
@@ -23961,7 +23958,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>139</v>
       </c>
@@ -23978,7 +23975,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>139</v>
       </c>
@@ -24035,7 +24032,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>139</v>
       </c>
@@ -24052,7 +24049,7 @@
         <v>540</v>
       </c>
       <c r="F63" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -24129,7 +24126,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>140</v>
       </c>
@@ -24146,7 +24143,7 @@
         <v>550</v>
       </c>
       <c r="F68" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -24598,7 +24595,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>146</v>
       </c>
@@ -24615,10 +24612,10 @@
         <v>540</v>
       </c>
       <c r="F94" s="52" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>146</v>
       </c>
@@ -24635,7 +24632,7 @@
         <v>540</v>
       </c>
       <c r="F95" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -24880,7 +24877,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>150</v>
       </c>
@@ -24897,7 +24894,7 @@
         <v>540</v>
       </c>
       <c r="F109" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -24977,7 +24974,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>150</v>
       </c>
@@ -24994,7 +24991,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>151</v>
       </c>
@@ -25011,7 +25008,7 @@
         <v>555</v>
       </c>
       <c r="F115" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -25367,7 +25364,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>160</v>
       </c>
@@ -25384,7 +25381,7 @@
         <v>540</v>
       </c>
       <c r="F135" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -25404,7 +25401,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>160</v>
       </c>
@@ -25421,7 +25418,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>160</v>
       </c>
@@ -25438,7 +25435,7 @@
         <v>550</v>
       </c>
       <c r="F138" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -25515,7 +25512,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>160</v>
       </c>
@@ -25532,7 +25529,7 @@
         <v>540</v>
       </c>
       <c r="F143" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -25655,7 +25652,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>164</v>
       </c>
@@ -25672,7 +25669,7 @@
         <v>540</v>
       </c>
       <c r="F150" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -25712,7 +25709,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>164</v>
       </c>
@@ -25729,7 +25726,7 @@
         <v>550</v>
       </c>
       <c r="F153" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -25749,7 +25746,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>164</v>
       </c>
@@ -25766,7 +25763,7 @@
         <v>540</v>
       </c>
       <c r="F155" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -25806,7 +25803,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>166</v>
       </c>
@@ -25823,7 +25820,7 @@
         <v>540</v>
       </c>
       <c r="F158" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -25843,7 +25840,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>166</v>
       </c>
@@ -25860,7 +25857,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>166</v>
       </c>
@@ -25877,7 +25874,7 @@
         <v>550</v>
       </c>
       <c r="F161" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -25897,7 +25894,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>166</v>
       </c>
@@ -25914,7 +25911,7 @@
         <v>540</v>
       </c>
       <c r="F163" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -25957,7 +25954,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>168</v>
       </c>
@@ -25974,10 +25971,10 @@
         <v>540</v>
       </c>
       <c r="F166" s="52" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>168</v>
       </c>
@@ -25994,7 +25991,7 @@
         <v>540</v>
       </c>
       <c r="F167" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -26014,7 +26011,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>168</v>
       </c>
@@ -26031,7 +26028,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>168</v>
       </c>
@@ -26048,7 +26045,7 @@
         <v>550</v>
       </c>
       <c r="F170" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -26125,7 +26122,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>168</v>
       </c>
@@ -26142,10 +26139,10 @@
         <v>540</v>
       </c>
       <c r="F175" s="52" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>168</v>
       </c>
@@ -26162,7 +26159,7 @@
         <v>540</v>
       </c>
       <c r="F176" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -26447,7 +26444,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>172</v>
       </c>
@@ -26464,7 +26461,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>172</v>
       </c>
@@ -26481,7 +26478,7 @@
         <v>550</v>
       </c>
       <c r="F193" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -26535,7 +26532,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>175</v>
       </c>
@@ -26552,10 +26549,10 @@
         <v>560</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>175</v>
       </c>
@@ -26572,10 +26569,10 @@
         <v>560</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>175</v>
       </c>
@@ -26592,7 +26589,7 @@
         <v>560</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -26669,7 +26666,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>175</v>
       </c>
@@ -26686,7 +26683,7 @@
         <v>560</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -26808,7 +26805,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
         <v>177</v>
       </c>
@@ -26825,7 +26822,7 @@
         <v>540</v>
       </c>
       <c r="F212" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -26987,7 +26984,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
         <v>177</v>
       </c>
@@ -27004,7 +27001,7 @@
         <v>550</v>
       </c>
       <c r="F222" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -27064,7 +27061,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
         <v>177</v>
       </c>
@@ -27081,10 +27078,10 @@
         <v>540</v>
       </c>
       <c r="F226" s="52" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
         <v>178</v>
       </c>
@@ -27101,7 +27098,7 @@
         <v>540</v>
       </c>
       <c r="F227" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -27172,7 +27169,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>178</v>
       </c>
@@ -27189,7 +27186,7 @@
         <v>550</v>
       </c>
       <c r="F232" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -27693,7 +27690,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
         <v>185</v>
       </c>
@@ -27710,7 +27707,7 @@
         <v>550</v>
       </c>
       <c r="F260" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -27753,7 +27750,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
         <v>185</v>
       </c>
@@ -27770,10 +27767,10 @@
         <v>551</v>
       </c>
       <c r="F263" s="5" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
         <v>185</v>
       </c>
@@ -27790,7 +27787,7 @@
         <v>540</v>
       </c>
       <c r="F264" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -27924,7 +27921,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
         <v>185</v>
       </c>
@@ -27941,7 +27938,7 @@
         <v>550</v>
       </c>
       <c r="F272" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -27964,7 +27961,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
         <v>185</v>
       </c>
@@ -27981,7 +27978,7 @@
         <v>551</v>
       </c>
       <c r="F274" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -28024,7 +28021,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
         <v>185</v>
       </c>
@@ -28041,7 +28038,7 @@
         <v>540</v>
       </c>
       <c r="F277" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -28175,7 +28172,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
         <v>188</v>
       </c>
@@ -28192,7 +28189,7 @@
         <v>540</v>
       </c>
       <c r="F285" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -28232,7 +28229,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
         <v>188</v>
       </c>
@@ -28249,7 +28246,7 @@
         <v>550</v>
       </c>
       <c r="F288" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -28269,7 +28266,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
         <v>188</v>
       </c>
@@ -28286,7 +28283,7 @@
         <v>540</v>
       </c>
       <c r="F290" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -28394,7 +28391,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
         <v>193</v>
       </c>
@@ -28411,7 +28408,7 @@
         <v>540</v>
       </c>
       <c r="F297" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -28451,7 +28448,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
         <v>193</v>
       </c>
@@ -28468,7 +28465,7 @@
         <v>550</v>
       </c>
       <c r="F300" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -28545,7 +28542,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
         <v>193</v>
       </c>
@@ -28562,7 +28559,7 @@
         <v>540</v>
       </c>
       <c r="F305" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -28585,7 +28582,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
         <v>194</v>
       </c>
@@ -28602,7 +28599,7 @@
         <v>540</v>
       </c>
       <c r="F307" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -28642,7 +28639,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
         <v>194</v>
       </c>
@@ -28659,7 +28656,7 @@
         <v>550</v>
       </c>
       <c r="F310" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -28679,7 +28676,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
         <v>194</v>
       </c>
@@ -28696,7 +28693,7 @@
         <v>540</v>
       </c>
       <c r="F312" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -28719,7 +28716,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
         <v>195</v>
       </c>
@@ -28736,10 +28733,10 @@
         <v>540</v>
       </c>
       <c r="F314" s="52" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
         <v>195</v>
       </c>
@@ -28756,7 +28753,7 @@
         <v>540</v>
       </c>
       <c r="F315" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -28796,7 +28793,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
         <v>195</v>
       </c>
@@ -28813,7 +28810,7 @@
         <v>550</v>
       </c>
       <c r="F318" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -28890,7 +28887,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
         <v>195</v>
       </c>
@@ -28907,10 +28904,10 @@
         <v>540</v>
       </c>
       <c r="F323" s="52" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
         <v>195</v>
       </c>
@@ -28927,7 +28924,7 @@
         <v>540</v>
       </c>
       <c r="F324" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -29110,7 +29107,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
         <v>203</v>
       </c>
@@ -29127,7 +29124,7 @@
         <v>540</v>
       </c>
       <c r="F334" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -29227,7 +29224,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
         <v>203</v>
       </c>
@@ -29244,7 +29241,7 @@
         <v>551</v>
       </c>
       <c r="F340" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -29421,7 +29418,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
         <v>207</v>
       </c>
@@ -29438,7 +29435,7 @@
         <v>550</v>
       </c>
       <c r="F350" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -29475,7 +29472,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="5" t="s">
         <v>209</v>
       </c>
@@ -29492,10 +29489,10 @@
         <v>567</v>
       </c>
       <c r="F353" s="52" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="5" t="s">
         <v>209</v>
       </c>
@@ -29512,10 +29509,10 @@
         <v>540</v>
       </c>
       <c r="F354" s="52" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="s">
         <v>210</v>
       </c>
@@ -29532,10 +29529,10 @@
         <v>560</v>
       </c>
       <c r="F355" s="5" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
         <v>210</v>
       </c>
@@ -29552,10 +29549,10 @@
         <v>560</v>
       </c>
       <c r="F356" s="5" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
         <v>210</v>
       </c>
@@ -29572,10 +29569,10 @@
         <v>560</v>
       </c>
       <c r="F357" s="5" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
         <v>210</v>
       </c>
@@ -29592,7 +29589,7 @@
         <v>560</v>
       </c>
       <c r="F358" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -29669,7 +29666,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
         <v>210</v>
       </c>
@@ -29686,10 +29683,10 @@
         <v>560</v>
       </c>
       <c r="F363" s="5" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
         <v>210</v>
       </c>
@@ -29706,7 +29703,7 @@
         <v>560</v>
       </c>
       <c r="F364" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -29763,7 +29760,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="5" t="s">
         <v>211</v>
       </c>
@@ -29780,10 +29777,10 @@
         <v>560</v>
       </c>
       <c r="F368" s="5" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="s">
         <v>211</v>
       </c>
@@ -29800,10 +29797,10 @@
         <v>560</v>
       </c>
       <c r="F369" s="5" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="s">
         <v>211</v>
       </c>
@@ -29820,7 +29817,7 @@
         <v>560</v>
       </c>
       <c r="F370" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -29897,7 +29894,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
         <v>211</v>
       </c>
@@ -29914,7 +29911,7 @@
         <v>560</v>
       </c>
       <c r="F375" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -29934,7 +29931,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
         <v>211</v>
       </c>
@@ -29951,7 +29948,7 @@
         <v>560</v>
       </c>
       <c r="F377" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -30156,7 +30153,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
         <v>217</v>
       </c>
@@ -30173,7 +30170,7 @@
         <v>555</v>
       </c>
       <c r="F389" s="52" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -30329,10 +30326,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F397" xr:uid="{3928BC1A-32B2-4777-AAB5-998C660AF0A9}">
-    <filterColumn colId="4">
+    <filterColumn colId="5">
       <filters>
-        <filter val="000SWCS"/>
-        <filter val="000SWME"/>
+        <filter val="SMS"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -30341,15 +30337,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004A5BF6C7F67B434096FAC9443A83D821" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1347de4a6797875f8d6b1ac5dc93737c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d41b7399-51ed-4fce-9e89-79a41c55ed41" xmlns:ns3="a1bbf4fc-2070-4842-8cf2-c42346818ea9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67ec082bb3101a8db1bb88f037f675cb" ns2:_="" ns3:_="">
     <xsd:import namespace="d41b7399-51ed-4fce-9e89-79a41c55ed41"/>
@@ -30592,6 +30579,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -30604,14 +30600,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71C3BF75-E265-495B-A1EF-9F0F8014FF62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F00606B-6B80-42B0-B0DE-C79F0839CF7D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30630,6 +30618,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71C3BF75-E265-495B-A1EF-9F0F8014FF62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C286B8F-44DD-46A1-8664-5B3AFC40D364}">
   <ds:schemaRefs>

--- a/public/data/Master App Timesheet.xlsx
+++ b/public/data/Master App Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgelD\timesheet-app\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F91DB55-F499-47BC-8C11-D34953F2425E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2ACBDA5-FAC6-47A1-9C3D-2983FEE59E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2896" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2896" uniqueCount="659">
   <si>
     <t xml:space="preserve">Date
 </t>
@@ -1881,9 +1881,6 @@
     <t>Hussein Mahumed</t>
   </si>
   <si>
-    <t>GMR Services</t>
-  </si>
-  <si>
     <t>Brodie Eaton</t>
   </si>
   <si>
@@ -1957,9 +1954,6 @@
   </si>
   <si>
     <t>Donald  Tsuro</t>
-  </si>
-  <si>
-    <t>Kings Resource Group</t>
   </si>
   <si>
     <t>Trade Assistant</t>
@@ -21185,8 +21179,8 @@
   </sheetPr>
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21320,7 +21314,7 @@
       <c r="G5" s="64"/>
       <c r="H5" s="64"/>
       <c r="J5" t="s">
-        <v>594</v>
+        <v>569</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -21368,7 +21362,7 @@
       <c r="G8" s="64"/>
       <c r="H8" s="64"/>
       <c r="J8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -21705,10 +21699,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="54" t="s">
+        <v>569</v>
+      </c>
+      <c r="B31" t="s">
         <v>594</v>
-      </c>
-      <c r="B31" t="s">
-        <v>595</v>
       </c>
       <c r="C31">
         <v>90300712</v>
@@ -21720,16 +21714,16 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="54" t="s">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="B32" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C32">
         <v>90302495</v>
       </c>
       <c r="D32" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E32" s="59" t="str">
         <f t="shared" ref="E32:E33" si="0">IFERROR(VLOOKUP(D32,$G$2:$H$18,2,FALSE),"")</f>
@@ -21738,16 +21732,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="54" t="s">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="B33" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C33">
         <v>90302496</v>
       </c>
       <c r="D33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E33" s="59" t="str">
         <f t="shared" si="0"/>
@@ -21756,16 +21750,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="54" t="s">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="B34" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C34">
         <v>90300003</v>
       </c>
       <c r="D34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E34" s="59" t="str">
         <f t="shared" ref="E34:E54" si="1">IFERROR(VLOOKUP(D34,$G$2:$H$18,2,FALSE),"")</f>
@@ -21774,14 +21768,14 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="54" t="s">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="B35" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C35"/>
       <c r="D35" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E35" s="59" t="str">
         <f t="shared" si="1"/>
@@ -21790,10 +21784,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="54" t="s">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="B36" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C36">
         <v>90300039</v>
@@ -21805,16 +21799,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="54" t="s">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="B37" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C37">
         <v>90144128</v>
       </c>
       <c r="D37" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E37" s="59" t="str">
         <f t="shared" si="1"/>
@@ -21823,16 +21817,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="54" t="s">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="B38" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C38">
         <v>90302497</v>
       </c>
       <c r="D38" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E38" s="59" t="str">
         <f t="shared" si="1"/>
@@ -21841,16 +21835,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="54" t="s">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="B39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C39">
         <v>90301392</v>
       </c>
       <c r="D39" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E39" s="59" t="str">
         <f t="shared" si="1"/>
@@ -21858,17 +21852,17 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="60" t="s">
-        <v>594</v>
+      <c r="A40" s="54" t="s">
+        <v>569</v>
       </c>
       <c r="B40" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C40">
         <v>90302498</v>
       </c>
       <c r="D40" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E40" s="59" t="str">
         <f t="shared" si="1"/>
@@ -21893,7 +21887,7 @@
       <c r="B42" s="61"/>
       <c r="C42"/>
       <c r="D42" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E42" s="59"/>
     </row>
@@ -21904,7 +21898,7 @@
       <c r="B43" s="61"/>
       <c r="C43"/>
       <c r="D43" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E43" s="59"/>
     </row>
@@ -21915,7 +21909,7 @@
       <c r="B44" s="61"/>
       <c r="C44"/>
       <c r="D44" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E44" s="59"/>
     </row>
@@ -21926,7 +21920,7 @@
       <c r="B45" s="61"/>
       <c r="C45"/>
       <c r="D45" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E45" s="59"/>
     </row>
@@ -21937,7 +21931,7 @@
       <c r="B46" s="61"/>
       <c r="C46"/>
       <c r="D46" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E46" s="59"/>
     </row>
@@ -21948,7 +21942,7 @@
       <c r="B47" s="61"/>
       <c r="C47"/>
       <c r="D47" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E47" s="59"/>
     </row>
@@ -21970,7 +21964,7 @@
       <c r="B49" s="61"/>
       <c r="C49"/>
       <c r="D49" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E49" s="59"/>
     </row>
@@ -21981,7 +21975,7 @@
       <c r="B50" s="61"/>
       <c r="C50"/>
       <c r="D50" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E50" s="59" t="str">
         <f t="shared" si="1"/>
@@ -21995,7 +21989,7 @@
       <c r="B51" s="61"/>
       <c r="C51"/>
       <c r="D51" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E51" s="59" t="str">
         <f t="shared" si="1"/>
@@ -22009,7 +22003,7 @@
       <c r="B52" s="61"/>
       <c r="C52"/>
       <c r="D52" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E52" s="59" t="str">
         <f t="shared" si="1"/>
@@ -22023,7 +22017,7 @@
       <c r="B53" s="61"/>
       <c r="C53"/>
       <c r="D53" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E53" s="59" t="str">
         <f t="shared" si="1"/>
@@ -22037,7 +22031,7 @@
       <c r="B54" s="61"/>
       <c r="C54"/>
       <c r="D54" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E54" s="59" t="str">
         <f t="shared" si="1"/>
@@ -22060,13 +22054,13 @@
         <v>570</v>
       </c>
       <c r="B56" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C56">
         <v>90300462</v>
       </c>
       <c r="D56" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E56" s="59"/>
     </row>
@@ -22075,13 +22069,13 @@
         <v>570</v>
       </c>
       <c r="B57" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C57">
         <v>90302117</v>
       </c>
       <c r="D57" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E57" s="59"/>
     </row>
@@ -22090,7 +22084,7 @@
         <v>570</v>
       </c>
       <c r="B58" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C58"/>
       <c r="D58" t="s">
@@ -22103,13 +22097,13 @@
         <v>570</v>
       </c>
       <c r="B59" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C59">
         <v>90300586</v>
       </c>
       <c r="D59" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E59" s="59"/>
     </row>
@@ -22118,13 +22112,13 @@
         <v>570</v>
       </c>
       <c r="B60" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C60">
         <v>90302487</v>
       </c>
       <c r="D60" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E60" s="59"/>
     </row>
@@ -22133,7 +22127,7 @@
         <v>570</v>
       </c>
       <c r="B61" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C61">
         <v>90302465</v>
@@ -22148,7 +22142,7 @@
         <v>570</v>
       </c>
       <c r="B62" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C62">
         <v>90117360</v>
@@ -22163,13 +22157,13 @@
         <v>570</v>
       </c>
       <c r="B63" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C63">
         <v>90302118</v>
       </c>
       <c r="D63" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E63" s="59"/>
     </row>
@@ -22178,13 +22172,13 @@
         <v>570</v>
       </c>
       <c r="B64" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C64">
         <v>90144804</v>
       </c>
       <c r="D64" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E64" s="59"/>
     </row>
@@ -22193,7 +22187,7 @@
         <v>570</v>
       </c>
       <c r="B65" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C65">
         <v>90302398</v>
@@ -22208,13 +22202,13 @@
         <v>570</v>
       </c>
       <c r="B66" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C66">
         <v>90302503</v>
       </c>
       <c r="D66" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E66" s="59"/>
     </row>
@@ -22223,13 +22217,13 @@
         <v>570</v>
       </c>
       <c r="B67" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C67">
         <v>90302504</v>
       </c>
       <c r="D67" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E67" s="59"/>
     </row>
@@ -22238,7 +22232,7 @@
         <v>570</v>
       </c>
       <c r="B68" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C68"/>
       <c r="D68" t="s">
@@ -22248,10 +22242,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="60" t="s">
+        <v>571</v>
+      </c>
+      <c r="B69" t="s">
         <v>620</v>
-      </c>
-      <c r="B69" t="s">
-        <v>622</v>
       </c>
       <c r="C69">
         <v>90290068</v>
@@ -22266,16 +22260,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="60" t="s">
-        <v>620</v>
+        <v>571</v>
       </c>
       <c r="B70" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C70">
         <v>90302469</v>
       </c>
       <c r="D70" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E70" s="62" t="str">
         <f>IFERROR(VLOOKUP(#REF!,$G$2:$H$18,2,FALSE),"")</f>
@@ -22284,16 +22278,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="60" t="s">
-        <v>620</v>
+        <v>571</v>
       </c>
       <c r="B71" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C71">
         <v>90302453</v>
       </c>
       <c r="D71" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E71" s="62" t="str">
         <f>IFERROR(VLOOKUP(#REF!,$G$2:$H$18,2,FALSE),"")</f>
@@ -22302,16 +22296,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="60" t="s">
-        <v>620</v>
+        <v>571</v>
       </c>
       <c r="B72" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C72">
         <v>90301928</v>
       </c>
       <c r="D72" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E72" s="62" t="str">
         <f>IFERROR(VLOOKUP(#REF!,$G$2:$H$18,2,FALSE),"")</f>
@@ -22320,16 +22314,16 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="60" t="s">
-        <v>620</v>
+        <v>571</v>
       </c>
       <c r="B73" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C73">
         <v>90302455</v>
       </c>
       <c r="D73" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E73" s="62" t="str">
         <f>IFERROR(VLOOKUP(#REF!,$G$2:$H$18,2,FALSE),"")</f>
@@ -22338,10 +22332,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="60" t="s">
-        <v>620</v>
+        <v>571</v>
       </c>
       <c r="B74" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C74">
         <v>90302470</v>
@@ -22356,10 +22350,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="60" t="s">
-        <v>620</v>
+        <v>571</v>
       </c>
       <c r="B75" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C75">
         <v>90302471</v>
@@ -22374,16 +22368,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="60" t="s">
-        <v>620</v>
+        <v>571</v>
       </c>
       <c r="B76" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C76">
         <v>90302457</v>
       </c>
       <c r="D76" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E76" s="62" t="str">
         <f>IFERROR(VLOOKUP(#REF!,$G$2:$H$18,2,FALSE),"")</f>
@@ -22392,14 +22386,14 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="60" t="s">
-        <v>620</v>
+        <v>571</v>
       </c>
       <c r="B77" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C77"/>
       <c r="D77" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E77" s="62" t="str">
         <f>IFERROR(VLOOKUP(#REF!,$G$2:$H$18,2,FALSE),"")</f>
@@ -22408,16 +22402,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="60" t="s">
-        <v>620</v>
+        <v>571</v>
       </c>
       <c r="B78" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C78">
         <v>90290075</v>
       </c>
       <c r="D78" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E78" s="62" t="str">
         <f>IFERROR(VLOOKUP(#REF!,$G$2:$H$18,2,FALSE),"")</f>
@@ -22426,16 +22420,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="60" t="s">
-        <v>620</v>
+        <v>571</v>
       </c>
       <c r="B79" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C79">
         <v>90302218</v>
       </c>
       <c r="D79" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E79" s="62" t="str">
         <f>IFERROR(VLOOKUP(#REF!,$G$2:$H$18,2,FALSE),"")</f>
@@ -22444,10 +22438,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="60" t="s">
-        <v>620</v>
+        <v>571</v>
       </c>
       <c r="B80" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C80">
         <v>90290074</v>
@@ -22462,10 +22456,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="60" t="s">
-        <v>620</v>
+        <v>571</v>
       </c>
       <c r="B81" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C81">
         <v>90301453</v>
@@ -22477,55 +22471,55 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="60" t="s">
-        <v>620</v>
+        <v>571</v>
       </c>
       <c r="B82" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C82">
         <v>90300620</v>
       </c>
       <c r="D82" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E82" s="62"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="60" t="s">
-        <v>620</v>
+        <v>571</v>
       </c>
       <c r="B83" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C83">
         <v>90290069</v>
       </c>
       <c r="D83" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E83" s="62"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="60" t="s">
-        <v>620</v>
+        <v>571</v>
       </c>
       <c r="B84" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C84">
         <v>90290077</v>
       </c>
       <c r="D84" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E84" s="62"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="60" t="s">
-        <v>620</v>
+        <v>571</v>
       </c>
       <c r="B85" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C85">
         <v>90301388</v>
@@ -22537,31 +22531,31 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="60" t="s">
-        <v>620</v>
+        <v>571</v>
       </c>
       <c r="B86" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C86">
         <v>90302500</v>
       </c>
       <c r="D86" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E86" s="62"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="60" t="s">
-        <v>620</v>
+        <v>571</v>
       </c>
       <c r="B87" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C87">
         <v>90302088</v>
       </c>
       <c r="D87" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E87" s="62" t="str">
         <f t="shared" ref="E87:E89" si="2">IFERROR(VLOOKUP(D87,$G$2:$H$18,2,FALSE),"")</f>
@@ -22570,16 +22564,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="60" t="s">
-        <v>620</v>
+        <v>571</v>
       </c>
       <c r="B88" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C88">
         <v>90302447</v>
       </c>
       <c r="D88" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E88" s="62" t="str">
         <f t="shared" si="2"/>
@@ -22588,12 +22582,12 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="60" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B89" s="61"/>
       <c r="C89"/>
       <c r="D89" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E89" s="62" t="str">
         <f t="shared" si="2"/>
@@ -22602,10 +22596,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="54" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B90" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C90">
         <v>90101732</v>
@@ -22616,38 +22610,38 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="54" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B91" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C91">
         <v>90302038</v>
       </c>
       <c r="D91" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="54" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B92" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C92">
         <v>90301852</v>
       </c>
       <c r="D92" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="54" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B93" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C93">
         <v>90128100</v>
@@ -22658,142 +22652,142 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="54" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B94" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C94">
         <v>90290053</v>
       </c>
       <c r="D94" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="54" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B95" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C95">
         <v>90300229</v>
       </c>
       <c r="D95" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="54" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B96" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C96">
         <v>90301651</v>
       </c>
       <c r="D96" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="54" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B97" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C97">
         <v>90302044</v>
       </c>
       <c r="D97" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="54" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B98" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C98">
         <v>90300312</v>
       </c>
       <c r="D98" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="54" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B99" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C99">
         <v>90300287</v>
       </c>
       <c r="D99" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="54" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B100" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C100">
         <v>90300546</v>
       </c>
       <c r="D100" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="54" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B101" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C101">
         <v>90300274</v>
       </c>
       <c r="D101" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="54" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B102" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C102">
         <v>90300281</v>
       </c>
       <c r="D102" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="60" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B103" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C103">
         <v>90302337</v>
       </c>
       <c r="D103" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -22851,8 +22845,8 @@
   </sheetPr>
   <dimension ref="A1:F397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="G314" sqref="G314"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F296" sqref="F296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22922,7 +22916,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>124</v>
       </c>
@@ -22939,7 +22933,7 @@
         <v>540</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -23020,7 +23014,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>124</v>
       </c>
@@ -23037,10 +23031,10 @@
         <v>540</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>125</v>
       </c>
@@ -23057,7 +23051,7 @@
         <v>540</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -23080,7 +23074,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>125</v>
       </c>
@@ -23097,10 +23091,10 @@
         <v>540</v>
       </c>
       <c r="F12" s="52" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>126</v>
       </c>
@@ -23117,7 +23111,7 @@
         <v>540</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -23180,7 +23174,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>126</v>
       </c>
@@ -23197,7 +23191,7 @@
         <v>540</v>
       </c>
       <c r="F17" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -23446,7 +23440,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>131</v>
       </c>
@@ -23463,7 +23457,7 @@
         <v>540</v>
       </c>
       <c r="F31" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -23506,7 +23500,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>131</v>
       </c>
@@ -23523,7 +23517,7 @@
         <v>540</v>
       </c>
       <c r="F34" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -23560,7 +23554,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>132</v>
       </c>
@@ -23577,7 +23571,7 @@
         <v>550</v>
       </c>
       <c r="F37" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -23614,7 +23608,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>134</v>
       </c>
@@ -23631,7 +23625,7 @@
         <v>550</v>
       </c>
       <c r="F40" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -23810,7 +23804,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>139</v>
       </c>
@@ -23827,7 +23821,7 @@
         <v>540</v>
       </c>
       <c r="F51" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -24032,7 +24026,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>139</v>
       </c>
@@ -24049,7 +24043,7 @@
         <v>540</v>
       </c>
       <c r="F63" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -24126,7 +24120,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>140</v>
       </c>
@@ -24143,7 +24137,7 @@
         <v>550</v>
       </c>
       <c r="F68" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -24595,7 +24589,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>146</v>
       </c>
@@ -24612,10 +24606,10 @@
         <v>540</v>
       </c>
       <c r="F94" s="52" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>146</v>
       </c>
@@ -24632,7 +24626,7 @@
         <v>540</v>
       </c>
       <c r="F95" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -24877,7 +24871,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>150</v>
       </c>
@@ -24894,7 +24888,7 @@
         <v>540</v>
       </c>
       <c r="F109" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -24991,7 +24985,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>151</v>
       </c>
@@ -25008,7 +25002,7 @@
         <v>555</v>
       </c>
       <c r="F115" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -25068,7 +25062,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>151</v>
       </c>
@@ -25364,7 +25358,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>160</v>
       </c>
@@ -25381,7 +25375,7 @@
         <v>540</v>
       </c>
       <c r="F135" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -25418,7 +25412,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>160</v>
       </c>
@@ -25435,7 +25429,7 @@
         <v>550</v>
       </c>
       <c r="F138" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -25512,7 +25506,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>160</v>
       </c>
@@ -25529,7 +25523,7 @@
         <v>540</v>
       </c>
       <c r="F143" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -25632,7 +25626,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>164</v>
       </c>
@@ -25652,7 +25646,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>164</v>
       </c>
@@ -25669,7 +25663,7 @@
         <v>540</v>
       </c>
       <c r="F150" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -25689,7 +25683,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>164</v>
       </c>
@@ -25709,7 +25703,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>164</v>
       </c>
@@ -25726,7 +25720,7 @@
         <v>550</v>
       </c>
       <c r="F153" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -25746,7 +25740,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>164</v>
       </c>
@@ -25763,7 +25757,7 @@
         <v>540</v>
       </c>
       <c r="F155" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -25783,7 +25777,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>166</v>
       </c>
@@ -25803,7 +25797,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>166</v>
       </c>
@@ -25820,7 +25814,7 @@
         <v>540</v>
       </c>
       <c r="F158" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -25857,7 +25851,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>166</v>
       </c>
@@ -25874,7 +25868,7 @@
         <v>550</v>
       </c>
       <c r="F161" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -25894,7 +25888,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>166</v>
       </c>
@@ -25911,7 +25905,7 @@
         <v>540</v>
       </c>
       <c r="F163" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -25934,7 +25928,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>168</v>
       </c>
@@ -25954,7 +25948,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>168</v>
       </c>
@@ -25971,10 +25965,10 @@
         <v>540</v>
       </c>
       <c r="F166" s="52" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>168</v>
       </c>
@@ -25991,7 +25985,7 @@
         <v>540</v>
       </c>
       <c r="F167" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -26028,7 +26022,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>168</v>
       </c>
@@ -26045,7 +26039,7 @@
         <v>550</v>
       </c>
       <c r="F170" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -26122,7 +26116,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>168</v>
       </c>
@@ -26139,10 +26133,10 @@
         <v>540</v>
       </c>
       <c r="F175" s="52" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>168</v>
       </c>
@@ -26159,7 +26153,7 @@
         <v>540</v>
       </c>
       <c r="F176" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -26461,7 +26455,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>172</v>
       </c>
@@ -26478,7 +26472,7 @@
         <v>550</v>
       </c>
       <c r="F193" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -26805,7 +26799,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
         <v>177</v>
       </c>
@@ -26822,7 +26816,7 @@
         <v>540</v>
       </c>
       <c r="F212" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -26984,7 +26978,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
         <v>177</v>
       </c>
@@ -27001,7 +26995,7 @@
         <v>550</v>
       </c>
       <c r="F222" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -27061,7 +27055,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
         <v>177</v>
       </c>
@@ -27078,10 +27072,10 @@
         <v>540</v>
       </c>
       <c r="F226" s="52" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
         <v>178</v>
       </c>
@@ -27098,7 +27092,7 @@
         <v>540</v>
       </c>
       <c r="F227" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -27169,7 +27163,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>178</v>
       </c>
@@ -27186,7 +27180,7 @@
         <v>550</v>
       </c>
       <c r="F232" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -27690,7 +27684,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
         <v>185</v>
       </c>
@@ -27707,10 +27701,10 @@
         <v>550</v>
       </c>
       <c r="F260" s="52" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
         <v>185</v>
       </c>
@@ -27770,7 +27764,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
         <v>185</v>
       </c>
@@ -27787,7 +27781,7 @@
         <v>540</v>
       </c>
       <c r="F264" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -27901,7 +27895,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
         <v>185</v>
       </c>
@@ -27921,7 +27915,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
         <v>185</v>
       </c>
@@ -27938,7 +27932,7 @@
         <v>550</v>
       </c>
       <c r="F272" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -28021,7 +28015,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
         <v>185</v>
       </c>
@@ -28038,7 +28032,7 @@
         <v>540</v>
       </c>
       <c r="F277" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -28152,7 +28146,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
         <v>188</v>
       </c>
@@ -28172,7 +28166,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
         <v>188</v>
       </c>
@@ -28189,7 +28183,7 @@
         <v>540</v>
       </c>
       <c r="F285" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -28209,7 +28203,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
         <v>188</v>
       </c>
@@ -28229,7 +28223,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
         <v>188</v>
       </c>
@@ -28246,7 +28240,7 @@
         <v>550</v>
       </c>
       <c r="F288" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -28266,7 +28260,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
         <v>188</v>
       </c>
@@ -28283,7 +28277,7 @@
         <v>540</v>
       </c>
       <c r="F290" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -28371,7 +28365,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
         <v>193</v>
       </c>
@@ -28391,7 +28385,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
         <v>193</v>
       </c>
@@ -28408,7 +28402,7 @@
         <v>540</v>
       </c>
       <c r="F297" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -28428,7 +28422,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
         <v>193</v>
       </c>
@@ -28448,7 +28442,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
         <v>193</v>
       </c>
@@ -28465,7 +28459,7 @@
         <v>550</v>
       </c>
       <c r="F300" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -28542,7 +28536,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
         <v>193</v>
       </c>
@@ -28559,10 +28553,10 @@
         <v>540</v>
       </c>
       <c r="F305" s="52" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
         <v>194</v>
       </c>
@@ -28582,7 +28576,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
         <v>194</v>
       </c>
@@ -28599,7 +28593,7 @@
         <v>540</v>
       </c>
       <c r="F307" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -28619,7 +28613,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
         <v>194</v>
       </c>
@@ -28639,7 +28633,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
         <v>194</v>
       </c>
@@ -28656,7 +28650,7 @@
         <v>550</v>
       </c>
       <c r="F310" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -28676,7 +28670,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
         <v>194</v>
       </c>
@@ -28693,10 +28687,10 @@
         <v>540</v>
       </c>
       <c r="F312" s="52" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
         <v>195</v>
       </c>
@@ -28716,7 +28710,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
         <v>195</v>
       </c>
@@ -28733,10 +28727,10 @@
         <v>540</v>
       </c>
       <c r="F314" s="52" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
         <v>195</v>
       </c>
@@ -28753,7 +28747,7 @@
         <v>540</v>
       </c>
       <c r="F315" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -28773,7 +28767,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
         <v>195</v>
       </c>
@@ -28793,7 +28787,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
         <v>195</v>
       </c>
@@ -28810,7 +28804,7 @@
         <v>550</v>
       </c>
       <c r="F318" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -28887,7 +28881,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
         <v>195</v>
       </c>
@@ -28904,10 +28898,10 @@
         <v>540</v>
       </c>
       <c r="F323" s="52" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
         <v>195</v>
       </c>
@@ -28924,7 +28918,7 @@
         <v>540</v>
       </c>
       <c r="F324" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -29107,7 +29101,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
         <v>203</v>
       </c>
@@ -29124,7 +29118,7 @@
         <v>540</v>
       </c>
       <c r="F334" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -29398,7 +29392,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
         <v>207</v>
       </c>
@@ -29418,7 +29412,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
         <v>207</v>
       </c>
@@ -29435,7 +29429,7 @@
         <v>550</v>
       </c>
       <c r="F350" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -29472,7 +29466,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="5" t="s">
         <v>209</v>
       </c>
@@ -29489,10 +29483,10 @@
         <v>567</v>
       </c>
       <c r="F353" s="52" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="5" t="s">
         <v>209</v>
       </c>
@@ -29509,7 +29503,7 @@
         <v>540</v>
       </c>
       <c r="F354" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -30153,7 +30147,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
         <v>217</v>
       </c>
@@ -30170,7 +30164,7 @@
         <v>555</v>
       </c>
       <c r="F389" s="52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -30230,7 +30224,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="5" t="s">
         <v>217</v>
       </c>
@@ -30328,7 +30322,7 @@
   <autoFilter ref="A1:F397" xr:uid="{3928BC1A-32B2-4777-AAB5-998C660AF0A9}">
     <filterColumn colId="5">
       <filters>
-        <filter val="SMS"/>
+        <filter val="GMRS"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -30337,6 +30331,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a1bbf4fc-2070-4842-8cf2-c42346818ea9" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d41b7399-51ed-4fce-9e89-79a41c55ed41">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004A5BF6C7F67B434096FAC9443A83D821" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1347de4a6797875f8d6b1ac5dc93737c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d41b7399-51ed-4fce-9e89-79a41c55ed41" xmlns:ns3="a1bbf4fc-2070-4842-8cf2-c42346818ea9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67ec082bb3101a8db1bb88f037f675cb" ns2:_="" ns3:_="">
     <xsd:import namespace="d41b7399-51ed-4fce-9e89-79a41c55ed41"/>
@@ -30579,27 +30593,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C286B8F-44DD-46A1-8664-5B3AFC40D364}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a1bbf4fc-2070-4842-8cf2-c42346818ea9"/>
+    <ds:schemaRef ds:uri="d41b7399-51ed-4fce-9e89-79a41c55ed41"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a1bbf4fc-2070-4842-8cf2-c42346818ea9" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d41b7399-51ed-4fce-9e89-79a41c55ed41">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71C3BF75-E265-495B-A1EF-9F0F8014FF62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F00606B-6B80-42B0-B0DE-C79F0839CF7D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30616,23 +30629,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71C3BF75-E265-495B-A1EF-9F0F8014FF62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C286B8F-44DD-46A1-8664-5B3AFC40D364}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a1bbf4fc-2070-4842-8cf2-c42346818ea9"/>
-    <ds:schemaRef ds:uri="d41b7399-51ed-4fce-9e89-79a41c55ed41"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/public/data/Master App Timesheet.xlsx
+++ b/public/data/Master App Timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgelD\OneDrive\Dev\timesheet-app\public\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\timesheet-app\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99232EAE-CC0F-438D-A792-EFAFF151E371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047916CC-BCC6-48B0-9AB8-2A18B2050BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vendor Entry Sheet" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2875" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2871" uniqueCount="675">
   <si>
     <t xml:space="preserve">Date
 </t>
@@ -1812,21 +1812,9 @@
     <t>Jarod Braithwaite</t>
   </si>
   <si>
-    <t>Shannon McGregor</t>
-  </si>
-  <si>
-    <t>Glenn Deeks</t>
-  </si>
-  <si>
     <t>Nicolo Montis</t>
   </si>
   <si>
-    <t>Phillip Mcelhinney</t>
-  </si>
-  <si>
-    <t>Fernando Velozo</t>
-  </si>
-  <si>
     <t>Aidan Taylor</t>
   </si>
   <si>
@@ -1860,36 +1848,18 @@
     <t>Hussein Mahumed</t>
   </si>
   <si>
-    <t>Brodie Eaton</t>
-  </si>
-  <si>
-    <t>Mattis Moeller</t>
-  </si>
-  <si>
-    <t>Jerry Flynn</t>
-  </si>
-  <si>
     <t>Edward Santhanam</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Neale  Edwards</t>
   </si>
   <si>
     <t>Dario Lopez</t>
   </si>
   <si>
-    <t>David  Fust</t>
-  </si>
-  <si>
     <t>Liam Brake</t>
   </si>
   <si>
-    <t>Paul Ropitini</t>
-  </si>
-  <si>
     <t>Paul Stiller</t>
   </si>
   <si>
@@ -1899,15 +1869,6 @@
     <t>Hockley Andrew</t>
   </si>
   <si>
-    <t>Steve Seiersen</t>
-  </si>
-  <si>
-    <t>Arnel Dimalanta</t>
-  </si>
-  <si>
-    <t>Patricio Ponce</t>
-  </si>
-  <si>
     <t>Paul Taylor</t>
   </si>
   <si>
@@ -1920,9 +1881,6 @@
     <t>Jericho  Counsel</t>
   </si>
   <si>
-    <t>Tim  Zimmermann</t>
-  </si>
-  <si>
     <t>Ronhel  Grampil</t>
   </si>
   <si>
@@ -1938,9 +1896,6 @@
     <t>Russell Baxter</t>
   </si>
   <si>
-    <t>Geraud Gnanasegar</t>
-  </si>
-  <si>
     <t>Owen Waters</t>
   </si>
   <si>
@@ -1950,9 +1905,6 @@
     <t>Philippe Gagnon-Audet</t>
   </si>
   <si>
-    <t>Youngkyu Kim</t>
-  </si>
-  <si>
     <t>Mohamed Toure</t>
   </si>
   <si>
@@ -1968,12 +1920,6 @@
     <t>SMS Group</t>
   </si>
   <si>
-    <t>Kevin  Parrott</t>
-  </si>
-  <si>
-    <t>Moaad Ridda</t>
-  </si>
-  <si>
     <t>Aymeric Boulme</t>
   </si>
   <si>
@@ -1983,9 +1929,6 @@
     <t>Joris  Dandini</t>
   </si>
   <si>
-    <t>Wayne-David Hetaraka</t>
-  </si>
-  <si>
     <t>Joshua Button</t>
   </si>
   <si>
@@ -1995,9 +1938,6 @@
     <t>Gail Hendriksen</t>
   </si>
   <si>
-    <t>Kioni James</t>
-  </si>
-  <si>
     <t>Eloise  Edman</t>
   </si>
   <si>
@@ -2007,9 +1947,6 @@
     <t>Marina Sanchez</t>
   </si>
   <si>
-    <t>Omar Anadif</t>
-  </si>
-  <si>
     <t>Jefferson Valcueba</t>
   </si>
   <si>
@@ -2019,9 +1956,6 @@
     <t>James Kilby</t>
   </si>
   <si>
-    <t>Stuart Atkinson</t>
-  </si>
-  <si>
     <t>Amormio Chavez</t>
   </si>
   <si>
@@ -2119,6 +2053,75 @@
   </si>
   <si>
     <t>SMS Sentry/ Gas tester</t>
+  </si>
+  <si>
+    <t>Michael Bird</t>
+  </si>
+  <si>
+    <t>Alhassan Koromah</t>
+  </si>
+  <si>
+    <t>Andre Bucci</t>
+  </si>
+  <si>
+    <t>Isaac Cheyne</t>
+  </si>
+  <si>
+    <t>Owen Finney</t>
+  </si>
+  <si>
+    <t>Bryan Andal</t>
+  </si>
+  <si>
+    <t>Sherwin Grantoza</t>
+  </si>
+  <si>
+    <t>Liam McPhee</t>
+  </si>
+  <si>
+    <t>Abdelhikm Medellel</t>
+  </si>
+  <si>
+    <t>Jarome Oliver</t>
+  </si>
+  <si>
+    <t>Damon Mitchell</t>
+  </si>
+  <si>
+    <t>David Whittering</t>
+  </si>
+  <si>
+    <t>Erwan Merikhi</t>
+  </si>
+  <si>
+    <t>Josh Colk</t>
+  </si>
+  <si>
+    <t>Lewid Davies</t>
+  </si>
+  <si>
+    <t>Connor Douglas</t>
+  </si>
+  <si>
+    <t>Ethan Richardson</t>
+  </si>
+  <si>
+    <t>Naovoo Chan Boon</t>
+  </si>
+  <si>
+    <t>Hohepa Hirama</t>
+  </si>
+  <si>
+    <t>Boon Fattagi</t>
+  </si>
+  <si>
+    <t>Andre Bassette Torrisheba</t>
+  </si>
+  <si>
+    <t>Jhessy Pereira Borges Da Costa</t>
+  </si>
+  <si>
+    <t>Chloe Cameron</t>
   </si>
 </sst>
 </file>
@@ -2782,7 +2785,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2935,28 +2938,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="35" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3495,14 +3480,14 @@
     <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
       <c r="G1" s="44"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
       <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3577,14 +3562,14 @@
       <c r="A4" s="46"/>
       <c r="B4" s="31"/>
       <c r="C4" s="32"/>
-      <c r="D4" s="50"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="33"/>
       <c r="F4" s="35"/>
       <c r="G4" s="32"/>
       <c r="H4" s="36"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="41"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="46"/>
@@ -3593,7 +3578,7 @@
         <f>IFERROR(VLOOKUP(B5,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D5" s="50" t="str">
+      <c r="D5" s="33" t="str">
         <f>IFERROR(VLOOKUP(B5,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -3601,15 +3586,15 @@
       <c r="F5" s="35"/>
       <c r="G5" s="32"/>
       <c r="H5" s="36"/>
-      <c r="I5" s="51" t="str">
+      <c r="I5" s="37" t="str">
         <f>IF(B5="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J5" s="51" t="str">
+      <c r="J5" s="37" t="str">
         <f>IF(B5="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K5" s="52" t="str">
+      <c r="K5" s="41" t="str">
         <f>IFERROR(VLOOKUP(B5,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -3621,7 +3606,7 @@
         <f>IFERROR(VLOOKUP(B6,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D6" s="50" t="str">
+      <c r="D6" s="33" t="str">
         <f>IFERROR(VLOOKUP(B6,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -3629,15 +3614,15 @@
       <c r="F6" s="35"/>
       <c r="G6" s="32"/>
       <c r="H6" s="36"/>
-      <c r="I6" s="51" t="str">
+      <c r="I6" s="37" t="str">
         <f>IF(B6="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J6" s="51" t="str">
+      <c r="J6" s="37" t="str">
         <f>IF(B6="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K6" s="52" t="str">
+      <c r="K6" s="41" t="str">
         <f>IFERROR(VLOOKUP(B6,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -3649,7 +3634,7 @@
         <f>IFERROR(VLOOKUP(B7,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D7" s="50" t="str">
+      <c r="D7" s="33" t="str">
         <f>IFERROR(VLOOKUP(B7,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -3657,15 +3642,15 @@
       <c r="F7" s="35"/>
       <c r="G7" s="32"/>
       <c r="H7" s="36"/>
-      <c r="I7" s="51" t="str">
+      <c r="I7" s="37" t="str">
         <f>IF(B7="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J7" s="51" t="str">
+      <c r="J7" s="37" t="str">
         <f>IF(B7="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K7" s="52" t="str">
+      <c r="K7" s="41" t="str">
         <f>IFERROR(VLOOKUP(B7,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -3677,7 +3662,7 @@
         <f>IFERROR(VLOOKUP(B8,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D8" s="50" t="str">
+      <c r="D8" s="33" t="str">
         <f>IFERROR(VLOOKUP(B8,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -3685,15 +3670,15 @@
       <c r="F8" s="35"/>
       <c r="G8" s="32"/>
       <c r="H8" s="36"/>
-      <c r="I8" s="51" t="str">
+      <c r="I8" s="37" t="str">
         <f>IF(B8="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J8" s="51" t="str">
+      <c r="J8" s="37" t="str">
         <f>IF(B8="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K8" s="52" t="str">
+      <c r="K8" s="41" t="str">
         <f>IFERROR(VLOOKUP(B8,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -3705,7 +3690,7 @@
         <f>IFERROR(VLOOKUP(B9,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D9" s="50" t="str">
+      <c r="D9" s="33" t="str">
         <f>IFERROR(VLOOKUP(B9,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -3713,15 +3698,15 @@
       <c r="F9" s="35"/>
       <c r="G9" s="32"/>
       <c r="H9" s="36"/>
-      <c r="I9" s="51" t="str">
+      <c r="I9" s="37" t="str">
         <f>IF(B9="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J9" s="51" t="str">
+      <c r="J9" s="37" t="str">
         <f>IF(B9="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K9" s="52" t="str">
+      <c r="K9" s="41" t="str">
         <f>IFERROR(VLOOKUP(B9,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -3733,7 +3718,7 @@
         <f>IFERROR(VLOOKUP(B10,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D10" s="50" t="str">
+      <c r="D10" s="33" t="str">
         <f>IFERROR(VLOOKUP(B10,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -3741,15 +3726,15 @@
       <c r="F10" s="35"/>
       <c r="G10" s="32"/>
       <c r="H10" s="36"/>
-      <c r="I10" s="51" t="str">
+      <c r="I10" s="37" t="str">
         <f>IF(B10="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J10" s="51" t="str">
+      <c r="J10" s="37" t="str">
         <f>IF(B10="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K10" s="52" t="str">
+      <c r="K10" s="41" t="str">
         <f>IFERROR(VLOOKUP(B10,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -3761,7 +3746,7 @@
         <f>IFERROR(VLOOKUP(B11,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D11" s="50" t="str">
+      <c r="D11" s="33" t="str">
         <f>IFERROR(VLOOKUP(B11,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -3769,15 +3754,15 @@
       <c r="F11" s="35"/>
       <c r="G11" s="32"/>
       <c r="H11" s="36"/>
-      <c r="I11" s="51" t="str">
+      <c r="I11" s="37" t="str">
         <f>IF(B11="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J11" s="51" t="str">
+      <c r="J11" s="37" t="str">
         <f>IF(B11="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K11" s="52" t="str">
+      <c r="K11" s="41" t="str">
         <f>IFERROR(VLOOKUP(B11,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -3789,7 +3774,7 @@
         <f>IFERROR(VLOOKUP(B12,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D12" s="50" t="str">
+      <c r="D12" s="33" t="str">
         <f>IFERROR(VLOOKUP(B12,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -3797,15 +3782,15 @@
       <c r="F12" s="35"/>
       <c r="G12" s="32"/>
       <c r="H12" s="36"/>
-      <c r="I12" s="51" t="str">
+      <c r="I12" s="37" t="str">
         <f>IF(B12="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J12" s="51" t="str">
+      <c r="J12" s="37" t="str">
         <f>IF(B12="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K12" s="52" t="str">
+      <c r="K12" s="41" t="str">
         <f>IFERROR(VLOOKUP(B12,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -3817,7 +3802,7 @@
         <f>IFERROR(VLOOKUP(B13,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D13" s="50" t="str">
+      <c r="D13" s="33" t="str">
         <f>IFERROR(VLOOKUP(B13,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -3825,15 +3810,15 @@
       <c r="F13" s="35"/>
       <c r="G13" s="32"/>
       <c r="H13" s="36"/>
-      <c r="I13" s="51" t="str">
+      <c r="I13" s="37" t="str">
         <f>IF(B13="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J13" s="51" t="str">
+      <c r="J13" s="37" t="str">
         <f>IF(B13="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K13" s="52" t="str">
+      <c r="K13" s="41" t="str">
         <f>IFERROR(VLOOKUP(B13,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -3845,7 +3830,7 @@
         <f>IFERROR(VLOOKUP(B14,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D14" s="50" t="str">
+      <c r="D14" s="33" t="str">
         <f>IFERROR(VLOOKUP(B14,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -3853,15 +3838,15 @@
       <c r="F14" s="35"/>
       <c r="G14" s="32"/>
       <c r="H14" s="36"/>
-      <c r="I14" s="51" t="str">
+      <c r="I14" s="37" t="str">
         <f>IF(B14="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J14" s="51" t="str">
+      <c r="J14" s="37" t="str">
         <f>IF(B14="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K14" s="52" t="str">
+      <c r="K14" s="41" t="str">
         <f>IFERROR(VLOOKUP(B14,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -3873,7 +3858,7 @@
         <f>IFERROR(VLOOKUP(B15,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D15" s="50" t="str">
+      <c r="D15" s="33" t="str">
         <f>IFERROR(VLOOKUP(B15,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -3881,15 +3866,15 @@
       <c r="F15" s="35"/>
       <c r="G15" s="32"/>
       <c r="H15" s="36"/>
-      <c r="I15" s="51" t="str">
+      <c r="I15" s="37" t="str">
         <f>IF(B15="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J15" s="51" t="str">
+      <c r="J15" s="37" t="str">
         <f>IF(B15="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K15" s="52" t="str">
+      <c r="K15" s="41" t="str">
         <f>IFERROR(VLOOKUP(B15,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -3901,7 +3886,7 @@
         <f>IFERROR(VLOOKUP(B16,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D16" s="50" t="str">
+      <c r="D16" s="33" t="str">
         <f>IFERROR(VLOOKUP(B16,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -3909,15 +3894,15 @@
       <c r="F16" s="35"/>
       <c r="G16" s="32"/>
       <c r="H16" s="36"/>
-      <c r="I16" s="51" t="str">
+      <c r="I16" s="37" t="str">
         <f>IF(B16="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J16" s="51" t="str">
+      <c r="J16" s="37" t="str">
         <f>IF(B16="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K16" s="52" t="str">
+      <c r="K16" s="41" t="str">
         <f>IFERROR(VLOOKUP(B16,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -3929,7 +3914,7 @@
         <f>IFERROR(VLOOKUP(B17,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D17" s="50" t="str">
+      <c r="D17" s="33" t="str">
         <f>IFERROR(VLOOKUP(B17,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -3937,15 +3922,15 @@
       <c r="F17" s="35"/>
       <c r="G17" s="32"/>
       <c r="H17" s="36"/>
-      <c r="I17" s="51" t="str">
+      <c r="I17" s="37" t="str">
         <f>IF(B17="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J17" s="51" t="str">
+      <c r="J17" s="37" t="str">
         <f>IF(B17="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K17" s="52" t="str">
+      <c r="K17" s="41" t="str">
         <f>IFERROR(VLOOKUP(B17,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -3957,7 +3942,7 @@
         <f>IFERROR(VLOOKUP(B18,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D18" s="50" t="str">
+      <c r="D18" s="33" t="str">
         <f>IFERROR(VLOOKUP(B18,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -3965,15 +3950,15 @@
       <c r="F18" s="35"/>
       <c r="G18" s="32"/>
       <c r="H18" s="36"/>
-      <c r="I18" s="51" t="str">
+      <c r="I18" s="37" t="str">
         <f>IF(B18="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J18" s="51" t="str">
+      <c r="J18" s="37" t="str">
         <f>IF(B18="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K18" s="52" t="str">
+      <c r="K18" s="41" t="str">
         <f>IFERROR(VLOOKUP(B18,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -3985,7 +3970,7 @@
         <f>IFERROR(VLOOKUP(B19,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D19" s="50" t="str">
+      <c r="D19" s="33" t="str">
         <f>IFERROR(VLOOKUP(B19,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -3993,15 +3978,15 @@
       <c r="F19" s="35"/>
       <c r="G19" s="32"/>
       <c r="H19" s="36"/>
-      <c r="I19" s="51" t="str">
+      <c r="I19" s="37" t="str">
         <f>IF(B19="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J19" s="51" t="str">
+      <c r="J19" s="37" t="str">
         <f>IF(B19="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K19" s="52" t="str">
+      <c r="K19" s="41" t="str">
         <f>IFERROR(VLOOKUP(B19,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4013,7 +3998,7 @@
         <f>IFERROR(VLOOKUP(B20,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D20" s="50" t="str">
+      <c r="D20" s="33" t="str">
         <f>IFERROR(VLOOKUP(B20,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4021,15 +4006,15 @@
       <c r="F20" s="35"/>
       <c r="G20" s="32"/>
       <c r="H20" s="36"/>
-      <c r="I20" s="51" t="str">
+      <c r="I20" s="37" t="str">
         <f>IF(B20="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J20" s="51" t="str">
+      <c r="J20" s="37" t="str">
         <f>IF(B20="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K20" s="52" t="str">
+      <c r="K20" s="41" t="str">
         <f>IFERROR(VLOOKUP(B20,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4041,7 +4026,7 @@
         <f>IFERROR(VLOOKUP(B21,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D21" s="50" t="str">
+      <c r="D21" s="33" t="str">
         <f>IFERROR(VLOOKUP(B21,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4049,15 +4034,15 @@
       <c r="F21" s="35"/>
       <c r="G21" s="32"/>
       <c r="H21" s="36"/>
-      <c r="I21" s="51" t="str">
+      <c r="I21" s="37" t="str">
         <f>IF(B21="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J21" s="51" t="str">
+      <c r="J21" s="37" t="str">
         <f>IF(B21="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K21" s="52" t="str">
+      <c r="K21" s="41" t="str">
         <f>IFERROR(VLOOKUP(B21,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4069,7 +4054,7 @@
         <f>IFERROR(VLOOKUP(B22,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D22" s="50" t="str">
+      <c r="D22" s="33" t="str">
         <f>IFERROR(VLOOKUP(B22,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4077,15 +4062,15 @@
       <c r="F22" s="35"/>
       <c r="G22" s="32"/>
       <c r="H22" s="36"/>
-      <c r="I22" s="51" t="str">
+      <c r="I22" s="37" t="str">
         <f>IF(B22="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J22" s="51" t="str">
+      <c r="J22" s="37" t="str">
         <f>IF(B22="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K22" s="52" t="str">
+      <c r="K22" s="41" t="str">
         <f>IFERROR(VLOOKUP(B22,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4097,7 +4082,7 @@
         <f>IFERROR(VLOOKUP(B23,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D23" s="50" t="str">
+      <c r="D23" s="33" t="str">
         <f>IFERROR(VLOOKUP(B23,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4105,15 +4090,15 @@
       <c r="F23" s="35"/>
       <c r="G23" s="32"/>
       <c r="H23" s="36"/>
-      <c r="I23" s="51" t="str">
+      <c r="I23" s="37" t="str">
         <f>IF(B23="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J23" s="51" t="str">
+      <c r="J23" s="37" t="str">
         <f>IF(B23="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K23" s="52" t="str">
+      <c r="K23" s="41" t="str">
         <f>IFERROR(VLOOKUP(B23,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4125,7 +4110,7 @@
         <f>IFERROR(VLOOKUP(B24,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D24" s="50" t="str">
+      <c r="D24" s="33" t="str">
         <f>IFERROR(VLOOKUP(B24,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4133,15 +4118,15 @@
       <c r="F24" s="35"/>
       <c r="G24" s="32"/>
       <c r="H24" s="36"/>
-      <c r="I24" s="51" t="str">
+      <c r="I24" s="37" t="str">
         <f>IF(B24="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J24" s="51" t="str">
+      <c r="J24" s="37" t="str">
         <f>IF(B24="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K24" s="52" t="str">
+      <c r="K24" s="41" t="str">
         <f>IFERROR(VLOOKUP(B24,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4153,7 +4138,7 @@
         <f>IFERROR(VLOOKUP(B25,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D25" s="50" t="str">
+      <c r="D25" s="33" t="str">
         <f>IFERROR(VLOOKUP(B25,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4161,15 +4146,15 @@
       <c r="F25" s="35"/>
       <c r="G25" s="32"/>
       <c r="H25" s="36"/>
-      <c r="I25" s="51" t="str">
+      <c r="I25" s="37" t="str">
         <f>IF(B25="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J25" s="51" t="str">
+      <c r="J25" s="37" t="str">
         <f>IF(B25="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K25" s="52" t="str">
+      <c r="K25" s="41" t="str">
         <f>IFERROR(VLOOKUP(B25,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4181,7 +4166,7 @@
         <f>IFERROR(VLOOKUP(B26,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D26" s="50" t="str">
+      <c r="D26" s="33" t="str">
         <f>IFERROR(VLOOKUP(B26,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4189,15 +4174,15 @@
       <c r="F26" s="35"/>
       <c r="G26" s="32"/>
       <c r="H26" s="36"/>
-      <c r="I26" s="51" t="str">
+      <c r="I26" s="37" t="str">
         <f>IF(B26="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J26" s="51" t="str">
+      <c r="J26" s="37" t="str">
         <f>IF(B26="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K26" s="52" t="str">
+      <c r="K26" s="41" t="str">
         <f>IFERROR(VLOOKUP(B26,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4209,7 +4194,7 @@
         <f>IFERROR(VLOOKUP(B27,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D27" s="50" t="str">
+      <c r="D27" s="33" t="str">
         <f>IFERROR(VLOOKUP(B27,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4217,15 +4202,15 @@
       <c r="F27" s="35"/>
       <c r="G27" s="32"/>
       <c r="H27" s="36"/>
-      <c r="I27" s="51" t="str">
+      <c r="I27" s="37" t="str">
         <f>IF(B27="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J27" s="51" t="str">
+      <c r="J27" s="37" t="str">
         <f>IF(B27="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K27" s="52" t="str">
+      <c r="K27" s="41" t="str">
         <f>IFERROR(VLOOKUP(B27,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4237,7 +4222,7 @@
         <f>IFERROR(VLOOKUP(B28,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D28" s="50" t="str">
+      <c r="D28" s="33" t="str">
         <f>IFERROR(VLOOKUP(B28,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4245,15 +4230,15 @@
       <c r="F28" s="35"/>
       <c r="G28" s="32"/>
       <c r="H28" s="36"/>
-      <c r="I28" s="51" t="str">
+      <c r="I28" s="37" t="str">
         <f>IF(B28="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J28" s="51" t="str">
+      <c r="J28" s="37" t="str">
         <f>IF(B28="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K28" s="52" t="str">
+      <c r="K28" s="41" t="str">
         <f>IFERROR(VLOOKUP(B28,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4265,7 +4250,7 @@
         <f>IFERROR(VLOOKUP(B29,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D29" s="50" t="str">
+      <c r="D29" s="33" t="str">
         <f>IFERROR(VLOOKUP(B29,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4273,15 +4258,15 @@
       <c r="F29" s="35"/>
       <c r="G29" s="32"/>
       <c r="H29" s="36"/>
-      <c r="I29" s="51" t="str">
+      <c r="I29" s="37" t="str">
         <f>IF(B29="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J29" s="51" t="str">
+      <c r="J29" s="37" t="str">
         <f>IF(B29="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K29" s="52" t="str">
+      <c r="K29" s="41" t="str">
         <f>IFERROR(VLOOKUP(B29,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4293,7 +4278,7 @@
         <f>IFERROR(VLOOKUP(B30,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D30" s="50" t="str">
+      <c r="D30" s="33" t="str">
         <f>IFERROR(VLOOKUP(B30,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4301,15 +4286,15 @@
       <c r="F30" s="35"/>
       <c r="G30" s="32"/>
       <c r="H30" s="36"/>
-      <c r="I30" s="51" t="str">
+      <c r="I30" s="37" t="str">
         <f>IF(B30="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J30" s="51" t="str">
+      <c r="J30" s="37" t="str">
         <f>IF(B30="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K30" s="52" t="str">
+      <c r="K30" s="41" t="str">
         <f>IFERROR(VLOOKUP(B30,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4321,7 +4306,7 @@
         <f>IFERROR(VLOOKUP(B31,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D31" s="50" t="str">
+      <c r="D31" s="33" t="str">
         <f>IFERROR(VLOOKUP(B31,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4329,15 +4314,15 @@
       <c r="F31" s="35"/>
       <c r="G31" s="32"/>
       <c r="H31" s="36"/>
-      <c r="I31" s="51" t="str">
+      <c r="I31" s="37" t="str">
         <f>IF(B31="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J31" s="51" t="str">
+      <c r="J31" s="37" t="str">
         <f>IF(B31="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K31" s="52" t="str">
+      <c r="K31" s="41" t="str">
         <f>IFERROR(VLOOKUP(B31,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4349,7 +4334,7 @@
         <f>IFERROR(VLOOKUP(B32,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D32" s="50" t="str">
+      <c r="D32" s="33" t="str">
         <f>IFERROR(VLOOKUP(B32,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4357,15 +4342,15 @@
       <c r="F32" s="35"/>
       <c r="G32" s="32"/>
       <c r="H32" s="36"/>
-      <c r="I32" s="51" t="str">
+      <c r="I32" s="37" t="str">
         <f>IF(B32="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J32" s="51" t="str">
+      <c r="J32" s="37" t="str">
         <f>IF(B32="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K32" s="52" t="str">
+      <c r="K32" s="41" t="str">
         <f>IFERROR(VLOOKUP(B32,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4377,7 +4362,7 @@
         <f>IFERROR(VLOOKUP(B33,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D33" s="50" t="str">
+      <c r="D33" s="33" t="str">
         <f>IFERROR(VLOOKUP(B33,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4385,15 +4370,15 @@
       <c r="F33" s="35"/>
       <c r="G33" s="32"/>
       <c r="H33" s="36"/>
-      <c r="I33" s="51" t="str">
+      <c r="I33" s="37" t="str">
         <f>IF(B33="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J33" s="51" t="str">
+      <c r="J33" s="37" t="str">
         <f>IF(B33="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K33" s="52" t="str">
+      <c r="K33" s="41" t="str">
         <f>IFERROR(VLOOKUP(B33,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4405,7 +4390,7 @@
         <f>IFERROR(VLOOKUP(B34,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D34" s="50" t="str">
+      <c r="D34" s="33" t="str">
         <f>IFERROR(VLOOKUP(B34,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4413,15 +4398,15 @@
       <c r="F34" s="35"/>
       <c r="G34" s="32"/>
       <c r="H34" s="36"/>
-      <c r="I34" s="51" t="str">
+      <c r="I34" s="37" t="str">
         <f>IF(B34="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J34" s="51" t="str">
+      <c r="J34" s="37" t="str">
         <f>IF(B34="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K34" s="52" t="str">
+      <c r="K34" s="41" t="str">
         <f>IFERROR(VLOOKUP(B34,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4433,7 +4418,7 @@
         <f>IFERROR(VLOOKUP(B35,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D35" s="50" t="str">
+      <c r="D35" s="33" t="str">
         <f>IFERROR(VLOOKUP(B35,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4441,15 +4426,15 @@
       <c r="F35" s="35"/>
       <c r="G35" s="32"/>
       <c r="H35" s="36"/>
-      <c r="I35" s="51" t="str">
+      <c r="I35" s="37" t="str">
         <f>IF(B35="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J35" s="51" t="str">
+      <c r="J35" s="37" t="str">
         <f>IF(B35="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K35" s="52" t="str">
+      <c r="K35" s="41" t="str">
         <f>IFERROR(VLOOKUP(B35,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4461,7 +4446,7 @@
         <f>IFERROR(VLOOKUP(B36,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D36" s="50" t="str">
+      <c r="D36" s="33" t="str">
         <f>IFERROR(VLOOKUP(B36,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4469,15 +4454,15 @@
       <c r="F36" s="35"/>
       <c r="G36" s="32"/>
       <c r="H36" s="36"/>
-      <c r="I36" s="51" t="str">
+      <c r="I36" s="37" t="str">
         <f>IF(B36="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J36" s="51" t="str">
+      <c r="J36" s="37" t="str">
         <f>IF(B36="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K36" s="52" t="str">
+      <c r="K36" s="41" t="str">
         <f>IFERROR(VLOOKUP(B36,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4489,7 +4474,7 @@
         <f>IFERROR(VLOOKUP(B37,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D37" s="50" t="str">
+      <c r="D37" s="33" t="str">
         <f>IFERROR(VLOOKUP(B37,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4497,15 +4482,15 @@
       <c r="F37" s="35"/>
       <c r="G37" s="32"/>
       <c r="H37" s="36"/>
-      <c r="I37" s="51" t="str">
+      <c r="I37" s="37" t="str">
         <f>IF(B37="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J37" s="51" t="str">
+      <c r="J37" s="37" t="str">
         <f>IF(B37="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K37" s="52" t="str">
+      <c r="K37" s="41" t="str">
         <f>IFERROR(VLOOKUP(B37,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4517,7 +4502,7 @@
         <f>IFERROR(VLOOKUP(B38,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D38" s="50" t="str">
+      <c r="D38" s="33" t="str">
         <f>IFERROR(VLOOKUP(B38,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4525,15 +4510,15 @@
       <c r="F38" s="35"/>
       <c r="G38" s="32"/>
       <c r="H38" s="36"/>
-      <c r="I38" s="51" t="str">
+      <c r="I38" s="37" t="str">
         <f>IF(B38="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J38" s="51" t="str">
+      <c r="J38" s="37" t="str">
         <f>IF(B38="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K38" s="52" t="str">
+      <c r="K38" s="41" t="str">
         <f>IFERROR(VLOOKUP(B38,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4545,7 +4530,7 @@
         <f>IFERROR(VLOOKUP(B39,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D39" s="50" t="str">
+      <c r="D39" s="33" t="str">
         <f>IFERROR(VLOOKUP(B39,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4553,15 +4538,15 @@
       <c r="F39" s="35"/>
       <c r="G39" s="32"/>
       <c r="H39" s="36"/>
-      <c r="I39" s="51" t="str">
+      <c r="I39" s="37" t="str">
         <f>IF(B39="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J39" s="51" t="str">
+      <c r="J39" s="37" t="str">
         <f>IF(B39="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K39" s="52" t="str">
+      <c r="K39" s="41" t="str">
         <f>IFERROR(VLOOKUP(B39,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4573,7 +4558,7 @@
         <f>IFERROR(VLOOKUP(B40,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D40" s="50" t="str">
+      <c r="D40" s="33" t="str">
         <f>IFERROR(VLOOKUP(B40,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4581,15 +4566,15 @@
       <c r="F40" s="35"/>
       <c r="G40" s="32"/>
       <c r="H40" s="36"/>
-      <c r="I40" s="51" t="str">
+      <c r="I40" s="37" t="str">
         <f>IF(B40="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J40" s="51" t="str">
+      <c r="J40" s="37" t="str">
         <f>IF(B40="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K40" s="52" t="str">
+      <c r="K40" s="41" t="str">
         <f>IFERROR(VLOOKUP(B40,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4601,7 +4586,7 @@
         <f>IFERROR(VLOOKUP(B41,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D41" s="50" t="str">
+      <c r="D41" s="33" t="str">
         <f>IFERROR(VLOOKUP(B41,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4609,15 +4594,15 @@
       <c r="F41" s="35"/>
       <c r="G41" s="32"/>
       <c r="H41" s="36"/>
-      <c r="I41" s="51" t="str">
+      <c r="I41" s="37" t="str">
         <f>IF(B41="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J41" s="51" t="str">
+      <c r="J41" s="37" t="str">
         <f>IF(B41="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K41" s="52" t="str">
+      <c r="K41" s="41" t="str">
         <f>IFERROR(VLOOKUP(B41,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4629,7 +4614,7 @@
         <f>IFERROR(VLOOKUP(B42,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D42" s="50" t="str">
+      <c r="D42" s="33" t="str">
         <f>IFERROR(VLOOKUP(B42,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4637,15 +4622,15 @@
       <c r="F42" s="35"/>
       <c r="G42" s="32"/>
       <c r="H42" s="36"/>
-      <c r="I42" s="51" t="str">
+      <c r="I42" s="37" t="str">
         <f>IF(B42="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J42" s="51" t="str">
+      <c r="J42" s="37" t="str">
         <f>IF(B42="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K42" s="52" t="str">
+      <c r="K42" s="41" t="str">
         <f>IFERROR(VLOOKUP(B42,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4657,7 +4642,7 @@
         <f>IFERROR(VLOOKUP(B43,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D43" s="50" t="str">
+      <c r="D43" s="33" t="str">
         <f>IFERROR(VLOOKUP(B43,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4665,15 +4650,15 @@
       <c r="F43" s="35"/>
       <c r="G43" s="32"/>
       <c r="H43" s="36"/>
-      <c r="I43" s="51" t="str">
+      <c r="I43" s="37" t="str">
         <f>IF(B43="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J43" s="51" t="str">
+      <c r="J43" s="37" t="str">
         <f>IF(B43="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K43" s="52" t="str">
+      <c r="K43" s="41" t="str">
         <f>IFERROR(VLOOKUP(B43,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4685,7 +4670,7 @@
         <f>IFERROR(VLOOKUP(B44,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D44" s="50" t="str">
+      <c r="D44" s="33" t="str">
         <f>IFERROR(VLOOKUP(B44,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4693,15 +4678,15 @@
       <c r="F44" s="35"/>
       <c r="G44" s="32"/>
       <c r="H44" s="36"/>
-      <c r="I44" s="51" t="str">
+      <c r="I44" s="37" t="str">
         <f>IF(B44="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J44" s="51" t="str">
+      <c r="J44" s="37" t="str">
         <f>IF(B44="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K44" s="52" t="str">
+      <c r="K44" s="41" t="str">
         <f>IFERROR(VLOOKUP(B44,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4713,7 +4698,7 @@
         <f>IFERROR(VLOOKUP(B45,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D45" s="50" t="str">
+      <c r="D45" s="33" t="str">
         <f>IFERROR(VLOOKUP(B45,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4721,15 +4706,15 @@
       <c r="F45" s="35"/>
       <c r="G45" s="32"/>
       <c r="H45" s="36"/>
-      <c r="I45" s="51" t="str">
+      <c r="I45" s="37" t="str">
         <f>IF(B45="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J45" s="51" t="str">
+      <c r="J45" s="37" t="str">
         <f>IF(B45="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K45" s="52" t="str">
+      <c r="K45" s="41" t="str">
         <f>IFERROR(VLOOKUP(B45,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4741,7 +4726,7 @@
         <f>IFERROR(VLOOKUP(B46,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D46" s="50" t="str">
+      <c r="D46" s="33" t="str">
         <f>IFERROR(VLOOKUP(B46,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4749,15 +4734,15 @@
       <c r="F46" s="35"/>
       <c r="G46" s="32"/>
       <c r="H46" s="36"/>
-      <c r="I46" s="51" t="str">
+      <c r="I46" s="37" t="str">
         <f>IF(B46="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J46" s="51" t="str">
+      <c r="J46" s="37" t="str">
         <f>IF(B46="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K46" s="52" t="str">
+      <c r="K46" s="41" t="str">
         <f>IFERROR(VLOOKUP(B46,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4769,7 +4754,7 @@
         <f>IFERROR(VLOOKUP(B47,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D47" s="50" t="str">
+      <c r="D47" s="33" t="str">
         <f>IFERROR(VLOOKUP(B47,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4777,15 +4762,15 @@
       <c r="F47" s="35"/>
       <c r="G47" s="32"/>
       <c r="H47" s="36"/>
-      <c r="I47" s="51" t="str">
+      <c r="I47" s="37" t="str">
         <f>IF(B47="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J47" s="51" t="str">
+      <c r="J47" s="37" t="str">
         <f>IF(B47="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K47" s="52" t="str">
+      <c r="K47" s="41" t="str">
         <f>IFERROR(VLOOKUP(B47,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4797,7 +4782,7 @@
         <f>IFERROR(VLOOKUP(B48,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D48" s="50" t="str">
+      <c r="D48" s="33" t="str">
         <f>IFERROR(VLOOKUP(B48,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4805,15 +4790,15 @@
       <c r="F48" s="35"/>
       <c r="G48" s="32"/>
       <c r="H48" s="36"/>
-      <c r="I48" s="51" t="str">
+      <c r="I48" s="37" t="str">
         <f>IF(B48="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J48" s="51" t="str">
+      <c r="J48" s="37" t="str">
         <f>IF(B48="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K48" s="52" t="str">
+      <c r="K48" s="41" t="str">
         <f>IFERROR(VLOOKUP(B48,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4825,7 +4810,7 @@
         <f>IFERROR(VLOOKUP(B49,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D49" s="50" t="str">
+      <c r="D49" s="33" t="str">
         <f>IFERROR(VLOOKUP(B49,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4833,15 +4818,15 @@
       <c r="F49" s="35"/>
       <c r="G49" s="32"/>
       <c r="H49" s="36"/>
-      <c r="I49" s="51" t="str">
+      <c r="I49" s="37" t="str">
         <f>IF(B49="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J49" s="51" t="str">
+      <c r="J49" s="37" t="str">
         <f>IF(B49="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K49" s="52" t="str">
+      <c r="K49" s="41" t="str">
         <f>IFERROR(VLOOKUP(B49,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4853,7 +4838,7 @@
         <f>IFERROR(VLOOKUP(B50,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D50" s="50" t="str">
+      <c r="D50" s="33" t="str">
         <f>IFERROR(VLOOKUP(B50,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4861,15 +4846,15 @@
       <c r="F50" s="35"/>
       <c r="G50" s="32"/>
       <c r="H50" s="36"/>
-      <c r="I50" s="51" t="str">
+      <c r="I50" s="37" t="str">
         <f>IF(B50="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J50" s="51" t="str">
+      <c r="J50" s="37" t="str">
         <f>IF(B50="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K50" s="52" t="str">
+      <c r="K50" s="41" t="str">
         <f>IFERROR(VLOOKUP(B50,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4881,7 +4866,7 @@
         <f>IFERROR(VLOOKUP(B51,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D51" s="50" t="str">
+      <c r="D51" s="33" t="str">
         <f>IFERROR(VLOOKUP(B51,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4889,15 +4874,15 @@
       <c r="F51" s="35"/>
       <c r="G51" s="32"/>
       <c r="H51" s="36"/>
-      <c r="I51" s="51" t="str">
+      <c r="I51" s="37" t="str">
         <f>IF(B51="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J51" s="51" t="str">
+      <c r="J51" s="37" t="str">
         <f>IF(B51="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K51" s="52" t="str">
+      <c r="K51" s="41" t="str">
         <f>IFERROR(VLOOKUP(B51,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4909,7 +4894,7 @@
         <f>IFERROR(VLOOKUP(B52,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D52" s="50" t="str">
+      <c r="D52" s="33" t="str">
         <f>IFERROR(VLOOKUP(B52,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4917,15 +4902,15 @@
       <c r="F52" s="35"/>
       <c r="G52" s="32"/>
       <c r="H52" s="36"/>
-      <c r="I52" s="51" t="str">
+      <c r="I52" s="37" t="str">
         <f>IF(B52="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J52" s="51" t="str">
+      <c r="J52" s="37" t="str">
         <f>IF(B52="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K52" s="52" t="str">
+      <c r="K52" s="41" t="str">
         <f>IFERROR(VLOOKUP(B52,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4937,7 +4922,7 @@
         <f>IFERROR(VLOOKUP(B53,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D53" s="50" t="str">
+      <c r="D53" s="33" t="str">
         <f>IFERROR(VLOOKUP(B53,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4945,15 +4930,15 @@
       <c r="F53" s="35"/>
       <c r="G53" s="32"/>
       <c r="H53" s="36"/>
-      <c r="I53" s="51" t="str">
+      <c r="I53" s="37" t="str">
         <f>IF(B53="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J53" s="51" t="str">
+      <c r="J53" s="37" t="str">
         <f>IF(B53="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K53" s="52" t="str">
+      <c r="K53" s="41" t="str">
         <f>IFERROR(VLOOKUP(B53,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4965,7 +4950,7 @@
         <f>IFERROR(VLOOKUP(B54,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D54" s="50" t="str">
+      <c r="D54" s="33" t="str">
         <f>IFERROR(VLOOKUP(B54,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -4973,15 +4958,15 @@
       <c r="F54" s="35"/>
       <c r="G54" s="32"/>
       <c r="H54" s="36"/>
-      <c r="I54" s="51" t="str">
+      <c r="I54" s="37" t="str">
         <f>IF(B54="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J54" s="51" t="str">
+      <c r="J54" s="37" t="str">
         <f>IF(B54="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K54" s="52" t="str">
+      <c r="K54" s="41" t="str">
         <f>IFERROR(VLOOKUP(B54,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -4993,7 +4978,7 @@
         <f>IFERROR(VLOOKUP(B55,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D55" s="50" t="str">
+      <c r="D55" s="33" t="str">
         <f>IFERROR(VLOOKUP(B55,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5001,15 +4986,15 @@
       <c r="F55" s="35"/>
       <c r="G55" s="32"/>
       <c r="H55" s="36"/>
-      <c r="I55" s="51" t="str">
+      <c r="I55" s="37" t="str">
         <f>IF(B55="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J55" s="51" t="str">
+      <c r="J55" s="37" t="str">
         <f>IF(B55="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K55" s="52" t="str">
+      <c r="K55" s="41" t="str">
         <f>IFERROR(VLOOKUP(B55,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5021,7 +5006,7 @@
         <f>IFERROR(VLOOKUP(B56,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D56" s="50" t="str">
+      <c r="D56" s="33" t="str">
         <f>IFERROR(VLOOKUP(B56,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5029,15 +5014,15 @@
       <c r="F56" s="35"/>
       <c r="G56" s="32"/>
       <c r="H56" s="36"/>
-      <c r="I56" s="51" t="str">
+      <c r="I56" s="37" t="str">
         <f>IF(B56="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J56" s="51" t="str">
+      <c r="J56" s="37" t="str">
         <f>IF(B56="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K56" s="52" t="str">
+      <c r="K56" s="41" t="str">
         <f>IFERROR(VLOOKUP(B56,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5049,7 +5034,7 @@
         <f>IFERROR(VLOOKUP(B57,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D57" s="50" t="str">
+      <c r="D57" s="33" t="str">
         <f>IFERROR(VLOOKUP(B57,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5057,15 +5042,15 @@
       <c r="F57" s="35"/>
       <c r="G57" s="32"/>
       <c r="H57" s="36"/>
-      <c r="I57" s="51" t="str">
+      <c r="I57" s="37" t="str">
         <f>IF(B57="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J57" s="51" t="str">
+      <c r="J57" s="37" t="str">
         <f>IF(B57="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K57" s="52" t="str">
+      <c r="K57" s="41" t="str">
         <f>IFERROR(VLOOKUP(B57,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5077,7 +5062,7 @@
         <f>IFERROR(VLOOKUP(B58,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D58" s="50" t="str">
+      <c r="D58" s="33" t="str">
         <f>IFERROR(VLOOKUP(B58,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5085,15 +5070,15 @@
       <c r="F58" s="35"/>
       <c r="G58" s="32"/>
       <c r="H58" s="36"/>
-      <c r="I58" s="51" t="str">
+      <c r="I58" s="37" t="str">
         <f>IF(B58="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J58" s="51" t="str">
+      <c r="J58" s="37" t="str">
         <f>IF(B58="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K58" s="52" t="str">
+      <c r="K58" s="41" t="str">
         <f>IFERROR(VLOOKUP(B58,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5105,7 +5090,7 @@
         <f>IFERROR(VLOOKUP(B59,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D59" s="50" t="str">
+      <c r="D59" s="33" t="str">
         <f>IFERROR(VLOOKUP(B59,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5113,15 +5098,15 @@
       <c r="F59" s="35"/>
       <c r="G59" s="32"/>
       <c r="H59" s="36"/>
-      <c r="I59" s="51" t="str">
+      <c r="I59" s="37" t="str">
         <f>IF(B59="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J59" s="51" t="str">
+      <c r="J59" s="37" t="str">
         <f>IF(B59="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K59" s="52" t="str">
+      <c r="K59" s="41" t="str">
         <f>IFERROR(VLOOKUP(B59,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5133,7 +5118,7 @@
         <f>IFERROR(VLOOKUP(B60,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D60" s="50" t="str">
+      <c r="D60" s="33" t="str">
         <f>IFERROR(VLOOKUP(B60,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5141,15 +5126,15 @@
       <c r="F60" s="35"/>
       <c r="G60" s="32"/>
       <c r="H60" s="36"/>
-      <c r="I60" s="51" t="str">
+      <c r="I60" s="37" t="str">
         <f>IF(B60="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J60" s="51" t="str">
+      <c r="J60" s="37" t="str">
         <f>IF(B60="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K60" s="52" t="str">
+      <c r="K60" s="41" t="str">
         <f>IFERROR(VLOOKUP(B60,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5161,7 +5146,7 @@
         <f>IFERROR(VLOOKUP(B61,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D61" s="50" t="str">
+      <c r="D61" s="33" t="str">
         <f>IFERROR(VLOOKUP(B61,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5169,15 +5154,15 @@
       <c r="F61" s="35"/>
       <c r="G61" s="32"/>
       <c r="H61" s="36"/>
-      <c r="I61" s="51" t="str">
+      <c r="I61" s="37" t="str">
         <f>IF(B61="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J61" s="51" t="str">
+      <c r="J61" s="37" t="str">
         <f>IF(B61="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K61" s="52" t="str">
+      <c r="K61" s="41" t="str">
         <f>IFERROR(VLOOKUP(B61,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5189,7 +5174,7 @@
         <f>IFERROR(VLOOKUP(B62,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D62" s="50" t="str">
+      <c r="D62" s="33" t="str">
         <f>IFERROR(VLOOKUP(B62,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5197,15 +5182,15 @@
       <c r="F62" s="35"/>
       <c r="G62" s="32"/>
       <c r="H62" s="36"/>
-      <c r="I62" s="51" t="str">
+      <c r="I62" s="37" t="str">
         <f>IF(B62="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J62" s="51" t="str">
+      <c r="J62" s="37" t="str">
         <f>IF(B62="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K62" s="52" t="str">
+      <c r="K62" s="41" t="str">
         <f>IFERROR(VLOOKUP(B62,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5217,7 +5202,7 @@
         <f>IFERROR(VLOOKUP(B63,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D63" s="50" t="str">
+      <c r="D63" s="33" t="str">
         <f>IFERROR(VLOOKUP(B63,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5225,15 +5210,15 @@
       <c r="F63" s="35"/>
       <c r="G63" s="32"/>
       <c r="H63" s="36"/>
-      <c r="I63" s="51" t="str">
+      <c r="I63" s="37" t="str">
         <f>IF(B63="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J63" s="51" t="str">
+      <c r="J63" s="37" t="str">
         <f>IF(B63="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K63" s="52" t="str">
+      <c r="K63" s="41" t="str">
         <f>IFERROR(VLOOKUP(B63,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5245,7 +5230,7 @@
         <f>IFERROR(VLOOKUP(B64,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D64" s="50" t="str">
+      <c r="D64" s="33" t="str">
         <f>IFERROR(VLOOKUP(B64,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5253,15 +5238,15 @@
       <c r="F64" s="35"/>
       <c r="G64" s="32"/>
       <c r="H64" s="36"/>
-      <c r="I64" s="51" t="str">
+      <c r="I64" s="37" t="str">
         <f>IF(B64="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J64" s="51" t="str">
+      <c r="J64" s="37" t="str">
         <f>IF(B64="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K64" s="52" t="str">
+      <c r="K64" s="41" t="str">
         <f>IFERROR(VLOOKUP(B64,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5273,7 +5258,7 @@
         <f>IFERROR(VLOOKUP(B65,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D65" s="50" t="str">
+      <c r="D65" s="33" t="str">
         <f>IFERROR(VLOOKUP(B65,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5281,15 +5266,15 @@
       <c r="F65" s="35"/>
       <c r="G65" s="32"/>
       <c r="H65" s="36"/>
-      <c r="I65" s="51" t="str">
+      <c r="I65" s="37" t="str">
         <f>IF(B65="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J65" s="51" t="str">
+      <c r="J65" s="37" t="str">
         <f>IF(B65="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K65" s="52" t="str">
+      <c r="K65" s="41" t="str">
         <f>IFERROR(VLOOKUP(B65,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5301,7 +5286,7 @@
         <f>IFERROR(VLOOKUP(B66,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D66" s="50" t="str">
+      <c r="D66" s="33" t="str">
         <f>IFERROR(VLOOKUP(B66,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5309,15 +5294,15 @@
       <c r="F66" s="35"/>
       <c r="G66" s="32"/>
       <c r="H66" s="36"/>
-      <c r="I66" s="51" t="str">
+      <c r="I66" s="37" t="str">
         <f>IF(B66="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J66" s="51" t="str">
+      <c r="J66" s="37" t="str">
         <f>IF(B66="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K66" s="52" t="str">
+      <c r="K66" s="41" t="str">
         <f>IFERROR(VLOOKUP(B66,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5329,7 +5314,7 @@
         <f>IFERROR(VLOOKUP(B67,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D67" s="50" t="str">
+      <c r="D67" s="33" t="str">
         <f>IFERROR(VLOOKUP(B67,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5337,15 +5322,15 @@
       <c r="F67" s="35"/>
       <c r="G67" s="32"/>
       <c r="H67" s="36"/>
-      <c r="I67" s="51" t="str">
+      <c r="I67" s="37" t="str">
         <f>IF(B67="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J67" s="51" t="str">
+      <c r="J67" s="37" t="str">
         <f>IF(B67="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K67" s="52" t="str">
+      <c r="K67" s="41" t="str">
         <f>IFERROR(VLOOKUP(B67,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5357,7 +5342,7 @@
         <f>IFERROR(VLOOKUP(B68,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D68" s="50" t="str">
+      <c r="D68" s="33" t="str">
         <f>IFERROR(VLOOKUP(B68,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5365,15 +5350,15 @@
       <c r="F68" s="35"/>
       <c r="G68" s="32"/>
       <c r="H68" s="36"/>
-      <c r="I68" s="51" t="str">
+      <c r="I68" s="37" t="str">
         <f>IF(B68="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J68" s="51" t="str">
+      <c r="J68" s="37" t="str">
         <f>IF(B68="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K68" s="52" t="str">
+      <c r="K68" s="41" t="str">
         <f>IFERROR(VLOOKUP(B68,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5385,7 +5370,7 @@
         <f>IFERROR(VLOOKUP(B69,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D69" s="50" t="str">
+      <c r="D69" s="33" t="str">
         <f>IFERROR(VLOOKUP(B69,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5393,15 +5378,15 @@
       <c r="F69" s="35"/>
       <c r="G69" s="32"/>
       <c r="H69" s="36"/>
-      <c r="I69" s="51" t="str">
+      <c r="I69" s="37" t="str">
         <f>IF(B69="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J69" s="51" t="str">
+      <c r="J69" s="37" t="str">
         <f>IF(B69="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K69" s="52" t="str">
+      <c r="K69" s="41" t="str">
         <f>IFERROR(VLOOKUP(B69,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5413,7 +5398,7 @@
         <f>IFERROR(VLOOKUP(B70,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D70" s="50" t="str">
+      <c r="D70" s="33" t="str">
         <f>IFERROR(VLOOKUP(B70,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5421,15 +5406,15 @@
       <c r="F70" s="35"/>
       <c r="G70" s="32"/>
       <c r="H70" s="36"/>
-      <c r="I70" s="51" t="str">
+      <c r="I70" s="37" t="str">
         <f>IF(B70="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J70" s="51" t="str">
+      <c r="J70" s="37" t="str">
         <f>IF(B70="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K70" s="52" t="str">
+      <c r="K70" s="41" t="str">
         <f>IFERROR(VLOOKUP(B70,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5441,7 +5426,7 @@
         <f>IFERROR(VLOOKUP(B71,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D71" s="50" t="str">
+      <c r="D71" s="33" t="str">
         <f>IFERROR(VLOOKUP(B71,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5449,15 +5434,15 @@
       <c r="F71" s="35"/>
       <c r="G71" s="32"/>
       <c r="H71" s="36"/>
-      <c r="I71" s="51" t="str">
+      <c r="I71" s="37" t="str">
         <f>IF(B71="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J71" s="51" t="str">
+      <c r="J71" s="37" t="str">
         <f>IF(B71="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K71" s="52" t="str">
+      <c r="K71" s="41" t="str">
         <f>IFERROR(VLOOKUP(B71,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5469,7 +5454,7 @@
         <f>IFERROR(VLOOKUP(B72,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D72" s="50" t="str">
+      <c r="D72" s="33" t="str">
         <f>IFERROR(VLOOKUP(B72,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5477,15 +5462,15 @@
       <c r="F72" s="35"/>
       <c r="G72" s="32"/>
       <c r="H72" s="36"/>
-      <c r="I72" s="51" t="str">
+      <c r="I72" s="37" t="str">
         <f>IF(B72="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J72" s="51" t="str">
+      <c r="J72" s="37" t="str">
         <f>IF(B72="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K72" s="52" t="str">
+      <c r="K72" s="41" t="str">
         <f>IFERROR(VLOOKUP(B72,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5497,7 +5482,7 @@
         <f>IFERROR(VLOOKUP(B73,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D73" s="50" t="str">
+      <c r="D73" s="33" t="str">
         <f>IFERROR(VLOOKUP(B73,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5505,15 +5490,15 @@
       <c r="F73" s="35"/>
       <c r="G73" s="32"/>
       <c r="H73" s="36"/>
-      <c r="I73" s="51" t="str">
+      <c r="I73" s="37" t="str">
         <f>IF(B73="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J73" s="51" t="str">
+      <c r="J73" s="37" t="str">
         <f>IF(B73="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K73" s="52" t="str">
+      <c r="K73" s="41" t="str">
         <f>IFERROR(VLOOKUP(B73,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5525,7 +5510,7 @@
         <f>IFERROR(VLOOKUP(B74,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D74" s="50" t="str">
+      <c r="D74" s="33" t="str">
         <f>IFERROR(VLOOKUP(B74,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5533,15 +5518,15 @@
       <c r="F74" s="35"/>
       <c r="G74" s="32"/>
       <c r="H74" s="36"/>
-      <c r="I74" s="51" t="str">
+      <c r="I74" s="37" t="str">
         <f>IF(B74="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J74" s="51" t="str">
+      <c r="J74" s="37" t="str">
         <f>IF(B74="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K74" s="52" t="str">
+      <c r="K74" s="41" t="str">
         <f>IFERROR(VLOOKUP(B74,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5553,7 +5538,7 @@
         <f>IFERROR(VLOOKUP(B75,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D75" s="50" t="str">
+      <c r="D75" s="33" t="str">
         <f>IFERROR(VLOOKUP(B75,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5561,15 +5546,15 @@
       <c r="F75" s="35"/>
       <c r="G75" s="32"/>
       <c r="H75" s="36"/>
-      <c r="I75" s="51" t="str">
+      <c r="I75" s="37" t="str">
         <f>IF(B75="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J75" s="51" t="str">
+      <c r="J75" s="37" t="str">
         <f>IF(B75="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K75" s="52" t="str">
+      <c r="K75" s="41" t="str">
         <f>IFERROR(VLOOKUP(B75,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5581,7 +5566,7 @@
         <f>IFERROR(VLOOKUP(B76,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D76" s="50" t="str">
+      <c r="D76" s="33" t="str">
         <f>IFERROR(VLOOKUP(B76,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5589,15 +5574,15 @@
       <c r="F76" s="35"/>
       <c r="G76" s="32"/>
       <c r="H76" s="36"/>
-      <c r="I76" s="51" t="str">
+      <c r="I76" s="37" t="str">
         <f>IF(B76="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J76" s="51" t="str">
+      <c r="J76" s="37" t="str">
         <f>IF(B76="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K76" s="52" t="str">
+      <c r="K76" s="41" t="str">
         <f>IFERROR(VLOOKUP(B76,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5609,7 +5594,7 @@
         <f>IFERROR(VLOOKUP(B77,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D77" s="50" t="str">
+      <c r="D77" s="33" t="str">
         <f>IFERROR(VLOOKUP(B77,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5617,15 +5602,15 @@
       <c r="F77" s="35"/>
       <c r="G77" s="32"/>
       <c r="H77" s="36"/>
-      <c r="I77" s="51" t="str">
+      <c r="I77" s="37" t="str">
         <f>IF(B77="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J77" s="51" t="str">
+      <c r="J77" s="37" t="str">
         <f>IF(B77="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K77" s="52" t="str">
+      <c r="K77" s="41" t="str">
         <f>IFERROR(VLOOKUP(B77,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5637,7 +5622,7 @@
         <f>IFERROR(VLOOKUP(B78,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D78" s="50" t="str">
+      <c r="D78" s="33" t="str">
         <f>IFERROR(VLOOKUP(B78,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5645,15 +5630,15 @@
       <c r="F78" s="35"/>
       <c r="G78" s="32"/>
       <c r="H78" s="36"/>
-      <c r="I78" s="51" t="str">
+      <c r="I78" s="37" t="str">
         <f>IF(B78="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J78" s="51" t="str">
+      <c r="J78" s="37" t="str">
         <f>IF(B78="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K78" s="52" t="str">
+      <c r="K78" s="41" t="str">
         <f>IFERROR(VLOOKUP(B78,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5665,7 +5650,7 @@
         <f>IFERROR(VLOOKUP(B79,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D79" s="50" t="str">
+      <c r="D79" s="33" t="str">
         <f>IFERROR(VLOOKUP(B79,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5673,15 +5658,15 @@
       <c r="F79" s="35"/>
       <c r="G79" s="32"/>
       <c r="H79" s="36"/>
-      <c r="I79" s="51" t="str">
+      <c r="I79" s="37" t="str">
         <f>IF(B79="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J79" s="51" t="str">
+      <c r="J79" s="37" t="str">
         <f>IF(B79="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K79" s="52" t="str">
+      <c r="K79" s="41" t="str">
         <f>IFERROR(VLOOKUP(B79,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5693,7 +5678,7 @@
         <f>IFERROR(VLOOKUP(B80,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D80" s="50" t="str">
+      <c r="D80" s="33" t="str">
         <f>IFERROR(VLOOKUP(B80,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5701,15 +5686,15 @@
       <c r="F80" s="35"/>
       <c r="G80" s="32"/>
       <c r="H80" s="36"/>
-      <c r="I80" s="51" t="str">
+      <c r="I80" s="37" t="str">
         <f>IF(B80="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J80" s="51" t="str">
+      <c r="J80" s="37" t="str">
         <f>IF(B80="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K80" s="52" t="str">
+      <c r="K80" s="41" t="str">
         <f>IFERROR(VLOOKUP(B80,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5721,7 +5706,7 @@
         <f>IFERROR(VLOOKUP(B81,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D81" s="50" t="str">
+      <c r="D81" s="33" t="str">
         <f>IFERROR(VLOOKUP(B81,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5729,15 +5714,15 @@
       <c r="F81" s="35"/>
       <c r="G81" s="32"/>
       <c r="H81" s="36"/>
-      <c r="I81" s="51" t="str">
+      <c r="I81" s="37" t="str">
         <f>IF(B81="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J81" s="51" t="str">
+      <c r="J81" s="37" t="str">
         <f>IF(B81="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K81" s="52" t="str">
+      <c r="K81" s="41" t="str">
         <f>IFERROR(VLOOKUP(B81,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5749,7 +5734,7 @@
         <f>IFERROR(VLOOKUP(B82,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D82" s="50" t="str">
+      <c r="D82" s="33" t="str">
         <f>IFERROR(VLOOKUP(B82,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5757,15 +5742,15 @@
       <c r="F82" s="35"/>
       <c r="G82" s="32"/>
       <c r="H82" s="36"/>
-      <c r="I82" s="51" t="str">
+      <c r="I82" s="37" t="str">
         <f>IF(B82="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J82" s="51" t="str">
+      <c r="J82" s="37" t="str">
         <f>IF(B82="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K82" s="52" t="str">
+      <c r="K82" s="41" t="str">
         <f>IFERROR(VLOOKUP(B82,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5777,7 +5762,7 @@
         <f>IFERROR(VLOOKUP(B83,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D83" s="50" t="str">
+      <c r="D83" s="33" t="str">
         <f>IFERROR(VLOOKUP(B83,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5785,15 +5770,15 @@
       <c r="F83" s="35"/>
       <c r="G83" s="32"/>
       <c r="H83" s="36"/>
-      <c r="I83" s="51" t="str">
+      <c r="I83" s="37" t="str">
         <f>IF(B83="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J83" s="51" t="str">
+      <c r="J83" s="37" t="str">
         <f>IF(B83="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K83" s="52" t="str">
+      <c r="K83" s="41" t="str">
         <f>IFERROR(VLOOKUP(B83,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5805,7 +5790,7 @@
         <f>IFERROR(VLOOKUP(B84,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D84" s="50" t="str">
+      <c r="D84" s="33" t="str">
         <f>IFERROR(VLOOKUP(B84,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5813,15 +5798,15 @@
       <c r="F84" s="35"/>
       <c r="G84" s="32"/>
       <c r="H84" s="36"/>
-      <c r="I84" s="51" t="str">
+      <c r="I84" s="37" t="str">
         <f>IF(B84="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J84" s="51" t="str">
+      <c r="J84" s="37" t="str">
         <f>IF(B84="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K84" s="52" t="str">
+      <c r="K84" s="41" t="str">
         <f>IFERROR(VLOOKUP(B84,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5833,7 +5818,7 @@
         <f>IFERROR(VLOOKUP(B85,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D85" s="50" t="str">
+      <c r="D85" s="33" t="str">
         <f>IFERROR(VLOOKUP(B85,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5841,15 +5826,15 @@
       <c r="F85" s="35"/>
       <c r="G85" s="32"/>
       <c r="H85" s="36"/>
-      <c r="I85" s="51" t="str">
+      <c r="I85" s="37" t="str">
         <f>IF(B85="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J85" s="51" t="str">
+      <c r="J85" s="37" t="str">
         <f>IF(B85="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K85" s="52" t="str">
+      <c r="K85" s="41" t="str">
         <f>IFERROR(VLOOKUP(B85,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5861,7 +5846,7 @@
         <f>IFERROR(VLOOKUP(B86,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D86" s="50" t="str">
+      <c r="D86" s="33" t="str">
         <f>IFERROR(VLOOKUP(B86,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5869,15 +5854,15 @@
       <c r="F86" s="35"/>
       <c r="G86" s="32"/>
       <c r="H86" s="36"/>
-      <c r="I86" s="51" t="str">
+      <c r="I86" s="37" t="str">
         <f>IF(B86="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J86" s="51" t="str">
+      <c r="J86" s="37" t="str">
         <f>IF(B86="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K86" s="52" t="str">
+      <c r="K86" s="41" t="str">
         <f>IFERROR(VLOOKUP(B86,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5889,7 +5874,7 @@
         <f>IFERROR(VLOOKUP(B87,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D87" s="50" t="str">
+      <c r="D87" s="33" t="str">
         <f>IFERROR(VLOOKUP(B87,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5897,15 +5882,15 @@
       <c r="F87" s="35"/>
       <c r="G87" s="32"/>
       <c r="H87" s="36"/>
-      <c r="I87" s="51" t="str">
+      <c r="I87" s="37" t="str">
         <f>IF(B87="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J87" s="51" t="str">
+      <c r="J87" s="37" t="str">
         <f>IF(B87="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K87" s="52" t="str">
+      <c r="K87" s="41" t="str">
         <f>IFERROR(VLOOKUP(B87,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5917,7 +5902,7 @@
         <f>IFERROR(VLOOKUP(B88,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D88" s="50" t="str">
+      <c r="D88" s="33" t="str">
         <f>IFERROR(VLOOKUP(B88,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5925,15 +5910,15 @@
       <c r="F88" s="35"/>
       <c r="G88" s="32"/>
       <c r="H88" s="36"/>
-      <c r="I88" s="51" t="str">
+      <c r="I88" s="37" t="str">
         <f>IF(B88="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J88" s="51" t="str">
+      <c r="J88" s="37" t="str">
         <f>IF(B88="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K88" s="52" t="str">
+      <c r="K88" s="41" t="str">
         <f>IFERROR(VLOOKUP(B88,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5945,7 +5930,7 @@
         <f>IFERROR(VLOOKUP(B89,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D89" s="50" t="str">
+      <c r="D89" s="33" t="str">
         <f>IFERROR(VLOOKUP(B89,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5953,15 +5938,15 @@
       <c r="F89" s="35"/>
       <c r="G89" s="32"/>
       <c r="H89" s="36"/>
-      <c r="I89" s="51" t="str">
+      <c r="I89" s="37" t="str">
         <f>IF(B89="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J89" s="51" t="str">
+      <c r="J89" s="37" t="str">
         <f>IF(B89="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K89" s="52" t="str">
+      <c r="K89" s="41" t="str">
         <f>IFERROR(VLOOKUP(B89,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -5973,7 +5958,7 @@
         <f>IFERROR(VLOOKUP(B90,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D90" s="50" t="str">
+      <c r="D90" s="33" t="str">
         <f>IFERROR(VLOOKUP(B90,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -5981,15 +5966,15 @@
       <c r="F90" s="35"/>
       <c r="G90" s="32"/>
       <c r="H90" s="36"/>
-      <c r="I90" s="51" t="str">
+      <c r="I90" s="37" t="str">
         <f>IF(B90="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J90" s="51" t="str">
+      <c r="J90" s="37" t="str">
         <f>IF(B90="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K90" s="52" t="str">
+      <c r="K90" s="41" t="str">
         <f>IFERROR(VLOOKUP(B90,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -6001,7 +5986,7 @@
         <f>IFERROR(VLOOKUP(B91,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D91" s="50" t="str">
+      <c r="D91" s="33" t="str">
         <f>IFERROR(VLOOKUP(B91,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -6009,15 +5994,15 @@
       <c r="F91" s="35"/>
       <c r="G91" s="32"/>
       <c r="H91" s="36"/>
-      <c r="I91" s="51" t="str">
+      <c r="I91" s="37" t="str">
         <f>IF(B91="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J91" s="51" t="str">
+      <c r="J91" s="37" t="str">
         <f>IF(B91="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K91" s="52" t="str">
+      <c r="K91" s="41" t="str">
         <f>IFERROR(VLOOKUP(B91,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -6029,7 +6014,7 @@
         <f>IFERROR(VLOOKUP(B92,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D92" s="50" t="str">
+      <c r="D92" s="33" t="str">
         <f>IFERROR(VLOOKUP(B92,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -6037,15 +6022,15 @@
       <c r="F92" s="35"/>
       <c r="G92" s="32"/>
       <c r="H92" s="36"/>
-      <c r="I92" s="51" t="str">
+      <c r="I92" s="37" t="str">
         <f>IF(B92="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J92" s="51" t="str">
+      <c r="J92" s="37" t="str">
         <f>IF(B92="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K92" s="52" t="str">
+      <c r="K92" s="41" t="str">
         <f>IFERROR(VLOOKUP(B92,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -6057,7 +6042,7 @@
         <f>IFERROR(VLOOKUP(B93,Names!$B$1:$E$253,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D93" s="50" t="str">
+      <c r="D93" s="33" t="str">
         <f>IFERROR(VLOOKUP(B93,Names!$B$1:$E$253,4,FALSE),"")</f>
         <v/>
       </c>
@@ -6065,15 +6050,15 @@
       <c r="F93" s="35"/>
       <c r="G93" s="32"/>
       <c r="H93" s="36"/>
-      <c r="I93" s="51" t="str">
+      <c r="I93" s="37" t="str">
         <f>IF(B93="","",Names!$G$21)</f>
         <v/>
       </c>
-      <c r="J93" s="51" t="str">
+      <c r="J93" s="37" t="str">
         <f>IF(B93="","",Names!$H$21)</f>
         <v/>
       </c>
-      <c r="K93" s="52" t="str">
+      <c r="K93" s="41" t="str">
         <f>IFERROR(VLOOKUP(B93,Names!$B$1:$E$253,3,FALSE),"")</f>
         <v/>
       </c>
@@ -7325,7 +7310,7 @@
         <f>'Vendor Entry Sheet'!E4</f>
         <v>0</v>
       </c>
-      <c r="H2" s="59">
+      <c r="H2" s="51">
         <f>'Vendor Entry Sheet'!F4</f>
         <v>0</v>
       </c>
@@ -7369,7 +7354,7 @@
         <f>'Vendor Entry Sheet'!E5</f>
         <v>0</v>
       </c>
-      <c r="H3" s="59">
+      <c r="H3" s="51">
         <f>'Vendor Entry Sheet'!F5</f>
         <v>0</v>
       </c>
@@ -7413,7 +7398,7 @@
         <f>'Vendor Entry Sheet'!E6</f>
         <v>0</v>
       </c>
-      <c r="H4" s="59">
+      <c r="H4" s="51">
         <f>'Vendor Entry Sheet'!F6</f>
         <v>0</v>
       </c>
@@ -7457,7 +7442,7 @@
         <f>'Vendor Entry Sheet'!E7</f>
         <v>0</v>
       </c>
-      <c r="H5" s="59">
+      <c r="H5" s="51">
         <f>'Vendor Entry Sheet'!F7</f>
         <v>0</v>
       </c>
@@ -7501,7 +7486,7 @@
         <f>'Vendor Entry Sheet'!E8</f>
         <v>0</v>
       </c>
-      <c r="H6" s="59">
+      <c r="H6" s="51">
         <f>'Vendor Entry Sheet'!F8</f>
         <v>0</v>
       </c>
@@ -7545,7 +7530,7 @@
         <f>'Vendor Entry Sheet'!E9</f>
         <v>0</v>
       </c>
-      <c r="H7" s="59">
+      <c r="H7" s="51">
         <f>'Vendor Entry Sheet'!F9</f>
         <v>0</v>
       </c>
@@ -7589,7 +7574,7 @@
         <f>'Vendor Entry Sheet'!E10</f>
         <v>0</v>
       </c>
-      <c r="H8" s="59">
+      <c r="H8" s="51">
         <f>'Vendor Entry Sheet'!F10</f>
         <v>0</v>
       </c>
@@ -7633,7 +7618,7 @@
         <f>'Vendor Entry Sheet'!E11</f>
         <v>0</v>
       </c>
-      <c r="H9" s="59">
+      <c r="H9" s="51">
         <f>'Vendor Entry Sheet'!F11</f>
         <v>0</v>
       </c>
@@ -7677,7 +7662,7 @@
         <f>'Vendor Entry Sheet'!E12</f>
         <v>0</v>
       </c>
-      <c r="H10" s="59">
+      <c r="H10" s="51">
         <f>'Vendor Entry Sheet'!F12</f>
         <v>0</v>
       </c>
@@ -7721,7 +7706,7 @@
         <f>'Vendor Entry Sheet'!E13</f>
         <v>0</v>
       </c>
-      <c r="H11" s="59">
+      <c r="H11" s="51">
         <f>'Vendor Entry Sheet'!F13</f>
         <v>0</v>
       </c>
@@ -7765,7 +7750,7 @@
         <f>'Vendor Entry Sheet'!E14</f>
         <v>0</v>
       </c>
-      <c r="H12" s="59">
+      <c r="H12" s="51">
         <f>'Vendor Entry Sheet'!F14</f>
         <v>0</v>
       </c>
@@ -7809,7 +7794,7 @@
         <f>'Vendor Entry Sheet'!E15</f>
         <v>0</v>
       </c>
-      <c r="H13" s="59">
+      <c r="H13" s="51">
         <f>'Vendor Entry Sheet'!F15</f>
         <v>0</v>
       </c>
@@ -7853,7 +7838,7 @@
         <f>'Vendor Entry Sheet'!E16</f>
         <v>0</v>
       </c>
-      <c r="H14" s="59">
+      <c r="H14" s="51">
         <f>'Vendor Entry Sheet'!F16</f>
         <v>0</v>
       </c>
@@ -7897,7 +7882,7 @@
         <f>'Vendor Entry Sheet'!E17</f>
         <v>0</v>
       </c>
-      <c r="H15" s="59">
+      <c r="H15" s="51">
         <f>'Vendor Entry Sheet'!F17</f>
         <v>0</v>
       </c>
@@ -7941,7 +7926,7 @@
         <f>'Vendor Entry Sheet'!E18</f>
         <v>0</v>
       </c>
-      <c r="H16" s="59">
+      <c r="H16" s="51">
         <f>'Vendor Entry Sheet'!F18</f>
         <v>0</v>
       </c>
@@ -7985,7 +7970,7 @@
         <f>'Vendor Entry Sheet'!E19</f>
         <v>0</v>
       </c>
-      <c r="H17" s="59">
+      <c r="H17" s="51">
         <f>'Vendor Entry Sheet'!F19</f>
         <v>0</v>
       </c>
@@ -8029,7 +8014,7 @@
         <f>'Vendor Entry Sheet'!E20</f>
         <v>0</v>
       </c>
-      <c r="H18" s="59">
+      <c r="H18" s="51">
         <f>'Vendor Entry Sheet'!F20</f>
         <v>0</v>
       </c>
@@ -8073,7 +8058,7 @@
         <f>'Vendor Entry Sheet'!E21</f>
         <v>0</v>
       </c>
-      <c r="H19" s="59">
+      <c r="H19" s="51">
         <f>'Vendor Entry Sheet'!F21</f>
         <v>0</v>
       </c>
@@ -8117,7 +8102,7 @@
         <f>'Vendor Entry Sheet'!E22</f>
         <v>0</v>
       </c>
-      <c r="H20" s="59">
+      <c r="H20" s="51">
         <f>'Vendor Entry Sheet'!F22</f>
         <v>0</v>
       </c>
@@ -8161,7 +8146,7 @@
         <f>'Vendor Entry Sheet'!E23</f>
         <v>0</v>
       </c>
-      <c r="H21" s="59">
+      <c r="H21" s="51">
         <f>'Vendor Entry Sheet'!F23</f>
         <v>0</v>
       </c>
@@ -8205,7 +8190,7 @@
         <f>'Vendor Entry Sheet'!E24</f>
         <v>0</v>
       </c>
-      <c r="H22" s="59">
+      <c r="H22" s="51">
         <f>'Vendor Entry Sheet'!F24</f>
         <v>0</v>
       </c>
@@ -8249,7 +8234,7 @@
         <f>'Vendor Entry Sheet'!E25</f>
         <v>0</v>
       </c>
-      <c r="H23" s="59">
+      <c r="H23" s="51">
         <f>'Vendor Entry Sheet'!F25</f>
         <v>0</v>
       </c>
@@ -8293,7 +8278,7 @@
         <f>'Vendor Entry Sheet'!E26</f>
         <v>0</v>
       </c>
-      <c r="H24" s="59">
+      <c r="H24" s="51">
         <f>'Vendor Entry Sheet'!F26</f>
         <v>0</v>
       </c>
@@ -8337,7 +8322,7 @@
         <f>'Vendor Entry Sheet'!E27</f>
         <v>0</v>
       </c>
-      <c r="H25" s="59">
+      <c r="H25" s="51">
         <f>'Vendor Entry Sheet'!F27</f>
         <v>0</v>
       </c>
@@ -8381,7 +8366,7 @@
         <f>'Vendor Entry Sheet'!E28</f>
         <v>0</v>
       </c>
-      <c r="H26" s="59">
+      <c r="H26" s="51">
         <f>'Vendor Entry Sheet'!F28</f>
         <v>0</v>
       </c>
@@ -8425,7 +8410,7 @@
         <f>'Vendor Entry Sheet'!E29</f>
         <v>0</v>
       </c>
-      <c r="H27" s="59">
+      <c r="H27" s="51">
         <f>'Vendor Entry Sheet'!F29</f>
         <v>0</v>
       </c>
@@ -8469,7 +8454,7 @@
         <f>'Vendor Entry Sheet'!E30</f>
         <v>0</v>
       </c>
-      <c r="H28" s="59">
+      <c r="H28" s="51">
         <f>'Vendor Entry Sheet'!F30</f>
         <v>0</v>
       </c>
@@ -8513,7 +8498,7 @@
         <f>'Vendor Entry Sheet'!E31</f>
         <v>0</v>
       </c>
-      <c r="H29" s="59">
+      <c r="H29" s="51">
         <f>'Vendor Entry Sheet'!F31</f>
         <v>0</v>
       </c>
@@ -8557,7 +8542,7 @@
         <f>'Vendor Entry Sheet'!E32</f>
         <v>0</v>
       </c>
-      <c r="H30" s="59">
+      <c r="H30" s="51">
         <f>'Vendor Entry Sheet'!F32</f>
         <v>0</v>
       </c>
@@ -8601,7 +8586,7 @@
         <f>'Vendor Entry Sheet'!E33</f>
         <v>0</v>
       </c>
-      <c r="H31" s="59">
+      <c r="H31" s="51">
         <f>'Vendor Entry Sheet'!F33</f>
         <v>0</v>
       </c>
@@ -8645,7 +8630,7 @@
         <f>'Vendor Entry Sheet'!E34</f>
         <v>0</v>
       </c>
-      <c r="H32" s="59">
+      <c r="H32" s="51">
         <f>'Vendor Entry Sheet'!F34</f>
         <v>0</v>
       </c>
@@ -8689,7 +8674,7 @@
         <f>'Vendor Entry Sheet'!E35</f>
         <v>0</v>
       </c>
-      <c r="H33" s="59">
+      <c r="H33" s="51">
         <f>'Vendor Entry Sheet'!F35</f>
         <v>0</v>
       </c>
@@ -8733,7 +8718,7 @@
         <f>'Vendor Entry Sheet'!E36</f>
         <v>0</v>
       </c>
-      <c r="H34" s="59">
+      <c r="H34" s="51">
         <f>'Vendor Entry Sheet'!F36</f>
         <v>0</v>
       </c>
@@ -8777,7 +8762,7 @@
         <f>'Vendor Entry Sheet'!E37</f>
         <v>0</v>
       </c>
-      <c r="H35" s="59">
+      <c r="H35" s="51">
         <f>'Vendor Entry Sheet'!F37</f>
         <v>0</v>
       </c>
@@ -8821,7 +8806,7 @@
         <f>'Vendor Entry Sheet'!E38</f>
         <v>0</v>
       </c>
-      <c r="H36" s="59">
+      <c r="H36" s="51">
         <f>'Vendor Entry Sheet'!F38</f>
         <v>0</v>
       </c>
@@ -8865,7 +8850,7 @@
         <f>'Vendor Entry Sheet'!E39</f>
         <v>0</v>
       </c>
-      <c r="H37" s="59">
+      <c r="H37" s="51">
         <f>'Vendor Entry Sheet'!F39</f>
         <v>0</v>
       </c>
@@ -8909,7 +8894,7 @@
         <f>'Vendor Entry Sheet'!E40</f>
         <v>0</v>
       </c>
-      <c r="H38" s="59">
+      <c r="H38" s="51">
         <f>'Vendor Entry Sheet'!F40</f>
         <v>0</v>
       </c>
@@ -8953,7 +8938,7 @@
         <f>'Vendor Entry Sheet'!E41</f>
         <v>0</v>
       </c>
-      <c r="H39" s="59">
+      <c r="H39" s="51">
         <f>'Vendor Entry Sheet'!F41</f>
         <v>0</v>
       </c>
@@ -8997,7 +8982,7 @@
         <f>'Vendor Entry Sheet'!E42</f>
         <v>0</v>
       </c>
-      <c r="H40" s="59">
+      <c r="H40" s="51">
         <f>'Vendor Entry Sheet'!F42</f>
         <v>0</v>
       </c>
@@ -9041,7 +9026,7 @@
         <f>'Vendor Entry Sheet'!E43</f>
         <v>0</v>
       </c>
-      <c r="H41" s="59">
+      <c r="H41" s="51">
         <f>'Vendor Entry Sheet'!F43</f>
         <v>0</v>
       </c>
@@ -9085,7 +9070,7 @@
         <f>'Vendor Entry Sheet'!E44</f>
         <v>0</v>
       </c>
-      <c r="H42" s="59">
+      <c r="H42" s="51">
         <f>'Vendor Entry Sheet'!F44</f>
         <v>0</v>
       </c>
@@ -9129,7 +9114,7 @@
         <f>'Vendor Entry Sheet'!E45</f>
         <v>0</v>
       </c>
-      <c r="H43" s="59">
+      <c r="H43" s="51">
         <f>'Vendor Entry Sheet'!F45</f>
         <v>0</v>
       </c>
@@ -9173,7 +9158,7 @@
         <f>'Vendor Entry Sheet'!E46</f>
         <v>0</v>
       </c>
-      <c r="H44" s="59">
+      <c r="H44" s="51">
         <f>'Vendor Entry Sheet'!F46</f>
         <v>0</v>
       </c>
@@ -9217,7 +9202,7 @@
         <f>'Vendor Entry Sheet'!E47</f>
         <v>0</v>
       </c>
-      <c r="H45" s="59">
+      <c r="H45" s="51">
         <f>'Vendor Entry Sheet'!F47</f>
         <v>0</v>
       </c>
@@ -9261,7 +9246,7 @@
         <f>'Vendor Entry Sheet'!E48</f>
         <v>0</v>
       </c>
-      <c r="H46" s="59">
+      <c r="H46" s="51">
         <f>'Vendor Entry Sheet'!F48</f>
         <v>0</v>
       </c>
@@ -9305,7 +9290,7 @@
         <f>'Vendor Entry Sheet'!E49</f>
         <v>0</v>
       </c>
-      <c r="H47" s="59">
+      <c r="H47" s="51">
         <f>'Vendor Entry Sheet'!F49</f>
         <v>0</v>
       </c>
@@ -9349,7 +9334,7 @@
         <f>'Vendor Entry Sheet'!E50</f>
         <v>0</v>
       </c>
-      <c r="H48" s="59">
+      <c r="H48" s="51">
         <f>'Vendor Entry Sheet'!F50</f>
         <v>0</v>
       </c>
@@ -9393,7 +9378,7 @@
         <f>'Vendor Entry Sheet'!E51</f>
         <v>0</v>
       </c>
-      <c r="H49" s="59">
+      <c r="H49" s="51">
         <f>'Vendor Entry Sheet'!F51</f>
         <v>0</v>
       </c>
@@ -9437,7 +9422,7 @@
         <f>'Vendor Entry Sheet'!E52</f>
         <v>0</v>
       </c>
-      <c r="H50" s="59">
+      <c r="H50" s="51">
         <f>'Vendor Entry Sheet'!F52</f>
         <v>0</v>
       </c>
@@ -9481,7 +9466,7 @@
         <f>'Vendor Entry Sheet'!E53</f>
         <v>0</v>
       </c>
-      <c r="H51" s="59">
+      <c r="H51" s="51">
         <f>'Vendor Entry Sheet'!F53</f>
         <v>0</v>
       </c>
@@ -9525,7 +9510,7 @@
         <f>'Vendor Entry Sheet'!E54</f>
         <v>0</v>
       </c>
-      <c r="H52" s="59">
+      <c r="H52" s="51">
         <f>'Vendor Entry Sheet'!F54</f>
         <v>0</v>
       </c>
@@ -9569,7 +9554,7 @@
         <f>'Vendor Entry Sheet'!E55</f>
         <v>0</v>
       </c>
-      <c r="H53" s="59">
+      <c r="H53" s="51">
         <f>'Vendor Entry Sheet'!F55</f>
         <v>0</v>
       </c>
@@ -9613,7 +9598,7 @@
         <f>'Vendor Entry Sheet'!E56</f>
         <v>0</v>
       </c>
-      <c r="H54" s="59">
+      <c r="H54" s="51">
         <f>'Vendor Entry Sheet'!F56</f>
         <v>0</v>
       </c>
@@ -9657,7 +9642,7 @@
         <f>'Vendor Entry Sheet'!E57</f>
         <v>0</v>
       </c>
-      <c r="H55" s="59">
+      <c r="H55" s="51">
         <f>'Vendor Entry Sheet'!F57</f>
         <v>0</v>
       </c>
@@ -9701,7 +9686,7 @@
         <f>'Vendor Entry Sheet'!E58</f>
         <v>0</v>
       </c>
-      <c r="H56" s="59">
+      <c r="H56" s="51">
         <f>'Vendor Entry Sheet'!F58</f>
         <v>0</v>
       </c>
@@ -9745,7 +9730,7 @@
         <f>'Vendor Entry Sheet'!E59</f>
         <v>0</v>
       </c>
-      <c r="H57" s="59">
+      <c r="H57" s="51">
         <f>'Vendor Entry Sheet'!F59</f>
         <v>0</v>
       </c>
@@ -9789,7 +9774,7 @@
         <f>'Vendor Entry Sheet'!E60</f>
         <v>0</v>
       </c>
-      <c r="H58" s="59">
+      <c r="H58" s="51">
         <f>'Vendor Entry Sheet'!F60</f>
         <v>0</v>
       </c>
@@ -9833,7 +9818,7 @@
         <f>'Vendor Entry Sheet'!E61</f>
         <v>0</v>
       </c>
-      <c r="H59" s="59">
+      <c r="H59" s="51">
         <f>'Vendor Entry Sheet'!F61</f>
         <v>0</v>
       </c>
@@ -9877,7 +9862,7 @@
         <f>'Vendor Entry Sheet'!E62</f>
         <v>0</v>
       </c>
-      <c r="H60" s="59">
+      <c r="H60" s="51">
         <f>'Vendor Entry Sheet'!F62</f>
         <v>0</v>
       </c>
@@ -9921,7 +9906,7 @@
         <f>'Vendor Entry Sheet'!E63</f>
         <v>0</v>
       </c>
-      <c r="H61" s="59">
+      <c r="H61" s="51">
         <f>'Vendor Entry Sheet'!F63</f>
         <v>0</v>
       </c>
@@ -9965,7 +9950,7 @@
         <f>'Vendor Entry Sheet'!E64</f>
         <v>0</v>
       </c>
-      <c r="H62" s="59">
+      <c r="H62" s="51">
         <f>'Vendor Entry Sheet'!F64</f>
         <v>0</v>
       </c>
@@ -10009,7 +9994,7 @@
         <f>'Vendor Entry Sheet'!E65</f>
         <v>0</v>
       </c>
-      <c r="H63" s="59">
+      <c r="H63" s="51">
         <f>'Vendor Entry Sheet'!F65</f>
         <v>0</v>
       </c>
@@ -10053,7 +10038,7 @@
         <f>'Vendor Entry Sheet'!E66</f>
         <v>0</v>
       </c>
-      <c r="H64" s="59">
+      <c r="H64" s="51">
         <f>'Vendor Entry Sheet'!F66</f>
         <v>0</v>
       </c>
@@ -10097,7 +10082,7 @@
         <f>'Vendor Entry Sheet'!E67</f>
         <v>0</v>
       </c>
-      <c r="H65" s="59">
+      <c r="H65" s="51">
         <f>'Vendor Entry Sheet'!F67</f>
         <v>0</v>
       </c>
@@ -10141,7 +10126,7 @@
         <f>'Vendor Entry Sheet'!E68</f>
         <v>0</v>
       </c>
-      <c r="H66" s="59">
+      <c r="H66" s="51">
         <f>'Vendor Entry Sheet'!F68</f>
         <v>0</v>
       </c>
@@ -10185,7 +10170,7 @@
         <f>'Vendor Entry Sheet'!E69</f>
         <v>0</v>
       </c>
-      <c r="H67" s="59">
+      <c r="H67" s="51">
         <f>'Vendor Entry Sheet'!F69</f>
         <v>0</v>
       </c>
@@ -10229,7 +10214,7 @@
         <f>'Vendor Entry Sheet'!E70</f>
         <v>0</v>
       </c>
-      <c r="H68" s="59">
+      <c r="H68" s="51">
         <f>'Vendor Entry Sheet'!F70</f>
         <v>0</v>
       </c>
@@ -10273,7 +10258,7 @@
         <f>'Vendor Entry Sheet'!E71</f>
         <v>0</v>
       </c>
-      <c r="H69" s="59">
+      <c r="H69" s="51">
         <f>'Vendor Entry Sheet'!F71</f>
         <v>0</v>
       </c>
@@ -10317,7 +10302,7 @@
         <f>'Vendor Entry Sheet'!E72</f>
         <v>0</v>
       </c>
-      <c r="H70" s="59">
+      <c r="H70" s="51">
         <f>'Vendor Entry Sheet'!F72</f>
         <v>0</v>
       </c>
@@ -10361,7 +10346,7 @@
         <f>'Vendor Entry Sheet'!E73</f>
         <v>0</v>
       </c>
-      <c r="H71" s="59">
+      <c r="H71" s="51">
         <f>'Vendor Entry Sheet'!F73</f>
         <v>0</v>
       </c>
@@ -10405,7 +10390,7 @@
         <f>'Vendor Entry Sheet'!E74</f>
         <v>0</v>
       </c>
-      <c r="H72" s="59">
+      <c r="H72" s="51">
         <f>'Vendor Entry Sheet'!F74</f>
         <v>0</v>
       </c>
@@ -10449,7 +10434,7 @@
         <f>'Vendor Entry Sheet'!E75</f>
         <v>0</v>
       </c>
-      <c r="H73" s="59">
+      <c r="H73" s="51">
         <f>'Vendor Entry Sheet'!F75</f>
         <v>0</v>
       </c>
@@ -10493,7 +10478,7 @@
         <f>'Vendor Entry Sheet'!E76</f>
         <v>0</v>
       </c>
-      <c r="H74" s="59">
+      <c r="H74" s="51">
         <f>'Vendor Entry Sheet'!F76</f>
         <v>0</v>
       </c>
@@ -10537,7 +10522,7 @@
         <f>'Vendor Entry Sheet'!E77</f>
         <v>0</v>
       </c>
-      <c r="H75" s="59">
+      <c r="H75" s="51">
         <f>'Vendor Entry Sheet'!F77</f>
         <v>0</v>
       </c>
@@ -10581,7 +10566,7 @@
         <f>'Vendor Entry Sheet'!E78</f>
         <v>0</v>
       </c>
-      <c r="H76" s="59">
+      <c r="H76" s="51">
         <f>'Vendor Entry Sheet'!F78</f>
         <v>0</v>
       </c>
@@ -10625,7 +10610,7 @@
         <f>'Vendor Entry Sheet'!E79</f>
         <v>0</v>
       </c>
-      <c r="H77" s="59">
+      <c r="H77" s="51">
         <f>'Vendor Entry Sheet'!F79</f>
         <v>0</v>
       </c>
@@ -10669,7 +10654,7 @@
         <f>'Vendor Entry Sheet'!E80</f>
         <v>0</v>
       </c>
-      <c r="H78" s="59">
+      <c r="H78" s="51">
         <f>'Vendor Entry Sheet'!F80</f>
         <v>0</v>
       </c>
@@ -10713,7 +10698,7 @@
         <f>'Vendor Entry Sheet'!E81</f>
         <v>0</v>
       </c>
-      <c r="H79" s="59">
+      <c r="H79" s="51">
         <f>'Vendor Entry Sheet'!F81</f>
         <v>0</v>
       </c>
@@ -10757,7 +10742,7 @@
         <f>'Vendor Entry Sheet'!E82</f>
         <v>0</v>
       </c>
-      <c r="H80" s="59">
+      <c r="H80" s="51">
         <f>'Vendor Entry Sheet'!F82</f>
         <v>0</v>
       </c>
@@ -10801,7 +10786,7 @@
         <f>'Vendor Entry Sheet'!E83</f>
         <v>0</v>
       </c>
-      <c r="H81" s="59">
+      <c r="H81" s="51">
         <f>'Vendor Entry Sheet'!F83</f>
         <v>0</v>
       </c>
@@ -10845,7 +10830,7 @@
         <f>'Vendor Entry Sheet'!E84</f>
         <v>0</v>
       </c>
-      <c r="H82" s="59">
+      <c r="H82" s="51">
         <f>'Vendor Entry Sheet'!F84</f>
         <v>0</v>
       </c>
@@ -10889,7 +10874,7 @@
         <f>'Vendor Entry Sheet'!E85</f>
         <v>0</v>
       </c>
-      <c r="H83" s="59">
+      <c r="H83" s="51">
         <f>'Vendor Entry Sheet'!F85</f>
         <v>0</v>
       </c>
@@ -10933,7 +10918,7 @@
         <f>'Vendor Entry Sheet'!E86</f>
         <v>0</v>
       </c>
-      <c r="H84" s="59">
+      <c r="H84" s="51">
         <f>'Vendor Entry Sheet'!F86</f>
         <v>0</v>
       </c>
@@ -10977,7 +10962,7 @@
         <f>'Vendor Entry Sheet'!E87</f>
         <v>0</v>
       </c>
-      <c r="H85" s="59">
+      <c r="H85" s="51">
         <f>'Vendor Entry Sheet'!F87</f>
         <v>0</v>
       </c>
@@ -11021,7 +11006,7 @@
         <f>'Vendor Entry Sheet'!E88</f>
         <v>0</v>
       </c>
-      <c r="H86" s="59">
+      <c r="H86" s="51">
         <f>'Vendor Entry Sheet'!F88</f>
         <v>0</v>
       </c>
@@ -11065,7 +11050,7 @@
         <f>'Vendor Entry Sheet'!E89</f>
         <v>0</v>
       </c>
-      <c r="H87" s="59">
+      <c r="H87" s="51">
         <f>'Vendor Entry Sheet'!F89</f>
         <v>0</v>
       </c>
@@ -11109,7 +11094,7 @@
         <f>'Vendor Entry Sheet'!E90</f>
         <v>0</v>
       </c>
-      <c r="H88" s="59">
+      <c r="H88" s="51">
         <f>'Vendor Entry Sheet'!F90</f>
         <v>0</v>
       </c>
@@ -11153,7 +11138,7 @@
         <f>'Vendor Entry Sheet'!E91</f>
         <v>0</v>
       </c>
-      <c r="H89" s="59">
+      <c r="H89" s="51">
         <f>'Vendor Entry Sheet'!F91</f>
         <v>0</v>
       </c>
@@ -11197,7 +11182,7 @@
         <f>'Vendor Entry Sheet'!E92</f>
         <v>0</v>
       </c>
-      <c r="H90" s="59">
+      <c r="H90" s="51">
         <f>'Vendor Entry Sheet'!F92</f>
         <v>0</v>
       </c>
@@ -11241,7 +11226,7 @@
         <f>'Vendor Entry Sheet'!E93</f>
         <v>0</v>
       </c>
-      <c r="H91" s="59">
+      <c r="H91" s="51">
         <f>'Vendor Entry Sheet'!F93</f>
         <v>0</v>
       </c>
@@ -11285,7 +11270,7 @@
         <f>'Vendor Entry Sheet'!E94</f>
         <v>0</v>
       </c>
-      <c r="H92" s="59">
+      <c r="H92" s="51">
         <f>'Vendor Entry Sheet'!F94</f>
         <v>0</v>
       </c>
@@ -11329,7 +11314,7 @@
         <f>'Vendor Entry Sheet'!E95</f>
         <v>0</v>
       </c>
-      <c r="H93" s="59">
+      <c r="H93" s="51">
         <f>'Vendor Entry Sheet'!F95</f>
         <v>0</v>
       </c>
@@ -11373,7 +11358,7 @@
         <f>'Vendor Entry Sheet'!E96</f>
         <v>0</v>
       </c>
-      <c r="H94" s="59">
+      <c r="H94" s="51">
         <f>'Vendor Entry Sheet'!F96</f>
         <v>0</v>
       </c>
@@ -11417,7 +11402,7 @@
         <f>'Vendor Entry Sheet'!E97</f>
         <v>0</v>
       </c>
-      <c r="H95" s="59">
+      <c r="H95" s="51">
         <f>'Vendor Entry Sheet'!F97</f>
         <v>0</v>
       </c>
@@ -11461,7 +11446,7 @@
         <f>'Vendor Entry Sheet'!E98</f>
         <v>0</v>
       </c>
-      <c r="H96" s="59">
+      <c r="H96" s="51">
         <f>'Vendor Entry Sheet'!F98</f>
         <v>0</v>
       </c>
@@ -11505,7 +11490,7 @@
         <f>'Vendor Entry Sheet'!E99</f>
         <v>0</v>
       </c>
-      <c r="H97" s="59">
+      <c r="H97" s="51">
         <f>'Vendor Entry Sheet'!F99</f>
         <v>0</v>
       </c>
@@ -11549,7 +11534,7 @@
         <f>'Vendor Entry Sheet'!E100</f>
         <v>0</v>
       </c>
-      <c r="H98" s="59">
+      <c r="H98" s="51">
         <f>'Vendor Entry Sheet'!F100</f>
         <v>0</v>
       </c>
@@ -11593,7 +11578,7 @@
         <f>'Vendor Entry Sheet'!E101</f>
         <v>0</v>
       </c>
-      <c r="H99" s="59">
+      <c r="H99" s="51">
         <f>'Vendor Entry Sheet'!F101</f>
         <v>0</v>
       </c>
@@ -11637,7 +11622,7 @@
         <f>'Vendor Entry Sheet'!E102</f>
         <v>0</v>
       </c>
-      <c r="H100" s="59">
+      <c r="H100" s="51">
         <f>'Vendor Entry Sheet'!F102</f>
         <v>0</v>
       </c>
@@ -11681,7 +11666,7 @@
         <f>'Vendor Entry Sheet'!E103</f>
         <v>0</v>
       </c>
-      <c r="H101" s="59">
+      <c r="H101" s="51">
         <f>'Vendor Entry Sheet'!F103</f>
         <v>0</v>
       </c>
@@ -11725,7 +11710,7 @@
         <f>'Vendor Entry Sheet'!E104</f>
         <v>0</v>
       </c>
-      <c r="H102" s="59">
+      <c r="H102" s="51">
         <f>'Vendor Entry Sheet'!F104</f>
         <v>0</v>
       </c>
@@ -11769,7 +11754,7 @@
         <f>'Vendor Entry Sheet'!E105</f>
         <v>0</v>
       </c>
-      <c r="H103" s="59">
+      <c r="H103" s="51">
         <f>'Vendor Entry Sheet'!F105</f>
         <v>0</v>
       </c>
@@ -11813,7 +11798,7 @@
         <f>'Vendor Entry Sheet'!E106</f>
         <v>0</v>
       </c>
-      <c r="H104" s="59">
+      <c r="H104" s="51">
         <f>'Vendor Entry Sheet'!F106</f>
         <v>0</v>
       </c>
@@ -11857,7 +11842,7 @@
         <f>'Vendor Entry Sheet'!E107</f>
         <v>0</v>
       </c>
-      <c r="H105" s="59">
+      <c r="H105" s="51">
         <f>'Vendor Entry Sheet'!F107</f>
         <v>0</v>
       </c>
@@ -11901,7 +11886,7 @@
         <f>'Vendor Entry Sheet'!E108</f>
         <v>0</v>
       </c>
-      <c r="H106" s="59">
+      <c r="H106" s="51">
         <f>'Vendor Entry Sheet'!F108</f>
         <v>0</v>
       </c>
@@ -11945,7 +11930,7 @@
         <f>'Vendor Entry Sheet'!E109</f>
         <v>0</v>
       </c>
-      <c r="H107" s="59">
+      <c r="H107" s="51">
         <f>'Vendor Entry Sheet'!F109</f>
         <v>0</v>
       </c>
@@ -11989,7 +11974,7 @@
         <f>'Vendor Entry Sheet'!E110</f>
         <v>0</v>
       </c>
-      <c r="H108" s="59">
+      <c r="H108" s="51">
         <f>'Vendor Entry Sheet'!F110</f>
         <v>0</v>
       </c>
@@ -12033,7 +12018,7 @@
         <f>'Vendor Entry Sheet'!E111</f>
         <v>0</v>
       </c>
-      <c r="H109" s="59">
+      <c r="H109" s="51">
         <f>'Vendor Entry Sheet'!F111</f>
         <v>0</v>
       </c>
@@ -12077,7 +12062,7 @@
         <f>'Vendor Entry Sheet'!E112</f>
         <v>0</v>
       </c>
-      <c r="H110" s="59">
+      <c r="H110" s="51">
         <f>'Vendor Entry Sheet'!F112</f>
         <v>0</v>
       </c>
@@ -12121,7 +12106,7 @@
         <f>'Vendor Entry Sheet'!E113</f>
         <v>0</v>
       </c>
-      <c r="H111" s="59">
+      <c r="H111" s="51">
         <f>'Vendor Entry Sheet'!F113</f>
         <v>0</v>
       </c>
@@ -12165,7 +12150,7 @@
         <f>'Vendor Entry Sheet'!E114</f>
         <v>0</v>
       </c>
-      <c r="H112" s="59">
+      <c r="H112" s="51">
         <f>'Vendor Entry Sheet'!F114</f>
         <v>0</v>
       </c>
@@ -12209,7 +12194,7 @@
         <f>'Vendor Entry Sheet'!E115</f>
         <v>0</v>
       </c>
-      <c r="H113" s="59">
+      <c r="H113" s="51">
         <f>'Vendor Entry Sheet'!F115</f>
         <v>0</v>
       </c>
@@ -12253,7 +12238,7 @@
         <f>'Vendor Entry Sheet'!E116</f>
         <v>0</v>
       </c>
-      <c r="H114" s="59">
+      <c r="H114" s="51">
         <f>'Vendor Entry Sheet'!F116</f>
         <v>0</v>
       </c>
@@ -12297,7 +12282,7 @@
         <f>'Vendor Entry Sheet'!E117</f>
         <v>0</v>
       </c>
-      <c r="H115" s="59">
+      <c r="H115" s="51">
         <f>'Vendor Entry Sheet'!F117</f>
         <v>0</v>
       </c>
@@ -12341,7 +12326,7 @@
         <f>'Vendor Entry Sheet'!E118</f>
         <v>0</v>
       </c>
-      <c r="H116" s="59">
+      <c r="H116" s="51">
         <f>'Vendor Entry Sheet'!F118</f>
         <v>0</v>
       </c>
@@ -12385,7 +12370,7 @@
         <f>'Vendor Entry Sheet'!E119</f>
         <v>0</v>
       </c>
-      <c r="H117" s="59">
+      <c r="H117" s="51">
         <f>'Vendor Entry Sheet'!F119</f>
         <v>0</v>
       </c>
@@ -12429,7 +12414,7 @@
         <f>'Vendor Entry Sheet'!E120</f>
         <v>0</v>
       </c>
-      <c r="H118" s="59">
+      <c r="H118" s="51">
         <f>'Vendor Entry Sheet'!F120</f>
         <v>0</v>
       </c>
@@ -12473,7 +12458,7 @@
         <f>'Vendor Entry Sheet'!E121</f>
         <v>0</v>
       </c>
-      <c r="H119" s="59">
+      <c r="H119" s="51">
         <f>'Vendor Entry Sheet'!F121</f>
         <v>0</v>
       </c>
@@ -12517,7 +12502,7 @@
         <f>'Vendor Entry Sheet'!E122</f>
         <v>0</v>
       </c>
-      <c r="H120" s="59">
+      <c r="H120" s="51">
         <f>'Vendor Entry Sheet'!F122</f>
         <v>0</v>
       </c>
@@ -12561,7 +12546,7 @@
         <f>'Vendor Entry Sheet'!E123</f>
         <v>0</v>
       </c>
-      <c r="H121" s="59">
+      <c r="H121" s="51">
         <f>'Vendor Entry Sheet'!F123</f>
         <v>0</v>
       </c>
@@ -12605,7 +12590,7 @@
         <f>'Vendor Entry Sheet'!E124</f>
         <v>0</v>
       </c>
-      <c r="H122" s="59">
+      <c r="H122" s="51">
         <f>'Vendor Entry Sheet'!F124</f>
         <v>0</v>
       </c>
@@ -12649,7 +12634,7 @@
         <f>'Vendor Entry Sheet'!E125</f>
         <v>0</v>
       </c>
-      <c r="H123" s="59">
+      <c r="H123" s="51">
         <f>'Vendor Entry Sheet'!F125</f>
         <v>0</v>
       </c>
@@ -12693,7 +12678,7 @@
         <f>'Vendor Entry Sheet'!E126</f>
         <v>0</v>
       </c>
-      <c r="H124" s="59">
+      <c r="H124" s="51">
         <f>'Vendor Entry Sheet'!F126</f>
         <v>0</v>
       </c>
@@ -12737,7 +12722,7 @@
         <f>'Vendor Entry Sheet'!E127</f>
         <v>0</v>
       </c>
-      <c r="H125" s="59">
+      <c r="H125" s="51">
         <f>'Vendor Entry Sheet'!F127</f>
         <v>0</v>
       </c>
@@ -12781,7 +12766,7 @@
         <f>'Vendor Entry Sheet'!E128</f>
         <v>0</v>
       </c>
-      <c r="H126" s="59">
+      <c r="H126" s="51">
         <f>'Vendor Entry Sheet'!F128</f>
         <v>0</v>
       </c>
@@ -12825,7 +12810,7 @@
         <f>'Vendor Entry Sheet'!E129</f>
         <v>0</v>
       </c>
-      <c r="H127" s="59">
+      <c r="H127" s="51">
         <f>'Vendor Entry Sheet'!F129</f>
         <v>0</v>
       </c>
@@ -12869,7 +12854,7 @@
         <f>'Vendor Entry Sheet'!E130</f>
         <v>0</v>
       </c>
-      <c r="H128" s="59">
+      <c r="H128" s="51">
         <f>'Vendor Entry Sheet'!F130</f>
         <v>0</v>
       </c>
@@ -12913,7 +12898,7 @@
         <f>'Vendor Entry Sheet'!E131</f>
         <v>0</v>
       </c>
-      <c r="H129" s="59">
+      <c r="H129" s="51">
         <f>'Vendor Entry Sheet'!F131</f>
         <v>0</v>
       </c>
@@ -12957,7 +12942,7 @@
         <f>'Vendor Entry Sheet'!E132</f>
         <v>0</v>
       </c>
-      <c r="H130" s="59">
+      <c r="H130" s="51">
         <f>'Vendor Entry Sheet'!F132</f>
         <v>0</v>
       </c>
@@ -13001,7 +12986,7 @@
         <f>'Vendor Entry Sheet'!E133</f>
         <v>0</v>
       </c>
-      <c r="H131" s="59">
+      <c r="H131" s="51">
         <f>'Vendor Entry Sheet'!F133</f>
         <v>0</v>
       </c>
@@ -13045,7 +13030,7 @@
         <f>'Vendor Entry Sheet'!E134</f>
         <v>0</v>
       </c>
-      <c r="H132" s="59">
+      <c r="H132" s="51">
         <f>'Vendor Entry Sheet'!F134</f>
         <v>0</v>
       </c>
@@ -13089,7 +13074,7 @@
         <f>'Vendor Entry Sheet'!E135</f>
         <v>0</v>
       </c>
-      <c r="H133" s="59">
+      <c r="H133" s="51">
         <f>'Vendor Entry Sheet'!F135</f>
         <v>0</v>
       </c>
@@ -13133,7 +13118,7 @@
         <f>'Vendor Entry Sheet'!E136</f>
         <v>0</v>
       </c>
-      <c r="H134" s="59">
+      <c r="H134" s="51">
         <f>'Vendor Entry Sheet'!F136</f>
         <v>0</v>
       </c>
@@ -13177,7 +13162,7 @@
         <f>'Vendor Entry Sheet'!E137</f>
         <v>0</v>
       </c>
-      <c r="H135" s="59">
+      <c r="H135" s="51">
         <f>'Vendor Entry Sheet'!F137</f>
         <v>0</v>
       </c>
@@ -13221,7 +13206,7 @@
         <f>'Vendor Entry Sheet'!E138</f>
         <v>0</v>
       </c>
-      <c r="H136" s="59">
+      <c r="H136" s="51">
         <f>'Vendor Entry Sheet'!F138</f>
         <v>0</v>
       </c>
@@ -13265,7 +13250,7 @@
         <f>'Vendor Entry Sheet'!E139</f>
         <v>0</v>
       </c>
-      <c r="H137" s="59">
+      <c r="H137" s="51">
         <f>'Vendor Entry Sheet'!F139</f>
         <v>0</v>
       </c>
@@ -13309,7 +13294,7 @@
         <f>'Vendor Entry Sheet'!E140</f>
         <v>0</v>
       </c>
-      <c r="H138" s="59">
+      <c r="H138" s="51">
         <f>'Vendor Entry Sheet'!F140</f>
         <v>0</v>
       </c>
@@ -13353,7 +13338,7 @@
         <f>'Vendor Entry Sheet'!E141</f>
         <v>0</v>
       </c>
-      <c r="H139" s="59">
+      <c r="H139" s="51">
         <f>'Vendor Entry Sheet'!F141</f>
         <v>0</v>
       </c>
@@ -13397,7 +13382,7 @@
         <f>'Vendor Entry Sheet'!E142</f>
         <v>0</v>
       </c>
-      <c r="H140" s="59">
+      <c r="H140" s="51">
         <f>'Vendor Entry Sheet'!F142</f>
         <v>0</v>
       </c>
@@ -13441,7 +13426,7 @@
         <f>'Vendor Entry Sheet'!E143</f>
         <v>0</v>
       </c>
-      <c r="H141" s="59">
+      <c r="H141" s="51">
         <f>'Vendor Entry Sheet'!F143</f>
         <v>0</v>
       </c>
@@ -13485,7 +13470,7 @@
         <f>'Vendor Entry Sheet'!E144</f>
         <v>0</v>
       </c>
-      <c r="H142" s="59">
+      <c r="H142" s="51">
         <f>'Vendor Entry Sheet'!F144</f>
         <v>0</v>
       </c>
@@ -13529,7 +13514,7 @@
         <f>'Vendor Entry Sheet'!E145</f>
         <v>0</v>
       </c>
-      <c r="H143" s="59">
+      <c r="H143" s="51">
         <f>'Vendor Entry Sheet'!F145</f>
         <v>0</v>
       </c>
@@ -13573,7 +13558,7 @@
         <f>'Vendor Entry Sheet'!E146</f>
         <v>0</v>
       </c>
-      <c r="H144" s="59">
+      <c r="H144" s="51">
         <f>'Vendor Entry Sheet'!F146</f>
         <v>0</v>
       </c>
@@ -13617,7 +13602,7 @@
         <f>'Vendor Entry Sheet'!E147</f>
         <v>0</v>
       </c>
-      <c r="H145" s="59">
+      <c r="H145" s="51">
         <f>'Vendor Entry Sheet'!F147</f>
         <v>0</v>
       </c>
@@ -13661,7 +13646,7 @@
         <f>'Vendor Entry Sheet'!E148</f>
         <v>0</v>
       </c>
-      <c r="H146" s="59">
+      <c r="H146" s="51">
         <f>'Vendor Entry Sheet'!F148</f>
         <v>0</v>
       </c>
@@ -13705,7 +13690,7 @@
         <f>'Vendor Entry Sheet'!E149</f>
         <v>0</v>
       </c>
-      <c r="H147" s="59">
+      <c r="H147" s="51">
         <f>'Vendor Entry Sheet'!F149</f>
         <v>0</v>
       </c>
@@ -13749,7 +13734,7 @@
         <f>'Vendor Entry Sheet'!E150</f>
         <v>0</v>
       </c>
-      <c r="H148" s="59">
+      <c r="H148" s="51">
         <f>'Vendor Entry Sheet'!F150</f>
         <v>0</v>
       </c>
@@ -13793,7 +13778,7 @@
         <f>'Vendor Entry Sheet'!E151</f>
         <v>0</v>
       </c>
-      <c r="H149" s="59">
+      <c r="H149" s="51">
         <f>'Vendor Entry Sheet'!F151</f>
         <v>0</v>
       </c>
@@ -13837,7 +13822,7 @@
         <f>'Vendor Entry Sheet'!E152</f>
         <v>0</v>
       </c>
-      <c r="H150" s="59">
+      <c r="H150" s="51">
         <f>'Vendor Entry Sheet'!F152</f>
         <v>0</v>
       </c>
@@ -13881,7 +13866,7 @@
         <f>'Vendor Entry Sheet'!E153</f>
         <v>0</v>
       </c>
-      <c r="H151" s="59">
+      <c r="H151" s="51">
         <f>'Vendor Entry Sheet'!F153</f>
         <v>0</v>
       </c>
@@ -13925,7 +13910,7 @@
         <f>'Vendor Entry Sheet'!E154</f>
         <v>0</v>
       </c>
-      <c r="H152" s="59">
+      <c r="H152" s="51">
         <f>'Vendor Entry Sheet'!F154</f>
         <v>0</v>
       </c>
@@ -13969,7 +13954,7 @@
         <f>'Vendor Entry Sheet'!E155</f>
         <v>0</v>
       </c>
-      <c r="H153" s="59">
+      <c r="H153" s="51">
         <f>'Vendor Entry Sheet'!F155</f>
         <v>0</v>
       </c>
@@ -14013,7 +13998,7 @@
         <f>'Vendor Entry Sheet'!E156</f>
         <v>0</v>
       </c>
-      <c r="H154" s="59">
+      <c r="H154" s="51">
         <f>'Vendor Entry Sheet'!F156</f>
         <v>0</v>
       </c>
@@ -14057,7 +14042,7 @@
         <f>'Vendor Entry Sheet'!E157</f>
         <v>0</v>
       </c>
-      <c r="H155" s="59">
+      <c r="H155" s="51">
         <f>'Vendor Entry Sheet'!F157</f>
         <v>0</v>
       </c>
@@ -14101,7 +14086,7 @@
         <f>'Vendor Entry Sheet'!E158</f>
         <v>0</v>
       </c>
-      <c r="H156" s="59">
+      <c r="H156" s="51">
         <f>'Vendor Entry Sheet'!F158</f>
         <v>0</v>
       </c>
@@ -14145,7 +14130,7 @@
         <f>'Vendor Entry Sheet'!E159</f>
         <v>0</v>
       </c>
-      <c r="H157" s="59">
+      <c r="H157" s="51">
         <f>'Vendor Entry Sheet'!F159</f>
         <v>0</v>
       </c>
@@ -14189,7 +14174,7 @@
         <f>'Vendor Entry Sheet'!E160</f>
         <v>0</v>
       </c>
-      <c r="H158" s="59">
+      <c r="H158" s="51">
         <f>'Vendor Entry Sheet'!F160</f>
         <v>0</v>
       </c>
@@ -14233,7 +14218,7 @@
         <f>'Vendor Entry Sheet'!E161</f>
         <v>0</v>
       </c>
-      <c r="H159" s="59">
+      <c r="H159" s="51">
         <f>'Vendor Entry Sheet'!F161</f>
         <v>0</v>
       </c>
@@ -14277,7 +14262,7 @@
         <f>'Vendor Entry Sheet'!E162</f>
         <v>0</v>
       </c>
-      <c r="H160" s="59">
+      <c r="H160" s="51">
         <f>'Vendor Entry Sheet'!F162</f>
         <v>0</v>
       </c>
@@ -14321,7 +14306,7 @@
         <f>'Vendor Entry Sheet'!E163</f>
         <v>0</v>
       </c>
-      <c r="H161" s="59">
+      <c r="H161" s="51">
         <f>'Vendor Entry Sheet'!F163</f>
         <v>0</v>
       </c>
@@ -14365,7 +14350,7 @@
         <f>'Vendor Entry Sheet'!E164</f>
         <v>0</v>
       </c>
-      <c r="H162" s="59">
+      <c r="H162" s="51">
         <f>'Vendor Entry Sheet'!F164</f>
         <v>0</v>
       </c>
@@ -14409,7 +14394,7 @@
         <f>'Vendor Entry Sheet'!E165</f>
         <v>0</v>
       </c>
-      <c r="H163" s="59">
+      <c r="H163" s="51">
         <f>'Vendor Entry Sheet'!F165</f>
         <v>0</v>
       </c>
@@ -14453,7 +14438,7 @@
         <f>'Vendor Entry Sheet'!E166</f>
         <v>0</v>
       </c>
-      <c r="H164" s="59">
+      <c r="H164" s="51">
         <f>'Vendor Entry Sheet'!F166</f>
         <v>0</v>
       </c>
@@ -14497,7 +14482,7 @@
         <f>'Vendor Entry Sheet'!E167</f>
         <v>0</v>
       </c>
-      <c r="H165" s="59">
+      <c r="H165" s="51">
         <f>'Vendor Entry Sheet'!F167</f>
         <v>0</v>
       </c>
@@ -14541,7 +14526,7 @@
         <f>'Vendor Entry Sheet'!E168</f>
         <v>0</v>
       </c>
-      <c r="H166" s="59">
+      <c r="H166" s="51">
         <f>'Vendor Entry Sheet'!F168</f>
         <v>0</v>
       </c>
@@ -14585,7 +14570,7 @@
         <f>'Vendor Entry Sheet'!E169</f>
         <v>0</v>
       </c>
-      <c r="H167" s="59">
+      <c r="H167" s="51">
         <f>'Vendor Entry Sheet'!F169</f>
         <v>0</v>
       </c>
@@ -14629,7 +14614,7 @@
         <f>'Vendor Entry Sheet'!E170</f>
         <v>0</v>
       </c>
-      <c r="H168" s="59">
+      <c r="H168" s="51">
         <f>'Vendor Entry Sheet'!F170</f>
         <v>0</v>
       </c>
@@ -14673,7 +14658,7 @@
         <f>'Vendor Entry Sheet'!E171</f>
         <v>0</v>
       </c>
-      <c r="H169" s="59">
+      <c r="H169" s="51">
         <f>'Vendor Entry Sheet'!F171</f>
         <v>0</v>
       </c>
@@ -14717,7 +14702,7 @@
         <f>'Vendor Entry Sheet'!E172</f>
         <v>0</v>
       </c>
-      <c r="H170" s="59">
+      <c r="H170" s="51">
         <f>'Vendor Entry Sheet'!F172</f>
         <v>0</v>
       </c>
@@ -14761,7 +14746,7 @@
         <f>'Vendor Entry Sheet'!E173</f>
         <v>0</v>
       </c>
-      <c r="H171" s="59">
+      <c r="H171" s="51">
         <f>'Vendor Entry Sheet'!F173</f>
         <v>0</v>
       </c>
@@ -14805,7 +14790,7 @@
         <f>'Vendor Entry Sheet'!E174</f>
         <v>0</v>
       </c>
-      <c r="H172" s="59">
+      <c r="H172" s="51">
         <f>'Vendor Entry Sheet'!F174</f>
         <v>0</v>
       </c>
@@ -14849,7 +14834,7 @@
         <f>'Vendor Entry Sheet'!E175</f>
         <v>0</v>
       </c>
-      <c r="H173" s="59">
+      <c r="H173" s="51">
         <f>'Vendor Entry Sheet'!F175</f>
         <v>0</v>
       </c>
@@ -14893,7 +14878,7 @@
         <f>'Vendor Entry Sheet'!E176</f>
         <v>0</v>
       </c>
-      <c r="H174" s="59">
+      <c r="H174" s="51">
         <f>'Vendor Entry Sheet'!F176</f>
         <v>0</v>
       </c>
@@ -14937,7 +14922,7 @@
         <f>'Vendor Entry Sheet'!E177</f>
         <v>0</v>
       </c>
-      <c r="H175" s="59">
+      <c r="H175" s="51">
         <f>'Vendor Entry Sheet'!F177</f>
         <v>0</v>
       </c>
@@ -14981,7 +14966,7 @@
         <f>'Vendor Entry Sheet'!E178</f>
         <v>0</v>
       </c>
-      <c r="H176" s="59">
+      <c r="H176" s="51">
         <f>'Vendor Entry Sheet'!F178</f>
         <v>0</v>
       </c>
@@ -15025,7 +15010,7 @@
         <f>'Vendor Entry Sheet'!E179</f>
         <v>0</v>
       </c>
-      <c r="H177" s="59">
+      <c r="H177" s="51">
         <f>'Vendor Entry Sheet'!F179</f>
         <v>0</v>
       </c>
@@ -15069,7 +15054,7 @@
         <f>'Vendor Entry Sheet'!E180</f>
         <v>0</v>
       </c>
-      <c r="H178" s="59">
+      <c r="H178" s="51">
         <f>'Vendor Entry Sheet'!F180</f>
         <v>0</v>
       </c>
@@ -15113,7 +15098,7 @@
         <f>'Vendor Entry Sheet'!E181</f>
         <v>0</v>
       </c>
-      <c r="H179" s="59">
+      <c r="H179" s="51">
         <f>'Vendor Entry Sheet'!F181</f>
         <v>0</v>
       </c>
@@ -15157,7 +15142,7 @@
         <f>'Vendor Entry Sheet'!E182</f>
         <v>0</v>
       </c>
-      <c r="H180" s="59">
+      <c r="H180" s="51">
         <f>'Vendor Entry Sheet'!F182</f>
         <v>0</v>
       </c>
@@ -15201,7 +15186,7 @@
         <f>'Vendor Entry Sheet'!E183</f>
         <v>0</v>
       </c>
-      <c r="H181" s="59">
+      <c r="H181" s="51">
         <f>'Vendor Entry Sheet'!F183</f>
         <v>0</v>
       </c>
@@ -15245,7 +15230,7 @@
         <f>'Vendor Entry Sheet'!E184</f>
         <v>0</v>
       </c>
-      <c r="H182" s="59">
+      <c r="H182" s="51">
         <f>'Vendor Entry Sheet'!F184</f>
         <v>0</v>
       </c>
@@ -15289,7 +15274,7 @@
         <f>'Vendor Entry Sheet'!E185</f>
         <v>0</v>
       </c>
-      <c r="H183" s="59">
+      <c r="H183" s="51">
         <f>'Vendor Entry Sheet'!F185</f>
         <v>0</v>
       </c>
@@ -15333,7 +15318,7 @@
         <f>'Vendor Entry Sheet'!E186</f>
         <v>0</v>
       </c>
-      <c r="H184" s="59">
+      <c r="H184" s="51">
         <f>'Vendor Entry Sheet'!F186</f>
         <v>0</v>
       </c>
@@ -15377,7 +15362,7 @@
         <f>'Vendor Entry Sheet'!E187</f>
         <v>0</v>
       </c>
-      <c r="H185" s="59">
+      <c r="H185" s="51">
         <f>'Vendor Entry Sheet'!F187</f>
         <v>0</v>
       </c>
@@ -15421,7 +15406,7 @@
         <f>'Vendor Entry Sheet'!E188</f>
         <v>0</v>
       </c>
-      <c r="H186" s="59">
+      <c r="H186" s="51">
         <f>'Vendor Entry Sheet'!F188</f>
         <v>0</v>
       </c>
@@ -15465,7 +15450,7 @@
         <f>'Vendor Entry Sheet'!E189</f>
         <v>0</v>
       </c>
-      <c r="H187" s="59">
+      <c r="H187" s="51">
         <f>'Vendor Entry Sheet'!F189</f>
         <v>0</v>
       </c>
@@ -15509,7 +15494,7 @@
         <f>'Vendor Entry Sheet'!E190</f>
         <v>0</v>
       </c>
-      <c r="H188" s="59">
+      <c r="H188" s="51">
         <f>'Vendor Entry Sheet'!F190</f>
         <v>0</v>
       </c>
@@ -15553,7 +15538,7 @@
         <f>'Vendor Entry Sheet'!E191</f>
         <v>0</v>
       </c>
-      <c r="H189" s="59">
+      <c r="H189" s="51">
         <f>'Vendor Entry Sheet'!F191</f>
         <v>0</v>
       </c>
@@ -15597,7 +15582,7 @@
         <f>'Vendor Entry Sheet'!E192</f>
         <v>0</v>
       </c>
-      <c r="H190" s="59">
+      <c r="H190" s="51">
         <f>'Vendor Entry Sheet'!F192</f>
         <v>0</v>
       </c>
@@ -15641,7 +15626,7 @@
         <f>'Vendor Entry Sheet'!E193</f>
         <v>0</v>
       </c>
-      <c r="H191" s="59">
+      <c r="H191" s="51">
         <f>'Vendor Entry Sheet'!F193</f>
         <v>0</v>
       </c>
@@ -15685,7 +15670,7 @@
         <f>'Vendor Entry Sheet'!E194</f>
         <v>0</v>
       </c>
-      <c r="H192" s="59">
+      <c r="H192" s="51">
         <f>'Vendor Entry Sheet'!F194</f>
         <v>0</v>
       </c>
@@ -15729,7 +15714,7 @@
         <f>'Vendor Entry Sheet'!E195</f>
         <v>0</v>
       </c>
-      <c r="H193" s="59">
+      <c r="H193" s="51">
         <f>'Vendor Entry Sheet'!F195</f>
         <v>0</v>
       </c>
@@ -15773,7 +15758,7 @@
         <f>'Vendor Entry Sheet'!E196</f>
         <v>0</v>
       </c>
-      <c r="H194" s="59">
+      <c r="H194" s="51">
         <f>'Vendor Entry Sheet'!F196</f>
         <v>0</v>
       </c>
@@ -15817,7 +15802,7 @@
         <f>'Vendor Entry Sheet'!E197</f>
         <v>0</v>
       </c>
-      <c r="H195" s="59">
+      <c r="H195" s="51">
         <f>'Vendor Entry Sheet'!F197</f>
         <v>0</v>
       </c>
@@ -15861,7 +15846,7 @@
         <f>'Vendor Entry Sheet'!E198</f>
         <v>0</v>
       </c>
-      <c r="H196" s="59">
+      <c r="H196" s="51">
         <f>'Vendor Entry Sheet'!F198</f>
         <v>0</v>
       </c>
@@ -15905,7 +15890,7 @@
         <f>'Vendor Entry Sheet'!E199</f>
         <v>0</v>
       </c>
-      <c r="H197" s="59">
+      <c r="H197" s="51">
         <f>'Vendor Entry Sheet'!F199</f>
         <v>0</v>
       </c>
@@ -15949,7 +15934,7 @@
         <f>'Vendor Entry Sheet'!E200</f>
         <v>0</v>
       </c>
-      <c r="H198" s="59">
+      <c r="H198" s="51">
         <f>'Vendor Entry Sheet'!F200</f>
         <v>0</v>
       </c>
@@ -15993,7 +15978,7 @@
         <f>'Vendor Entry Sheet'!E201</f>
         <v>0</v>
       </c>
-      <c r="H199" s="59">
+      <c r="H199" s="51">
         <f>'Vendor Entry Sheet'!F201</f>
         <v>0</v>
       </c>
@@ -16037,7 +16022,7 @@
         <f>'Vendor Entry Sheet'!E202</f>
         <v>0</v>
       </c>
-      <c r="H200" s="59">
+      <c r="H200" s="51">
         <f>'Vendor Entry Sheet'!F202</f>
         <v>0</v>
       </c>
@@ -16081,7 +16066,7 @@
         <f>'Vendor Entry Sheet'!E203</f>
         <v>0</v>
       </c>
-      <c r="H201" s="59">
+      <c r="H201" s="51">
         <f>'Vendor Entry Sheet'!F203</f>
         <v>0</v>
       </c>
@@ -16125,7 +16110,7 @@
         <f>'Vendor Entry Sheet'!E204</f>
         <v>0</v>
       </c>
-      <c r="H202" s="59">
+      <c r="H202" s="51">
         <f>'Vendor Entry Sheet'!F204</f>
         <v>0</v>
       </c>
@@ -16169,7 +16154,7 @@
         <f>'Vendor Entry Sheet'!E205</f>
         <v>0</v>
       </c>
-      <c r="H203" s="59">
+      <c r="H203" s="51">
         <f>'Vendor Entry Sheet'!F205</f>
         <v>0</v>
       </c>
@@ -16213,7 +16198,7 @@
         <f>'Vendor Entry Sheet'!E206</f>
         <v>0</v>
       </c>
-      <c r="H204" s="59">
+      <c r="H204" s="51">
         <f>'Vendor Entry Sheet'!F206</f>
         <v>0</v>
       </c>
@@ -16257,7 +16242,7 @@
         <f>'Vendor Entry Sheet'!E207</f>
         <v>0</v>
       </c>
-      <c r="H205" s="59">
+      <c r="H205" s="51">
         <f>'Vendor Entry Sheet'!F207</f>
         <v>0</v>
       </c>
@@ -16301,7 +16286,7 @@
         <f>'Vendor Entry Sheet'!E208</f>
         <v>0</v>
       </c>
-      <c r="H206" s="59">
+      <c r="H206" s="51">
         <f>'Vendor Entry Sheet'!F208</f>
         <v>0</v>
       </c>
@@ -16345,7 +16330,7 @@
         <f>'Vendor Entry Sheet'!E209</f>
         <v>0</v>
       </c>
-      <c r="H207" s="59">
+      <c r="H207" s="51">
         <f>'Vendor Entry Sheet'!F209</f>
         <v>0</v>
       </c>
@@ -16389,7 +16374,7 @@
         <f>'Vendor Entry Sheet'!E210</f>
         <v>0</v>
       </c>
-      <c r="H208" s="59">
+      <c r="H208" s="51">
         <f>'Vendor Entry Sheet'!F210</f>
         <v>0</v>
       </c>
@@ -16433,7 +16418,7 @@
         <f>'Vendor Entry Sheet'!E211</f>
         <v>0</v>
       </c>
-      <c r="H209" s="59">
+      <c r="H209" s="51">
         <f>'Vendor Entry Sheet'!F211</f>
         <v>0</v>
       </c>
@@ -16477,7 +16462,7 @@
         <f>'Vendor Entry Sheet'!E212</f>
         <v>0</v>
       </c>
-      <c r="H210" s="59">
+      <c r="H210" s="51">
         <f>'Vendor Entry Sheet'!F212</f>
         <v>0</v>
       </c>
@@ -16521,7 +16506,7 @@
         <f>'Vendor Entry Sheet'!E213</f>
         <v>0</v>
       </c>
-      <c r="H211" s="59">
+      <c r="H211" s="51">
         <f>'Vendor Entry Sheet'!F213</f>
         <v>0</v>
       </c>
@@ -16565,7 +16550,7 @@
         <f>'Vendor Entry Sheet'!E214</f>
         <v>0</v>
       </c>
-      <c r="H212" s="59">
+      <c r="H212" s="51">
         <f>'Vendor Entry Sheet'!F214</f>
         <v>0</v>
       </c>
@@ -16609,7 +16594,7 @@
         <f>'Vendor Entry Sheet'!E215</f>
         <v>0</v>
       </c>
-      <c r="H213" s="59">
+      <c r="H213" s="51">
         <f>'Vendor Entry Sheet'!F215</f>
         <v>0</v>
       </c>
@@ -16653,7 +16638,7 @@
         <f>'Vendor Entry Sheet'!E216</f>
         <v>0</v>
       </c>
-      <c r="H214" s="59">
+      <c r="H214" s="51">
         <f>'Vendor Entry Sheet'!F216</f>
         <v>0</v>
       </c>
@@ -16697,7 +16682,7 @@
         <f>'Vendor Entry Sheet'!E217</f>
         <v>0</v>
       </c>
-      <c r="H215" s="59">
+      <c r="H215" s="51">
         <f>'Vendor Entry Sheet'!F217</f>
         <v>0</v>
       </c>
@@ -16741,7 +16726,7 @@
         <f>'Vendor Entry Sheet'!E218</f>
         <v>0</v>
       </c>
-      <c r="H216" s="59">
+      <c r="H216" s="51">
         <f>'Vendor Entry Sheet'!F218</f>
         <v>0</v>
       </c>
@@ -16785,7 +16770,7 @@
         <f>'Vendor Entry Sheet'!E219</f>
         <v>0</v>
       </c>
-      <c r="H217" s="59">
+      <c r="H217" s="51">
         <f>'Vendor Entry Sheet'!F219</f>
         <v>0</v>
       </c>
@@ -16829,7 +16814,7 @@
         <f>'Vendor Entry Sheet'!E220</f>
         <v>0</v>
       </c>
-      <c r="H218" s="59">
+      <c r="H218" s="51">
         <f>'Vendor Entry Sheet'!F220</f>
         <v>0</v>
       </c>
@@ -16873,7 +16858,7 @@
         <f>'Vendor Entry Sheet'!E221</f>
         <v>0</v>
       </c>
-      <c r="H219" s="59">
+      <c r="H219" s="51">
         <f>'Vendor Entry Sheet'!F221</f>
         <v>0</v>
       </c>
@@ -16917,7 +16902,7 @@
         <f>'Vendor Entry Sheet'!E222</f>
         <v>0</v>
       </c>
-      <c r="H220" s="59">
+      <c r="H220" s="51">
         <f>'Vendor Entry Sheet'!F222</f>
         <v>0</v>
       </c>
@@ -16961,7 +16946,7 @@
         <f>'Vendor Entry Sheet'!E223</f>
         <v>0</v>
       </c>
-      <c r="H221" s="59">
+      <c r="H221" s="51">
         <f>'Vendor Entry Sheet'!F223</f>
         <v>0</v>
       </c>
@@ -17005,7 +16990,7 @@
         <f>'Vendor Entry Sheet'!E224</f>
         <v>0</v>
       </c>
-      <c r="H222" s="59">
+      <c r="H222" s="51">
         <f>'Vendor Entry Sheet'!F224</f>
         <v>0</v>
       </c>
@@ -17049,7 +17034,7 @@
         <f>'Vendor Entry Sheet'!E225</f>
         <v>0</v>
       </c>
-      <c r="H223" s="59">
+      <c r="H223" s="51">
         <f>'Vendor Entry Sheet'!F225</f>
         <v>0</v>
       </c>
@@ -17093,7 +17078,7 @@
         <f>'Vendor Entry Sheet'!E226</f>
         <v>0</v>
       </c>
-      <c r="H224" s="59">
+      <c r="H224" s="51">
         <f>'Vendor Entry Sheet'!F226</f>
         <v>0</v>
       </c>
@@ -17137,7 +17122,7 @@
         <f>'Vendor Entry Sheet'!E227</f>
         <v>0</v>
       </c>
-      <c r="H225" s="59">
+      <c r="H225" s="51">
         <f>'Vendor Entry Sheet'!F227</f>
         <v>0</v>
       </c>
@@ -17181,7 +17166,7 @@
         <f>'Vendor Entry Sheet'!E228</f>
         <v>0</v>
       </c>
-      <c r="H226" s="59">
+      <c r="H226" s="51">
         <f>'Vendor Entry Sheet'!F228</f>
         <v>0</v>
       </c>
@@ -17225,7 +17210,7 @@
         <f>'Vendor Entry Sheet'!E229</f>
         <v>0</v>
       </c>
-      <c r="H227" s="59">
+      <c r="H227" s="51">
         <f>'Vendor Entry Sheet'!F229</f>
         <v>0</v>
       </c>
@@ -17269,7 +17254,7 @@
         <f>'Vendor Entry Sheet'!E230</f>
         <v>0</v>
       </c>
-      <c r="H228" s="59">
+      <c r="H228" s="51">
         <f>'Vendor Entry Sheet'!F230</f>
         <v>0</v>
       </c>
@@ -17313,7 +17298,7 @@
         <f>'Vendor Entry Sheet'!E231</f>
         <v>0</v>
       </c>
-      <c r="H229" s="59">
+      <c r="H229" s="51">
         <f>'Vendor Entry Sheet'!F231</f>
         <v>0</v>
       </c>
@@ -17357,7 +17342,7 @@
         <f>'Vendor Entry Sheet'!E232</f>
         <v>0</v>
       </c>
-      <c r="H230" s="59">
+      <c r="H230" s="51">
         <f>'Vendor Entry Sheet'!F232</f>
         <v>0</v>
       </c>
@@ -17401,7 +17386,7 @@
         <f>'Vendor Entry Sheet'!E233</f>
         <v>0</v>
       </c>
-      <c r="H231" s="59">
+      <c r="H231" s="51">
         <f>'Vendor Entry Sheet'!F233</f>
         <v>0</v>
       </c>
@@ -17445,7 +17430,7 @@
         <f>'Vendor Entry Sheet'!E234</f>
         <v>0</v>
       </c>
-      <c r="H232" s="59">
+      <c r="H232" s="51">
         <f>'Vendor Entry Sheet'!F234</f>
         <v>0</v>
       </c>
@@ -17489,7 +17474,7 @@
         <f>'Vendor Entry Sheet'!E235</f>
         <v>0</v>
       </c>
-      <c r="H233" s="59">
+      <c r="H233" s="51">
         <f>'Vendor Entry Sheet'!F235</f>
         <v>0</v>
       </c>
@@ -17533,7 +17518,7 @@
         <f>'Vendor Entry Sheet'!E236</f>
         <v>0</v>
       </c>
-      <c r="H234" s="59">
+      <c r="H234" s="51">
         <f>'Vendor Entry Sheet'!F236</f>
         <v>0</v>
       </c>
@@ -17577,7 +17562,7 @@
         <f>'Vendor Entry Sheet'!E237</f>
         <v>0</v>
       </c>
-      <c r="H235" s="59">
+      <c r="H235" s="51">
         <f>'Vendor Entry Sheet'!F237</f>
         <v>0</v>
       </c>
@@ -17621,7 +17606,7 @@
         <f>'Vendor Entry Sheet'!E238</f>
         <v>0</v>
       </c>
-      <c r="H236" s="59">
+      <c r="H236" s="51">
         <f>'Vendor Entry Sheet'!F238</f>
         <v>0</v>
       </c>
@@ -17665,7 +17650,7 @@
         <f>'Vendor Entry Sheet'!E239</f>
         <v>0</v>
       </c>
-      <c r="H237" s="59">
+      <c r="H237" s="51">
         <f>'Vendor Entry Sheet'!F239</f>
         <v>0</v>
       </c>
@@ -17709,7 +17694,7 @@
         <f>'Vendor Entry Sheet'!E240</f>
         <v>0</v>
       </c>
-      <c r="H238" s="59">
+      <c r="H238" s="51">
         <f>'Vendor Entry Sheet'!F240</f>
         <v>0</v>
       </c>
@@ -17753,7 +17738,7 @@
         <f>'Vendor Entry Sheet'!E241</f>
         <v>0</v>
       </c>
-      <c r="H239" s="59">
+      <c r="H239" s="51">
         <f>'Vendor Entry Sheet'!F241</f>
         <v>0</v>
       </c>
@@ -17797,7 +17782,7 @@
         <f>'Vendor Entry Sheet'!E242</f>
         <v>0</v>
       </c>
-      <c r="H240" s="59">
+      <c r="H240" s="51">
         <f>'Vendor Entry Sheet'!F242</f>
         <v>0</v>
       </c>
@@ -17841,7 +17826,7 @@
         <f>'Vendor Entry Sheet'!E243</f>
         <v>0</v>
       </c>
-      <c r="H241" s="59">
+      <c r="H241" s="51">
         <f>'Vendor Entry Sheet'!F243</f>
         <v>0</v>
       </c>
@@ -17885,7 +17870,7 @@
         <f>'Vendor Entry Sheet'!E244</f>
         <v>0</v>
       </c>
-      <c r="H242" s="59">
+      <c r="H242" s="51">
         <f>'Vendor Entry Sheet'!F244</f>
         <v>0</v>
       </c>
@@ -17929,7 +17914,7 @@
         <f>'Vendor Entry Sheet'!E245</f>
         <v>0</v>
       </c>
-      <c r="H243" s="59">
+      <c r="H243" s="51">
         <f>'Vendor Entry Sheet'!F245</f>
         <v>0</v>
       </c>
@@ -17973,7 +17958,7 @@
         <f>'Vendor Entry Sheet'!E246</f>
         <v>0</v>
       </c>
-      <c r="H244" s="59">
+      <c r="H244" s="51">
         <f>'Vendor Entry Sheet'!F246</f>
         <v>0</v>
       </c>
@@ -18017,7 +18002,7 @@
         <f>'Vendor Entry Sheet'!E247</f>
         <v>0</v>
       </c>
-      <c r="H245" s="59">
+      <c r="H245" s="51">
         <f>'Vendor Entry Sheet'!F247</f>
         <v>0</v>
       </c>
@@ -18061,7 +18046,7 @@
         <f>'Vendor Entry Sheet'!E248</f>
         <v>0</v>
       </c>
-      <c r="H246" s="59">
+      <c r="H246" s="51">
         <f>'Vendor Entry Sheet'!F248</f>
         <v>0</v>
       </c>
@@ -18105,7 +18090,7 @@
         <f>'Vendor Entry Sheet'!E249</f>
         <v>0</v>
       </c>
-      <c r="H247" s="59">
+      <c r="H247" s="51">
         <f>'Vendor Entry Sheet'!F249</f>
         <v>0</v>
       </c>
@@ -18149,7 +18134,7 @@
         <f>'Vendor Entry Sheet'!E250</f>
         <v>0</v>
       </c>
-      <c r="H248" s="59">
+      <c r="H248" s="51">
         <f>'Vendor Entry Sheet'!F250</f>
         <v>0</v>
       </c>
@@ -18193,7 +18178,7 @@
         <f>'Vendor Entry Sheet'!E251</f>
         <v>0</v>
       </c>
-      <c r="H249" s="59">
+      <c r="H249" s="51">
         <f>'Vendor Entry Sheet'!F251</f>
         <v>0</v>
       </c>
@@ -18237,7 +18222,7 @@
         <f>'Vendor Entry Sheet'!E252</f>
         <v>0</v>
       </c>
-      <c r="H250" s="59">
+      <c r="H250" s="51">
         <f>'Vendor Entry Sheet'!F252</f>
         <v>0</v>
       </c>
@@ -18281,7 +18266,7 @@
         <f>'Vendor Entry Sheet'!E253</f>
         <v>0</v>
       </c>
-      <c r="H251" s="59">
+      <c r="H251" s="51">
         <f>'Vendor Entry Sheet'!F253</f>
         <v>0</v>
       </c>
@@ -18325,7 +18310,7 @@
         <f>'Vendor Entry Sheet'!E254</f>
         <v>0</v>
       </c>
-      <c r="H252" s="59">
+      <c r="H252" s="51">
         <f>'Vendor Entry Sheet'!F254</f>
         <v>0</v>
       </c>
@@ -18369,7 +18354,7 @@
         <f>'Vendor Entry Sheet'!E255</f>
         <v>0</v>
       </c>
-      <c r="H253" s="59">
+      <c r="H253" s="51">
         <f>'Vendor Entry Sheet'!F255</f>
         <v>0</v>
       </c>
@@ -18413,7 +18398,7 @@
         <f>'Vendor Entry Sheet'!E256</f>
         <v>0</v>
       </c>
-      <c r="H254" s="59">
+      <c r="H254" s="51">
         <f>'Vendor Entry Sheet'!F256</f>
         <v>0</v>
       </c>
@@ -18457,7 +18442,7 @@
         <f>'Vendor Entry Sheet'!E257</f>
         <v>0</v>
       </c>
-      <c r="H255" s="59">
+      <c r="H255" s="51">
         <f>'Vendor Entry Sheet'!F257</f>
         <v>0</v>
       </c>
@@ -18501,7 +18486,7 @@
         <f>'Vendor Entry Sheet'!E258</f>
         <v>0</v>
       </c>
-      <c r="H256" s="59">
+      <c r="H256" s="51">
         <f>'Vendor Entry Sheet'!F258</f>
         <v>0</v>
       </c>
@@ -18545,7 +18530,7 @@
         <f>'Vendor Entry Sheet'!E259</f>
         <v>0</v>
       </c>
-      <c r="H257" s="59">
+      <c r="H257" s="51">
         <f>'Vendor Entry Sheet'!F259</f>
         <v>0</v>
       </c>
@@ -18589,7 +18574,7 @@
         <f>'Vendor Entry Sheet'!E260</f>
         <v>0</v>
       </c>
-      <c r="H258" s="59">
+      <c r="H258" s="51">
         <f>'Vendor Entry Sheet'!F260</f>
         <v>0</v>
       </c>
@@ -18633,7 +18618,7 @@
         <f>'Vendor Entry Sheet'!E261</f>
         <v>0</v>
       </c>
-      <c r="H259" s="59">
+      <c r="H259" s="51">
         <f>'Vendor Entry Sheet'!F261</f>
         <v>0</v>
       </c>
@@ -18677,7 +18662,7 @@
         <f>'Vendor Entry Sheet'!E262</f>
         <v>0</v>
       </c>
-      <c r="H260" s="59">
+      <c r="H260" s="51">
         <f>'Vendor Entry Sheet'!F262</f>
         <v>0</v>
       </c>
@@ -18721,7 +18706,7 @@
         <f>'Vendor Entry Sheet'!E263</f>
         <v>0</v>
       </c>
-      <c r="H261" s="59">
+      <c r="H261" s="51">
         <f>'Vendor Entry Sheet'!F263</f>
         <v>0</v>
       </c>
@@ -18765,7 +18750,7 @@
         <f>'Vendor Entry Sheet'!E264</f>
         <v>0</v>
       </c>
-      <c r="H262" s="59">
+      <c r="H262" s="51">
         <f>'Vendor Entry Sheet'!F264</f>
         <v>0</v>
       </c>
@@ -18809,7 +18794,7 @@
         <f>'Vendor Entry Sheet'!E265</f>
         <v>0</v>
       </c>
-      <c r="H263" s="59">
+      <c r="H263" s="51">
         <f>'Vendor Entry Sheet'!F265</f>
         <v>0</v>
       </c>
@@ -18853,7 +18838,7 @@
         <f>'Vendor Entry Sheet'!E266</f>
         <v>0</v>
       </c>
-      <c r="H264" s="59">
+      <c r="H264" s="51">
         <f>'Vendor Entry Sheet'!F266</f>
         <v>0</v>
       </c>
@@ -18897,7 +18882,7 @@
         <f>'Vendor Entry Sheet'!E267</f>
         <v>0</v>
       </c>
-      <c r="H265" s="59">
+      <c r="H265" s="51">
         <f>'Vendor Entry Sheet'!F267</f>
         <v>0</v>
       </c>
@@ -18941,7 +18926,7 @@
         <f>'Vendor Entry Sheet'!E268</f>
         <v>0</v>
       </c>
-      <c r="H266" s="59">
+      <c r="H266" s="51">
         <f>'Vendor Entry Sheet'!F268</f>
         <v>0</v>
       </c>
@@ -18985,7 +18970,7 @@
         <f>'Vendor Entry Sheet'!E269</f>
         <v>0</v>
       </c>
-      <c r="H267" s="59">
+      <c r="H267" s="51">
         <f>'Vendor Entry Sheet'!F269</f>
         <v>0</v>
       </c>
@@ -19029,7 +19014,7 @@
         <f>'Vendor Entry Sheet'!E270</f>
         <v>0</v>
       </c>
-      <c r="H268" s="59">
+      <c r="H268" s="51">
         <f>'Vendor Entry Sheet'!F270</f>
         <v>0</v>
       </c>
@@ -19073,7 +19058,7 @@
         <f>'Vendor Entry Sheet'!E271</f>
         <v>0</v>
       </c>
-      <c r="H269" s="59">
+      <c r="H269" s="51">
         <f>'Vendor Entry Sheet'!F271</f>
         <v>0</v>
       </c>
@@ -19117,7 +19102,7 @@
         <f>'Vendor Entry Sheet'!E272</f>
         <v>0</v>
       </c>
-      <c r="H270" s="59">
+      <c r="H270" s="51">
         <f>'Vendor Entry Sheet'!F272</f>
         <v>0</v>
       </c>
@@ -19161,7 +19146,7 @@
         <f>'Vendor Entry Sheet'!E273</f>
         <v>0</v>
       </c>
-      <c r="H271" s="59">
+      <c r="H271" s="51">
         <f>'Vendor Entry Sheet'!F273</f>
         <v>0</v>
       </c>
@@ -19205,7 +19190,7 @@
         <f>'Vendor Entry Sheet'!E274</f>
         <v>0</v>
       </c>
-      <c r="H272" s="59">
+      <c r="H272" s="51">
         <f>'Vendor Entry Sheet'!F274</f>
         <v>0</v>
       </c>
@@ -19249,7 +19234,7 @@
         <f>'Vendor Entry Sheet'!E275</f>
         <v>0</v>
       </c>
-      <c r="H273" s="59">
+      <c r="H273" s="51">
         <f>'Vendor Entry Sheet'!F275</f>
         <v>0</v>
       </c>
@@ -19293,7 +19278,7 @@
         <f>'Vendor Entry Sheet'!E276</f>
         <v>0</v>
       </c>
-      <c r="H274" s="59">
+      <c r="H274" s="51">
         <f>'Vendor Entry Sheet'!F276</f>
         <v>0</v>
       </c>
@@ -19337,7 +19322,7 @@
         <f>'Vendor Entry Sheet'!E277</f>
         <v>0</v>
       </c>
-      <c r="H275" s="59">
+      <c r="H275" s="51">
         <f>'Vendor Entry Sheet'!F277</f>
         <v>0</v>
       </c>
@@ -19381,7 +19366,7 @@
         <f>'Vendor Entry Sheet'!E278</f>
         <v>0</v>
       </c>
-      <c r="H276" s="59">
+      <c r="H276" s="51">
         <f>'Vendor Entry Sheet'!F278</f>
         <v>0</v>
       </c>
@@ -19425,7 +19410,7 @@
         <f>'Vendor Entry Sheet'!E279</f>
         <v>0</v>
       </c>
-      <c r="H277" s="59">
+      <c r="H277" s="51">
         <f>'Vendor Entry Sheet'!F279</f>
         <v>0</v>
       </c>
@@ -19469,7 +19454,7 @@
         <f>'Vendor Entry Sheet'!E280</f>
         <v>0</v>
       </c>
-      <c r="H278" s="59">
+      <c r="H278" s="51">
         <f>'Vendor Entry Sheet'!F280</f>
         <v>0</v>
       </c>
@@ -19513,7 +19498,7 @@
         <f>'Vendor Entry Sheet'!E281</f>
         <v>0</v>
       </c>
-      <c r="H279" s="59">
+      <c r="H279" s="51">
         <f>'Vendor Entry Sheet'!F281</f>
         <v>0</v>
       </c>
@@ -19557,7 +19542,7 @@
         <f>'Vendor Entry Sheet'!E282</f>
         <v>0</v>
       </c>
-      <c r="H280" s="59">
+      <c r="H280" s="51">
         <f>'Vendor Entry Sheet'!F282</f>
         <v>0</v>
       </c>
@@ -19601,7 +19586,7 @@
         <f>'Vendor Entry Sheet'!E283</f>
         <v>0</v>
       </c>
-      <c r="H281" s="59">
+      <c r="H281" s="51">
         <f>'Vendor Entry Sheet'!F283</f>
         <v>0</v>
       </c>
@@ -19645,7 +19630,7 @@
         <f>'Vendor Entry Sheet'!E284</f>
         <v>0</v>
       </c>
-      <c r="H282" s="59">
+      <c r="H282" s="51">
         <f>'Vendor Entry Sheet'!F284</f>
         <v>0</v>
       </c>
@@ -19689,7 +19674,7 @@
         <f>'Vendor Entry Sheet'!E285</f>
         <v>0</v>
       </c>
-      <c r="H283" s="59">
+      <c r="H283" s="51">
         <f>'Vendor Entry Sheet'!F285</f>
         <v>0</v>
       </c>
@@ -19733,7 +19718,7 @@
         <f>'Vendor Entry Sheet'!E286</f>
         <v>0</v>
       </c>
-      <c r="H284" s="59">
+      <c r="H284" s="51">
         <f>'Vendor Entry Sheet'!F286</f>
         <v>0</v>
       </c>
@@ -19777,7 +19762,7 @@
         <f>'Vendor Entry Sheet'!E287</f>
         <v>0</v>
       </c>
-      <c r="H285" s="59">
+      <c r="H285" s="51">
         <f>'Vendor Entry Sheet'!F287</f>
         <v>0</v>
       </c>
@@ -19821,7 +19806,7 @@
         <f>'Vendor Entry Sheet'!E288</f>
         <v>0</v>
       </c>
-      <c r="H286" s="59">
+      <c r="H286" s="51">
         <f>'Vendor Entry Sheet'!F288</f>
         <v>0</v>
       </c>
@@ -19865,7 +19850,7 @@
         <f>'Vendor Entry Sheet'!E289</f>
         <v>0</v>
       </c>
-      <c r="H287" s="59">
+      <c r="H287" s="51">
         <f>'Vendor Entry Sheet'!F289</f>
         <v>0</v>
       </c>
@@ -19909,7 +19894,7 @@
         <f>'Vendor Entry Sheet'!E290</f>
         <v>0</v>
       </c>
-      <c r="H288" s="59">
+      <c r="H288" s="51">
         <f>'Vendor Entry Sheet'!F290</f>
         <v>0</v>
       </c>
@@ -19953,7 +19938,7 @@
         <f>'Vendor Entry Sheet'!E291</f>
         <v>0</v>
       </c>
-      <c r="H289" s="59">
+      <c r="H289" s="51">
         <f>'Vendor Entry Sheet'!F291</f>
         <v>0</v>
       </c>
@@ -19997,7 +19982,7 @@
         <f>'Vendor Entry Sheet'!E292</f>
         <v>0</v>
       </c>
-      <c r="H290" s="59">
+      <c r="H290" s="51">
         <f>'Vendor Entry Sheet'!F292</f>
         <v>0</v>
       </c>
@@ -20041,7 +20026,7 @@
         <f>'Vendor Entry Sheet'!E293</f>
         <v>0</v>
       </c>
-      <c r="H291" s="59">
+      <c r="H291" s="51">
         <f>'Vendor Entry Sheet'!F293</f>
         <v>0</v>
       </c>
@@ -20085,7 +20070,7 @@
         <f>'Vendor Entry Sheet'!E294</f>
         <v>0</v>
       </c>
-      <c r="H292" s="59">
+      <c r="H292" s="51">
         <f>'Vendor Entry Sheet'!F294</f>
         <v>0</v>
       </c>
@@ -20129,7 +20114,7 @@
         <f>'Vendor Entry Sheet'!E295</f>
         <v>0</v>
       </c>
-      <c r="H293" s="59">
+      <c r="H293" s="51">
         <f>'Vendor Entry Sheet'!F295</f>
         <v>0</v>
       </c>
@@ -20173,7 +20158,7 @@
         <f>'Vendor Entry Sheet'!E296</f>
         <v>0</v>
       </c>
-      <c r="H294" s="59">
+      <c r="H294" s="51">
         <f>'Vendor Entry Sheet'!F296</f>
         <v>0</v>
       </c>
@@ -20217,7 +20202,7 @@
         <f>'Vendor Entry Sheet'!E297</f>
         <v>0</v>
       </c>
-      <c r="H295" s="59">
+      <c r="H295" s="51">
         <f>'Vendor Entry Sheet'!F297</f>
         <v>0</v>
       </c>
@@ -20261,7 +20246,7 @@
         <f>'Vendor Entry Sheet'!E298</f>
         <v>0</v>
       </c>
-      <c r="H296" s="59">
+      <c r="H296" s="51">
         <f>'Vendor Entry Sheet'!F298</f>
         <v>0</v>
       </c>
@@ -20305,7 +20290,7 @@
         <f>'Vendor Entry Sheet'!E299</f>
         <v>0</v>
       </c>
-      <c r="H297" s="59">
+      <c r="H297" s="51">
         <f>'Vendor Entry Sheet'!F299</f>
         <v>0</v>
       </c>
@@ -20349,7 +20334,7 @@
         <f>'Vendor Entry Sheet'!E300</f>
         <v>0</v>
       </c>
-      <c r="H298" s="59">
+      <c r="H298" s="51">
         <f>'Vendor Entry Sheet'!F300</f>
         <v>0</v>
       </c>
@@ -20393,7 +20378,7 @@
         <f>'Vendor Entry Sheet'!E301</f>
         <v>0</v>
       </c>
-      <c r="H299" s="59">
+      <c r="H299" s="51">
         <f>'Vendor Entry Sheet'!F301</f>
         <v>0</v>
       </c>
@@ -20437,7 +20422,7 @@
         <f>'Vendor Entry Sheet'!E302</f>
         <v>0</v>
       </c>
-      <c r="H300" s="59">
+      <c r="H300" s="51">
         <f>'Vendor Entry Sheet'!F302</f>
         <v>0</v>
       </c>
@@ -20481,7 +20466,7 @@
         <f>'Vendor Entry Sheet'!E303</f>
         <v>0</v>
       </c>
-      <c r="H301" s="59">
+      <c r="H301" s="51">
         <f>'Vendor Entry Sheet'!F303</f>
         <v>0</v>
       </c>
@@ -20525,7 +20510,7 @@
         <f>'Vendor Entry Sheet'!E304</f>
         <v>0</v>
       </c>
-      <c r="H302" s="59">
+      <c r="H302" s="51">
         <f>'Vendor Entry Sheet'!F304</f>
         <v>0</v>
       </c>
@@ -20569,7 +20554,7 @@
         <f>'Vendor Entry Sheet'!E305</f>
         <v>0</v>
       </c>
-      <c r="H303" s="59">
+      <c r="H303" s="51">
         <f>'Vendor Entry Sheet'!F305</f>
         <v>0</v>
       </c>
@@ -20613,7 +20598,7 @@
         <f>'Vendor Entry Sheet'!E306</f>
         <v>0</v>
       </c>
-      <c r="H304" s="59">
+      <c r="H304" s="51">
         <f>'Vendor Entry Sheet'!F306</f>
         <v>0</v>
       </c>
@@ -20657,7 +20642,7 @@
         <f>'Vendor Entry Sheet'!E307</f>
         <v>0</v>
       </c>
-      <c r="H305" s="59">
+      <c r="H305" s="51">
         <f>'Vendor Entry Sheet'!F307</f>
         <v>0</v>
       </c>
@@ -20701,7 +20686,7 @@
         <f>'Vendor Entry Sheet'!E308</f>
         <v>0</v>
       </c>
-      <c r="H306" s="59">
+      <c r="H306" s="51">
         <f>'Vendor Entry Sheet'!F308</f>
         <v>0</v>
       </c>
@@ -20745,7 +20730,7 @@
         <f>'Vendor Entry Sheet'!E309</f>
         <v>0</v>
       </c>
-      <c r="H307" s="59">
+      <c r="H307" s="51">
         <f>'Vendor Entry Sheet'!F309</f>
         <v>0</v>
       </c>
@@ -20789,7 +20774,7 @@
         <f>'Vendor Entry Sheet'!E310</f>
         <v>0</v>
       </c>
-      <c r="H308" s="59">
+      <c r="H308" s="51">
         <f>'Vendor Entry Sheet'!F310</f>
         <v>0</v>
       </c>
@@ -20833,7 +20818,7 @@
         <f>'Vendor Entry Sheet'!E311</f>
         <v>0</v>
       </c>
-      <c r="H309" s="59">
+      <c r="H309" s="51">
         <f>'Vendor Entry Sheet'!F311</f>
         <v>0</v>
       </c>
@@ -20877,7 +20862,7 @@
         <f>'Vendor Entry Sheet'!E312</f>
         <v>0</v>
       </c>
-      <c r="H310" s="59">
+      <c r="H310" s="51">
         <f>'Vendor Entry Sheet'!F312</f>
         <v>0</v>
       </c>
@@ -20921,7 +20906,7 @@
         <f>'Vendor Entry Sheet'!E313</f>
         <v>0</v>
       </c>
-      <c r="H311" s="59">
+      <c r="H311" s="51">
         <f>'Vendor Entry Sheet'!F313</f>
         <v>0</v>
       </c>
@@ -20965,7 +20950,7 @@
         <f>'Vendor Entry Sheet'!E314</f>
         <v>0</v>
       </c>
-      <c r="H312" s="59">
+      <c r="H312" s="51">
         <f>'Vendor Entry Sheet'!F314</f>
         <v>0</v>
       </c>
@@ -21009,7 +20994,7 @@
         <f>'Vendor Entry Sheet'!E315</f>
         <v>0</v>
       </c>
-      <c r="H313" s="59">
+      <c r="H313" s="51">
         <f>'Vendor Entry Sheet'!F315</f>
         <v>0</v>
       </c>
@@ -21053,7 +21038,7 @@
         <f>'Vendor Entry Sheet'!E316</f>
         <v>0</v>
       </c>
-      <c r="H314" s="59">
+      <c r="H314" s="51">
         <f>'Vendor Entry Sheet'!F316</f>
         <v>0</v>
       </c>
@@ -21097,7 +21082,7 @@
         <f>'Vendor Entry Sheet'!E317</f>
         <v>0</v>
       </c>
-      <c r="H315" s="59">
+      <c r="H315" s="51">
         <f>'Vendor Entry Sheet'!F317</f>
         <v>0</v>
       </c>
@@ -21141,7 +21126,7 @@
         <f>'Vendor Entry Sheet'!E318</f>
         <v>0</v>
       </c>
-      <c r="H316" s="59">
+      <c r="H316" s="51">
         <f>'Vendor Entry Sheet'!F318</f>
         <v>0</v>
       </c>
@@ -21185,7 +21170,7 @@
         <f>'Vendor Entry Sheet'!E319</f>
         <v>0</v>
       </c>
-      <c r="H317" s="59">
+      <c r="H317" s="51">
         <f>'Vendor Entry Sheet'!F319</f>
         <v>0</v>
       </c>
@@ -21229,7 +21214,7 @@
         <f>'Vendor Entry Sheet'!E320</f>
         <v>0</v>
       </c>
-      <c r="H318" s="59">
+      <c r="H318" s="51">
         <f>'Vendor Entry Sheet'!F320</f>
         <v>0</v>
       </c>
@@ -21273,7 +21258,7 @@
         <f>'Vendor Entry Sheet'!E321</f>
         <v>0</v>
       </c>
-      <c r="H319" s="59">
+      <c r="H319" s="51">
         <f>'Vendor Entry Sheet'!F321</f>
         <v>0</v>
       </c>
@@ -21317,7 +21302,7 @@
         <f>'Vendor Entry Sheet'!E322</f>
         <v>0</v>
       </c>
-      <c r="H320" s="59">
+      <c r="H320" s="51">
         <f>'Vendor Entry Sheet'!F322</f>
         <v>0</v>
       </c>
@@ -21361,7 +21346,7 @@
         <f>'Vendor Entry Sheet'!E323</f>
         <v>0</v>
       </c>
-      <c r="H321" s="59">
+      <c r="H321" s="51">
         <f>'Vendor Entry Sheet'!F323</f>
         <v>0</v>
       </c>
@@ -21405,7 +21390,7 @@
         <f>'Vendor Entry Sheet'!E324</f>
         <v>0</v>
       </c>
-      <c r="H322" s="59">
+      <c r="H322" s="51">
         <f>'Vendor Entry Sheet'!F324</f>
         <v>0</v>
       </c>
@@ -21449,7 +21434,7 @@
         <f>'Vendor Entry Sheet'!E325</f>
         <v>0</v>
       </c>
-      <c r="H323" s="59">
+      <c r="H323" s="51">
         <f>'Vendor Entry Sheet'!F325</f>
         <v>0</v>
       </c>
@@ -21493,7 +21478,7 @@
         <f>'Vendor Entry Sheet'!E326</f>
         <v>0</v>
       </c>
-      <c r="H324" s="59">
+      <c r="H324" s="51">
         <f>'Vendor Entry Sheet'!F326</f>
         <v>0</v>
       </c>
@@ -21537,7 +21522,7 @@
         <f>'Vendor Entry Sheet'!E327</f>
         <v>0</v>
       </c>
-      <c r="H325" s="59">
+      <c r="H325" s="51">
         <f>'Vendor Entry Sheet'!F327</f>
         <v>0</v>
       </c>
@@ -21581,7 +21566,7 @@
         <f>'Vendor Entry Sheet'!E328</f>
         <v>0</v>
       </c>
-      <c r="H326" s="59">
+      <c r="H326" s="51">
         <f>'Vendor Entry Sheet'!F328</f>
         <v>0</v>
       </c>
@@ -21625,7 +21610,7 @@
         <f>'Vendor Entry Sheet'!E329</f>
         <v>0</v>
       </c>
-      <c r="H327" s="59">
+      <c r="H327" s="51">
         <f>'Vendor Entry Sheet'!F329</f>
         <v>0</v>
       </c>
@@ -21669,7 +21654,7 @@
         <f>'Vendor Entry Sheet'!E330</f>
         <v>0</v>
       </c>
-      <c r="H328" s="59">
+      <c r="H328" s="51">
         <f>'Vendor Entry Sheet'!F330</f>
         <v>0</v>
       </c>
@@ -21713,7 +21698,7 @@
         <f>'Vendor Entry Sheet'!E331</f>
         <v>0</v>
       </c>
-      <c r="H329" s="59">
+      <c r="H329" s="51">
         <f>'Vendor Entry Sheet'!F331</f>
         <v>0</v>
       </c>
@@ -21757,7 +21742,7 @@
         <f>'Vendor Entry Sheet'!E332</f>
         <v>0</v>
       </c>
-      <c r="H330" s="59">
+      <c r="H330" s="51">
         <f>'Vendor Entry Sheet'!F332</f>
         <v>0</v>
       </c>
@@ -21801,7 +21786,7 @@
         <f>'Vendor Entry Sheet'!E333</f>
         <v>0</v>
       </c>
-      <c r="H331" s="59">
+      <c r="H331" s="51">
         <f>'Vendor Entry Sheet'!F333</f>
         <v>0</v>
       </c>
@@ -21845,7 +21830,7 @@
         <f>'Vendor Entry Sheet'!E334</f>
         <v>0</v>
       </c>
-      <c r="H332" s="59">
+      <c r="H332" s="51">
         <f>'Vendor Entry Sheet'!F334</f>
         <v>0</v>
       </c>
@@ -21889,7 +21874,7 @@
         <f>'Vendor Entry Sheet'!E335</f>
         <v>0</v>
       </c>
-      <c r="H333" s="59">
+      <c r="H333" s="51">
         <f>'Vendor Entry Sheet'!F335</f>
         <v>0</v>
       </c>
@@ -21933,7 +21918,7 @@
         <f>'Vendor Entry Sheet'!E336</f>
         <v>0</v>
       </c>
-      <c r="H334" s="59">
+      <c r="H334" s="51">
         <f>'Vendor Entry Sheet'!F336</f>
         <v>0</v>
       </c>
@@ -21977,7 +21962,7 @@
         <f>'Vendor Entry Sheet'!E337</f>
         <v>0</v>
       </c>
-      <c r="H335" s="59">
+      <c r="H335" s="51">
         <f>'Vendor Entry Sheet'!F337</f>
         <v>0</v>
       </c>
@@ -22021,7 +22006,7 @@
         <f>'Vendor Entry Sheet'!E338</f>
         <v>0</v>
       </c>
-      <c r="H336" s="59">
+      <c r="H336" s="51">
         <f>'Vendor Entry Sheet'!F338</f>
         <v>0</v>
       </c>
@@ -22065,7 +22050,7 @@
         <f>'Vendor Entry Sheet'!E339</f>
         <v>0</v>
       </c>
-      <c r="H337" s="59">
+      <c r="H337" s="51">
         <f>'Vendor Entry Sheet'!F339</f>
         <v>0</v>
       </c>
@@ -22109,7 +22094,7 @@
         <f>'Vendor Entry Sheet'!E340</f>
         <v>0</v>
       </c>
-      <c r="H338" s="59">
+      <c r="H338" s="51">
         <f>'Vendor Entry Sheet'!F340</f>
         <v>0</v>
       </c>
@@ -22153,7 +22138,7 @@
         <f>'Vendor Entry Sheet'!E341</f>
         <v>0</v>
       </c>
-      <c r="H339" s="59">
+      <c r="H339" s="51">
         <f>'Vendor Entry Sheet'!F341</f>
         <v>0</v>
       </c>
@@ -22205,7 +22190,7 @@
   <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22265,15 +22250,15 @@
         <v>90140920</v>
       </c>
       <c r="D2" t="s">
-        <v>655</v>
-      </c>
-      <c r="E2" s="57">
+        <v>633</v>
+      </c>
+      <c r="E2" s="21">
         <v>3001951</v>
       </c>
-      <c r="G2" s="58" t="s">
-        <v>653</v>
-      </c>
-      <c r="H2" s="57">
+      <c r="G2" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="H2" s="21">
         <v>3001951</v>
       </c>
       <c r="J2" t="s">
@@ -22291,19 +22276,21 @@
         <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>571</v>
-      </c>
-      <c r="C3"/>
+        <v>652</v>
+      </c>
+      <c r="C3">
+        <v>90301465</v>
+      </c>
       <c r="D3" t="s">
-        <v>655</v>
-      </c>
-      <c r="E3" s="57">
+        <v>634</v>
+      </c>
+      <c r="E3" s="21">
         <v>3001951</v>
       </c>
-      <c r="G3" s="58" t="s">
-        <v>654</v>
-      </c>
-      <c r="H3" s="57">
+      <c r="G3" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="H3" s="21">
         <v>3001951</v>
       </c>
       <c r="J3" t="s">
@@ -22317,25 +22304,13 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C4">
-        <v>90302509</v>
-      </c>
-      <c r="D4" t="s">
-        <v>656</v>
-      </c>
-      <c r="E4" s="57">
-        <v>3001951</v>
-      </c>
-      <c r="G4" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="H4" s="57">
+      <c r="A4" s="49"/>
+      <c r="C4"/>
+      <c r="E4" s="21"/>
+      <c r="G4" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="H4" s="21">
         <v>3001951</v>
       </c>
       <c r="J4" t="s">
@@ -22353,21 +22328,21 @@
         <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C5">
         <v>90300849</v>
       </c>
       <c r="D5" t="s">
-        <v>654</v>
-      </c>
-      <c r="E5" s="57">
+        <v>632</v>
+      </c>
+      <c r="E5" s="21">
         <v>3001951</v>
       </c>
-      <c r="G5" s="58" t="s">
-        <v>650</v>
-      </c>
-      <c r="H5" s="58">
+      <c r="G5" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="H5" s="11">
         <v>3001951</v>
       </c>
       <c r="J5" t="s">
@@ -22385,21 +22360,21 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>574</v>
+        <v>653</v>
       </c>
       <c r="C6">
-        <v>90302510</v>
+        <v>90302562</v>
       </c>
       <c r="D6" t="s">
-        <v>654</v>
-      </c>
-      <c r="E6" s="57">
+        <v>632</v>
+      </c>
+      <c r="E6" s="21">
         <v>3001951</v>
       </c>
       <c r="G6" t="s">
-        <v>652</v>
-      </c>
-      <c r="H6" s="58">
+        <v>630</v>
+      </c>
+      <c r="H6" s="11">
         <v>3001951</v>
       </c>
       <c r="J6" t="s">
@@ -22417,25 +22392,25 @@
         <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>575</v>
+        <v>654</v>
       </c>
       <c r="C7">
-        <v>90302511</v>
+        <v>90302563</v>
       </c>
       <c r="D7" t="s">
-        <v>657</v>
-      </c>
-      <c r="E7" s="57">
+        <v>635</v>
+      </c>
+      <c r="E7" s="21">
         <v>3001951</v>
       </c>
       <c r="G7" t="s">
-        <v>651</v>
-      </c>
-      <c r="H7" s="58">
+        <v>629</v>
+      </c>
+      <c r="H7" s="11">
         <v>3001951</v>
       </c>
       <c r="J7" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="K7">
         <v>4700020661</v>
@@ -22449,21 +22424,21 @@
         <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C8">
         <v>90300016</v>
       </c>
       <c r="D8" t="s">
-        <v>654</v>
-      </c>
-      <c r="E8" s="57">
+        <v>632</v>
+      </c>
+      <c r="E8" s="21">
         <v>3001951</v>
       </c>
       <c r="G8" t="s">
-        <v>661</v>
-      </c>
-      <c r="H8" s="58">
+        <v>639</v>
+      </c>
+      <c r="H8" s="11">
         <v>3001951</v>
       </c>
     </row>
@@ -22472,21 +22447,21 @@
         <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C9">
         <v>90301850</v>
       </c>
       <c r="D9" t="s">
-        <v>658</v>
-      </c>
-      <c r="E9" s="57">
+        <v>636</v>
+      </c>
+      <c r="E9" s="21">
         <v>3001951</v>
       </c>
       <c r="G9" t="s">
-        <v>660</v>
-      </c>
-      <c r="H9" s="58">
+        <v>638</v>
+      </c>
+      <c r="H9" s="11">
         <v>3001951</v>
       </c>
     </row>
@@ -22495,21 +22470,21 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C10">
         <v>90302512</v>
       </c>
       <c r="D10" t="s">
-        <v>654</v>
-      </c>
-      <c r="E10" s="57">
+        <v>632</v>
+      </c>
+      <c r="E10" s="21">
         <v>3001951</v>
       </c>
       <c r="G10" t="s">
-        <v>659</v>
-      </c>
-      <c r="H10" s="58">
+        <v>637</v>
+      </c>
+      <c r="H10" s="11">
         <v>3001951</v>
       </c>
     </row>
@@ -22518,21 +22493,21 @@
         <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C11">
         <v>90137237</v>
       </c>
       <c r="D11" t="s">
-        <v>655</v>
-      </c>
-      <c r="E11" s="57">
+        <v>633</v>
+      </c>
+      <c r="E11" s="21">
         <v>3001951</v>
       </c>
       <c r="G11" t="s">
-        <v>664</v>
-      </c>
-      <c r="H11" s="58">
+        <v>642</v>
+      </c>
+      <c r="H11" s="11">
         <v>3001951</v>
       </c>
     </row>
@@ -22541,21 +22516,21 @@
         <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C12">
         <v>90300199</v>
       </c>
       <c r="D12" t="s">
-        <v>656</v>
-      </c>
-      <c r="E12" s="57">
+        <v>634</v>
+      </c>
+      <c r="E12" s="21">
         <v>3001951</v>
       </c>
       <c r="G12" t="s">
-        <v>666</v>
-      </c>
-      <c r="H12" s="58">
+        <v>644</v>
+      </c>
+      <c r="H12" s="11">
         <v>3001951</v>
       </c>
     </row>
@@ -22564,21 +22539,21 @@
         <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C13">
         <v>90300019</v>
       </c>
       <c r="D13" t="s">
-        <v>654</v>
-      </c>
-      <c r="E13" s="57">
+        <v>632</v>
+      </c>
+      <c r="E13" s="21">
         <v>3001951</v>
       </c>
       <c r="G13" t="s">
-        <v>662</v>
-      </c>
-      <c r="H13" s="58">
+        <v>640</v>
+      </c>
+      <c r="H13" s="11">
         <v>3001951</v>
       </c>
     </row>
@@ -22587,21 +22562,21 @@
         <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C14">
         <v>90301314</v>
       </c>
       <c r="D14" t="s">
-        <v>654</v>
-      </c>
-      <c r="E14" s="57">
+        <v>632</v>
+      </c>
+      <c r="E14" s="21">
         <v>3001951</v>
       </c>
       <c r="G14" t="s">
-        <v>667</v>
-      </c>
-      <c r="H14" s="58">
+        <v>645</v>
+      </c>
+      <c r="H14" s="11">
         <v>3001951</v>
       </c>
     </row>
@@ -22610,21 +22585,21 @@
         <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C15">
         <v>90302329</v>
       </c>
       <c r="D15" t="s">
-        <v>657</v>
-      </c>
-      <c r="E15" s="57">
+        <v>635</v>
+      </c>
+      <c r="E15" s="21">
         <v>3001951</v>
       </c>
       <c r="G15" t="s">
-        <v>668</v>
-      </c>
-      <c r="H15" s="58">
+        <v>646</v>
+      </c>
+      <c r="H15" s="11">
         <v>3001951</v>
       </c>
     </row>
@@ -22633,21 +22608,21 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C16">
         <v>90300213</v>
       </c>
       <c r="D16" t="s">
-        <v>654</v>
-      </c>
-      <c r="E16" s="57">
+        <v>632</v>
+      </c>
+      <c r="E16" s="21">
         <v>3001951</v>
       </c>
       <c r="G16" t="s">
-        <v>669</v>
-      </c>
-      <c r="H16" s="58">
+        <v>647</v>
+      </c>
+      <c r="H16" s="11">
         <v>3001951</v>
       </c>
     </row>
@@ -22656,44 +22631,44 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C17">
         <v>90301259</v>
       </c>
       <c r="D17" t="s">
-        <v>658</v>
-      </c>
-      <c r="E17" s="57">
+        <v>636</v>
+      </c>
+      <c r="E17" s="21">
         <v>3001951</v>
       </c>
       <c r="G17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H17" s="58">
+        <v>648</v>
+      </c>
+      <c r="H17" s="11">
         <v>3001951</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="49" t="s">
         <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C18">
         <v>90300214</v>
       </c>
       <c r="D18" t="s">
-        <v>654</v>
-      </c>
-      <c r="E18" s="57">
+        <v>632</v>
+      </c>
+      <c r="E18" s="21">
         <v>3001951</v>
       </c>
       <c r="G18" t="s">
-        <v>672</v>
-      </c>
-      <c r="H18" s="58">
+        <v>650</v>
+      </c>
+      <c r="H18" s="11">
         <v>3001951</v>
       </c>
     </row>
@@ -22702,21 +22677,21 @@
         <v>567</v>
       </c>
       <c r="B19" t="s">
-        <v>587</v>
+        <v>655</v>
       </c>
       <c r="C19">
-        <v>90300712</v>
+        <v>90300498</v>
       </c>
       <c r="D19" t="s">
-        <v>659</v>
-      </c>
-      <c r="E19" s="57">
+        <v>637</v>
+      </c>
+      <c r="E19" s="21">
         <v>3001951</v>
       </c>
       <c r="G19" t="s">
-        <v>673</v>
-      </c>
-      <c r="H19" s="58">
+        <v>651</v>
+      </c>
+      <c r="H19" s="11">
         <v>3001951</v>
       </c>
     </row>
@@ -22725,21 +22700,21 @@
         <v>567</v>
       </c>
       <c r="B20" t="s">
-        <v>588</v>
+        <v>656</v>
       </c>
       <c r="C20">
-        <v>90302495</v>
+        <v>90302549</v>
       </c>
       <c r="D20" t="s">
-        <v>660</v>
-      </c>
-      <c r="E20" s="57">
+        <v>638</v>
+      </c>
+      <c r="E20" s="21">
         <v>3001951</v>
       </c>
       <c r="G20" t="s">
-        <v>671</v>
-      </c>
-      <c r="H20" s="58">
+        <v>649</v>
+      </c>
+      <c r="H20" s="11">
         <v>3001951</v>
       </c>
     </row>
@@ -22748,18 +22723,17 @@
         <v>567</v>
       </c>
       <c r="B21" t="s">
-        <v>589</v>
+        <v>657</v>
       </c>
       <c r="C21">
-        <v>90302496</v>
+        <v>90302546</v>
       </c>
       <c r="D21" t="s">
-        <v>660</v>
-      </c>
-      <c r="E21" s="57">
+        <v>638</v>
+      </c>
+      <c r="E21" s="21">
         <v>3001951</v>
       </c>
-      <c r="G21" s="58"/>
       <c r="H21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -22767,123 +22741,117 @@
         <v>567</v>
       </c>
       <c r="B22" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C22">
         <v>90300003</v>
       </c>
       <c r="D22" t="s">
-        <v>661</v>
-      </c>
-      <c r="E22" s="57">
+        <v>639</v>
+      </c>
+      <c r="E22" s="21">
         <v>3001951</v>
       </c>
-      <c r="G22" s="58"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="49" t="s">
         <v>567</v>
       </c>
       <c r="B23" t="s">
-        <v>637</v>
+        <v>616</v>
       </c>
       <c r="C23">
         <v>90302529</v>
       </c>
       <c r="D23" t="s">
-        <v>661</v>
-      </c>
-      <c r="E23" s="57">
+        <v>639</v>
+      </c>
+      <c r="E23" s="21">
         <v>3001951</v>
       </c>
-      <c r="G23" s="58"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
         <v>567</v>
       </c>
       <c r="B24" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="C24">
         <v>90300039</v>
       </c>
       <c r="D24" t="s">
-        <v>659</v>
-      </c>
-      <c r="E24" s="57">
+        <v>637</v>
+      </c>
+      <c r="E24" s="21">
         <v>3001951</v>
       </c>
-      <c r="G24" s="58"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
         <v>567</v>
       </c>
       <c r="B25" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="C25">
         <v>90144128</v>
       </c>
       <c r="D25" t="s">
-        <v>660</v>
-      </c>
-      <c r="E25" s="57">
+        <v>638</v>
+      </c>
+      <c r="E25" s="21">
         <v>3001951</v>
       </c>
-      <c r="G25" s="58"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="49" t="s">
         <v>567</v>
       </c>
       <c r="B26" t="s">
-        <v>594</v>
+        <v>658</v>
       </c>
       <c r="C26">
-        <v>90302497</v>
+        <v>90302547</v>
       </c>
       <c r="D26" t="s">
-        <v>660</v>
-      </c>
-      <c r="E26" s="57">
+        <v>638</v>
+      </c>
+      <c r="E26" s="21">
         <v>3001951</v>
       </c>
-      <c r="G26" s="58"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
         <v>567</v>
       </c>
       <c r="B27" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="C27">
         <v>90301392</v>
       </c>
       <c r="D27" t="s">
-        <v>661</v>
-      </c>
-      <c r="E27" s="57">
+        <v>639</v>
+      </c>
+      <c r="E27" s="21">
         <v>3001951</v>
       </c>
-      <c r="G27" s="58"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="49" t="s">
         <v>567</v>
       </c>
       <c r="B28" t="s">
-        <v>596</v>
+        <v>659</v>
       </c>
       <c r="C28">
-        <v>90302498</v>
+        <v>90302551</v>
       </c>
       <c r="D28" t="s">
-        <v>661</v>
-      </c>
-      <c r="E28" s="57">
+        <v>639</v>
+      </c>
+      <c r="E28" s="21">
         <v>3001951</v>
       </c>
     </row>
@@ -22892,15 +22860,15 @@
         <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>638</v>
+        <v>617</v>
       </c>
       <c r="C29">
         <v>90053092</v>
       </c>
       <c r="D29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E29" s="57">
+        <v>628</v>
+      </c>
+      <c r="E29" s="21">
         <v>3001951</v>
       </c>
     </row>
@@ -22909,15 +22877,15 @@
         <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
       <c r="C30">
         <v>90300606</v>
       </c>
       <c r="D30" t="s">
-        <v>651</v>
-      </c>
-      <c r="E30" s="57">
+        <v>629</v>
+      </c>
+      <c r="E30" s="21">
         <v>3001951</v>
       </c>
     </row>
@@ -22926,15 +22894,15 @@
         <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="C31">
-        <v>90300755</v>
+        <v>90302553</v>
       </c>
       <c r="D31" t="s">
-        <v>651</v>
-      </c>
-      <c r="E31" s="57">
+        <v>629</v>
+      </c>
+      <c r="E31" s="21">
         <v>3001951</v>
       </c>
     </row>
@@ -22943,15 +22911,15 @@
         <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>641</v>
+        <v>619</v>
       </c>
       <c r="C32">
         <v>90300753</v>
       </c>
       <c r="D32" t="s">
-        <v>652</v>
-      </c>
-      <c r="E32" s="57">
+        <v>630</v>
+      </c>
+      <c r="E32" s="21">
         <v>3001951</v>
       </c>
     </row>
@@ -22960,15 +22928,15 @@
         <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>642</v>
+        <v>620</v>
       </c>
       <c r="C33">
         <v>90302536</v>
       </c>
       <c r="D33" t="s">
-        <v>651</v>
-      </c>
-      <c r="E33" s="57">
+        <v>629</v>
+      </c>
+      <c r="E33" s="21">
         <v>3001951</v>
       </c>
     </row>
@@ -22977,13 +22945,15 @@
         <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>591</v>
-      </c>
-      <c r="C34"/>
+        <v>661</v>
+      </c>
+      <c r="C34">
+        <v>90301904</v>
+      </c>
       <c r="D34" t="s">
-        <v>651</v>
-      </c>
-      <c r="E34" s="57">
+        <v>629</v>
+      </c>
+      <c r="E34" s="21">
         <v>3001951</v>
       </c>
     </row>
@@ -22992,15 +22962,15 @@
         <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>643</v>
+        <v>621</v>
       </c>
       <c r="C35">
         <v>90301596</v>
       </c>
       <c r="D35" t="s">
-        <v>652</v>
-      </c>
-      <c r="E35" s="57">
+        <v>630</v>
+      </c>
+      <c r="E35" s="21">
         <v>3001951</v>
       </c>
     </row>
@@ -23009,15 +22979,15 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>644</v>
+        <v>622</v>
       </c>
       <c r="C36">
         <v>90077966</v>
       </c>
       <c r="D36" t="s">
-        <v>650</v>
-      </c>
-      <c r="E36" s="57">
+        <v>628</v>
+      </c>
+      <c r="E36" s="21">
         <v>3001951</v>
       </c>
     </row>
@@ -23026,15 +22996,15 @@
         <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>645</v>
+        <v>623</v>
       </c>
       <c r="C37">
         <v>90300834</v>
       </c>
       <c r="D37" t="s">
-        <v>651</v>
-      </c>
-      <c r="E37" s="57">
+        <v>629</v>
+      </c>
+      <c r="E37" s="21">
         <v>3001951</v>
       </c>
     </row>
@@ -23043,15 +23013,15 @@
         <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>646</v>
+        <v>624</v>
       </c>
       <c r="C38">
         <v>90302378</v>
       </c>
       <c r="D38" t="s">
-        <v>651</v>
-      </c>
-      <c r="E38" s="57">
+        <v>629</v>
+      </c>
+      <c r="E38" s="21">
         <v>3001951</v>
       </c>
     </row>
@@ -23060,15 +23030,15 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>647</v>
+        <v>625</v>
       </c>
       <c r="C39">
         <v>90300607</v>
       </c>
       <c r="D39" t="s">
-        <v>652</v>
-      </c>
-      <c r="E39" s="57">
+        <v>630</v>
+      </c>
+      <c r="E39" s="21">
         <v>3001951</v>
       </c>
     </row>
@@ -23077,15 +23047,15 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>648</v>
+        <v>626</v>
       </c>
       <c r="C40">
         <v>90302537</v>
       </c>
       <c r="D40" t="s">
-        <v>651</v>
-      </c>
-      <c r="E40" s="57">
+        <v>629</v>
+      </c>
+      <c r="E40" s="21">
         <v>3001951</v>
       </c>
     </row>
@@ -23094,30 +23064,32 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>591</v>
-      </c>
-      <c r="C41"/>
+        <v>662</v>
+      </c>
+      <c r="C41">
+        <v>90301210</v>
+      </c>
       <c r="D41" t="s">
-        <v>651</v>
-      </c>
-      <c r="E41" s="57">
+        <v>629</v>
+      </c>
+      <c r="E41" s="21">
         <v>3001951</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="49" t="s">
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>649</v>
+        <v>627</v>
       </c>
       <c r="C42">
         <v>90301394</v>
       </c>
       <c r="D42" t="s">
-        <v>652</v>
-      </c>
-      <c r="E42" s="57">
+        <v>630</v>
+      </c>
+      <c r="E42" s="21">
         <v>3001951</v>
       </c>
     </row>
@@ -23125,107 +23097,105 @@
       <c r="A43" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="B43" s="55"/>
-      <c r="C43"/>
+      <c r="B43" t="s">
+        <v>663</v>
+      </c>
+      <c r="C43">
+        <v>90116535</v>
+      </c>
       <c r="D43" t="s">
-        <v>667</v>
-      </c>
-      <c r="E43" s="53"/>
+        <v>645</v>
+      </c>
+      <c r="E43" s="50"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="49" t="s">
         <v>568</v>
       </c>
       <c r="B44" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="C44">
         <v>90300462</v>
       </c>
       <c r="D44" t="s">
-        <v>668</v>
-      </c>
-      <c r="E44" s="53"/>
+        <v>646</v>
+      </c>
+      <c r="E44" s="50"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="49" t="s">
         <v>568</v>
       </c>
       <c r="B45" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="C45">
         <v>90302117</v>
       </c>
       <c r="D45" t="s">
-        <v>669</v>
-      </c>
-      <c r="E45" s="53"/>
+        <v>647</v>
+      </c>
+      <c r="E45" s="50"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="49" t="s">
         <v>568</v>
       </c>
       <c r="B46" t="s">
-        <v>599</v>
-      </c>
-      <c r="C46"/>
+        <v>589</v>
+      </c>
+      <c r="C46">
+        <v>90302543</v>
+      </c>
       <c r="D46" t="s">
-        <v>670</v>
-      </c>
-      <c r="E46" s="53"/>
+        <v>648</v>
+      </c>
+      <c r="E46" s="50"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="49" t="s">
         <v>568</v>
       </c>
       <c r="B47" t="s">
-        <v>600</v>
+        <v>664</v>
       </c>
       <c r="C47">
-        <v>90300586</v>
+        <v>90302565</v>
       </c>
       <c r="D47" t="s">
-        <v>668</v>
-      </c>
-      <c r="E47" s="53"/>
+        <v>646</v>
+      </c>
+      <c r="E47" s="50"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="B48" t="s">
-        <v>601</v>
-      </c>
-      <c r="C48">
-        <v>90302487</v>
-      </c>
-      <c r="D48" t="s">
-        <v>669</v>
-      </c>
-      <c r="E48" s="53"/>
+      <c r="C48"/>
+      <c r="E48" s="50"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="49" t="s">
         <v>568</v>
       </c>
       <c r="B49" t="s">
-        <v>602</v>
+        <v>665</v>
       </c>
       <c r="C49">
-        <v>90302465</v>
+        <v>90137959</v>
       </c>
       <c r="D49" t="s">
-        <v>670</v>
-      </c>
-      <c r="E49" s="53"/>
+        <v>648</v>
+      </c>
+      <c r="E49" s="50"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="49" t="s">
         <v>568</v>
       </c>
       <c r="B50" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="C50">
         <v>90117360</v>
@@ -23233,468 +23203,457 @@
       <c r="D50" t="s">
         <v>47</v>
       </c>
-      <c r="E50" s="53"/>
+      <c r="E50" s="50"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="49" t="s">
         <v>568</v>
       </c>
       <c r="B51" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="C51">
         <v>90302118</v>
       </c>
       <c r="D51" t="s">
-        <v>668</v>
-      </c>
-      <c r="E51" s="53"/>
+        <v>646</v>
+      </c>
+      <c r="E51" s="50"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="49" t="s">
         <v>568</v>
       </c>
       <c r="B52" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="C52">
         <v>90144804</v>
       </c>
       <c r="D52" t="s">
-        <v>669</v>
-      </c>
-      <c r="E52" s="53"/>
+        <v>647</v>
+      </c>
+      <c r="E52" s="50"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="49" t="s">
         <v>568</v>
       </c>
       <c r="B53" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="C53">
         <v>90302398</v>
       </c>
       <c r="D53" t="s">
-        <v>670</v>
-      </c>
-      <c r="E53" s="53"/>
+        <v>648</v>
+      </c>
+      <c r="E53" s="50"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="49" t="s">
         <v>568</v>
       </c>
       <c r="B54" t="s">
-        <v>607</v>
+        <v>666</v>
       </c>
       <c r="C54">
-        <v>90302503</v>
+        <v>90302559</v>
       </c>
       <c r="D54" t="s">
-        <v>668</v>
-      </c>
-      <c r="E54" s="53"/>
+        <v>646</v>
+      </c>
+      <c r="E54" s="50"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="49" t="s">
         <v>568</v>
       </c>
       <c r="B55" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="C55">
         <v>90302504</v>
       </c>
       <c r="D55" t="s">
-        <v>669</v>
-      </c>
-      <c r="E55" s="53"/>
+        <v>647</v>
+      </c>
+      <c r="E55" s="50"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="54" t="s">
+      <c r="A56" s="49" t="s">
         <v>568</v>
       </c>
       <c r="B56" t="s">
-        <v>609</v>
-      </c>
-      <c r="C56"/>
+        <v>595</v>
+      </c>
+      <c r="C56">
+        <v>90302527</v>
+      </c>
       <c r="D56" t="s">
-        <v>670</v>
-      </c>
-      <c r="E56" s="56"/>
+        <v>648</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="54" t="s">
+      <c r="A57" s="49" t="s">
         <v>569</v>
       </c>
       <c r="B57" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="C57">
         <v>90290068</v>
       </c>
       <c r="D57" t="s">
-        <v>662</v>
-      </c>
-      <c r="E57" s="56"/>
+        <v>640</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="54" t="s">
+      <c r="A58" s="49" t="s">
         <v>569</v>
       </c>
       <c r="B58" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="C58">
         <v>90302469</v>
       </c>
       <c r="D58" t="s">
-        <v>663</v>
-      </c>
-      <c r="E58" s="56"/>
+        <v>641</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="54" t="s">
+      <c r="A59" s="49" t="s">
         <v>569</v>
       </c>
       <c r="B59" t="s">
-        <v>613</v>
+        <v>667</v>
       </c>
       <c r="C59">
-        <v>90302453</v>
+        <v>90302531</v>
       </c>
       <c r="D59" t="s">
-        <v>663</v>
-      </c>
-      <c r="E59" s="56"/>
+        <v>641</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="54" t="s">
+      <c r="A60" s="49" t="s">
         <v>569</v>
       </c>
       <c r="B60" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="C60">
         <v>90301928</v>
       </c>
       <c r="D60" t="s">
-        <v>664</v>
-      </c>
-      <c r="E60" s="56"/>
+        <v>642</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="54" t="s">
+      <c r="A61" s="49" t="s">
         <v>569</v>
       </c>
       <c r="B61" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="C61">
         <v>90302455</v>
       </c>
       <c r="D61" t="s">
-        <v>610</v>
-      </c>
-      <c r="E61" s="56"/>
+        <v>596</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="54" t="s">
+      <c r="A62" s="49" t="s">
         <v>569</v>
       </c>
       <c r="B62" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="C62">
         <v>90302470</v>
       </c>
       <c r="D62" t="s">
-        <v>665</v>
-      </c>
-      <c r="E62" s="56"/>
+        <v>643</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="54" t="s">
+      <c r="A63" s="49" t="s">
         <v>569</v>
       </c>
       <c r="B63" t="s">
-        <v>617</v>
+        <v>669</v>
       </c>
       <c r="C63">
-        <v>90302471</v>
+        <v>90302463</v>
       </c>
       <c r="D63" t="s">
-        <v>665</v>
-      </c>
-      <c r="E63" s="56"/>
+        <v>596</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="54" t="s">
+      <c r="A64" s="49" t="s">
         <v>569</v>
       </c>
       <c r="B64" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="C64">
         <v>90302457</v>
       </c>
       <c r="D64" t="s">
-        <v>663</v>
-      </c>
-      <c r="E64" s="56"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="54" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="49" t="s">
         <v>569</v>
       </c>
       <c r="B65" t="s">
-        <v>591</v>
-      </c>
-      <c r="C65"/>
+        <v>668</v>
+      </c>
+      <c r="C65">
+        <v>90290070</v>
+      </c>
       <c r="D65" t="s">
-        <v>663</v>
-      </c>
-      <c r="E65" s="56"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="54" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="49" t="s">
         <v>569</v>
       </c>
       <c r="B66" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="C66">
         <v>90290075</v>
       </c>
       <c r="D66" t="s">
-        <v>664</v>
-      </c>
-      <c r="E66" s="56"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="54" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="49" t="s">
         <v>569</v>
       </c>
       <c r="B67" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="C67">
         <v>90302218</v>
       </c>
       <c r="D67" t="s">
-        <v>666</v>
-      </c>
-      <c r="E67" s="56"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="54" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="49" t="s">
         <v>569</v>
       </c>
       <c r="B68" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="C68">
         <v>90290074</v>
       </c>
       <c r="D68" t="s">
-        <v>662</v>
-      </c>
-      <c r="E68" s="56"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="49" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="B69" t="s">
-        <v>623</v>
-      </c>
-      <c r="C69">
-        <v>90101732</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="C69"/>
       <c r="D69" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="49" t="s">
+        <v>606</v>
+      </c>
+      <c r="B70" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="49" t="s">
-        <v>622</v>
-      </c>
-      <c r="B70" t="s">
-        <v>624</v>
-      </c>
       <c r="C70">
-        <v>90302038</v>
+        <v>90137312</v>
       </c>
       <c r="D70" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="49" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="B71" t="s">
-        <v>625</v>
+        <v>607</v>
       </c>
       <c r="C71">
         <v>90301852</v>
       </c>
       <c r="D71" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="49" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="B72" t="s">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="C72">
         <v>90128100</v>
       </c>
       <c r="D72" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="49" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="B73" t="s">
-        <v>627</v>
+        <v>609</v>
       </c>
       <c r="C73">
         <v>90290053</v>
       </c>
       <c r="D73" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="49" t="s">
+        <v>606</v>
+      </c>
+      <c r="B74" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="49" t="s">
-        <v>622</v>
-      </c>
-      <c r="B74" t="s">
-        <v>628</v>
-      </c>
       <c r="C74">
-        <v>90300229</v>
+        <v>90301507</v>
       </c>
       <c r="D74" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="49" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="B75" t="s">
-        <v>629</v>
+        <v>610</v>
       </c>
       <c r="C75">
         <v>90301651</v>
       </c>
       <c r="D75" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="49" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="B76" t="s">
-        <v>630</v>
+        <v>611</v>
       </c>
       <c r="C76">
         <v>90302044</v>
       </c>
       <c r="D76" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="49" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="B77" t="s">
-        <v>631</v>
+        <v>612</v>
       </c>
       <c r="C77">
         <v>90300312</v>
       </c>
       <c r="D77" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="49" t="s">
+        <v>606</v>
+      </c>
+      <c r="B78" t="s">
         <v>673</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="49" t="s">
-        <v>622</v>
-      </c>
-      <c r="B78" t="s">
-        <v>632</v>
       </c>
       <c r="C78">
         <v>90300287</v>
       </c>
       <c r="D78" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="49" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="B79" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="C79">
         <v>90300546</v>
       </c>
       <c r="D79" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="49" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="B80" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="C80">
         <v>90300274</v>
       </c>
       <c r="D80" t="s">
-        <v>673</v>
+        <v>651</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="49" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="B81" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="C81">
         <v>90300281</v>
       </c>
       <c r="D81" t="s">
-        <v>673</v>
+        <v>651</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="54" t="s">
-        <v>622</v>
+      <c r="A82" s="49" t="s">
+        <v>606</v>
       </c>
       <c r="B82" t="s">
-        <v>636</v>
+        <v>674</v>
       </c>
       <c r="C82">
-        <v>90302337</v>
+        <v>90300273</v>
       </c>
       <c r="D82" t="s">
-        <v>673</v>
+        <v>651</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -23766,22 +23725,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="52" t="s">
         <v>51</v>
       </c>
     </row>
@@ -23840,7 +23799,7 @@
         <v>538</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -23938,7 +23897,7 @@
         <v>538</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -23958,7 +23917,7 @@
         <v>538</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -23998,7 +23957,7 @@
         <v>538</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -24018,7 +23977,7 @@
         <v>538</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -24098,7 +24057,7 @@
         <v>538</v>
       </c>
       <c r="F17" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -24364,7 +24323,7 @@
         <v>538</v>
       </c>
       <c r="F31" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -24424,7 +24383,7 @@
         <v>538</v>
       </c>
       <c r="F34" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -24478,7 +24437,7 @@
         <v>548</v>
       </c>
       <c r="F37" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -24532,7 +24491,7 @@
         <v>548</v>
       </c>
       <c r="F40" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -24728,7 +24687,7 @@
         <v>538</v>
       </c>
       <c r="F51" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -24950,7 +24909,7 @@
         <v>538</v>
       </c>
       <c r="F63" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -25044,7 +25003,7 @@
         <v>548</v>
       </c>
       <c r="F68" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -25513,7 +25472,7 @@
         <v>538</v>
       </c>
       <c r="F94" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -25533,7 +25492,7 @@
         <v>538</v>
       </c>
       <c r="F95" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -25795,7 +25754,7 @@
         <v>538</v>
       </c>
       <c r="F109" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -25909,7 +25868,7 @@
         <v>553</v>
       </c>
       <c r="F115" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -26282,7 +26241,7 @@
         <v>538</v>
       </c>
       <c r="F135" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -26336,7 +26295,7 @@
         <v>548</v>
       </c>
       <c r="F138" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -26430,7 +26389,7 @@
         <v>538</v>
       </c>
       <c r="F143" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -26570,7 +26529,7 @@
         <v>538</v>
       </c>
       <c r="F150" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -26627,7 +26586,7 @@
         <v>548</v>
       </c>
       <c r="F153" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -26664,7 +26623,7 @@
         <v>538</v>
       </c>
       <c r="F155" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -26721,7 +26680,7 @@
         <v>538</v>
       </c>
       <c r="F158" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -26775,7 +26734,7 @@
         <v>548</v>
       </c>
       <c r="F161" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -26812,7 +26771,7 @@
         <v>538</v>
       </c>
       <c r="F163" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -26872,7 +26831,7 @@
         <v>538</v>
       </c>
       <c r="F166" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -26892,7 +26851,7 @@
         <v>538</v>
       </c>
       <c r="F167" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -26946,7 +26905,7 @@
         <v>548</v>
       </c>
       <c r="F170" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -27040,7 +26999,7 @@
         <v>538</v>
       </c>
       <c r="F175" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -27060,7 +27019,7 @@
         <v>538</v>
       </c>
       <c r="F176" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -27379,7 +27338,7 @@
         <v>548</v>
       </c>
       <c r="F193" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -27723,7 +27682,7 @@
         <v>538</v>
       </c>
       <c r="F212" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -27902,7 +27861,7 @@
         <v>548</v>
       </c>
       <c r="F222" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -27979,7 +27938,7 @@
         <v>538</v>
       </c>
       <c r="F226" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -27999,7 +27958,7 @@
         <v>538</v>
       </c>
       <c r="F227" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -28087,7 +28046,7 @@
         <v>548</v>
       </c>
       <c r="F232" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -28608,7 +28567,7 @@
         <v>548</v>
       </c>
       <c r="F260" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -28688,7 +28647,7 @@
         <v>538</v>
       </c>
       <c r="F264" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -28839,7 +28798,7 @@
         <v>548</v>
       </c>
       <c r="F272" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -28939,7 +28898,7 @@
         <v>538</v>
       </c>
       <c r="F277" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -29090,7 +29049,7 @@
         <v>538</v>
       </c>
       <c r="F285" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -29147,7 +29106,7 @@
         <v>548</v>
       </c>
       <c r="F288" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -29184,7 +29143,7 @@
         <v>538</v>
       </c>
       <c r="F290" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
@@ -29309,7 +29268,7 @@
         <v>538</v>
       </c>
       <c r="F297" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
@@ -29366,7 +29325,7 @@
         <v>548</v>
       </c>
       <c r="F300" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
@@ -29460,7 +29419,7 @@
         <v>538</v>
       </c>
       <c r="F305" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
@@ -29500,7 +29459,7 @@
         <v>538</v>
       </c>
       <c r="F307" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
@@ -29557,7 +29516,7 @@
         <v>548</v>
       </c>
       <c r="F310" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -29594,7 +29553,7 @@
         <v>538</v>
       </c>
       <c r="F312" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
@@ -29634,7 +29593,7 @@
         <v>538</v>
       </c>
       <c r="F314" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
@@ -29654,7 +29613,7 @@
         <v>538</v>
       </c>
       <c r="F315" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -29711,7 +29670,7 @@
         <v>548</v>
       </c>
       <c r="F318" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -29805,7 +29764,7 @@
         <v>538</v>
       </c>
       <c r="F323" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
@@ -29825,7 +29784,7 @@
         <v>538</v>
       </c>
       <c r="F324" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
@@ -30025,7 +29984,7 @@
         <v>538</v>
       </c>
       <c r="F334" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
@@ -30336,7 +30295,7 @@
         <v>548</v>
       </c>
       <c r="F350" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
@@ -30390,7 +30349,7 @@
         <v>565</v>
       </c>
       <c r="F353" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
@@ -30410,7 +30369,7 @@
         <v>538</v>
       </c>
       <c r="F354" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
@@ -31071,7 +31030,7 @@
         <v>553</v>
       </c>
       <c r="F389" s="47" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
@@ -31232,17 +31191,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a1bbf4fc-2070-4842-8cf2-c42346818ea9" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d41b7399-51ed-4fce-9e89-79a41c55ed41">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004A5BF6C7F67B434096FAC9443A83D821" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1347de4a6797875f8d6b1ac5dc93737c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d41b7399-51ed-4fce-9e89-79a41c55ed41" xmlns:ns3="a1bbf4fc-2070-4842-8cf2-c42346818ea9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67ec082bb3101a8db1bb88f037f675cb" ns2:_="" ns3:_="">
     <xsd:import namespace="d41b7399-51ed-4fce-9e89-79a41c55ed41"/>
@@ -31485,6 +31433,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a1bbf4fc-2070-4842-8cf2-c42346818ea9" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d41b7399-51ed-4fce-9e89-79a41c55ed41">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -31495,17 +31454,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C286B8F-44DD-46A1-8664-5B3AFC40D364}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a1bbf4fc-2070-4842-8cf2-c42346818ea9"/>
-    <ds:schemaRef ds:uri="d41b7399-51ed-4fce-9e89-79a41c55ed41"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F00606B-6B80-42B0-B0DE-C79F0839CF7D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31524,6 +31472,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C286B8F-44DD-46A1-8664-5B3AFC40D364}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a1bbf4fc-2070-4842-8cf2-c42346818ea9"/>
+    <ds:schemaRef ds:uri="d41b7399-51ed-4fce-9e89-79a41c55ed41"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71C3BF75-E265-495B-A1EF-9F0F8014FF62}">
   <ds:schemaRefs>

--- a/public/data/Master App Timesheet.xlsx
+++ b/public/data/Master App Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\timesheet-app\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047916CC-BCC6-48B0-9AB8-2A18B2050BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7425D95D-C052-41A4-BE77-31376118CC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2871" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2871" uniqueCount="673">
   <si>
     <t xml:space="preserve">Date
 </t>
@@ -1992,24 +1992,12 @@
     <t>TMS Boilermaker</t>
   </si>
   <si>
-    <t xml:space="preserve">Boom Crane Operator </t>
-  </si>
-  <si>
     <t>Boom Rigger</t>
   </si>
   <si>
     <t>Boom Supervisor</t>
   </si>
   <si>
-    <t>Boom Crane Op 320T</t>
-  </si>
-  <si>
-    <t>Boom Crane Op 70T</t>
-  </si>
-  <si>
-    <t>Boom Crane Op 160T</t>
-  </si>
-  <si>
     <t>GMRS Supervisor</t>
   </si>
   <si>
@@ -2122,6 +2110,12 @@
   </si>
   <si>
     <t>Chloe Cameron</t>
+  </si>
+  <si>
+    <t>Crane Operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crane Operator </t>
   </si>
 </sst>
 </file>
@@ -22190,7 +22184,7 @@
   <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22250,13 +22244,13 @@
         <v>90140920</v>
       </c>
       <c r="D2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E2" s="21">
         <v>3001951</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>631</v>
+        <v>672</v>
       </c>
       <c r="H2" s="21">
         <v>3001951</v>
@@ -22276,19 +22270,19 @@
         <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C3">
         <v>90301465</v>
       </c>
       <c r="D3" t="s">
-        <v>634</v>
+        <v>671</v>
       </c>
       <c r="E3" s="21">
         <v>3001951</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H3" s="21">
         <v>3001951</v>
@@ -22308,7 +22302,7 @@
       <c r="C4"/>
       <c r="E4" s="21"/>
       <c r="G4" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H4" s="21">
         <v>3001951</v>
@@ -22333,8 +22327,8 @@
       <c r="C5">
         <v>90300849</v>
       </c>
-      <c r="D5" t="s">
-        <v>632</v>
+      <c r="D5" s="11" t="s">
+        <v>631</v>
       </c>
       <c r="E5" s="21">
         <v>3001951</v>
@@ -22360,13 +22354,13 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C6">
         <v>90302562</v>
       </c>
-      <c r="D6" t="s">
-        <v>632</v>
+      <c r="D6" s="11" t="s">
+        <v>631</v>
       </c>
       <c r="E6" s="21">
         <v>3001951</v>
@@ -22392,13 +22386,13 @@
         <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C7">
         <v>90302563</v>
       </c>
       <c r="D7" t="s">
-        <v>635</v>
+        <v>671</v>
       </c>
       <c r="E7" s="21">
         <v>3001951</v>
@@ -22429,14 +22423,14 @@
       <c r="C8">
         <v>90300016</v>
       </c>
-      <c r="D8" t="s">
-        <v>632</v>
+      <c r="D8" s="11" t="s">
+        <v>631</v>
       </c>
       <c r="E8" s="21">
         <v>3001951</v>
       </c>
       <c r="G8" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="H8" s="11">
         <v>3001951</v>
@@ -22453,13 +22447,13 @@
         <v>90301850</v>
       </c>
       <c r="D9" t="s">
-        <v>636</v>
+        <v>671</v>
       </c>
       <c r="E9" s="21">
         <v>3001951</v>
       </c>
       <c r="G9" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H9" s="11">
         <v>3001951</v>
@@ -22475,14 +22469,14 @@
       <c r="C10">
         <v>90302512</v>
       </c>
-      <c r="D10" t="s">
-        <v>632</v>
+      <c r="D10" s="11" t="s">
+        <v>631</v>
       </c>
       <c r="E10" s="21">
         <v>3001951</v>
       </c>
       <c r="G10" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="H10" s="11">
         <v>3001951</v>
@@ -22499,13 +22493,13 @@
         <v>90137237</v>
       </c>
       <c r="D11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E11" s="21">
         <v>3001951</v>
       </c>
       <c r="G11" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="H11" s="11">
         <v>3001951</v>
@@ -22522,13 +22516,13 @@
         <v>90300199</v>
       </c>
       <c r="D12" t="s">
-        <v>634</v>
+        <v>671</v>
       </c>
       <c r="E12" s="21">
         <v>3001951</v>
       </c>
       <c r="G12" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="H12" s="11">
         <v>3001951</v>
@@ -22544,14 +22538,14 @@
       <c r="C13">
         <v>90300019</v>
       </c>
-      <c r="D13" t="s">
-        <v>632</v>
+      <c r="D13" s="11" t="s">
+        <v>631</v>
       </c>
       <c r="E13" s="21">
         <v>3001951</v>
       </c>
       <c r="G13" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="H13" s="11">
         <v>3001951</v>
@@ -22567,14 +22561,14 @@
       <c r="C14">
         <v>90301314</v>
       </c>
-      <c r="D14" t="s">
-        <v>632</v>
+      <c r="D14" s="11" t="s">
+        <v>631</v>
       </c>
       <c r="E14" s="21">
         <v>3001951</v>
       </c>
       <c r="G14" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="H14" s="11">
         <v>3001951</v>
@@ -22591,13 +22585,13 @@
         <v>90302329</v>
       </c>
       <c r="D15" t="s">
-        <v>635</v>
+        <v>671</v>
       </c>
       <c r="E15" s="21">
         <v>3001951</v>
       </c>
       <c r="G15" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="H15" s="11">
         <v>3001951</v>
@@ -22613,14 +22607,14 @@
       <c r="C16">
         <v>90300213</v>
       </c>
-      <c r="D16" t="s">
-        <v>632</v>
+      <c r="D16" s="11" t="s">
+        <v>631</v>
       </c>
       <c r="E16" s="21">
         <v>3001951</v>
       </c>
       <c r="G16" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="H16" s="11">
         <v>3001951</v>
@@ -22637,13 +22631,13 @@
         <v>90301259</v>
       </c>
       <c r="D17" t="s">
-        <v>636</v>
+        <v>671</v>
       </c>
       <c r="E17" s="21">
         <v>3001951</v>
       </c>
       <c r="G17" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="H17" s="11">
         <v>3001951</v>
@@ -22659,14 +22653,14 @@
       <c r="C18">
         <v>90300214</v>
       </c>
-      <c r="D18" t="s">
-        <v>632</v>
+      <c r="D18" s="11" t="s">
+        <v>631</v>
       </c>
       <c r="E18" s="21">
         <v>3001951</v>
       </c>
       <c r="G18" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="H18" s="11">
         <v>3001951</v>
@@ -22677,19 +22671,19 @@
         <v>567</v>
       </c>
       <c r="B19" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C19">
         <v>90300498</v>
       </c>
       <c r="D19" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="E19" s="21">
         <v>3001951</v>
       </c>
       <c r="G19" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="H19" s="11">
         <v>3001951</v>
@@ -22700,19 +22694,19 @@
         <v>567</v>
       </c>
       <c r="B20" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C20">
         <v>90302549</v>
       </c>
       <c r="D20" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E20" s="21">
         <v>3001951</v>
       </c>
       <c r="G20" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="H20" s="11">
         <v>3001951</v>
@@ -22723,13 +22717,13 @@
         <v>567</v>
       </c>
       <c r="B21" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C21">
         <v>90302546</v>
       </c>
       <c r="D21" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E21" s="21">
         <v>3001951</v>
@@ -22747,7 +22741,7 @@
         <v>90300003</v>
       </c>
       <c r="D22" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E22" s="21">
         <v>3001951</v>
@@ -22764,7 +22758,7 @@
         <v>90302529</v>
       </c>
       <c r="D23" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E23" s="21">
         <v>3001951</v>
@@ -22781,7 +22775,7 @@
         <v>90300039</v>
       </c>
       <c r="D24" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="E24" s="21">
         <v>3001951</v>
@@ -22798,7 +22792,7 @@
         <v>90144128</v>
       </c>
       <c r="D25" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E25" s="21">
         <v>3001951</v>
@@ -22809,13 +22803,13 @@
         <v>567</v>
       </c>
       <c r="B26" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C26">
         <v>90302547</v>
       </c>
       <c r="D26" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E26" s="21">
         <v>3001951</v>
@@ -22832,7 +22826,7 @@
         <v>90301392</v>
       </c>
       <c r="D27" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E27" s="21">
         <v>3001951</v>
@@ -22843,13 +22837,13 @@
         <v>567</v>
       </c>
       <c r="B28" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C28">
         <v>90302551</v>
       </c>
       <c r="D28" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E28" s="21">
         <v>3001951</v>
@@ -22894,7 +22888,7 @@
         <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C31">
         <v>90302553</v>
@@ -22945,7 +22939,7 @@
         <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C34">
         <v>90301904</v>
@@ -23064,7 +23058,7 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C41">
         <v>90301210</v>
@@ -23098,13 +23092,13 @@
         <v>568</v>
       </c>
       <c r="B43" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C43">
         <v>90116535</v>
       </c>
       <c r="D43" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E43" s="50"/>
     </row>
@@ -23119,7 +23113,7 @@
         <v>90300462</v>
       </c>
       <c r="D44" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E44" s="50"/>
     </row>
@@ -23134,7 +23128,7 @@
         <v>90302117</v>
       </c>
       <c r="D45" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E45" s="50"/>
     </row>
@@ -23149,7 +23143,7 @@
         <v>90302543</v>
       </c>
       <c r="D46" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E46" s="50"/>
     </row>
@@ -23158,13 +23152,13 @@
         <v>568</v>
       </c>
       <c r="B47" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C47">
         <v>90302565</v>
       </c>
       <c r="D47" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E47" s="50"/>
     </row>
@@ -23180,13 +23174,13 @@
         <v>568</v>
       </c>
       <c r="B49" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C49">
         <v>90137959</v>
       </c>
       <c r="D49" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E49" s="50"/>
     </row>
@@ -23216,7 +23210,7 @@
         <v>90302118</v>
       </c>
       <c r="D51" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E51" s="50"/>
     </row>
@@ -23231,7 +23225,7 @@
         <v>90144804</v>
       </c>
       <c r="D52" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E52" s="50"/>
     </row>
@@ -23246,7 +23240,7 @@
         <v>90302398</v>
       </c>
       <c r="D53" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E53" s="50"/>
     </row>
@@ -23255,13 +23249,13 @@
         <v>568</v>
       </c>
       <c r="B54" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C54">
         <v>90302559</v>
       </c>
       <c r="D54" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E54" s="50"/>
     </row>
@@ -23276,7 +23270,7 @@
         <v>90302504</v>
       </c>
       <c r="D55" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E55" s="50"/>
     </row>
@@ -23291,7 +23285,7 @@
         <v>90302527</v>
       </c>
       <c r="D56" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -23305,7 +23299,7 @@
         <v>90290068</v>
       </c>
       <c r="D57" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -23319,7 +23313,7 @@
         <v>90302469</v>
       </c>
       <c r="D58" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -23327,13 +23321,13 @@
         <v>569</v>
       </c>
       <c r="B59" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C59">
         <v>90302531</v>
       </c>
       <c r="D59" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -23347,7 +23341,7 @@
         <v>90301928</v>
       </c>
       <c r="D60" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -23375,7 +23369,7 @@
         <v>90302470</v>
       </c>
       <c r="D62" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -23383,7 +23377,7 @@
         <v>569</v>
       </c>
       <c r="B63" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C63">
         <v>90302463</v>
@@ -23403,7 +23397,7 @@
         <v>90302457</v>
       </c>
       <c r="D64" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -23411,13 +23405,13 @@
         <v>569</v>
       </c>
       <c r="B65" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C65">
         <v>90290070</v>
       </c>
       <c r="D65" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -23431,7 +23425,7 @@
         <v>90290075</v>
       </c>
       <c r="D66" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -23445,7 +23439,7 @@
         <v>90302218</v>
       </c>
       <c r="D67" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -23459,7 +23453,7 @@
         <v>90290074</v>
       </c>
       <c r="D68" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -23467,11 +23461,11 @@
         <v>606</v>
       </c>
       <c r="B69" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C69"/>
       <c r="D69" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -23479,13 +23473,13 @@
         <v>606</v>
       </c>
       <c r="B70" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C70">
         <v>90137312</v>
       </c>
       <c r="D70" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -23499,7 +23493,7 @@
         <v>90301852</v>
       </c>
       <c r="D71" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -23513,7 +23507,7 @@
         <v>90128100</v>
       </c>
       <c r="D72" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -23527,7 +23521,7 @@
         <v>90290053</v>
       </c>
       <c r="D73" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -23535,13 +23529,13 @@
         <v>606</v>
       </c>
       <c r="B74" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C74">
         <v>90301507</v>
       </c>
       <c r="D74" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -23555,7 +23549,7 @@
         <v>90301651</v>
       </c>
       <c r="D75" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -23569,7 +23563,7 @@
         <v>90302044</v>
       </c>
       <c r="D76" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -23583,7 +23577,7 @@
         <v>90300312</v>
       </c>
       <c r="D77" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -23591,13 +23585,13 @@
         <v>606</v>
       </c>
       <c r="B78" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C78">
         <v>90300287</v>
       </c>
       <c r="D78" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -23611,7 +23605,7 @@
         <v>90300546</v>
       </c>
       <c r="D79" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -23625,7 +23619,7 @@
         <v>90300274</v>
       </c>
       <c r="D80" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -23639,7 +23633,7 @@
         <v>90300281</v>
       </c>
       <c r="D81" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -23647,13 +23641,13 @@
         <v>606</v>
       </c>
       <c r="B82" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C82">
         <v>90300273</v>
       </c>
       <c r="D82" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -31191,6 +31185,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a1bbf4fc-2070-4842-8cf2-c42346818ea9" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d41b7399-51ed-4fce-9e89-79a41c55ed41">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004A5BF6C7F67B434096FAC9443A83D821" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1347de4a6797875f8d6b1ac5dc93737c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d41b7399-51ed-4fce-9e89-79a41c55ed41" xmlns:ns3="a1bbf4fc-2070-4842-8cf2-c42346818ea9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67ec082bb3101a8db1bb88f037f675cb" ns2:_="" ns3:_="">
     <xsd:import namespace="d41b7399-51ed-4fce-9e89-79a41c55ed41"/>
@@ -31433,27 +31447,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a1bbf4fc-2070-4842-8cf2-c42346818ea9" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d41b7399-51ed-4fce-9e89-79a41c55ed41">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71C3BF75-E265-495B-A1EF-9F0F8014FF62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C286B8F-44DD-46A1-8664-5B3AFC40D364}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a1bbf4fc-2070-4842-8cf2-c42346818ea9"/>
+    <ds:schemaRef ds:uri="d41b7399-51ed-4fce-9e89-79a41c55ed41"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F00606B-6B80-42B0-B0DE-C79F0839CF7D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31470,23 +31483,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C286B8F-44DD-46A1-8664-5B3AFC40D364}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a1bbf4fc-2070-4842-8cf2-c42346818ea9"/>
-    <ds:schemaRef ds:uri="d41b7399-51ed-4fce-9e89-79a41c55ed41"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71C3BF75-E265-495B-A1EF-9F0F8014FF62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/public/data/Master App Timesheet.xlsx
+++ b/public/data/Master App Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\timesheet-app\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2404C3-CE4B-4A97-8ECB-D0C4E005F68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378CD7F9-23B4-4325-90C3-EF391C45E2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="1110" windowWidth="28770" windowHeight="15090" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vendor Entry Sheet" sheetId="5" r:id="rId1"/>
@@ -22060,8 +22060,8 @@
   </sheetPr>
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22168,7 +22168,7 @@
         <v>50</v>
       </c>
       <c r="K3">
-        <v>4700020004</v>
+        <v>4700020658</v>
       </c>
       <c r="L3">
         <v>10</v>
@@ -22284,7 +22284,7 @@
         <v>516</v>
       </c>
       <c r="K7">
-        <v>4700020661</v>
+        <v>4700020657</v>
       </c>
       <c r="L7">
         <v>10</v>
@@ -30012,12 +30012,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a1bbf4fc-2070-4842-8cf2-c42346818ea9" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d41b7399-51ed-4fce-9e89-79a41c55ed41">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30264,20 +30266,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a1bbf4fc-2070-4842-8cf2-c42346818ea9" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d41b7399-51ed-4fce-9e89-79a41c55ed41">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71C3BF75-E265-495B-A1EF-9F0F8014FF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C286B8F-44DD-46A1-8664-5B3AFC40D364}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a1bbf4fc-2070-4842-8cf2-c42346818ea9"/>
+    <ds:schemaRef ds:uri="d41b7399-51ed-4fce-9e89-79a41c55ed41"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -30302,12 +30305,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C286B8F-44DD-46A1-8664-5B3AFC40D364}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71C3BF75-E265-495B-A1EF-9F0F8014FF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a1bbf4fc-2070-4842-8cf2-c42346818ea9"/>
-    <ds:schemaRef ds:uri="d41b7399-51ed-4fce-9e89-79a41c55ed41"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/public/data/Master App Timesheet.xlsx
+++ b/public/data/Master App Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\timesheet-app\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378CD7F9-23B4-4325-90C3-EF391C45E2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D471DB-51DB-44E6-9CCC-D2E556A78EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vendor Entry Sheet" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="648">
   <si>
     <t xml:space="preserve">Date
 </t>
@@ -1993,6 +1993,54 @@
   </si>
   <si>
     <t>Metso</t>
+  </si>
+  <si>
+    <t>16362841</t>
+  </si>
+  <si>
+    <t>T1 COH Shut Supervisor Allocation</t>
+  </si>
+  <si>
+    <t>18W COH Shut Supervisor Allocation SMS</t>
+  </si>
+  <si>
+    <t>18W COH Shut Supervisor Allocation Metso</t>
+  </si>
+  <si>
+    <t>18W COH Shut Supervisor Allocation MPV</t>
+  </si>
+  <si>
+    <t>18W COH Shut Supervisor Allocation Boom</t>
+  </si>
+  <si>
+    <t>18W COH Shut Supervisor Allocation GMRS</t>
+  </si>
+  <si>
+    <t>18W COH Shut Supervisor Allocation TMS</t>
+  </si>
+  <si>
+    <t>18W GG Tech Team Supervisor (Fill in NS)</t>
+  </si>
+  <si>
+    <t>18W GG Mech Tech Contractor Support</t>
+  </si>
+  <si>
+    <t>COH Shut Supervisor Allocation KRG Mech</t>
+  </si>
+  <si>
+    <t>COH Shut Supervisor Allocation KRG Belt</t>
+  </si>
+  <si>
+    <t>020SUSS1</t>
+  </si>
+  <si>
+    <t>068SWBL</t>
+  </si>
+  <si>
+    <t>278SUSS</t>
+  </si>
+  <si>
+    <t>272SUSS</t>
   </si>
 </sst>
 </file>
@@ -2656,7 +2704,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2829,6 +2877,9 @@
     <xf numFmtId="0" fontId="26" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -22060,7 +22111,7 @@
   </sheetPr>
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -23582,8 +23633,8 @@
   </sheetPr>
   <dimension ref="A1:F397"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
+      <selection activeCell="F301" sqref="F301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29205,80 +29256,194 @@
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A294" s="5"/>
-      <c r="B294" s="5"/>
-      <c r="C294" s="5"/>
-      <c r="D294" s="5"/>
-      <c r="E294" s="5"/>
+      <c r="A294" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="D294" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="E294" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="F294" s="47" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A295" s="5"/>
-      <c r="B295" s="5"/>
-      <c r="C295" s="5"/>
-      <c r="D295" s="5"/>
-      <c r="E295" s="5"/>
+      <c r="A295" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="D295" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="E295" s="5" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A296" s="5"/>
-      <c r="B296" s="5"/>
-      <c r="C296" s="5"/>
-      <c r="D296" s="5"/>
-      <c r="E296" s="5"/>
-      <c r="F296" s="5"/>
+      <c r="A296" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="D296" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="E296" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="F296" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A297" s="5"/>
-      <c r="B297" s="5"/>
-      <c r="C297" s="5"/>
-      <c r="D297" s="5"/>
-      <c r="E297" s="5"/>
-      <c r="F297" s="47"/>
+      <c r="A297" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="B297" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="D297" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="E297" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="F297" s="47" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A298" s="5"/>
-      <c r="B298" s="5"/>
-      <c r="C298" s="5"/>
-      <c r="D298" s="5"/>
-      <c r="E298" s="5"/>
+      <c r="A298" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="D298" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="E298" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="F298" s="56" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A299" s="5"/>
-      <c r="B299" s="5"/>
-      <c r="C299" s="5"/>
-      <c r="D299" s="5"/>
-      <c r="E299" s="5"/>
-      <c r="F299" s="5"/>
+      <c r="A299" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="D299" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="E299" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="F299" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A300" s="5"/>
-      <c r="B300" s="5"/>
-      <c r="C300" s="5"/>
-      <c r="D300" s="5"/>
-      <c r="E300" s="5"/>
+      <c r="A300" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="D300" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="E300" s="5" t="s">
+        <v>458</v>
+      </c>
       <c r="F300" s="47"/>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A301" s="5"/>
-      <c r="B301" s="5"/>
-      <c r="C301" s="5"/>
-      <c r="D301" s="5"/>
-      <c r="E301" s="5"/>
+      <c r="A301" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="D301" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="E301" s="5" t="s">
+        <v>458</v>
+      </c>
       <c r="F301" s="47"/>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A302" s="5"/>
-      <c r="B302" s="5"/>
-      <c r="C302" s="5"/>
-      <c r="D302" s="5"/>
-      <c r="E302" s="5"/>
-      <c r="F302" s="47"/>
+      <c r="A302" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="D302" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="E302" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="F302" s="47" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A303" s="5"/>
-      <c r="B303" s="5"/>
-      <c r="C303" s="5"/>
-      <c r="D303" s="5"/>
-      <c r="E303" s="5"/>
+      <c r="A303" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="D303" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="E303" s="5" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" s="5"/>
@@ -30023,6 +30188,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004A5BF6C7F67B434096FAC9443A83D821" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1347de4a6797875f8d6b1ac5dc93737c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d41b7399-51ed-4fce-9e89-79a41c55ed41" xmlns:ns3="a1bbf4fc-2070-4842-8cf2-c42346818ea9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67ec082bb3101a8db1bb88f037f675cb" ns2:_="" ns3:_="">
     <xsd:import namespace="d41b7399-51ed-4fce-9e89-79a41c55ed41"/>
@@ -30265,15 +30439,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C286B8F-44DD-46A1-8664-5B3AFC40D364}">
   <ds:schemaRefs>
@@ -30286,6 +30451,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71C3BF75-E265-495B-A1EF-9F0F8014FF62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F00606B-6B80-42B0-B0DE-C79F0839CF7D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30302,12 +30475,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71C3BF75-E265-495B-A1EF-9F0F8014FF62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/public/data/Master App Timesheet.xlsx
+++ b/public/data/Master App Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\timesheet-app\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D471DB-51DB-44E6-9CCC-D2E556A78EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50140550-7E97-49E1-B568-C6F9000A0E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10060" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vendor Entry Sheet" sheetId="5" r:id="rId1"/>
@@ -2704,7 +2704,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2857,14 +2857,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="35" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2877,9 +2877,6 @@
     <xf numFmtId="0" fontId="26" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -7232,7 +7229,7 @@
         <f>'Vendor Entry Sheet'!E4</f>
         <v>0</v>
       </c>
-      <c r="H2" s="51">
+      <c r="H2" s="50">
         <f>'Vendor Entry Sheet'!F4</f>
         <v>0</v>
       </c>
@@ -7276,7 +7273,7 @@
         <f>'Vendor Entry Sheet'!E5</f>
         <v>0</v>
       </c>
-      <c r="H3" s="51">
+      <c r="H3" s="50">
         <f>'Vendor Entry Sheet'!F5</f>
         <v>0</v>
       </c>
@@ -7320,7 +7317,7 @@
         <f>'Vendor Entry Sheet'!E6</f>
         <v>0</v>
       </c>
-      <c r="H4" s="51">
+      <c r="H4" s="50">
         <f>'Vendor Entry Sheet'!F6</f>
         <v>0</v>
       </c>
@@ -7364,7 +7361,7 @@
         <f>'Vendor Entry Sheet'!E7</f>
         <v>0</v>
       </c>
-      <c r="H5" s="51">
+      <c r="H5" s="50">
         <f>'Vendor Entry Sheet'!F7</f>
         <v>0</v>
       </c>
@@ -7408,7 +7405,7 @@
         <f>'Vendor Entry Sheet'!E8</f>
         <v>0</v>
       </c>
-      <c r="H6" s="51">
+      <c r="H6" s="50">
         <f>'Vendor Entry Sheet'!F8</f>
         <v>0</v>
       </c>
@@ -7452,7 +7449,7 @@
         <f>'Vendor Entry Sheet'!E9</f>
         <v>0</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7" s="50">
         <f>'Vendor Entry Sheet'!F9</f>
         <v>0</v>
       </c>
@@ -7496,7 +7493,7 @@
         <f>'Vendor Entry Sheet'!E10</f>
         <v>0</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="50">
         <f>'Vendor Entry Sheet'!F10</f>
         <v>0</v>
       </c>
@@ -7540,7 +7537,7 @@
         <f>'Vendor Entry Sheet'!E11</f>
         <v>0</v>
       </c>
-      <c r="H9" s="51">
+      <c r="H9" s="50">
         <f>'Vendor Entry Sheet'!F11</f>
         <v>0</v>
       </c>
@@ -7584,7 +7581,7 @@
         <f>'Vendor Entry Sheet'!E12</f>
         <v>0</v>
       </c>
-      <c r="H10" s="51">
+      <c r="H10" s="50">
         <f>'Vendor Entry Sheet'!F12</f>
         <v>0</v>
       </c>
@@ -7628,7 +7625,7 @@
         <f>'Vendor Entry Sheet'!E13</f>
         <v>0</v>
       </c>
-      <c r="H11" s="51">
+      <c r="H11" s="50">
         <f>'Vendor Entry Sheet'!F13</f>
         <v>0</v>
       </c>
@@ -7672,7 +7669,7 @@
         <f>'Vendor Entry Sheet'!E14</f>
         <v>0</v>
       </c>
-      <c r="H12" s="51">
+      <c r="H12" s="50">
         <f>'Vendor Entry Sheet'!F14</f>
         <v>0</v>
       </c>
@@ -7716,7 +7713,7 @@
         <f>'Vendor Entry Sheet'!E15</f>
         <v>0</v>
       </c>
-      <c r="H13" s="51">
+      <c r="H13" s="50">
         <f>'Vendor Entry Sheet'!F15</f>
         <v>0</v>
       </c>
@@ -7760,7 +7757,7 @@
         <f>'Vendor Entry Sheet'!E16</f>
         <v>0</v>
       </c>
-      <c r="H14" s="51">
+      <c r="H14" s="50">
         <f>'Vendor Entry Sheet'!F16</f>
         <v>0</v>
       </c>
@@ -7804,7 +7801,7 @@
         <f>'Vendor Entry Sheet'!E17</f>
         <v>0</v>
       </c>
-      <c r="H15" s="51">
+      <c r="H15" s="50">
         <f>'Vendor Entry Sheet'!F17</f>
         <v>0</v>
       </c>
@@ -7848,7 +7845,7 @@
         <f>'Vendor Entry Sheet'!E18</f>
         <v>0</v>
       </c>
-      <c r="H16" s="51">
+      <c r="H16" s="50">
         <f>'Vendor Entry Sheet'!F18</f>
         <v>0</v>
       </c>
@@ -7892,7 +7889,7 @@
         <f>'Vendor Entry Sheet'!E19</f>
         <v>0</v>
       </c>
-      <c r="H17" s="51">
+      <c r="H17" s="50">
         <f>'Vendor Entry Sheet'!F19</f>
         <v>0</v>
       </c>
@@ -7936,7 +7933,7 @@
         <f>'Vendor Entry Sheet'!E20</f>
         <v>0</v>
       </c>
-      <c r="H18" s="51">
+      <c r="H18" s="50">
         <f>'Vendor Entry Sheet'!F20</f>
         <v>0</v>
       </c>
@@ -7980,7 +7977,7 @@
         <f>'Vendor Entry Sheet'!E21</f>
         <v>0</v>
       </c>
-      <c r="H19" s="51">
+      <c r="H19" s="50">
         <f>'Vendor Entry Sheet'!F21</f>
         <v>0</v>
       </c>
@@ -8024,7 +8021,7 @@
         <f>'Vendor Entry Sheet'!E22</f>
         <v>0</v>
       </c>
-      <c r="H20" s="51">
+      <c r="H20" s="50">
         <f>'Vendor Entry Sheet'!F22</f>
         <v>0</v>
       </c>
@@ -8068,7 +8065,7 @@
         <f>'Vendor Entry Sheet'!E23</f>
         <v>0</v>
       </c>
-      <c r="H21" s="51">
+      <c r="H21" s="50">
         <f>'Vendor Entry Sheet'!F23</f>
         <v>0</v>
       </c>
@@ -8112,7 +8109,7 @@
         <f>'Vendor Entry Sheet'!E24</f>
         <v>0</v>
       </c>
-      <c r="H22" s="51">
+      <c r="H22" s="50">
         <f>'Vendor Entry Sheet'!F24</f>
         <v>0</v>
       </c>
@@ -8156,7 +8153,7 @@
         <f>'Vendor Entry Sheet'!E25</f>
         <v>0</v>
       </c>
-      <c r="H23" s="51">
+      <c r="H23" s="50">
         <f>'Vendor Entry Sheet'!F25</f>
         <v>0</v>
       </c>
@@ -8200,7 +8197,7 @@
         <f>'Vendor Entry Sheet'!E26</f>
         <v>0</v>
       </c>
-      <c r="H24" s="51">
+      <c r="H24" s="50">
         <f>'Vendor Entry Sheet'!F26</f>
         <v>0</v>
       </c>
@@ -8244,7 +8241,7 @@
         <f>'Vendor Entry Sheet'!E27</f>
         <v>0</v>
       </c>
-      <c r="H25" s="51">
+      <c r="H25" s="50">
         <f>'Vendor Entry Sheet'!F27</f>
         <v>0</v>
       </c>
@@ -8288,7 +8285,7 @@
         <f>'Vendor Entry Sheet'!E28</f>
         <v>0</v>
       </c>
-      <c r="H26" s="51">
+      <c r="H26" s="50">
         <f>'Vendor Entry Sheet'!F28</f>
         <v>0</v>
       </c>
@@ -8332,7 +8329,7 @@
         <f>'Vendor Entry Sheet'!E29</f>
         <v>0</v>
       </c>
-      <c r="H27" s="51">
+      <c r="H27" s="50">
         <f>'Vendor Entry Sheet'!F29</f>
         <v>0</v>
       </c>
@@ -8376,7 +8373,7 @@
         <f>'Vendor Entry Sheet'!E30</f>
         <v>0</v>
       </c>
-      <c r="H28" s="51">
+      <c r="H28" s="50">
         <f>'Vendor Entry Sheet'!F30</f>
         <v>0</v>
       </c>
@@ -8420,7 +8417,7 @@
         <f>'Vendor Entry Sheet'!E31</f>
         <v>0</v>
       </c>
-      <c r="H29" s="51">
+      <c r="H29" s="50">
         <f>'Vendor Entry Sheet'!F31</f>
         <v>0</v>
       </c>
@@ -8464,7 +8461,7 @@
         <f>'Vendor Entry Sheet'!E32</f>
         <v>0</v>
       </c>
-      <c r="H30" s="51">
+      <c r="H30" s="50">
         <f>'Vendor Entry Sheet'!F32</f>
         <v>0</v>
       </c>
@@ -8508,7 +8505,7 @@
         <f>'Vendor Entry Sheet'!E33</f>
         <v>0</v>
       </c>
-      <c r="H31" s="51">
+      <c r="H31" s="50">
         <f>'Vendor Entry Sheet'!F33</f>
         <v>0</v>
       </c>
@@ -8552,7 +8549,7 @@
         <f>'Vendor Entry Sheet'!E34</f>
         <v>0</v>
       </c>
-      <c r="H32" s="51">
+      <c r="H32" s="50">
         <f>'Vendor Entry Sheet'!F34</f>
         <v>0</v>
       </c>
@@ -8596,7 +8593,7 @@
         <f>'Vendor Entry Sheet'!E35</f>
         <v>0</v>
       </c>
-      <c r="H33" s="51">
+      <c r="H33" s="50">
         <f>'Vendor Entry Sheet'!F35</f>
         <v>0</v>
       </c>
@@ -8640,7 +8637,7 @@
         <f>'Vendor Entry Sheet'!E36</f>
         <v>0</v>
       </c>
-      <c r="H34" s="51">
+      <c r="H34" s="50">
         <f>'Vendor Entry Sheet'!F36</f>
         <v>0</v>
       </c>
@@ -8684,7 +8681,7 @@
         <f>'Vendor Entry Sheet'!E37</f>
         <v>0</v>
       </c>
-      <c r="H35" s="51">
+      <c r="H35" s="50">
         <f>'Vendor Entry Sheet'!F37</f>
         <v>0</v>
       </c>
@@ -8728,7 +8725,7 @@
         <f>'Vendor Entry Sheet'!E38</f>
         <v>0</v>
       </c>
-      <c r="H36" s="51">
+      <c r="H36" s="50">
         <f>'Vendor Entry Sheet'!F38</f>
         <v>0</v>
       </c>
@@ -8772,7 +8769,7 @@
         <f>'Vendor Entry Sheet'!E39</f>
         <v>0</v>
       </c>
-      <c r="H37" s="51">
+      <c r="H37" s="50">
         <f>'Vendor Entry Sheet'!F39</f>
         <v>0</v>
       </c>
@@ -8816,7 +8813,7 @@
         <f>'Vendor Entry Sheet'!E40</f>
         <v>0</v>
       </c>
-      <c r="H38" s="51">
+      <c r="H38" s="50">
         <f>'Vendor Entry Sheet'!F40</f>
         <v>0</v>
       </c>
@@ -8860,7 +8857,7 @@
         <f>'Vendor Entry Sheet'!E41</f>
         <v>0</v>
       </c>
-      <c r="H39" s="51">
+      <c r="H39" s="50">
         <f>'Vendor Entry Sheet'!F41</f>
         <v>0</v>
       </c>
@@ -8904,7 +8901,7 @@
         <f>'Vendor Entry Sheet'!E42</f>
         <v>0</v>
       </c>
-      <c r="H40" s="51">
+      <c r="H40" s="50">
         <f>'Vendor Entry Sheet'!F42</f>
         <v>0</v>
       </c>
@@ -8948,7 +8945,7 @@
         <f>'Vendor Entry Sheet'!E43</f>
         <v>0</v>
       </c>
-      <c r="H41" s="51">
+      <c r="H41" s="50">
         <f>'Vendor Entry Sheet'!F43</f>
         <v>0</v>
       </c>
@@ -8992,7 +8989,7 @@
         <f>'Vendor Entry Sheet'!E44</f>
         <v>0</v>
       </c>
-      <c r="H42" s="51">
+      <c r="H42" s="50">
         <f>'Vendor Entry Sheet'!F44</f>
         <v>0</v>
       </c>
@@ -9036,7 +9033,7 @@
         <f>'Vendor Entry Sheet'!E45</f>
         <v>0</v>
       </c>
-      <c r="H43" s="51">
+      <c r="H43" s="50">
         <f>'Vendor Entry Sheet'!F45</f>
         <v>0</v>
       </c>
@@ -9080,7 +9077,7 @@
         <f>'Vendor Entry Sheet'!E46</f>
         <v>0</v>
       </c>
-      <c r="H44" s="51">
+      <c r="H44" s="50">
         <f>'Vendor Entry Sheet'!F46</f>
         <v>0</v>
       </c>
@@ -9124,7 +9121,7 @@
         <f>'Vendor Entry Sheet'!E47</f>
         <v>0</v>
       </c>
-      <c r="H45" s="51">
+      <c r="H45" s="50">
         <f>'Vendor Entry Sheet'!F47</f>
         <v>0</v>
       </c>
@@ -9168,7 +9165,7 @@
         <f>'Vendor Entry Sheet'!E48</f>
         <v>0</v>
       </c>
-      <c r="H46" s="51">
+      <c r="H46" s="50">
         <f>'Vendor Entry Sheet'!F48</f>
         <v>0</v>
       </c>
@@ -9212,7 +9209,7 @@
         <f>'Vendor Entry Sheet'!E49</f>
         <v>0</v>
       </c>
-      <c r="H47" s="51">
+      <c r="H47" s="50">
         <f>'Vendor Entry Sheet'!F49</f>
         <v>0</v>
       </c>
@@ -9256,7 +9253,7 @@
         <f>'Vendor Entry Sheet'!E50</f>
         <v>0</v>
       </c>
-      <c r="H48" s="51">
+      <c r="H48" s="50">
         <f>'Vendor Entry Sheet'!F50</f>
         <v>0</v>
       </c>
@@ -9300,7 +9297,7 @@
         <f>'Vendor Entry Sheet'!E51</f>
         <v>0</v>
       </c>
-      <c r="H49" s="51">
+      <c r="H49" s="50">
         <f>'Vendor Entry Sheet'!F51</f>
         <v>0</v>
       </c>
@@ -9344,7 +9341,7 @@
         <f>'Vendor Entry Sheet'!E52</f>
         <v>0</v>
       </c>
-      <c r="H50" s="51">
+      <c r="H50" s="50">
         <f>'Vendor Entry Sheet'!F52</f>
         <v>0</v>
       </c>
@@ -9388,7 +9385,7 @@
         <f>'Vendor Entry Sheet'!E53</f>
         <v>0</v>
       </c>
-      <c r="H51" s="51">
+      <c r="H51" s="50">
         <f>'Vendor Entry Sheet'!F53</f>
         <v>0</v>
       </c>
@@ -9432,7 +9429,7 @@
         <f>'Vendor Entry Sheet'!E54</f>
         <v>0</v>
       </c>
-      <c r="H52" s="51">
+      <c r="H52" s="50">
         <f>'Vendor Entry Sheet'!F54</f>
         <v>0</v>
       </c>
@@ -9476,7 +9473,7 @@
         <f>'Vendor Entry Sheet'!E55</f>
         <v>0</v>
       </c>
-      <c r="H53" s="51">
+      <c r="H53" s="50">
         <f>'Vendor Entry Sheet'!F55</f>
         <v>0</v>
       </c>
@@ -9520,7 +9517,7 @@
         <f>'Vendor Entry Sheet'!E56</f>
         <v>0</v>
       </c>
-      <c r="H54" s="51">
+      <c r="H54" s="50">
         <f>'Vendor Entry Sheet'!F56</f>
         <v>0</v>
       </c>
@@ -9564,7 +9561,7 @@
         <f>'Vendor Entry Sheet'!E57</f>
         <v>0</v>
       </c>
-      <c r="H55" s="51">
+      <c r="H55" s="50">
         <f>'Vendor Entry Sheet'!F57</f>
         <v>0</v>
       </c>
@@ -9608,7 +9605,7 @@
         <f>'Vendor Entry Sheet'!E58</f>
         <v>0</v>
       </c>
-      <c r="H56" s="51">
+      <c r="H56" s="50">
         <f>'Vendor Entry Sheet'!F58</f>
         <v>0</v>
       </c>
@@ -9652,7 +9649,7 @@
         <f>'Vendor Entry Sheet'!E59</f>
         <v>0</v>
       </c>
-      <c r="H57" s="51">
+      <c r="H57" s="50">
         <f>'Vendor Entry Sheet'!F59</f>
         <v>0</v>
       </c>
@@ -9696,7 +9693,7 @@
         <f>'Vendor Entry Sheet'!E60</f>
         <v>0</v>
       </c>
-      <c r="H58" s="51">
+      <c r="H58" s="50">
         <f>'Vendor Entry Sheet'!F60</f>
         <v>0</v>
       </c>
@@ -9740,7 +9737,7 @@
         <f>'Vendor Entry Sheet'!E61</f>
         <v>0</v>
       </c>
-      <c r="H59" s="51">
+      <c r="H59" s="50">
         <f>'Vendor Entry Sheet'!F61</f>
         <v>0</v>
       </c>
@@ -9784,7 +9781,7 @@
         <f>'Vendor Entry Sheet'!E62</f>
         <v>0</v>
       </c>
-      <c r="H60" s="51">
+      <c r="H60" s="50">
         <f>'Vendor Entry Sheet'!F62</f>
         <v>0</v>
       </c>
@@ -9828,7 +9825,7 @@
         <f>'Vendor Entry Sheet'!E63</f>
         <v>0</v>
       </c>
-      <c r="H61" s="51">
+      <c r="H61" s="50">
         <f>'Vendor Entry Sheet'!F63</f>
         <v>0</v>
       </c>
@@ -9872,7 +9869,7 @@
         <f>'Vendor Entry Sheet'!E64</f>
         <v>0</v>
       </c>
-      <c r="H62" s="51">
+      <c r="H62" s="50">
         <f>'Vendor Entry Sheet'!F64</f>
         <v>0</v>
       </c>
@@ -9916,7 +9913,7 @@
         <f>'Vendor Entry Sheet'!E65</f>
         <v>0</v>
       </c>
-      <c r="H63" s="51">
+      <c r="H63" s="50">
         <f>'Vendor Entry Sheet'!F65</f>
         <v>0</v>
       </c>
@@ -9960,7 +9957,7 @@
         <f>'Vendor Entry Sheet'!E66</f>
         <v>0</v>
       </c>
-      <c r="H64" s="51">
+      <c r="H64" s="50">
         <f>'Vendor Entry Sheet'!F66</f>
         <v>0</v>
       </c>
@@ -10004,7 +10001,7 @@
         <f>'Vendor Entry Sheet'!E67</f>
         <v>0</v>
       </c>
-      <c r="H65" s="51">
+      <c r="H65" s="50">
         <f>'Vendor Entry Sheet'!F67</f>
         <v>0</v>
       </c>
@@ -10048,7 +10045,7 @@
         <f>'Vendor Entry Sheet'!E68</f>
         <v>0</v>
       </c>
-      <c r="H66" s="51">
+      <c r="H66" s="50">
         <f>'Vendor Entry Sheet'!F68</f>
         <v>0</v>
       </c>
@@ -10092,7 +10089,7 @@
         <f>'Vendor Entry Sheet'!E69</f>
         <v>0</v>
       </c>
-      <c r="H67" s="51">
+      <c r="H67" s="50">
         <f>'Vendor Entry Sheet'!F69</f>
         <v>0</v>
       </c>
@@ -10136,7 +10133,7 @@
         <f>'Vendor Entry Sheet'!E70</f>
         <v>0</v>
       </c>
-      <c r="H68" s="51">
+      <c r="H68" s="50">
         <f>'Vendor Entry Sheet'!F70</f>
         <v>0</v>
       </c>
@@ -10180,7 +10177,7 @@
         <f>'Vendor Entry Sheet'!E71</f>
         <v>0</v>
       </c>
-      <c r="H69" s="51">
+      <c r="H69" s="50">
         <f>'Vendor Entry Sheet'!F71</f>
         <v>0</v>
       </c>
@@ -10224,7 +10221,7 @@
         <f>'Vendor Entry Sheet'!E72</f>
         <v>0</v>
       </c>
-      <c r="H70" s="51">
+      <c r="H70" s="50">
         <f>'Vendor Entry Sheet'!F72</f>
         <v>0</v>
       </c>
@@ -10268,7 +10265,7 @@
         <f>'Vendor Entry Sheet'!E73</f>
         <v>0</v>
       </c>
-      <c r="H71" s="51">
+      <c r="H71" s="50">
         <f>'Vendor Entry Sheet'!F73</f>
         <v>0</v>
       </c>
@@ -10312,7 +10309,7 @@
         <f>'Vendor Entry Sheet'!E74</f>
         <v>0</v>
       </c>
-      <c r="H72" s="51">
+      <c r="H72" s="50">
         <f>'Vendor Entry Sheet'!F74</f>
         <v>0</v>
       </c>
@@ -10356,7 +10353,7 @@
         <f>'Vendor Entry Sheet'!E75</f>
         <v>0</v>
       </c>
-      <c r="H73" s="51">
+      <c r="H73" s="50">
         <f>'Vendor Entry Sheet'!F75</f>
         <v>0</v>
       </c>
@@ -10400,7 +10397,7 @@
         <f>'Vendor Entry Sheet'!E76</f>
         <v>0</v>
       </c>
-      <c r="H74" s="51">
+      <c r="H74" s="50">
         <f>'Vendor Entry Sheet'!F76</f>
         <v>0</v>
       </c>
@@ -10444,7 +10441,7 @@
         <f>'Vendor Entry Sheet'!E77</f>
         <v>0</v>
       </c>
-      <c r="H75" s="51">
+      <c r="H75" s="50">
         <f>'Vendor Entry Sheet'!F77</f>
         <v>0</v>
       </c>
@@ -10488,7 +10485,7 @@
         <f>'Vendor Entry Sheet'!E78</f>
         <v>0</v>
       </c>
-      <c r="H76" s="51">
+      <c r="H76" s="50">
         <f>'Vendor Entry Sheet'!F78</f>
         <v>0</v>
       </c>
@@ -10532,7 +10529,7 @@
         <f>'Vendor Entry Sheet'!E79</f>
         <v>0</v>
       </c>
-      <c r="H77" s="51">
+      <c r="H77" s="50">
         <f>'Vendor Entry Sheet'!F79</f>
         <v>0</v>
       </c>
@@ -10576,7 +10573,7 @@
         <f>'Vendor Entry Sheet'!E80</f>
         <v>0</v>
       </c>
-      <c r="H78" s="51">
+      <c r="H78" s="50">
         <f>'Vendor Entry Sheet'!F80</f>
         <v>0</v>
       </c>
@@ -10620,7 +10617,7 @@
         <f>'Vendor Entry Sheet'!E81</f>
         <v>0</v>
       </c>
-      <c r="H79" s="51">
+      <c r="H79" s="50">
         <f>'Vendor Entry Sheet'!F81</f>
         <v>0</v>
       </c>
@@ -10664,7 +10661,7 @@
         <f>'Vendor Entry Sheet'!E82</f>
         <v>0</v>
       </c>
-      <c r="H80" s="51">
+      <c r="H80" s="50">
         <f>'Vendor Entry Sheet'!F82</f>
         <v>0</v>
       </c>
@@ -10708,7 +10705,7 @@
         <f>'Vendor Entry Sheet'!E83</f>
         <v>0</v>
       </c>
-      <c r="H81" s="51">
+      <c r="H81" s="50">
         <f>'Vendor Entry Sheet'!F83</f>
         <v>0</v>
       </c>
@@ -10752,7 +10749,7 @@
         <f>'Vendor Entry Sheet'!E84</f>
         <v>0</v>
       </c>
-      <c r="H82" s="51">
+      <c r="H82" s="50">
         <f>'Vendor Entry Sheet'!F84</f>
         <v>0</v>
       </c>
@@ -10796,7 +10793,7 @@
         <f>'Vendor Entry Sheet'!E85</f>
         <v>0</v>
       </c>
-      <c r="H83" s="51">
+      <c r="H83" s="50">
         <f>'Vendor Entry Sheet'!F85</f>
         <v>0</v>
       </c>
@@ -10840,7 +10837,7 @@
         <f>'Vendor Entry Sheet'!E86</f>
         <v>0</v>
       </c>
-      <c r="H84" s="51">
+      <c r="H84" s="50">
         <f>'Vendor Entry Sheet'!F86</f>
         <v>0</v>
       </c>
@@ -10884,7 +10881,7 @@
         <f>'Vendor Entry Sheet'!E87</f>
         <v>0</v>
       </c>
-      <c r="H85" s="51">
+      <c r="H85" s="50">
         <f>'Vendor Entry Sheet'!F87</f>
         <v>0</v>
       </c>
@@ -10928,7 +10925,7 @@
         <f>'Vendor Entry Sheet'!E88</f>
         <v>0</v>
       </c>
-      <c r="H86" s="51">
+      <c r="H86" s="50">
         <f>'Vendor Entry Sheet'!F88</f>
         <v>0</v>
       </c>
@@ -10972,7 +10969,7 @@
         <f>'Vendor Entry Sheet'!E89</f>
         <v>0</v>
       </c>
-      <c r="H87" s="51">
+      <c r="H87" s="50">
         <f>'Vendor Entry Sheet'!F89</f>
         <v>0</v>
       </c>
@@ -11016,7 +11013,7 @@
         <f>'Vendor Entry Sheet'!E90</f>
         <v>0</v>
       </c>
-      <c r="H88" s="51">
+      <c r="H88" s="50">
         <f>'Vendor Entry Sheet'!F90</f>
         <v>0</v>
       </c>
@@ -11060,7 +11057,7 @@
         <f>'Vendor Entry Sheet'!E91</f>
         <v>0</v>
       </c>
-      <c r="H89" s="51">
+      <c r="H89" s="50">
         <f>'Vendor Entry Sheet'!F91</f>
         <v>0</v>
       </c>
@@ -11104,7 +11101,7 @@
         <f>'Vendor Entry Sheet'!E92</f>
         <v>0</v>
       </c>
-      <c r="H90" s="51">
+      <c r="H90" s="50">
         <f>'Vendor Entry Sheet'!F92</f>
         <v>0</v>
       </c>
@@ -11148,7 +11145,7 @@
         <f>'Vendor Entry Sheet'!E93</f>
         <v>0</v>
       </c>
-      <c r="H91" s="51">
+      <c r="H91" s="50">
         <f>'Vendor Entry Sheet'!F93</f>
         <v>0</v>
       </c>
@@ -11192,7 +11189,7 @@
         <f>'Vendor Entry Sheet'!E94</f>
         <v>0</v>
       </c>
-      <c r="H92" s="51">
+      <c r="H92" s="50">
         <f>'Vendor Entry Sheet'!F94</f>
         <v>0</v>
       </c>
@@ -11236,7 +11233,7 @@
         <f>'Vendor Entry Sheet'!E95</f>
         <v>0</v>
       </c>
-      <c r="H93" s="51">
+      <c r="H93" s="50">
         <f>'Vendor Entry Sheet'!F95</f>
         <v>0</v>
       </c>
@@ -11280,7 +11277,7 @@
         <f>'Vendor Entry Sheet'!E96</f>
         <v>0</v>
       </c>
-      <c r="H94" s="51">
+      <c r="H94" s="50">
         <f>'Vendor Entry Sheet'!F96</f>
         <v>0</v>
       </c>
@@ -11324,7 +11321,7 @@
         <f>'Vendor Entry Sheet'!E97</f>
         <v>0</v>
       </c>
-      <c r="H95" s="51">
+      <c r="H95" s="50">
         <f>'Vendor Entry Sheet'!F97</f>
         <v>0</v>
       </c>
@@ -11368,7 +11365,7 @@
         <f>'Vendor Entry Sheet'!E98</f>
         <v>0</v>
       </c>
-      <c r="H96" s="51">
+      <c r="H96" s="50">
         <f>'Vendor Entry Sheet'!F98</f>
         <v>0</v>
       </c>
@@ -11412,7 +11409,7 @@
         <f>'Vendor Entry Sheet'!E99</f>
         <v>0</v>
       </c>
-      <c r="H97" s="51">
+      <c r="H97" s="50">
         <f>'Vendor Entry Sheet'!F99</f>
         <v>0</v>
       </c>
@@ -11456,7 +11453,7 @@
         <f>'Vendor Entry Sheet'!E100</f>
         <v>0</v>
       </c>
-      <c r="H98" s="51">
+      <c r="H98" s="50">
         <f>'Vendor Entry Sheet'!F100</f>
         <v>0</v>
       </c>
@@ -11500,7 +11497,7 @@
         <f>'Vendor Entry Sheet'!E101</f>
         <v>0</v>
       </c>
-      <c r="H99" s="51">
+      <c r="H99" s="50">
         <f>'Vendor Entry Sheet'!F101</f>
         <v>0</v>
       </c>
@@ -11544,7 +11541,7 @@
         <f>'Vendor Entry Sheet'!E102</f>
         <v>0</v>
       </c>
-      <c r="H100" s="51">
+      <c r="H100" s="50">
         <f>'Vendor Entry Sheet'!F102</f>
         <v>0</v>
       </c>
@@ -11588,7 +11585,7 @@
         <f>'Vendor Entry Sheet'!E103</f>
         <v>0</v>
       </c>
-      <c r="H101" s="51">
+      <c r="H101" s="50">
         <f>'Vendor Entry Sheet'!F103</f>
         <v>0</v>
       </c>
@@ -11632,7 +11629,7 @@
         <f>'Vendor Entry Sheet'!E104</f>
         <v>0</v>
       </c>
-      <c r="H102" s="51">
+      <c r="H102" s="50">
         <f>'Vendor Entry Sheet'!F104</f>
         <v>0</v>
       </c>
@@ -11676,7 +11673,7 @@
         <f>'Vendor Entry Sheet'!E105</f>
         <v>0</v>
       </c>
-      <c r="H103" s="51">
+      <c r="H103" s="50">
         <f>'Vendor Entry Sheet'!F105</f>
         <v>0</v>
       </c>
@@ -11720,7 +11717,7 @@
         <f>'Vendor Entry Sheet'!E106</f>
         <v>0</v>
       </c>
-      <c r="H104" s="51">
+      <c r="H104" s="50">
         <f>'Vendor Entry Sheet'!F106</f>
         <v>0</v>
       </c>
@@ -11764,7 +11761,7 @@
         <f>'Vendor Entry Sheet'!E107</f>
         <v>0</v>
       </c>
-      <c r="H105" s="51">
+      <c r="H105" s="50">
         <f>'Vendor Entry Sheet'!F107</f>
         <v>0</v>
       </c>
@@ -11808,7 +11805,7 @@
         <f>'Vendor Entry Sheet'!E108</f>
         <v>0</v>
       </c>
-      <c r="H106" s="51">
+      <c r="H106" s="50">
         <f>'Vendor Entry Sheet'!F108</f>
         <v>0</v>
       </c>
@@ -11852,7 +11849,7 @@
         <f>'Vendor Entry Sheet'!E109</f>
         <v>0</v>
       </c>
-      <c r="H107" s="51">
+      <c r="H107" s="50">
         <f>'Vendor Entry Sheet'!F109</f>
         <v>0</v>
       </c>
@@ -11896,7 +11893,7 @@
         <f>'Vendor Entry Sheet'!E110</f>
         <v>0</v>
       </c>
-      <c r="H108" s="51">
+      <c r="H108" s="50">
         <f>'Vendor Entry Sheet'!F110</f>
         <v>0</v>
       </c>
@@ -11940,7 +11937,7 @@
         <f>'Vendor Entry Sheet'!E111</f>
         <v>0</v>
       </c>
-      <c r="H109" s="51">
+      <c r="H109" s="50">
         <f>'Vendor Entry Sheet'!F111</f>
         <v>0</v>
       </c>
@@ -11984,7 +11981,7 @@
         <f>'Vendor Entry Sheet'!E112</f>
         <v>0</v>
       </c>
-      <c r="H110" s="51">
+      <c r="H110" s="50">
         <f>'Vendor Entry Sheet'!F112</f>
         <v>0</v>
       </c>
@@ -12028,7 +12025,7 @@
         <f>'Vendor Entry Sheet'!E113</f>
         <v>0</v>
       </c>
-      <c r="H111" s="51">
+      <c r="H111" s="50">
         <f>'Vendor Entry Sheet'!F113</f>
         <v>0</v>
       </c>
@@ -12072,7 +12069,7 @@
         <f>'Vendor Entry Sheet'!E114</f>
         <v>0</v>
       </c>
-      <c r="H112" s="51">
+      <c r="H112" s="50">
         <f>'Vendor Entry Sheet'!F114</f>
         <v>0</v>
       </c>
@@ -12116,7 +12113,7 @@
         <f>'Vendor Entry Sheet'!E115</f>
         <v>0</v>
       </c>
-      <c r="H113" s="51">
+      <c r="H113" s="50">
         <f>'Vendor Entry Sheet'!F115</f>
         <v>0</v>
       </c>
@@ -12160,7 +12157,7 @@
         <f>'Vendor Entry Sheet'!E116</f>
         <v>0</v>
       </c>
-      <c r="H114" s="51">
+      <c r="H114" s="50">
         <f>'Vendor Entry Sheet'!F116</f>
         <v>0</v>
       </c>
@@ -12204,7 +12201,7 @@
         <f>'Vendor Entry Sheet'!E117</f>
         <v>0</v>
       </c>
-      <c r="H115" s="51">
+      <c r="H115" s="50">
         <f>'Vendor Entry Sheet'!F117</f>
         <v>0</v>
       </c>
@@ -12248,7 +12245,7 @@
         <f>'Vendor Entry Sheet'!E118</f>
         <v>0</v>
       </c>
-      <c r="H116" s="51">
+      <c r="H116" s="50">
         <f>'Vendor Entry Sheet'!F118</f>
         <v>0</v>
       </c>
@@ -12292,7 +12289,7 @@
         <f>'Vendor Entry Sheet'!E119</f>
         <v>0</v>
       </c>
-      <c r="H117" s="51">
+      <c r="H117" s="50">
         <f>'Vendor Entry Sheet'!F119</f>
         <v>0</v>
       </c>
@@ -12336,7 +12333,7 @@
         <f>'Vendor Entry Sheet'!E120</f>
         <v>0</v>
       </c>
-      <c r="H118" s="51">
+      <c r="H118" s="50">
         <f>'Vendor Entry Sheet'!F120</f>
         <v>0</v>
       </c>
@@ -12380,7 +12377,7 @@
         <f>'Vendor Entry Sheet'!E121</f>
         <v>0</v>
       </c>
-      <c r="H119" s="51">
+      <c r="H119" s="50">
         <f>'Vendor Entry Sheet'!F121</f>
         <v>0</v>
       </c>
@@ -12424,7 +12421,7 @@
         <f>'Vendor Entry Sheet'!E122</f>
         <v>0</v>
       </c>
-      <c r="H120" s="51">
+      <c r="H120" s="50">
         <f>'Vendor Entry Sheet'!F122</f>
         <v>0</v>
       </c>
@@ -12468,7 +12465,7 @@
         <f>'Vendor Entry Sheet'!E123</f>
         <v>0</v>
       </c>
-      <c r="H121" s="51">
+      <c r="H121" s="50">
         <f>'Vendor Entry Sheet'!F123</f>
         <v>0</v>
       </c>
@@ -12512,7 +12509,7 @@
         <f>'Vendor Entry Sheet'!E124</f>
         <v>0</v>
       </c>
-      <c r="H122" s="51">
+      <c r="H122" s="50">
         <f>'Vendor Entry Sheet'!F124</f>
         <v>0</v>
       </c>
@@ -12556,7 +12553,7 @@
         <f>'Vendor Entry Sheet'!E125</f>
         <v>0</v>
       </c>
-      <c r="H123" s="51">
+      <c r="H123" s="50">
         <f>'Vendor Entry Sheet'!F125</f>
         <v>0</v>
       </c>
@@ -12600,7 +12597,7 @@
         <f>'Vendor Entry Sheet'!E126</f>
         <v>0</v>
       </c>
-      <c r="H124" s="51">
+      <c r="H124" s="50">
         <f>'Vendor Entry Sheet'!F126</f>
         <v>0</v>
       </c>
@@ -12644,7 +12641,7 @@
         <f>'Vendor Entry Sheet'!E127</f>
         <v>0</v>
       </c>
-      <c r="H125" s="51">
+      <c r="H125" s="50">
         <f>'Vendor Entry Sheet'!F127</f>
         <v>0</v>
       </c>
@@ -12688,7 +12685,7 @@
         <f>'Vendor Entry Sheet'!E128</f>
         <v>0</v>
       </c>
-      <c r="H126" s="51">
+      <c r="H126" s="50">
         <f>'Vendor Entry Sheet'!F128</f>
         <v>0</v>
       </c>
@@ -12732,7 +12729,7 @@
         <f>'Vendor Entry Sheet'!E129</f>
         <v>0</v>
       </c>
-      <c r="H127" s="51">
+      <c r="H127" s="50">
         <f>'Vendor Entry Sheet'!F129</f>
         <v>0</v>
       </c>
@@ -12776,7 +12773,7 @@
         <f>'Vendor Entry Sheet'!E130</f>
         <v>0</v>
       </c>
-      <c r="H128" s="51">
+      <c r="H128" s="50">
         <f>'Vendor Entry Sheet'!F130</f>
         <v>0</v>
       </c>
@@ -12820,7 +12817,7 @@
         <f>'Vendor Entry Sheet'!E131</f>
         <v>0</v>
       </c>
-      <c r="H129" s="51">
+      <c r="H129" s="50">
         <f>'Vendor Entry Sheet'!F131</f>
         <v>0</v>
       </c>
@@ -12864,7 +12861,7 @@
         <f>'Vendor Entry Sheet'!E132</f>
         <v>0</v>
       </c>
-      <c r="H130" s="51">
+      <c r="H130" s="50">
         <f>'Vendor Entry Sheet'!F132</f>
         <v>0</v>
       </c>
@@ -12908,7 +12905,7 @@
         <f>'Vendor Entry Sheet'!E133</f>
         <v>0</v>
       </c>
-      <c r="H131" s="51">
+      <c r="H131" s="50">
         <f>'Vendor Entry Sheet'!F133</f>
         <v>0</v>
       </c>
@@ -12952,7 +12949,7 @@
         <f>'Vendor Entry Sheet'!E134</f>
         <v>0</v>
       </c>
-      <c r="H132" s="51">
+      <c r="H132" s="50">
         <f>'Vendor Entry Sheet'!F134</f>
         <v>0</v>
       </c>
@@ -12996,7 +12993,7 @@
         <f>'Vendor Entry Sheet'!E135</f>
         <v>0</v>
       </c>
-      <c r="H133" s="51">
+      <c r="H133" s="50">
         <f>'Vendor Entry Sheet'!F135</f>
         <v>0</v>
       </c>
@@ -13040,7 +13037,7 @@
         <f>'Vendor Entry Sheet'!E136</f>
         <v>0</v>
       </c>
-      <c r="H134" s="51">
+      <c r="H134" s="50">
         <f>'Vendor Entry Sheet'!F136</f>
         <v>0</v>
       </c>
@@ -13084,7 +13081,7 @@
         <f>'Vendor Entry Sheet'!E137</f>
         <v>0</v>
       </c>
-      <c r="H135" s="51">
+      <c r="H135" s="50">
         <f>'Vendor Entry Sheet'!F137</f>
         <v>0</v>
       </c>
@@ -13128,7 +13125,7 @@
         <f>'Vendor Entry Sheet'!E138</f>
         <v>0</v>
       </c>
-      <c r="H136" s="51">
+      <c r="H136" s="50">
         <f>'Vendor Entry Sheet'!F138</f>
         <v>0</v>
       </c>
@@ -13172,7 +13169,7 @@
         <f>'Vendor Entry Sheet'!E139</f>
         <v>0</v>
       </c>
-      <c r="H137" s="51">
+      <c r="H137" s="50">
         <f>'Vendor Entry Sheet'!F139</f>
         <v>0</v>
       </c>
@@ -13216,7 +13213,7 @@
         <f>'Vendor Entry Sheet'!E140</f>
         <v>0</v>
       </c>
-      <c r="H138" s="51">
+      <c r="H138" s="50">
         <f>'Vendor Entry Sheet'!F140</f>
         <v>0</v>
       </c>
@@ -13260,7 +13257,7 @@
         <f>'Vendor Entry Sheet'!E141</f>
         <v>0</v>
       </c>
-      <c r="H139" s="51">
+      <c r="H139" s="50">
         <f>'Vendor Entry Sheet'!F141</f>
         <v>0</v>
       </c>
@@ -13304,7 +13301,7 @@
         <f>'Vendor Entry Sheet'!E142</f>
         <v>0</v>
       </c>
-      <c r="H140" s="51">
+      <c r="H140" s="50">
         <f>'Vendor Entry Sheet'!F142</f>
         <v>0</v>
       </c>
@@ -13348,7 +13345,7 @@
         <f>'Vendor Entry Sheet'!E143</f>
         <v>0</v>
       </c>
-      <c r="H141" s="51">
+      <c r="H141" s="50">
         <f>'Vendor Entry Sheet'!F143</f>
         <v>0</v>
       </c>
@@ -13392,7 +13389,7 @@
         <f>'Vendor Entry Sheet'!E144</f>
         <v>0</v>
       </c>
-      <c r="H142" s="51">
+      <c r="H142" s="50">
         <f>'Vendor Entry Sheet'!F144</f>
         <v>0</v>
       </c>
@@ -13436,7 +13433,7 @@
         <f>'Vendor Entry Sheet'!E145</f>
         <v>0</v>
       </c>
-      <c r="H143" s="51">
+      <c r="H143" s="50">
         <f>'Vendor Entry Sheet'!F145</f>
         <v>0</v>
       </c>
@@ -13480,7 +13477,7 @@
         <f>'Vendor Entry Sheet'!E146</f>
         <v>0</v>
       </c>
-      <c r="H144" s="51">
+      <c r="H144" s="50">
         <f>'Vendor Entry Sheet'!F146</f>
         <v>0</v>
       </c>
@@ -13524,7 +13521,7 @@
         <f>'Vendor Entry Sheet'!E147</f>
         <v>0</v>
       </c>
-      <c r="H145" s="51">
+      <c r="H145" s="50">
         <f>'Vendor Entry Sheet'!F147</f>
         <v>0</v>
       </c>
@@ -13568,7 +13565,7 @@
         <f>'Vendor Entry Sheet'!E148</f>
         <v>0</v>
       </c>
-      <c r="H146" s="51">
+      <c r="H146" s="50">
         <f>'Vendor Entry Sheet'!F148</f>
         <v>0</v>
       </c>
@@ -13612,7 +13609,7 @@
         <f>'Vendor Entry Sheet'!E149</f>
         <v>0</v>
       </c>
-      <c r="H147" s="51">
+      <c r="H147" s="50">
         <f>'Vendor Entry Sheet'!F149</f>
         <v>0</v>
       </c>
@@ -13656,7 +13653,7 @@
         <f>'Vendor Entry Sheet'!E150</f>
         <v>0</v>
       </c>
-      <c r="H148" s="51">
+      <c r="H148" s="50">
         <f>'Vendor Entry Sheet'!F150</f>
         <v>0</v>
       </c>
@@ -13700,7 +13697,7 @@
         <f>'Vendor Entry Sheet'!E151</f>
         <v>0</v>
       </c>
-      <c r="H149" s="51">
+      <c r="H149" s="50">
         <f>'Vendor Entry Sheet'!F151</f>
         <v>0</v>
       </c>
@@ -13744,7 +13741,7 @@
         <f>'Vendor Entry Sheet'!E152</f>
         <v>0</v>
       </c>
-      <c r="H150" s="51">
+      <c r="H150" s="50">
         <f>'Vendor Entry Sheet'!F152</f>
         <v>0</v>
       </c>
@@ -13788,7 +13785,7 @@
         <f>'Vendor Entry Sheet'!E153</f>
         <v>0</v>
       </c>
-      <c r="H151" s="51">
+      <c r="H151" s="50">
         <f>'Vendor Entry Sheet'!F153</f>
         <v>0</v>
       </c>
@@ -13832,7 +13829,7 @@
         <f>'Vendor Entry Sheet'!E154</f>
         <v>0</v>
       </c>
-      <c r="H152" s="51">
+      <c r="H152" s="50">
         <f>'Vendor Entry Sheet'!F154</f>
         <v>0</v>
       </c>
@@ -13876,7 +13873,7 @@
         <f>'Vendor Entry Sheet'!E155</f>
         <v>0</v>
       </c>
-      <c r="H153" s="51">
+      <c r="H153" s="50">
         <f>'Vendor Entry Sheet'!F155</f>
         <v>0</v>
       </c>
@@ -13920,7 +13917,7 @@
         <f>'Vendor Entry Sheet'!E156</f>
         <v>0</v>
       </c>
-      <c r="H154" s="51">
+      <c r="H154" s="50">
         <f>'Vendor Entry Sheet'!F156</f>
         <v>0</v>
       </c>
@@ -13964,7 +13961,7 @@
         <f>'Vendor Entry Sheet'!E157</f>
         <v>0</v>
       </c>
-      <c r="H155" s="51">
+      <c r="H155" s="50">
         <f>'Vendor Entry Sheet'!F157</f>
         <v>0</v>
       </c>
@@ -14008,7 +14005,7 @@
         <f>'Vendor Entry Sheet'!E158</f>
         <v>0</v>
       </c>
-      <c r="H156" s="51">
+      <c r="H156" s="50">
         <f>'Vendor Entry Sheet'!F158</f>
         <v>0</v>
       </c>
@@ -14052,7 +14049,7 @@
         <f>'Vendor Entry Sheet'!E159</f>
         <v>0</v>
       </c>
-      <c r="H157" s="51">
+      <c r="H157" s="50">
         <f>'Vendor Entry Sheet'!F159</f>
         <v>0</v>
       </c>
@@ -14096,7 +14093,7 @@
         <f>'Vendor Entry Sheet'!E160</f>
         <v>0</v>
       </c>
-      <c r="H158" s="51">
+      <c r="H158" s="50">
         <f>'Vendor Entry Sheet'!F160</f>
         <v>0</v>
       </c>
@@ -14140,7 +14137,7 @@
         <f>'Vendor Entry Sheet'!E161</f>
         <v>0</v>
       </c>
-      <c r="H159" s="51">
+      <c r="H159" s="50">
         <f>'Vendor Entry Sheet'!F161</f>
         <v>0</v>
       </c>
@@ -14184,7 +14181,7 @@
         <f>'Vendor Entry Sheet'!E162</f>
         <v>0</v>
       </c>
-      <c r="H160" s="51">
+      <c r="H160" s="50">
         <f>'Vendor Entry Sheet'!F162</f>
         <v>0</v>
       </c>
@@ -14228,7 +14225,7 @@
         <f>'Vendor Entry Sheet'!E163</f>
         <v>0</v>
       </c>
-      <c r="H161" s="51">
+      <c r="H161" s="50">
         <f>'Vendor Entry Sheet'!F163</f>
         <v>0</v>
       </c>
@@ -14272,7 +14269,7 @@
         <f>'Vendor Entry Sheet'!E164</f>
         <v>0</v>
       </c>
-      <c r="H162" s="51">
+      <c r="H162" s="50">
         <f>'Vendor Entry Sheet'!F164</f>
         <v>0</v>
       </c>
@@ -14316,7 +14313,7 @@
         <f>'Vendor Entry Sheet'!E165</f>
         <v>0</v>
       </c>
-      <c r="H163" s="51">
+      <c r="H163" s="50">
         <f>'Vendor Entry Sheet'!F165</f>
         <v>0</v>
       </c>
@@ -14360,7 +14357,7 @@
         <f>'Vendor Entry Sheet'!E166</f>
         <v>0</v>
       </c>
-      <c r="H164" s="51">
+      <c r="H164" s="50">
         <f>'Vendor Entry Sheet'!F166</f>
         <v>0</v>
       </c>
@@ -14404,7 +14401,7 @@
         <f>'Vendor Entry Sheet'!E167</f>
         <v>0</v>
       </c>
-      <c r="H165" s="51">
+      <c r="H165" s="50">
         <f>'Vendor Entry Sheet'!F167</f>
         <v>0</v>
       </c>
@@ -14448,7 +14445,7 @@
         <f>'Vendor Entry Sheet'!E168</f>
         <v>0</v>
       </c>
-      <c r="H166" s="51">
+      <c r="H166" s="50">
         <f>'Vendor Entry Sheet'!F168</f>
         <v>0</v>
       </c>
@@ -14492,7 +14489,7 @@
         <f>'Vendor Entry Sheet'!E169</f>
         <v>0</v>
       </c>
-      <c r="H167" s="51">
+      <c r="H167" s="50">
         <f>'Vendor Entry Sheet'!F169</f>
         <v>0</v>
       </c>
@@ -14536,7 +14533,7 @@
         <f>'Vendor Entry Sheet'!E170</f>
         <v>0</v>
       </c>
-      <c r="H168" s="51">
+      <c r="H168" s="50">
         <f>'Vendor Entry Sheet'!F170</f>
         <v>0</v>
       </c>
@@ -14580,7 +14577,7 @@
         <f>'Vendor Entry Sheet'!E171</f>
         <v>0</v>
       </c>
-      <c r="H169" s="51">
+      <c r="H169" s="50">
         <f>'Vendor Entry Sheet'!F171</f>
         <v>0</v>
       </c>
@@ -14624,7 +14621,7 @@
         <f>'Vendor Entry Sheet'!E172</f>
         <v>0</v>
       </c>
-      <c r="H170" s="51">
+      <c r="H170" s="50">
         <f>'Vendor Entry Sheet'!F172</f>
         <v>0</v>
       </c>
@@ -14668,7 +14665,7 @@
         <f>'Vendor Entry Sheet'!E173</f>
         <v>0</v>
       </c>
-      <c r="H171" s="51">
+      <c r="H171" s="50">
         <f>'Vendor Entry Sheet'!F173</f>
         <v>0</v>
       </c>
@@ -14712,7 +14709,7 @@
         <f>'Vendor Entry Sheet'!E174</f>
         <v>0</v>
       </c>
-      <c r="H172" s="51">
+      <c r="H172" s="50">
         <f>'Vendor Entry Sheet'!F174</f>
         <v>0</v>
       </c>
@@ -14756,7 +14753,7 @@
         <f>'Vendor Entry Sheet'!E175</f>
         <v>0</v>
       </c>
-      <c r="H173" s="51">
+      <c r="H173" s="50">
         <f>'Vendor Entry Sheet'!F175</f>
         <v>0</v>
       </c>
@@ -14800,7 +14797,7 @@
         <f>'Vendor Entry Sheet'!E176</f>
         <v>0</v>
       </c>
-      <c r="H174" s="51">
+      <c r="H174" s="50">
         <f>'Vendor Entry Sheet'!F176</f>
         <v>0</v>
       </c>
@@ -14844,7 +14841,7 @@
         <f>'Vendor Entry Sheet'!E177</f>
         <v>0</v>
       </c>
-      <c r="H175" s="51">
+      <c r="H175" s="50">
         <f>'Vendor Entry Sheet'!F177</f>
         <v>0</v>
       </c>
@@ -14888,7 +14885,7 @@
         <f>'Vendor Entry Sheet'!E178</f>
         <v>0</v>
       </c>
-      <c r="H176" s="51">
+      <c r="H176" s="50">
         <f>'Vendor Entry Sheet'!F178</f>
         <v>0</v>
       </c>
@@ -14932,7 +14929,7 @@
         <f>'Vendor Entry Sheet'!E179</f>
         <v>0</v>
       </c>
-      <c r="H177" s="51">
+      <c r="H177" s="50">
         <f>'Vendor Entry Sheet'!F179</f>
         <v>0</v>
       </c>
@@ -14976,7 +14973,7 @@
         <f>'Vendor Entry Sheet'!E180</f>
         <v>0</v>
       </c>
-      <c r="H178" s="51">
+      <c r="H178" s="50">
         <f>'Vendor Entry Sheet'!F180</f>
         <v>0</v>
       </c>
@@ -15020,7 +15017,7 @@
         <f>'Vendor Entry Sheet'!E181</f>
         <v>0</v>
       </c>
-      <c r="H179" s="51">
+      <c r="H179" s="50">
         <f>'Vendor Entry Sheet'!F181</f>
         <v>0</v>
       </c>
@@ -15064,7 +15061,7 @@
         <f>'Vendor Entry Sheet'!E182</f>
         <v>0</v>
       </c>
-      <c r="H180" s="51">
+      <c r="H180" s="50">
         <f>'Vendor Entry Sheet'!F182</f>
         <v>0</v>
       </c>
@@ -15108,7 +15105,7 @@
         <f>'Vendor Entry Sheet'!E183</f>
         <v>0</v>
       </c>
-      <c r="H181" s="51">
+      <c r="H181" s="50">
         <f>'Vendor Entry Sheet'!F183</f>
         <v>0</v>
       </c>
@@ -15152,7 +15149,7 @@
         <f>'Vendor Entry Sheet'!E184</f>
         <v>0</v>
       </c>
-      <c r="H182" s="51">
+      <c r="H182" s="50">
         <f>'Vendor Entry Sheet'!F184</f>
         <v>0</v>
       </c>
@@ -15196,7 +15193,7 @@
         <f>'Vendor Entry Sheet'!E185</f>
         <v>0</v>
       </c>
-      <c r="H183" s="51">
+      <c r="H183" s="50">
         <f>'Vendor Entry Sheet'!F185</f>
         <v>0</v>
       </c>
@@ -15240,7 +15237,7 @@
         <f>'Vendor Entry Sheet'!E186</f>
         <v>0</v>
       </c>
-      <c r="H184" s="51">
+      <c r="H184" s="50">
         <f>'Vendor Entry Sheet'!F186</f>
         <v>0</v>
       </c>
@@ -15284,7 +15281,7 @@
         <f>'Vendor Entry Sheet'!E187</f>
         <v>0</v>
       </c>
-      <c r="H185" s="51">
+      <c r="H185" s="50">
         <f>'Vendor Entry Sheet'!F187</f>
         <v>0</v>
       </c>
@@ -15328,7 +15325,7 @@
         <f>'Vendor Entry Sheet'!E188</f>
         <v>0</v>
       </c>
-      <c r="H186" s="51">
+      <c r="H186" s="50">
         <f>'Vendor Entry Sheet'!F188</f>
         <v>0</v>
       </c>
@@ -15372,7 +15369,7 @@
         <f>'Vendor Entry Sheet'!E189</f>
         <v>0</v>
       </c>
-      <c r="H187" s="51">
+      <c r="H187" s="50">
         <f>'Vendor Entry Sheet'!F189</f>
         <v>0</v>
       </c>
@@ -15416,7 +15413,7 @@
         <f>'Vendor Entry Sheet'!E190</f>
         <v>0</v>
       </c>
-      <c r="H188" s="51">
+      <c r="H188" s="50">
         <f>'Vendor Entry Sheet'!F190</f>
         <v>0</v>
       </c>
@@ -15460,7 +15457,7 @@
         <f>'Vendor Entry Sheet'!E191</f>
         <v>0</v>
       </c>
-      <c r="H189" s="51">
+      <c r="H189" s="50">
         <f>'Vendor Entry Sheet'!F191</f>
         <v>0</v>
       </c>
@@ -15504,7 +15501,7 @@
         <f>'Vendor Entry Sheet'!E192</f>
         <v>0</v>
       </c>
-      <c r="H190" s="51">
+      <c r="H190" s="50">
         <f>'Vendor Entry Sheet'!F192</f>
         <v>0</v>
       </c>
@@ -15548,7 +15545,7 @@
         <f>'Vendor Entry Sheet'!E193</f>
         <v>0</v>
       </c>
-      <c r="H191" s="51">
+      <c r="H191" s="50">
         <f>'Vendor Entry Sheet'!F193</f>
         <v>0</v>
       </c>
@@ -15592,7 +15589,7 @@
         <f>'Vendor Entry Sheet'!E194</f>
         <v>0</v>
       </c>
-      <c r="H192" s="51">
+      <c r="H192" s="50">
         <f>'Vendor Entry Sheet'!F194</f>
         <v>0</v>
       </c>
@@ -15636,7 +15633,7 @@
         <f>'Vendor Entry Sheet'!E195</f>
         <v>0</v>
       </c>
-      <c r="H193" s="51">
+      <c r="H193" s="50">
         <f>'Vendor Entry Sheet'!F195</f>
         <v>0</v>
       </c>
@@ -15680,7 +15677,7 @@
         <f>'Vendor Entry Sheet'!E196</f>
         <v>0</v>
       </c>
-      <c r="H194" s="51">
+      <c r="H194" s="50">
         <f>'Vendor Entry Sheet'!F196</f>
         <v>0</v>
       </c>
@@ -15724,7 +15721,7 @@
         <f>'Vendor Entry Sheet'!E197</f>
         <v>0</v>
       </c>
-      <c r="H195" s="51">
+      <c r="H195" s="50">
         <f>'Vendor Entry Sheet'!F197</f>
         <v>0</v>
       </c>
@@ -15768,7 +15765,7 @@
         <f>'Vendor Entry Sheet'!E198</f>
         <v>0</v>
       </c>
-      <c r="H196" s="51">
+      <c r="H196" s="50">
         <f>'Vendor Entry Sheet'!F198</f>
         <v>0</v>
       </c>
@@ -15812,7 +15809,7 @@
         <f>'Vendor Entry Sheet'!E199</f>
         <v>0</v>
       </c>
-      <c r="H197" s="51">
+      <c r="H197" s="50">
         <f>'Vendor Entry Sheet'!F199</f>
         <v>0</v>
       </c>
@@ -15856,7 +15853,7 @@
         <f>'Vendor Entry Sheet'!E200</f>
         <v>0</v>
       </c>
-      <c r="H198" s="51">
+      <c r="H198" s="50">
         <f>'Vendor Entry Sheet'!F200</f>
         <v>0</v>
       </c>
@@ -15900,7 +15897,7 @@
         <f>'Vendor Entry Sheet'!E201</f>
         <v>0</v>
       </c>
-      <c r="H199" s="51">
+      <c r="H199" s="50">
         <f>'Vendor Entry Sheet'!F201</f>
         <v>0</v>
       </c>
@@ -15944,7 +15941,7 @@
         <f>'Vendor Entry Sheet'!E202</f>
         <v>0</v>
       </c>
-      <c r="H200" s="51">
+      <c r="H200" s="50">
         <f>'Vendor Entry Sheet'!F202</f>
         <v>0</v>
       </c>
@@ -15988,7 +15985,7 @@
         <f>'Vendor Entry Sheet'!E203</f>
         <v>0</v>
       </c>
-      <c r="H201" s="51">
+      <c r="H201" s="50">
         <f>'Vendor Entry Sheet'!F203</f>
         <v>0</v>
       </c>
@@ -16032,7 +16029,7 @@
         <f>'Vendor Entry Sheet'!E204</f>
         <v>0</v>
       </c>
-      <c r="H202" s="51">
+      <c r="H202" s="50">
         <f>'Vendor Entry Sheet'!F204</f>
         <v>0</v>
       </c>
@@ -16076,7 +16073,7 @@
         <f>'Vendor Entry Sheet'!E205</f>
         <v>0</v>
       </c>
-      <c r="H203" s="51">
+      <c r="H203" s="50">
         <f>'Vendor Entry Sheet'!F205</f>
         <v>0</v>
       </c>
@@ -16120,7 +16117,7 @@
         <f>'Vendor Entry Sheet'!E206</f>
         <v>0</v>
       </c>
-      <c r="H204" s="51">
+      <c r="H204" s="50">
         <f>'Vendor Entry Sheet'!F206</f>
         <v>0</v>
       </c>
@@ -16164,7 +16161,7 @@
         <f>'Vendor Entry Sheet'!E207</f>
         <v>0</v>
       </c>
-      <c r="H205" s="51">
+      <c r="H205" s="50">
         <f>'Vendor Entry Sheet'!F207</f>
         <v>0</v>
       </c>
@@ -16208,7 +16205,7 @@
         <f>'Vendor Entry Sheet'!E208</f>
         <v>0</v>
       </c>
-      <c r="H206" s="51">
+      <c r="H206" s="50">
         <f>'Vendor Entry Sheet'!F208</f>
         <v>0</v>
       </c>
@@ -16252,7 +16249,7 @@
         <f>'Vendor Entry Sheet'!E209</f>
         <v>0</v>
       </c>
-      <c r="H207" s="51">
+      <c r="H207" s="50">
         <f>'Vendor Entry Sheet'!F209</f>
         <v>0</v>
       </c>
@@ -16296,7 +16293,7 @@
         <f>'Vendor Entry Sheet'!E210</f>
         <v>0</v>
       </c>
-      <c r="H208" s="51">
+      <c r="H208" s="50">
         <f>'Vendor Entry Sheet'!F210</f>
         <v>0</v>
       </c>
@@ -16340,7 +16337,7 @@
         <f>'Vendor Entry Sheet'!E211</f>
         <v>0</v>
       </c>
-      <c r="H209" s="51">
+      <c r="H209" s="50">
         <f>'Vendor Entry Sheet'!F211</f>
         <v>0</v>
       </c>
@@ -16384,7 +16381,7 @@
         <f>'Vendor Entry Sheet'!E212</f>
         <v>0</v>
       </c>
-      <c r="H210" s="51">
+      <c r="H210" s="50">
         <f>'Vendor Entry Sheet'!F212</f>
         <v>0</v>
       </c>
@@ -16428,7 +16425,7 @@
         <f>'Vendor Entry Sheet'!E213</f>
         <v>0</v>
       </c>
-      <c r="H211" s="51">
+      <c r="H211" s="50">
         <f>'Vendor Entry Sheet'!F213</f>
         <v>0</v>
       </c>
@@ -16472,7 +16469,7 @@
         <f>'Vendor Entry Sheet'!E214</f>
         <v>0</v>
       </c>
-      <c r="H212" s="51">
+      <c r="H212" s="50">
         <f>'Vendor Entry Sheet'!F214</f>
         <v>0</v>
       </c>
@@ -16516,7 +16513,7 @@
         <f>'Vendor Entry Sheet'!E215</f>
         <v>0</v>
       </c>
-      <c r="H213" s="51">
+      <c r="H213" s="50">
         <f>'Vendor Entry Sheet'!F215</f>
         <v>0</v>
       </c>
@@ -16560,7 +16557,7 @@
         <f>'Vendor Entry Sheet'!E216</f>
         <v>0</v>
       </c>
-      <c r="H214" s="51">
+      <c r="H214" s="50">
         <f>'Vendor Entry Sheet'!F216</f>
         <v>0</v>
       </c>
@@ -16604,7 +16601,7 @@
         <f>'Vendor Entry Sheet'!E217</f>
         <v>0</v>
       </c>
-      <c r="H215" s="51">
+      <c r="H215" s="50">
         <f>'Vendor Entry Sheet'!F217</f>
         <v>0</v>
       </c>
@@ -16648,7 +16645,7 @@
         <f>'Vendor Entry Sheet'!E218</f>
         <v>0</v>
       </c>
-      <c r="H216" s="51">
+      <c r="H216" s="50">
         <f>'Vendor Entry Sheet'!F218</f>
         <v>0</v>
       </c>
@@ -16692,7 +16689,7 @@
         <f>'Vendor Entry Sheet'!E219</f>
         <v>0</v>
       </c>
-      <c r="H217" s="51">
+      <c r="H217" s="50">
         <f>'Vendor Entry Sheet'!F219</f>
         <v>0</v>
       </c>
@@ -16736,7 +16733,7 @@
         <f>'Vendor Entry Sheet'!E220</f>
         <v>0</v>
       </c>
-      <c r="H218" s="51">
+      <c r="H218" s="50">
         <f>'Vendor Entry Sheet'!F220</f>
         <v>0</v>
       </c>
@@ -16780,7 +16777,7 @@
         <f>'Vendor Entry Sheet'!E221</f>
         <v>0</v>
       </c>
-      <c r="H219" s="51">
+      <c r="H219" s="50">
         <f>'Vendor Entry Sheet'!F221</f>
         <v>0</v>
       </c>
@@ -16824,7 +16821,7 @@
         <f>'Vendor Entry Sheet'!E222</f>
         <v>0</v>
       </c>
-      <c r="H220" s="51">
+      <c r="H220" s="50">
         <f>'Vendor Entry Sheet'!F222</f>
         <v>0</v>
       </c>
@@ -16868,7 +16865,7 @@
         <f>'Vendor Entry Sheet'!E223</f>
         <v>0</v>
       </c>
-      <c r="H221" s="51">
+      <c r="H221" s="50">
         <f>'Vendor Entry Sheet'!F223</f>
         <v>0</v>
       </c>
@@ -16912,7 +16909,7 @@
         <f>'Vendor Entry Sheet'!E224</f>
         <v>0</v>
       </c>
-      <c r="H222" s="51">
+      <c r="H222" s="50">
         <f>'Vendor Entry Sheet'!F224</f>
         <v>0</v>
       </c>
@@ -16956,7 +16953,7 @@
         <f>'Vendor Entry Sheet'!E225</f>
         <v>0</v>
       </c>
-      <c r="H223" s="51">
+      <c r="H223" s="50">
         <f>'Vendor Entry Sheet'!F225</f>
         <v>0</v>
       </c>
@@ -17000,7 +16997,7 @@
         <f>'Vendor Entry Sheet'!E226</f>
         <v>0</v>
       </c>
-      <c r="H224" s="51">
+      <c r="H224" s="50">
         <f>'Vendor Entry Sheet'!F226</f>
         <v>0</v>
       </c>
@@ -17044,7 +17041,7 @@
         <f>'Vendor Entry Sheet'!E227</f>
         <v>0</v>
       </c>
-      <c r="H225" s="51">
+      <c r="H225" s="50">
         <f>'Vendor Entry Sheet'!F227</f>
         <v>0</v>
       </c>
@@ -17088,7 +17085,7 @@
         <f>'Vendor Entry Sheet'!E228</f>
         <v>0</v>
       </c>
-      <c r="H226" s="51">
+      <c r="H226" s="50">
         <f>'Vendor Entry Sheet'!F228</f>
         <v>0</v>
       </c>
@@ -17132,7 +17129,7 @@
         <f>'Vendor Entry Sheet'!E229</f>
         <v>0</v>
       </c>
-      <c r="H227" s="51">
+      <c r="H227" s="50">
         <f>'Vendor Entry Sheet'!F229</f>
         <v>0</v>
       </c>
@@ -17176,7 +17173,7 @@
         <f>'Vendor Entry Sheet'!E230</f>
         <v>0</v>
       </c>
-      <c r="H228" s="51">
+      <c r="H228" s="50">
         <f>'Vendor Entry Sheet'!F230</f>
         <v>0</v>
       </c>
@@ -17220,7 +17217,7 @@
         <f>'Vendor Entry Sheet'!E231</f>
         <v>0</v>
       </c>
-      <c r="H229" s="51">
+      <c r="H229" s="50">
         <f>'Vendor Entry Sheet'!F231</f>
         <v>0</v>
       </c>
@@ -17264,7 +17261,7 @@
         <f>'Vendor Entry Sheet'!E232</f>
         <v>0</v>
       </c>
-      <c r="H230" s="51">
+      <c r="H230" s="50">
         <f>'Vendor Entry Sheet'!F232</f>
         <v>0</v>
       </c>
@@ -17308,7 +17305,7 @@
         <f>'Vendor Entry Sheet'!E233</f>
         <v>0</v>
       </c>
-      <c r="H231" s="51">
+      <c r="H231" s="50">
         <f>'Vendor Entry Sheet'!F233</f>
         <v>0</v>
       </c>
@@ -17352,7 +17349,7 @@
         <f>'Vendor Entry Sheet'!E234</f>
         <v>0</v>
       </c>
-      <c r="H232" s="51">
+      <c r="H232" s="50">
         <f>'Vendor Entry Sheet'!F234</f>
         <v>0</v>
       </c>
@@ -17396,7 +17393,7 @@
         <f>'Vendor Entry Sheet'!E235</f>
         <v>0</v>
       </c>
-      <c r="H233" s="51">
+      <c r="H233" s="50">
         <f>'Vendor Entry Sheet'!F235</f>
         <v>0</v>
       </c>
@@ -17440,7 +17437,7 @@
         <f>'Vendor Entry Sheet'!E236</f>
         <v>0</v>
       </c>
-      <c r="H234" s="51">
+      <c r="H234" s="50">
         <f>'Vendor Entry Sheet'!F236</f>
         <v>0</v>
       </c>
@@ -17484,7 +17481,7 @@
         <f>'Vendor Entry Sheet'!E237</f>
         <v>0</v>
       </c>
-      <c r="H235" s="51">
+      <c r="H235" s="50">
         <f>'Vendor Entry Sheet'!F237</f>
         <v>0</v>
       </c>
@@ -17528,7 +17525,7 @@
         <f>'Vendor Entry Sheet'!E238</f>
         <v>0</v>
       </c>
-      <c r="H236" s="51">
+      <c r="H236" s="50">
         <f>'Vendor Entry Sheet'!F238</f>
         <v>0</v>
       </c>
@@ -17572,7 +17569,7 @@
         <f>'Vendor Entry Sheet'!E239</f>
         <v>0</v>
       </c>
-      <c r="H237" s="51">
+      <c r="H237" s="50">
         <f>'Vendor Entry Sheet'!F239</f>
         <v>0</v>
       </c>
@@ -17616,7 +17613,7 @@
         <f>'Vendor Entry Sheet'!E240</f>
         <v>0</v>
       </c>
-      <c r="H238" s="51">
+      <c r="H238" s="50">
         <f>'Vendor Entry Sheet'!F240</f>
         <v>0</v>
       </c>
@@ -17660,7 +17657,7 @@
         <f>'Vendor Entry Sheet'!E241</f>
         <v>0</v>
       </c>
-      <c r="H239" s="51">
+      <c r="H239" s="50">
         <f>'Vendor Entry Sheet'!F241</f>
         <v>0</v>
       </c>
@@ -17704,7 +17701,7 @@
         <f>'Vendor Entry Sheet'!E242</f>
         <v>0</v>
       </c>
-      <c r="H240" s="51">
+      <c r="H240" s="50">
         <f>'Vendor Entry Sheet'!F242</f>
         <v>0</v>
       </c>
@@ -17748,7 +17745,7 @@
         <f>'Vendor Entry Sheet'!E243</f>
         <v>0</v>
       </c>
-      <c r="H241" s="51">
+      <c r="H241" s="50">
         <f>'Vendor Entry Sheet'!F243</f>
         <v>0</v>
       </c>
@@ -17792,7 +17789,7 @@
         <f>'Vendor Entry Sheet'!E244</f>
         <v>0</v>
       </c>
-      <c r="H242" s="51">
+      <c r="H242" s="50">
         <f>'Vendor Entry Sheet'!F244</f>
         <v>0</v>
       </c>
@@ -17836,7 +17833,7 @@
         <f>'Vendor Entry Sheet'!E245</f>
         <v>0</v>
       </c>
-      <c r="H243" s="51">
+      <c r="H243" s="50">
         <f>'Vendor Entry Sheet'!F245</f>
         <v>0</v>
       </c>
@@ -17880,7 +17877,7 @@
         <f>'Vendor Entry Sheet'!E246</f>
         <v>0</v>
       </c>
-      <c r="H244" s="51">
+      <c r="H244" s="50">
         <f>'Vendor Entry Sheet'!F246</f>
         <v>0</v>
       </c>
@@ -17924,7 +17921,7 @@
         <f>'Vendor Entry Sheet'!E247</f>
         <v>0</v>
       </c>
-      <c r="H245" s="51">
+      <c r="H245" s="50">
         <f>'Vendor Entry Sheet'!F247</f>
         <v>0</v>
       </c>
@@ -17968,7 +17965,7 @@
         <f>'Vendor Entry Sheet'!E248</f>
         <v>0</v>
       </c>
-      <c r="H246" s="51">
+      <c r="H246" s="50">
         <f>'Vendor Entry Sheet'!F248</f>
         <v>0</v>
       </c>
@@ -18012,7 +18009,7 @@
         <f>'Vendor Entry Sheet'!E249</f>
         <v>0</v>
       </c>
-      <c r="H247" s="51">
+      <c r="H247" s="50">
         <f>'Vendor Entry Sheet'!F249</f>
         <v>0</v>
       </c>
@@ -18056,7 +18053,7 @@
         <f>'Vendor Entry Sheet'!E250</f>
         <v>0</v>
       </c>
-      <c r="H248" s="51">
+      <c r="H248" s="50">
         <f>'Vendor Entry Sheet'!F250</f>
         <v>0</v>
       </c>
@@ -18100,7 +18097,7 @@
         <f>'Vendor Entry Sheet'!E251</f>
         <v>0</v>
       </c>
-      <c r="H249" s="51">
+      <c r="H249" s="50">
         <f>'Vendor Entry Sheet'!F251</f>
         <v>0</v>
       </c>
@@ -18144,7 +18141,7 @@
         <f>'Vendor Entry Sheet'!E252</f>
         <v>0</v>
       </c>
-      <c r="H250" s="51">
+      <c r="H250" s="50">
         <f>'Vendor Entry Sheet'!F252</f>
         <v>0</v>
       </c>
@@ -18188,7 +18185,7 @@
         <f>'Vendor Entry Sheet'!E253</f>
         <v>0</v>
       </c>
-      <c r="H251" s="51">
+      <c r="H251" s="50">
         <f>'Vendor Entry Sheet'!F253</f>
         <v>0</v>
       </c>
@@ -18232,7 +18229,7 @@
         <f>'Vendor Entry Sheet'!E254</f>
         <v>0</v>
       </c>
-      <c r="H252" s="51">
+      <c r="H252" s="50">
         <f>'Vendor Entry Sheet'!F254</f>
         <v>0</v>
       </c>
@@ -18276,7 +18273,7 @@
         <f>'Vendor Entry Sheet'!E255</f>
         <v>0</v>
       </c>
-      <c r="H253" s="51">
+      <c r="H253" s="50">
         <f>'Vendor Entry Sheet'!F255</f>
         <v>0</v>
       </c>
@@ -18320,7 +18317,7 @@
         <f>'Vendor Entry Sheet'!E256</f>
         <v>0</v>
       </c>
-      <c r="H254" s="51">
+      <c r="H254" s="50">
         <f>'Vendor Entry Sheet'!F256</f>
         <v>0</v>
       </c>
@@ -18364,7 +18361,7 @@
         <f>'Vendor Entry Sheet'!E257</f>
         <v>0</v>
       </c>
-      <c r="H255" s="51">
+      <c r="H255" s="50">
         <f>'Vendor Entry Sheet'!F257</f>
         <v>0</v>
       </c>
@@ -18408,7 +18405,7 @@
         <f>'Vendor Entry Sheet'!E258</f>
         <v>0</v>
       </c>
-      <c r="H256" s="51">
+      <c r="H256" s="50">
         <f>'Vendor Entry Sheet'!F258</f>
         <v>0</v>
       </c>
@@ -18452,7 +18449,7 @@
         <f>'Vendor Entry Sheet'!E259</f>
         <v>0</v>
       </c>
-      <c r="H257" s="51">
+      <c r="H257" s="50">
         <f>'Vendor Entry Sheet'!F259</f>
         <v>0</v>
       </c>
@@ -18496,7 +18493,7 @@
         <f>'Vendor Entry Sheet'!E260</f>
         <v>0</v>
       </c>
-      <c r="H258" s="51">
+      <c r="H258" s="50">
         <f>'Vendor Entry Sheet'!F260</f>
         <v>0</v>
       </c>
@@ -18540,7 +18537,7 @@
         <f>'Vendor Entry Sheet'!E261</f>
         <v>0</v>
       </c>
-      <c r="H259" s="51">
+      <c r="H259" s="50">
         <f>'Vendor Entry Sheet'!F261</f>
         <v>0</v>
       </c>
@@ -18584,7 +18581,7 @@
         <f>'Vendor Entry Sheet'!E262</f>
         <v>0</v>
       </c>
-      <c r="H260" s="51">
+      <c r="H260" s="50">
         <f>'Vendor Entry Sheet'!F262</f>
         <v>0</v>
       </c>
@@ -18628,7 +18625,7 @@
         <f>'Vendor Entry Sheet'!E263</f>
         <v>0</v>
       </c>
-      <c r="H261" s="51">
+      <c r="H261" s="50">
         <f>'Vendor Entry Sheet'!F263</f>
         <v>0</v>
       </c>
@@ -18672,7 +18669,7 @@
         <f>'Vendor Entry Sheet'!E264</f>
         <v>0</v>
       </c>
-      <c r="H262" s="51">
+      <c r="H262" s="50">
         <f>'Vendor Entry Sheet'!F264</f>
         <v>0</v>
       </c>
@@ -18716,7 +18713,7 @@
         <f>'Vendor Entry Sheet'!E265</f>
         <v>0</v>
       </c>
-      <c r="H263" s="51">
+      <c r="H263" s="50">
         <f>'Vendor Entry Sheet'!F265</f>
         <v>0</v>
       </c>
@@ -18760,7 +18757,7 @@
         <f>'Vendor Entry Sheet'!E266</f>
         <v>0</v>
       </c>
-      <c r="H264" s="51">
+      <c r="H264" s="50">
         <f>'Vendor Entry Sheet'!F266</f>
         <v>0</v>
       </c>
@@ -18804,7 +18801,7 @@
         <f>'Vendor Entry Sheet'!E267</f>
         <v>0</v>
       </c>
-      <c r="H265" s="51">
+      <c r="H265" s="50">
         <f>'Vendor Entry Sheet'!F267</f>
         <v>0</v>
       </c>
@@ -18848,7 +18845,7 @@
         <f>'Vendor Entry Sheet'!E268</f>
         <v>0</v>
       </c>
-      <c r="H266" s="51">
+      <c r="H266" s="50">
         <f>'Vendor Entry Sheet'!F268</f>
         <v>0</v>
       </c>
@@ -18892,7 +18889,7 @@
         <f>'Vendor Entry Sheet'!E269</f>
         <v>0</v>
       </c>
-      <c r="H267" s="51">
+      <c r="H267" s="50">
         <f>'Vendor Entry Sheet'!F269</f>
         <v>0</v>
       </c>
@@ -18936,7 +18933,7 @@
         <f>'Vendor Entry Sheet'!E270</f>
         <v>0</v>
       </c>
-      <c r="H268" s="51">
+      <c r="H268" s="50">
         <f>'Vendor Entry Sheet'!F270</f>
         <v>0</v>
       </c>
@@ -18980,7 +18977,7 @@
         <f>'Vendor Entry Sheet'!E271</f>
         <v>0</v>
       </c>
-      <c r="H269" s="51">
+      <c r="H269" s="50">
         <f>'Vendor Entry Sheet'!F271</f>
         <v>0</v>
       </c>
@@ -19024,7 +19021,7 @@
         <f>'Vendor Entry Sheet'!E272</f>
         <v>0</v>
       </c>
-      <c r="H270" s="51">
+      <c r="H270" s="50">
         <f>'Vendor Entry Sheet'!F272</f>
         <v>0</v>
       </c>
@@ -19068,7 +19065,7 @@
         <f>'Vendor Entry Sheet'!E273</f>
         <v>0</v>
       </c>
-      <c r="H271" s="51">
+      <c r="H271" s="50">
         <f>'Vendor Entry Sheet'!F273</f>
         <v>0</v>
       </c>
@@ -19112,7 +19109,7 @@
         <f>'Vendor Entry Sheet'!E274</f>
         <v>0</v>
       </c>
-      <c r="H272" s="51">
+      <c r="H272" s="50">
         <f>'Vendor Entry Sheet'!F274</f>
         <v>0</v>
       </c>
@@ -19156,7 +19153,7 @@
         <f>'Vendor Entry Sheet'!E275</f>
         <v>0</v>
       </c>
-      <c r="H273" s="51">
+      <c r="H273" s="50">
         <f>'Vendor Entry Sheet'!F275</f>
         <v>0</v>
       </c>
@@ -19200,7 +19197,7 @@
         <f>'Vendor Entry Sheet'!E276</f>
         <v>0</v>
       </c>
-      <c r="H274" s="51">
+      <c r="H274" s="50">
         <f>'Vendor Entry Sheet'!F276</f>
         <v>0</v>
       </c>
@@ -19244,7 +19241,7 @@
         <f>'Vendor Entry Sheet'!E277</f>
         <v>0</v>
       </c>
-      <c r="H275" s="51">
+      <c r="H275" s="50">
         <f>'Vendor Entry Sheet'!F277</f>
         <v>0</v>
       </c>
@@ -19288,7 +19285,7 @@
         <f>'Vendor Entry Sheet'!E278</f>
         <v>0</v>
       </c>
-      <c r="H276" s="51">
+      <c r="H276" s="50">
         <f>'Vendor Entry Sheet'!F278</f>
         <v>0</v>
       </c>
@@ -19332,7 +19329,7 @@
         <f>'Vendor Entry Sheet'!E279</f>
         <v>0</v>
       </c>
-      <c r="H277" s="51">
+      <c r="H277" s="50">
         <f>'Vendor Entry Sheet'!F279</f>
         <v>0</v>
       </c>
@@ -19376,7 +19373,7 @@
         <f>'Vendor Entry Sheet'!E280</f>
         <v>0</v>
       </c>
-      <c r="H278" s="51">
+      <c r="H278" s="50">
         <f>'Vendor Entry Sheet'!F280</f>
         <v>0</v>
       </c>
@@ -19420,7 +19417,7 @@
         <f>'Vendor Entry Sheet'!E281</f>
         <v>0</v>
       </c>
-      <c r="H279" s="51">
+      <c r="H279" s="50">
         <f>'Vendor Entry Sheet'!F281</f>
         <v>0</v>
       </c>
@@ -19464,7 +19461,7 @@
         <f>'Vendor Entry Sheet'!E282</f>
         <v>0</v>
       </c>
-      <c r="H280" s="51">
+      <c r="H280" s="50">
         <f>'Vendor Entry Sheet'!F282</f>
         <v>0</v>
       </c>
@@ -19508,7 +19505,7 @@
         <f>'Vendor Entry Sheet'!E283</f>
         <v>0</v>
       </c>
-      <c r="H281" s="51">
+      <c r="H281" s="50">
         <f>'Vendor Entry Sheet'!F283</f>
         <v>0</v>
       </c>
@@ -19552,7 +19549,7 @@
         <f>'Vendor Entry Sheet'!E284</f>
         <v>0</v>
       </c>
-      <c r="H282" s="51">
+      <c r="H282" s="50">
         <f>'Vendor Entry Sheet'!F284</f>
         <v>0</v>
       </c>
@@ -19596,7 +19593,7 @@
         <f>'Vendor Entry Sheet'!E285</f>
         <v>0</v>
       </c>
-      <c r="H283" s="51">
+      <c r="H283" s="50">
         <f>'Vendor Entry Sheet'!F285</f>
         <v>0</v>
       </c>
@@ -19640,7 +19637,7 @@
         <f>'Vendor Entry Sheet'!E286</f>
         <v>0</v>
       </c>
-      <c r="H284" s="51">
+      <c r="H284" s="50">
         <f>'Vendor Entry Sheet'!F286</f>
         <v>0</v>
       </c>
@@ -19684,7 +19681,7 @@
         <f>'Vendor Entry Sheet'!E287</f>
         <v>0</v>
       </c>
-      <c r="H285" s="51">
+      <c r="H285" s="50">
         <f>'Vendor Entry Sheet'!F287</f>
         <v>0</v>
       </c>
@@ -19728,7 +19725,7 @@
         <f>'Vendor Entry Sheet'!E288</f>
         <v>0</v>
       </c>
-      <c r="H286" s="51">
+      <c r="H286" s="50">
         <f>'Vendor Entry Sheet'!F288</f>
         <v>0</v>
       </c>
@@ -19772,7 +19769,7 @@
         <f>'Vendor Entry Sheet'!E289</f>
         <v>0</v>
       </c>
-      <c r="H287" s="51">
+      <c r="H287" s="50">
         <f>'Vendor Entry Sheet'!F289</f>
         <v>0</v>
       </c>
@@ -19816,7 +19813,7 @@
         <f>'Vendor Entry Sheet'!E290</f>
         <v>0</v>
       </c>
-      <c r="H288" s="51">
+      <c r="H288" s="50">
         <f>'Vendor Entry Sheet'!F290</f>
         <v>0</v>
       </c>
@@ -19860,7 +19857,7 @@
         <f>'Vendor Entry Sheet'!E291</f>
         <v>0</v>
       </c>
-      <c r="H289" s="51">
+      <c r="H289" s="50">
         <f>'Vendor Entry Sheet'!F291</f>
         <v>0</v>
       </c>
@@ -19904,7 +19901,7 @@
         <f>'Vendor Entry Sheet'!E292</f>
         <v>0</v>
       </c>
-      <c r="H290" s="51">
+      <c r="H290" s="50">
         <f>'Vendor Entry Sheet'!F292</f>
         <v>0</v>
       </c>
@@ -19948,7 +19945,7 @@
         <f>'Vendor Entry Sheet'!E293</f>
         <v>0</v>
       </c>
-      <c r="H291" s="51">
+      <c r="H291" s="50">
         <f>'Vendor Entry Sheet'!F293</f>
         <v>0</v>
       </c>
@@ -19992,7 +19989,7 @@
         <f>'Vendor Entry Sheet'!E294</f>
         <v>0</v>
       </c>
-      <c r="H292" s="51">
+      <c r="H292" s="50">
         <f>'Vendor Entry Sheet'!F294</f>
         <v>0</v>
       </c>
@@ -20036,7 +20033,7 @@
         <f>'Vendor Entry Sheet'!E295</f>
         <v>0</v>
       </c>
-      <c r="H293" s="51">
+      <c r="H293" s="50">
         <f>'Vendor Entry Sheet'!F295</f>
         <v>0</v>
       </c>
@@ -20080,7 +20077,7 @@
         <f>'Vendor Entry Sheet'!E296</f>
         <v>0</v>
       </c>
-      <c r="H294" s="51">
+      <c r="H294" s="50">
         <f>'Vendor Entry Sheet'!F296</f>
         <v>0</v>
       </c>
@@ -20124,7 +20121,7 @@
         <f>'Vendor Entry Sheet'!E297</f>
         <v>0</v>
       </c>
-      <c r="H295" s="51">
+      <c r="H295" s="50">
         <f>'Vendor Entry Sheet'!F297</f>
         <v>0</v>
       </c>
@@ -20168,7 +20165,7 @@
         <f>'Vendor Entry Sheet'!E298</f>
         <v>0</v>
       </c>
-      <c r="H296" s="51">
+      <c r="H296" s="50">
         <f>'Vendor Entry Sheet'!F298</f>
         <v>0</v>
       </c>
@@ -20212,7 +20209,7 @@
         <f>'Vendor Entry Sheet'!E299</f>
         <v>0</v>
       </c>
-      <c r="H297" s="51">
+      <c r="H297" s="50">
         <f>'Vendor Entry Sheet'!F299</f>
         <v>0</v>
       </c>
@@ -20256,7 +20253,7 @@
         <f>'Vendor Entry Sheet'!E300</f>
         <v>0</v>
       </c>
-      <c r="H298" s="51">
+      <c r="H298" s="50">
         <f>'Vendor Entry Sheet'!F300</f>
         <v>0</v>
       </c>
@@ -20300,7 +20297,7 @@
         <f>'Vendor Entry Sheet'!E301</f>
         <v>0</v>
       </c>
-      <c r="H299" s="51">
+      <c r="H299" s="50">
         <f>'Vendor Entry Sheet'!F301</f>
         <v>0</v>
       </c>
@@ -20344,7 +20341,7 @@
         <f>'Vendor Entry Sheet'!E302</f>
         <v>0</v>
       </c>
-      <c r="H300" s="51">
+      <c r="H300" s="50">
         <f>'Vendor Entry Sheet'!F302</f>
         <v>0</v>
       </c>
@@ -20388,7 +20385,7 @@
         <f>'Vendor Entry Sheet'!E303</f>
         <v>0</v>
       </c>
-      <c r="H301" s="51">
+      <c r="H301" s="50">
         <f>'Vendor Entry Sheet'!F303</f>
         <v>0</v>
       </c>
@@ -20432,7 +20429,7 @@
         <f>'Vendor Entry Sheet'!E304</f>
         <v>0</v>
       </c>
-      <c r="H302" s="51">
+      <c r="H302" s="50">
         <f>'Vendor Entry Sheet'!F304</f>
         <v>0</v>
       </c>
@@ -20476,7 +20473,7 @@
         <f>'Vendor Entry Sheet'!E305</f>
         <v>0</v>
       </c>
-      <c r="H303" s="51">
+      <c r="H303" s="50">
         <f>'Vendor Entry Sheet'!F305</f>
         <v>0</v>
       </c>
@@ -20520,7 +20517,7 @@
         <f>'Vendor Entry Sheet'!E306</f>
         <v>0</v>
       </c>
-      <c r="H304" s="51">
+      <c r="H304" s="50">
         <f>'Vendor Entry Sheet'!F306</f>
         <v>0</v>
       </c>
@@ -20564,7 +20561,7 @@
         <f>'Vendor Entry Sheet'!E307</f>
         <v>0</v>
       </c>
-      <c r="H305" s="51">
+      <c r="H305" s="50">
         <f>'Vendor Entry Sheet'!F307</f>
         <v>0</v>
       </c>
@@ -20608,7 +20605,7 @@
         <f>'Vendor Entry Sheet'!E308</f>
         <v>0</v>
       </c>
-      <c r="H306" s="51">
+      <c r="H306" s="50">
         <f>'Vendor Entry Sheet'!F308</f>
         <v>0</v>
       </c>
@@ -20652,7 +20649,7 @@
         <f>'Vendor Entry Sheet'!E309</f>
         <v>0</v>
       </c>
-      <c r="H307" s="51">
+      <c r="H307" s="50">
         <f>'Vendor Entry Sheet'!F309</f>
         <v>0</v>
       </c>
@@ -20696,7 +20693,7 @@
         <f>'Vendor Entry Sheet'!E310</f>
         <v>0</v>
       </c>
-      <c r="H308" s="51">
+      <c r="H308" s="50">
         <f>'Vendor Entry Sheet'!F310</f>
         <v>0</v>
       </c>
@@ -20740,7 +20737,7 @@
         <f>'Vendor Entry Sheet'!E311</f>
         <v>0</v>
       </c>
-      <c r="H309" s="51">
+      <c r="H309" s="50">
         <f>'Vendor Entry Sheet'!F311</f>
         <v>0</v>
       </c>
@@ -20784,7 +20781,7 @@
         <f>'Vendor Entry Sheet'!E312</f>
         <v>0</v>
       </c>
-      <c r="H310" s="51">
+      <c r="H310" s="50">
         <f>'Vendor Entry Sheet'!F312</f>
         <v>0</v>
       </c>
@@ -20828,7 +20825,7 @@
         <f>'Vendor Entry Sheet'!E313</f>
         <v>0</v>
       </c>
-      <c r="H311" s="51">
+      <c r="H311" s="50">
         <f>'Vendor Entry Sheet'!F313</f>
         <v>0</v>
       </c>
@@ -20872,7 +20869,7 @@
         <f>'Vendor Entry Sheet'!E314</f>
         <v>0</v>
       </c>
-      <c r="H312" s="51">
+      <c r="H312" s="50">
         <f>'Vendor Entry Sheet'!F314</f>
         <v>0</v>
       </c>
@@ -20916,7 +20913,7 @@
         <f>'Vendor Entry Sheet'!E315</f>
         <v>0</v>
       </c>
-      <c r="H313" s="51">
+      <c r="H313" s="50">
         <f>'Vendor Entry Sheet'!F315</f>
         <v>0</v>
       </c>
@@ -20960,7 +20957,7 @@
         <f>'Vendor Entry Sheet'!E316</f>
         <v>0</v>
       </c>
-      <c r="H314" s="51">
+      <c r="H314" s="50">
         <f>'Vendor Entry Sheet'!F316</f>
         <v>0</v>
       </c>
@@ -21004,7 +21001,7 @@
         <f>'Vendor Entry Sheet'!E317</f>
         <v>0</v>
       </c>
-      <c r="H315" s="51">
+      <c r="H315" s="50">
         <f>'Vendor Entry Sheet'!F317</f>
         <v>0</v>
       </c>
@@ -21048,7 +21045,7 @@
         <f>'Vendor Entry Sheet'!E318</f>
         <v>0</v>
       </c>
-      <c r="H316" s="51">
+      <c r="H316" s="50">
         <f>'Vendor Entry Sheet'!F318</f>
         <v>0</v>
       </c>
@@ -21092,7 +21089,7 @@
         <f>'Vendor Entry Sheet'!E319</f>
         <v>0</v>
       </c>
-      <c r="H317" s="51">
+      <c r="H317" s="50">
         <f>'Vendor Entry Sheet'!F319</f>
         <v>0</v>
       </c>
@@ -21136,7 +21133,7 @@
         <f>'Vendor Entry Sheet'!E320</f>
         <v>0</v>
       </c>
-      <c r="H318" s="51">
+      <c r="H318" s="50">
         <f>'Vendor Entry Sheet'!F320</f>
         <v>0</v>
       </c>
@@ -21180,7 +21177,7 @@
         <f>'Vendor Entry Sheet'!E321</f>
         <v>0</v>
       </c>
-      <c r="H319" s="51">
+      <c r="H319" s="50">
         <f>'Vendor Entry Sheet'!F321</f>
         <v>0</v>
       </c>
@@ -21224,7 +21221,7 @@
         <f>'Vendor Entry Sheet'!E322</f>
         <v>0</v>
       </c>
-      <c r="H320" s="51">
+      <c r="H320" s="50">
         <f>'Vendor Entry Sheet'!F322</f>
         <v>0</v>
       </c>
@@ -21268,7 +21265,7 @@
         <f>'Vendor Entry Sheet'!E323</f>
         <v>0</v>
       </c>
-      <c r="H321" s="51">
+      <c r="H321" s="50">
         <f>'Vendor Entry Sheet'!F323</f>
         <v>0</v>
       </c>
@@ -21312,7 +21309,7 @@
         <f>'Vendor Entry Sheet'!E324</f>
         <v>0</v>
       </c>
-      <c r="H322" s="51">
+      <c r="H322" s="50">
         <f>'Vendor Entry Sheet'!F324</f>
         <v>0</v>
       </c>
@@ -21356,7 +21353,7 @@
         <f>'Vendor Entry Sheet'!E325</f>
         <v>0</v>
       </c>
-      <c r="H323" s="51">
+      <c r="H323" s="50">
         <f>'Vendor Entry Sheet'!F325</f>
         <v>0</v>
       </c>
@@ -21400,7 +21397,7 @@
         <f>'Vendor Entry Sheet'!E326</f>
         <v>0</v>
       </c>
-      <c r="H324" s="51">
+      <c r="H324" s="50">
         <f>'Vendor Entry Sheet'!F326</f>
         <v>0</v>
       </c>
@@ -21444,7 +21441,7 @@
         <f>'Vendor Entry Sheet'!E327</f>
         <v>0</v>
       </c>
-      <c r="H325" s="51">
+      <c r="H325" s="50">
         <f>'Vendor Entry Sheet'!F327</f>
         <v>0</v>
       </c>
@@ -21488,7 +21485,7 @@
         <f>'Vendor Entry Sheet'!E328</f>
         <v>0</v>
       </c>
-      <c r="H326" s="51">
+      <c r="H326" s="50">
         <f>'Vendor Entry Sheet'!F328</f>
         <v>0</v>
       </c>
@@ -21532,7 +21529,7 @@
         <f>'Vendor Entry Sheet'!E329</f>
         <v>0</v>
       </c>
-      <c r="H327" s="51">
+      <c r="H327" s="50">
         <f>'Vendor Entry Sheet'!F329</f>
         <v>0</v>
       </c>
@@ -21576,7 +21573,7 @@
         <f>'Vendor Entry Sheet'!E330</f>
         <v>0</v>
       </c>
-      <c r="H328" s="51">
+      <c r="H328" s="50">
         <f>'Vendor Entry Sheet'!F330</f>
         <v>0</v>
       </c>
@@ -21620,7 +21617,7 @@
         <f>'Vendor Entry Sheet'!E331</f>
         <v>0</v>
       </c>
-      <c r="H329" s="51">
+      <c r="H329" s="50">
         <f>'Vendor Entry Sheet'!F331</f>
         <v>0</v>
       </c>
@@ -21664,7 +21661,7 @@
         <f>'Vendor Entry Sheet'!E332</f>
         <v>0</v>
       </c>
-      <c r="H330" s="51">
+      <c r="H330" s="50">
         <f>'Vendor Entry Sheet'!F332</f>
         <v>0</v>
       </c>
@@ -21708,7 +21705,7 @@
         <f>'Vendor Entry Sheet'!E333</f>
         <v>0</v>
       </c>
-      <c r="H331" s="51">
+      <c r="H331" s="50">
         <f>'Vendor Entry Sheet'!F333</f>
         <v>0</v>
       </c>
@@ -21752,7 +21749,7 @@
         <f>'Vendor Entry Sheet'!E334</f>
         <v>0</v>
       </c>
-      <c r="H332" s="51">
+      <c r="H332" s="50">
         <f>'Vendor Entry Sheet'!F334</f>
         <v>0</v>
       </c>
@@ -21796,7 +21793,7 @@
         <f>'Vendor Entry Sheet'!E335</f>
         <v>0</v>
       </c>
-      <c r="H333" s="51">
+      <c r="H333" s="50">
         <f>'Vendor Entry Sheet'!F335</f>
         <v>0</v>
       </c>
@@ -21840,7 +21837,7 @@
         <f>'Vendor Entry Sheet'!E336</f>
         <v>0</v>
       </c>
-      <c r="H334" s="51">
+      <c r="H334" s="50">
         <f>'Vendor Entry Sheet'!F336</f>
         <v>0</v>
       </c>
@@ -21884,7 +21881,7 @@
         <f>'Vendor Entry Sheet'!E337</f>
         <v>0</v>
       </c>
-      <c r="H335" s="51">
+      <c r="H335" s="50">
         <f>'Vendor Entry Sheet'!F337</f>
         <v>0</v>
       </c>
@@ -21928,7 +21925,7 @@
         <f>'Vendor Entry Sheet'!E338</f>
         <v>0</v>
       </c>
-      <c r="H336" s="51">
+      <c r="H336" s="50">
         <f>'Vendor Entry Sheet'!F338</f>
         <v>0</v>
       </c>
@@ -21972,7 +21969,7 @@
         <f>'Vendor Entry Sheet'!E339</f>
         <v>0</v>
       </c>
-      <c r="H337" s="51">
+      <c r="H337" s="50">
         <f>'Vendor Entry Sheet'!F339</f>
         <v>0</v>
       </c>
@@ -22016,7 +22013,7 @@
         <f>'Vendor Entry Sheet'!E340</f>
         <v>0</v>
       </c>
-      <c r="H338" s="51">
+      <c r="H338" s="50">
         <f>'Vendor Entry Sheet'!F340</f>
         <v>0</v>
       </c>
@@ -22060,7 +22057,7 @@
         <f>'Vendor Entry Sheet'!E341</f>
         <v>0</v>
       </c>
-      <c r="H339" s="51">
+      <c r="H339" s="50">
         <f>'Vendor Entry Sheet'!F341</f>
         <v>0</v>
       </c>
@@ -22111,8 +22108,8 @@
   </sheetPr>
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23028,7 +23025,9 @@
       <c r="D43" t="s">
         <v>551</v>
       </c>
-      <c r="E43" s="50"/>
+      <c r="E43" s="21">
+        <v>3001951</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="49" t="s">
@@ -23043,7 +23042,9 @@
       <c r="D44" t="s">
         <v>552</v>
       </c>
-      <c r="E44" s="50"/>
+      <c r="E44" s="21">
+        <v>3001951</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="49" t="s">
@@ -23058,7 +23059,9 @@
       <c r="D45" t="s">
         <v>553</v>
       </c>
-      <c r="E45" s="50"/>
+      <c r="E45" s="21">
+        <v>3001951</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="49" t="s">
@@ -23073,7 +23076,9 @@
       <c r="D46" t="s">
         <v>554</v>
       </c>
-      <c r="E46" s="50"/>
+      <c r="E46" s="21">
+        <v>3001951</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="49" t="s">
@@ -23088,14 +23093,18 @@
       <c r="D47" t="s">
         <v>552</v>
       </c>
-      <c r="E47" s="50"/>
+      <c r="E47" s="21">
+        <v>3001951</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="49" t="s">
         <v>478</v>
       </c>
       <c r="C48"/>
-      <c r="E48" s="50"/>
+      <c r="E48" s="21">
+        <v>3001951</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="49" t="s">
@@ -23110,7 +23119,9 @@
       <c r="D49" t="s">
         <v>554</v>
       </c>
-      <c r="E49" s="50"/>
+      <c r="E49" s="21">
+        <v>3001951</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="49" t="s">
@@ -23125,7 +23136,9 @@
       <c r="D50" t="s">
         <v>47</v>
       </c>
-      <c r="E50" s="50"/>
+      <c r="E50" s="21">
+        <v>3001951</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="49" t="s">
@@ -23140,7 +23153,9 @@
       <c r="D51" t="s">
         <v>552</v>
       </c>
-      <c r="E51" s="50"/>
+      <c r="E51" s="21">
+        <v>3001951</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="49" t="s">
@@ -23155,7 +23170,9 @@
       <c r="D52" t="s">
         <v>553</v>
       </c>
-      <c r="E52" s="50"/>
+      <c r="E52" s="21">
+        <v>3001951</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="49" t="s">
@@ -23170,7 +23187,9 @@
       <c r="D53" t="s">
         <v>554</v>
       </c>
-      <c r="E53" s="50"/>
+      <c r="E53" s="21">
+        <v>3001951</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="49" t="s">
@@ -23185,7 +23204,9 @@
       <c r="D54" t="s">
         <v>552</v>
       </c>
-      <c r="E54" s="50"/>
+      <c r="E54" s="21">
+        <v>3001951</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="49" t="s">
@@ -23200,7 +23221,9 @@
       <c r="D55" t="s">
         <v>553</v>
       </c>
-      <c r="E55" s="50"/>
+      <c r="E55" s="21">
+        <v>3001951</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="49" t="s">
@@ -23215,6 +23238,9 @@
       <c r="D56" t="s">
         <v>554</v>
       </c>
+      <c r="E56" s="21">
+        <v>3001951</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="49" t="s">
@@ -23229,6 +23255,9 @@
       <c r="D57" t="s">
         <v>546</v>
       </c>
+      <c r="E57" s="21">
+        <v>3001951</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="49" t="s">
@@ -23243,6 +23272,9 @@
       <c r="D58" t="s">
         <v>547</v>
       </c>
+      <c r="E58" s="21">
+        <v>3001951</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="49" t="s">
@@ -23257,6 +23289,9 @@
       <c r="D59" t="s">
         <v>547</v>
       </c>
+      <c r="E59" s="21">
+        <v>3001951</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="49" t="s">
@@ -23271,6 +23306,9 @@
       <c r="D60" t="s">
         <v>548</v>
       </c>
+      <c r="E60" s="21">
+        <v>3001951</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="49" t="s">
@@ -23285,6 +23323,9 @@
       <c r="D61" t="s">
         <v>506</v>
       </c>
+      <c r="E61" s="21">
+        <v>3001951</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="49" t="s">
@@ -23299,6 +23340,9 @@
       <c r="D62" t="s">
         <v>549</v>
       </c>
+      <c r="E62" s="21">
+        <v>3001951</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="49" t="s">
@@ -23313,6 +23357,9 @@
       <c r="D63" t="s">
         <v>506</v>
       </c>
+      <c r="E63" s="21">
+        <v>3001951</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="49" t="s">
@@ -23327,8 +23374,11 @@
       <c r="D64" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E64" s="21">
+        <v>3001951</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="49" t="s">
         <v>479</v>
       </c>
@@ -23341,8 +23391,11 @@
       <c r="D65" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E65" s="21">
+        <v>3001951</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="49" t="s">
         <v>479</v>
       </c>
@@ -23355,8 +23408,11 @@
       <c r="D66" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E66" s="21">
+        <v>3001951</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="49" t="s">
         <v>479</v>
       </c>
@@ -23369,8 +23425,11 @@
       <c r="D67" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E67" s="21">
+        <v>3001951</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="49" t="s">
         <v>479</v>
       </c>
@@ -23383,20 +23442,28 @@
       <c r="D68" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E68" s="21">
+        <v>3001951</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="49" t="s">
         <v>516</v>
       </c>
       <c r="B69" t="s">
         <v>576</v>
       </c>
-      <c r="C69"/>
+      <c r="C69">
+        <v>90128099</v>
+      </c>
       <c r="D69" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E69" s="21">
+        <v>3001951</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="49" t="s">
         <v>516</v>
       </c>
@@ -23409,8 +23476,11 @@
       <c r="D70" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E70" s="21">
+        <v>3001951</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="49" t="s">
         <v>516</v>
       </c>
@@ -23423,8 +23493,11 @@
       <c r="D71" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E71" s="21">
+        <v>3001951</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="49" t="s">
         <v>516</v>
       </c>
@@ -23437,8 +23510,11 @@
       <c r="D72" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E72" s="21">
+        <v>3001951</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="49" t="s">
         <v>516</v>
       </c>
@@ -23451,8 +23527,11 @@
       <c r="D73" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E73" s="21">
+        <v>3001951</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="49" t="s">
         <v>516</v>
       </c>
@@ -23465,8 +23544,11 @@
       <c r="D74" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E74" s="21">
+        <v>3001951</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="49" t="s">
         <v>516</v>
       </c>
@@ -23479,8 +23561,11 @@
       <c r="D75" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E75" s="21">
+        <v>3001951</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="49" t="s">
         <v>516</v>
       </c>
@@ -23493,8 +23578,11 @@
       <c r="D76" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E76" s="21">
+        <v>3001951</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="49" t="s">
         <v>516</v>
       </c>
@@ -23507,8 +23595,11 @@
       <c r="D77" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E77" s="21">
+        <v>3001951</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="49" t="s">
         <v>516</v>
       </c>
@@ -23521,8 +23612,11 @@
       <c r="D78" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E78" s="21">
+        <v>3001951</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="49" t="s">
         <v>516</v>
       </c>
@@ -23535,8 +23629,11 @@
       <c r="D79" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E79" s="21">
+        <v>3001951</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="49" t="s">
         <v>516</v>
       </c>
@@ -23548,6 +23645,9 @@
       </c>
       <c r="D80" t="s">
         <v>557</v>
+      </c>
+      <c r="E80" s="21">
+        <v>3001951</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
@@ -23563,6 +23663,9 @@
       <c r="D81" t="s">
         <v>557</v>
       </c>
+      <c r="E81" s="21">
+        <v>3001951</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="49" t="s">
@@ -23576,6 +23679,9 @@
       </c>
       <c r="D82" t="s">
         <v>557</v>
+      </c>
+      <c r="E82" s="21">
+        <v>3001951</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
@@ -23633,7 +23739,7 @@
   </sheetPr>
   <dimension ref="A1:F397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
+    <sheetView topLeftCell="A287" workbookViewId="0">
       <selection activeCell="F301" sqref="F301"/>
     </sheetView>
   </sheetViews>
@@ -23647,22 +23753,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="51" t="s">
         <v>51</v>
       </c>
     </row>
@@ -29348,7 +29454,7 @@
       <c r="E298" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="F298" s="56" t="s">
+      <c r="F298" s="52" t="s">
         <v>477</v>
       </c>
     </row>
@@ -30177,6 +30283,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="a1bbf4fc-2070-4842-8cf2-c42346818ea9" xsi:nil="true"/>
@@ -30185,15 +30300,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30440,20 +30546,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71C3BF75-E265-495B-A1EF-9F0F8014FF62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C286B8F-44DD-46A1-8664-5B3AFC40D364}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="a1bbf4fc-2070-4842-8cf2-c42346818ea9"/>
     <ds:schemaRef ds:uri="d41b7399-51ed-4fce-9e89-79a41c55ed41"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71C3BF75-E265-495B-A1EF-9F0F8014FF62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
